--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -512,9 +512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -575,14 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -592,44 +584,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +612,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,8 +634,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,14 +698,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -713,7 +713,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,85 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,13 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,31 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +825,114 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1106,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1121,50 +1130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1176,6 +1141,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,9 +1171,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,137 +1221,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,6 +1594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1648,14 +1651,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,98 +2181,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.44166666666667" style="132" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" style="133" customWidth="1"/>
+    <col min="1" max="1" width="7.44166666666667" style="134" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="135" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
-    <col min="5" max="6" width="9" style="134"/>
+    <col min="5" max="6" width="9" style="136"/>
     <col min="7" max="7" width="16.2166666666667" customWidth="1"/>
     <col min="8" max="8" width="18.4416666666667" customWidth="1"/>
-    <col min="9" max="11" width="16.2166666666667" style="133" customWidth="1"/>
-    <col min="12" max="12" width="9" style="135"/>
+    <col min="9" max="11" width="16.2166666666667" style="135" customWidth="1"/>
+    <col min="12" max="12" width="9" style="137"/>
     <col min="13" max="13" width="6.66666666666667" customWidth="1"/>
     <col min="14" max="43" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="61.5" customHeight="1" spans="1:11">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-    </row>
-    <row r="2" s="127" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
-      <c r="A2" s="137" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+    </row>
+    <row r="2" s="129" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138" t="s">
+      <c r="F2" s="139"/>
+      <c r="G2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="140" t="s">
+      <c r="K2" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="133"/>
-    </row>
-    <row r="3" s="128" customFormat="1" spans="1:12">
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+    </row>
+    <row r="3" s="130" customFormat="1" spans="1:12">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2289,13 +2295,13 @@
         <f>SUM(G3:G8)</f>
         <v>66.5</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
       <c r="L3" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="128" customFormat="1" spans="1:13">
+    <row r="4" s="130" customFormat="1" spans="1:13">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -2309,18 +2315,18 @@
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="143">
+      <c r="J4" s="145">
         <v>43217</v>
       </c>
-      <c r="K4" s="143">
+      <c r="K4" s="145">
         <v>43222</v>
       </c>
       <c r="L4" s="48"/>
-      <c r="M4" s="128" t="s">
+      <c r="M4" s="130" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="128" customFormat="1" spans="1:12">
+    <row r="5" s="130" customFormat="1" spans="1:12">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -2336,15 +2342,15 @@
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="143">
+      <c r="J5" s="145">
         <v>43223</v>
       </c>
-      <c r="K5" s="143">
+      <c r="K5" s="145">
         <v>43223</v>
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" s="128" customFormat="1" spans="1:12">
+    <row r="6" s="130" customFormat="1" spans="1:12">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -2358,15 +2364,15 @@
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="143">
+      <c r="J6" s="145">
         <v>43231</v>
       </c>
-      <c r="K6" s="143">
+      <c r="K6" s="145">
         <v>43231</v>
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" s="128" customFormat="1" spans="1:12">
+    <row r="7" s="130" customFormat="1" spans="1:12">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2380,15 +2386,15 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="143">
+      <c r="J7" s="145">
         <v>43227</v>
       </c>
-      <c r="K7" s="143">
+      <c r="K7" s="145">
         <v>43230</v>
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" s="128" customFormat="1" spans="1:12">
+    <row r="8" s="130" customFormat="1" spans="1:12">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -2402,15 +2408,15 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="143">
+      <c r="J8" s="145">
         <v>43224</v>
       </c>
-      <c r="K8" s="143">
+      <c r="K8" s="145">
         <v>43224</v>
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" s="128" customFormat="1" spans="1:12">
+    <row r="9" s="130" customFormat="1" spans="1:12">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -2433,17 +2439,17 @@
         <f>SUM(G9:G16)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="144">
+      <c r="J9" s="146">
         <v>43206</v>
       </c>
-      <c r="K9" s="144">
+      <c r="K9" s="146">
         <v>43206</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="128" customFormat="1" spans="1:12">
+    <row r="10" s="130" customFormat="1" spans="1:12">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -2457,11 +2463,11 @@
         <v>25</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
       <c r="L10" s="53"/>
     </row>
-    <row r="11" s="128" customFormat="1" spans="1:12">
+    <row r="11" s="130" customFormat="1" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -2475,15 +2481,15 @@
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="144">
+      <c r="J11" s="146">
         <v>43207</v>
       </c>
-      <c r="K11" s="144">
+      <c r="K11" s="146">
         <v>43207</v>
       </c>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" s="128" customFormat="1" spans="1:12">
+    <row r="12" s="130" customFormat="1" spans="1:12">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -2497,15 +2503,15 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="144">
+      <c r="J12" s="146">
         <v>43206</v>
       </c>
-      <c r="K12" s="144">
+      <c r="K12" s="146">
         <v>43206</v>
       </c>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" s="128" customFormat="1" spans="1:12">
+    <row r="13" s="130" customFormat="1" spans="1:12">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="19" t="s">
@@ -2519,11 +2525,11 @@
         <v>29</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" s="128" customFormat="1" spans="1:12">
+    <row r="14" s="130" customFormat="1" spans="1:12">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
@@ -2537,11 +2543,11 @@
         <v>29</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" s="128" customFormat="1" spans="1:12">
+    <row r="15" s="130" customFormat="1" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="19" t="s">
@@ -2555,11 +2561,11 @@
         <v>29</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="53"/>
     </row>
-    <row r="16" s="128" customFormat="1" spans="1:12">
+    <row r="16" s="130" customFormat="1" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="19" t="s">
@@ -2573,11 +2579,11 @@
         <v>29</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" s="128" customFormat="1" spans="1:12">
+    <row r="17" s="130" customFormat="1" spans="1:12">
       <c r="A17" s="22">
         <v>3</v>
       </c>
@@ -2595,7 +2601,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" s="128" customFormat="1" spans="1:12">
+    <row r="18" s="130" customFormat="1" spans="1:12">
       <c r="A18" s="20">
         <v>4</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" s="128" customFormat="1" spans="1:12">
+    <row r="19" s="130" customFormat="1" spans="1:12">
       <c r="A19" s="12">
         <v>5</v>
       </c>
@@ -2636,17 +2642,17 @@
         <f>SUM(G19:G70)</f>
         <v>166</v>
       </c>
-      <c r="J19" s="143">
+      <c r="J19" s="145">
         <v>43189</v>
       </c>
-      <c r="K19" s="143">
+      <c r="K19" s="145">
         <v>43189</v>
       </c>
       <c r="L19" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" s="128" customFormat="1" spans="1:12">
+    <row r="20" s="130" customFormat="1" spans="1:12">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
@@ -2662,13 +2668,13 @@
         <v>39</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="128" customFormat="1" spans="1:12">
+    <row r="21" s="130" customFormat="1" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
@@ -2684,13 +2690,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" s="128" customFormat="1" spans="1:12">
+    <row r="22" s="130" customFormat="1" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="24" t="s">
@@ -2706,13 +2712,13 @@
         <v>13</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
       <c r="L22" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" s="128" customFormat="1" spans="1:12">
+    <row r="23" s="130" customFormat="1" spans="1:12">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="24" t="s">
@@ -2728,13 +2734,13 @@
         <v>39</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" s="128" customFormat="1" spans="1:12">
+    <row r="24" s="130" customFormat="1" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="25" t="s">
@@ -2750,13 +2756,13 @@
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="128" customFormat="1" spans="1:12">
+    <row r="25" s="130" customFormat="1" spans="1:12">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="29"/>
@@ -2772,11 +2778,11 @@
         <v>45</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
       <c r="L25" s="53"/>
     </row>
-    <row r="26" s="128" customFormat="1" spans="1:12">
+    <row r="26" s="130" customFormat="1" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="29"/>
@@ -2790,11 +2796,11 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
       <c r="L26" s="53"/>
     </row>
-    <row r="27" s="128" customFormat="1" spans="1:13">
+    <row r="27" s="130" customFormat="1" spans="1:13">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="29"/>
@@ -2808,18 +2814,18 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="149">
+      <c r="J27" s="151">
         <v>43193</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="151">
         <v>43199</v>
       </c>
       <c r="L27" s="53"/>
-      <c r="M27" s="128" t="s">
+      <c r="M27" s="130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" s="128" customFormat="1" spans="1:12">
+    <row r="28" s="130" customFormat="1" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="29"/>
@@ -2833,11 +2839,11 @@
         <v>29</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
       <c r="L28" s="53"/>
     </row>
-    <row r="29" s="128" customFormat="1" spans="1:12">
+    <row r="29" s="130" customFormat="1" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="29"/>
@@ -2851,11 +2857,11 @@
         <v>29</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
       <c r="L29" s="53"/>
     </row>
-    <row r="30" s="128" customFormat="1" spans="1:12">
+    <row r="30" s="130" customFormat="1" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="29"/>
@@ -2869,11 +2875,11 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
       <c r="L30" s="53"/>
     </row>
-    <row r="31" s="128" customFormat="1" spans="1:12">
+    <row r="31" s="130" customFormat="1" spans="1:12">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="25" t="s">
@@ -2889,13 +2895,13 @@
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" s="128" customFormat="1" spans="1:12">
+    <row r="32" s="130" customFormat="1" spans="1:12">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="29"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
       <c r="L32" s="53"/>
     </row>
-    <row r="33" s="128" customFormat="1" spans="1:12">
+    <row r="33" s="130" customFormat="1" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="29"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
       <c r="L33" s="53"/>
     </row>
-    <row r="34" s="128" customFormat="1" spans="1:12">
+    <row r="34" s="130" customFormat="1" spans="1:12">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="29"/>
@@ -2945,15 +2951,15 @@
         <v>29</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="149">
+      <c r="J34" s="151">
         <v>43187</v>
       </c>
-      <c r="K34" s="149">
+      <c r="K34" s="151">
         <v>43192</v>
       </c>
       <c r="L34" s="53"/>
     </row>
-    <row r="35" s="128" customFormat="1" spans="1:12">
+    <row r="35" s="130" customFormat="1" spans="1:12">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="29"/>
@@ -2967,11 +2973,11 @@
         <v>29</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
       <c r="L35" s="53"/>
     </row>
-    <row r="36" s="128" customFormat="1" spans="1:12">
+    <row r="36" s="130" customFormat="1" spans="1:12">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="29"/>
@@ -2985,11 +2991,11 @@
         <v>29</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" s="128" customFormat="1" spans="1:12">
+    <row r="37" s="130" customFormat="1" spans="1:12">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="29"/>
@@ -3003,11 +3009,11 @@
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
       <c r="L37" s="53"/>
     </row>
-    <row r="38" s="128" customFormat="1" spans="1:12">
+    <row r="38" s="130" customFormat="1" spans="1:12">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="29"/>
@@ -3021,11 +3027,11 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
       <c r="L38" s="54"/>
     </row>
-    <row r="39" s="128" customFormat="1" spans="1:12">
+    <row r="39" s="130" customFormat="1" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
@@ -3041,13 +3047,13 @@
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" s="128" customFormat="1" spans="1:12">
+    <row r="40" s="130" customFormat="1" spans="1:12">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -3059,11 +3065,11 @@
       <c r="G40" s="32"/>
       <c r="H40" s="14"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
       <c r="L40" s="65"/>
     </row>
-    <row r="41" s="128" customFormat="1" spans="1:12">
+    <row r="41" s="130" customFormat="1" spans="1:12">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -3075,11 +3081,11 @@
       <c r="G41" s="32"/>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
       <c r="L41" s="65"/>
     </row>
-    <row r="42" s="128" customFormat="1" spans="1:12">
+    <row r="42" s="130" customFormat="1" spans="1:12">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -3091,15 +3097,15 @@
       <c r="G42" s="32"/>
       <c r="H42" s="14"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="149">
+      <c r="J42" s="151">
         <v>43192</v>
       </c>
-      <c r="K42" s="149">
+      <c r="K42" s="151">
         <v>43193</v>
       </c>
       <c r="L42" s="65"/>
     </row>
-    <row r="43" s="128" customFormat="1" spans="1:12">
+    <row r="43" s="130" customFormat="1" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -3111,11 +3117,11 @@
       <c r="G43" s="32"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
       <c r="L43" s="65"/>
     </row>
-    <row r="44" s="128" customFormat="1" spans="1:12">
+    <row r="44" s="130" customFormat="1" spans="1:12">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -3127,11 +3133,11 @@
       <c r="G44" s="32"/>
       <c r="H44" s="14"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
       <c r="L44" s="65"/>
     </row>
-    <row r="45" s="128" customFormat="1" spans="1:12">
+    <row r="45" s="130" customFormat="1" spans="1:12">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -3143,11 +3149,11 @@
       <c r="G45" s="33"/>
       <c r="H45" s="14"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="150"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
       <c r="L45" s="68"/>
     </row>
-    <row r="46" s="128" customFormat="1" spans="1:12">
+    <row r="46" s="130" customFormat="1" spans="1:12">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13" t="s">
@@ -3161,17 +3167,17 @@
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="149">
+      <c r="J46" s="151">
         <v>43199</v>
       </c>
-      <c r="K46" s="149">
+      <c r="K46" s="151">
         <v>43199</v>
       </c>
-      <c r="L46" s="97" t="s">
+      <c r="L46" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" s="128" customFormat="1" spans="1:13">
+    <row r="47" s="130" customFormat="1" spans="1:13">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="24" t="s">
@@ -3185,20 +3191,20 @@
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="143">
+      <c r="J47" s="145">
         <v>43193</v>
       </c>
-      <c r="K47" s="143">
+      <c r="K47" s="145">
         <v>43200</v>
       </c>
       <c r="L47" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="128" t="s">
+      <c r="M47" s="130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" s="128" customFormat="1" spans="1:12">
+    <row r="48" s="130" customFormat="1" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13" t="s">
@@ -3212,17 +3218,17 @@
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="149">
+      <c r="J48" s="151">
         <v>43200</v>
       </c>
-      <c r="K48" s="149">
+      <c r="K48" s="151">
         <v>43200</v>
       </c>
-      <c r="L48" s="97" t="s">
+      <c r="L48" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" s="128" customFormat="1" spans="1:12">
+    <row r="49" s="130" customFormat="1" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
@@ -3238,13 +3244,13 @@
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="149"/>
       <c r="L49" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" s="128" customFormat="1" spans="1:12">
+    <row r="50" s="130" customFormat="1" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -3256,11 +3262,11 @@
       <c r="G50" s="32"/>
       <c r="H50" s="14"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="150"/>
       <c r="L50" s="65"/>
     </row>
-    <row r="51" s="128" customFormat="1" spans="1:12">
+    <row r="51" s="130" customFormat="1" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -3272,11 +3278,11 @@
       <c r="G51" s="32"/>
       <c r="H51" s="14"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
       <c r="L51" s="65"/>
     </row>
-    <row r="52" s="128" customFormat="1" spans="1:12">
+    <row r="52" s="130" customFormat="1" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -3288,11 +3294,11 @@
       <c r="G52" s="32"/>
       <c r="H52" s="14"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="148"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
       <c r="L52" s="65"/>
     </row>
-    <row r="53" s="128" customFormat="1" spans="1:12">
+    <row r="53" s="130" customFormat="1" spans="1:12">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -3304,15 +3310,15 @@
       <c r="G53" s="32"/>
       <c r="H53" s="14"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="143">
+      <c r="J53" s="145">
         <v>43200</v>
       </c>
-      <c r="K53" s="143">
+      <c r="K53" s="145">
         <v>43203</v>
       </c>
       <c r="L53" s="65"/>
     </row>
-    <row r="54" s="128" customFormat="1" spans="1:12">
+    <row r="54" s="130" customFormat="1" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -3324,11 +3330,11 @@
       <c r="G54" s="32"/>
       <c r="H54" s="14"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="148"/>
-      <c r="K54" s="148"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
       <c r="L54" s="65"/>
     </row>
-    <row r="55" s="128" customFormat="1" spans="1:12">
+    <row r="55" s="130" customFormat="1" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -3340,11 +3346,11 @@
       <c r="G55" s="32"/>
       <c r="H55" s="14"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" s="128" customFormat="1" spans="1:12">
+    <row r="56" s="130" customFormat="1" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -3356,11 +3362,11 @@
       <c r="G56" s="32"/>
       <c r="H56" s="14"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="148"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" s="128" customFormat="1" spans="1:12">
+    <row r="57" s="130" customFormat="1" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -3372,11 +3378,11 @@
       <c r="G57" s="33"/>
       <c r="H57" s="14"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
       <c r="L57" s="68"/>
     </row>
-    <row r="58" s="128" customFormat="1" spans="1:12">
+    <row r="58" s="130" customFormat="1" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -3390,17 +3396,17 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="143">
+      <c r="J58" s="145">
         <v>43200</v>
       </c>
-      <c r="K58" s="143">
+      <c r="K58" s="145">
         <v>43200</v>
       </c>
-      <c r="L58" s="97" t="s">
+      <c r="L58" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" s="128" customFormat="1" spans="1:12">
+    <row r="59" s="130" customFormat="1" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13" t="s">
@@ -3414,17 +3420,17 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="143">
+      <c r="J59" s="145">
         <v>43206</v>
       </c>
-      <c r="K59" s="143">
+      <c r="K59" s="145">
         <v>43206</v>
       </c>
       <c r="L59" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" s="128" customFormat="1" spans="1:12">
+    <row r="60" s="130" customFormat="1" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
@@ -3438,17 +3444,17 @@
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="143">
+      <c r="J60" s="145">
         <v>43203</v>
       </c>
-      <c r="K60" s="143">
+      <c r="K60" s="145">
         <v>43203</v>
       </c>
       <c r="L60" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" s="128" customFormat="1" spans="1:12">
+    <row r="61" s="130" customFormat="1" spans="1:12">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
@@ -3462,17 +3468,17 @@
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="143">
+      <c r="J61" s="145">
         <v>43208</v>
       </c>
-      <c r="K61" s="143">
+      <c r="K61" s="145">
         <v>43208</v>
       </c>
       <c r="L61" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" s="128" customFormat="1" spans="1:12">
+    <row r="62" s="130" customFormat="1" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13" t="s">
@@ -3486,17 +3492,17 @@
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="143">
+      <c r="J62" s="145">
         <v>43207</v>
       </c>
-      <c r="K62" s="143">
+      <c r="K62" s="145">
         <v>43207</v>
       </c>
       <c r="L62" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" s="128" customFormat="1" spans="1:12">
+    <row r="63" s="130" customFormat="1" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13" t="s">
@@ -3510,17 +3516,17 @@
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="143">
+      <c r="J63" s="145">
         <v>43201</v>
       </c>
-      <c r="K63" s="143">
+      <c r="K63" s="145">
         <v>43201</v>
       </c>
-      <c r="L63" s="97" t="s">
+      <c r="L63" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" s="128" customFormat="1" spans="1:12">
+    <row r="64" s="130" customFormat="1" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13" t="s">
@@ -3534,17 +3540,17 @@
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="143">
+      <c r="J64" s="145">
         <v>43201</v>
       </c>
-      <c r="K64" s="143">
+      <c r="K64" s="145">
         <v>43201</v>
       </c>
-      <c r="L64" s="97" t="s">
+      <c r="L64" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" s="128" customFormat="1" spans="1:12">
+    <row r="65" s="130" customFormat="1" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13" t="s">
@@ -3558,17 +3564,17 @@
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="143">
+      <c r="J65" s="145">
         <v>43208</v>
       </c>
-      <c r="K65" s="143">
+      <c r="K65" s="145">
         <v>43208</v>
       </c>
       <c r="L65" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" s="128" customFormat="1" spans="1:12">
+    <row r="66" s="130" customFormat="1" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13" t="s">
@@ -3582,17 +3588,17 @@
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="143">
+      <c r="J66" s="145">
         <v>43209</v>
       </c>
-      <c r="K66" s="143">
+      <c r="K66" s="145">
         <v>43209</v>
       </c>
       <c r="L66" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" s="128" customFormat="1" spans="1:12">
+    <row r="67" s="130" customFormat="1" spans="1:12">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
@@ -3606,17 +3612,17 @@
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="143">
+      <c r="J67" s="145">
         <v>43213</v>
       </c>
-      <c r="K67" s="143">
+      <c r="K67" s="145">
         <v>43215</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" s="128" customFormat="1" spans="1:12">
+    <row r="68" s="130" customFormat="1" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="13" t="s">
@@ -3632,17 +3638,17 @@
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="151">
+      <c r="J68" s="153">
         <v>43210</v>
       </c>
-      <c r="K68" s="151">
+      <c r="K68" s="153">
         <v>43210</v>
       </c>
       <c r="L68" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" s="128" customFormat="1" spans="1:12">
+    <row r="69" s="130" customFormat="1" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -3654,11 +3660,11 @@
       <c r="G69" s="32"/>
       <c r="H69" s="14"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
+      <c r="J69" s="151"/>
+      <c r="K69" s="151"/>
       <c r="L69" s="65"/>
     </row>
-    <row r="70" s="128" customFormat="1" spans="1:12">
+    <row r="70" s="130" customFormat="1" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -3670,11 +3676,11 @@
       <c r="G70" s="33"/>
       <c r="H70" s="14"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" s="128" customFormat="1" spans="1:12">
+    <row r="71" s="130" customFormat="1" spans="1:12">
       <c r="A71" s="16">
         <v>6</v>
       </c>
@@ -3697,13 +3703,13 @@
         <f>SUM(G71:G87)</f>
         <v>21</v>
       </c>
-      <c r="J71" s="142"/>
-      <c r="K71" s="142"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
       <c r="L71" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" s="128" customFormat="1" spans="1:12">
+    <row r="72" s="130" customFormat="1" spans="1:12">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17" t="s">
@@ -3721,13 +3727,13 @@
         <v>13</v>
       </c>
       <c r="I72" s="16"/>
-      <c r="J72" s="153"/>
-      <c r="K72" s="153"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
       <c r="L72" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" s="128" customFormat="1" spans="1:12">
+    <row r="73" s="130" customFormat="1" spans="1:12">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -3739,11 +3745,11 @@
       <c r="G73" s="80"/>
       <c r="H73" s="81"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="154"/>
-      <c r="K73" s="154"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="156"/>
       <c r="L73" s="68"/>
     </row>
-    <row r="74" s="128" customFormat="1" spans="1:12">
+    <row r="74" s="130" customFormat="1" spans="1:12">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
@@ -3759,13 +3765,13 @@
         <v>13</v>
       </c>
       <c r="I74" s="16"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
       <c r="L74" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" s="128" customFormat="1" spans="1:12">
+    <row r="75" s="130" customFormat="1" spans="1:12">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
@@ -3781,13 +3787,13 @@
         <v>13</v>
       </c>
       <c r="I75" s="16"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="142"/>
+      <c r="J75" s="144"/>
+      <c r="K75" s="144"/>
       <c r="L75" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" s="128" customFormat="1" spans="1:12">
+    <row r="76" s="130" customFormat="1" spans="1:12">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
@@ -3803,13 +3809,13 @@
         <v>13</v>
       </c>
       <c r="I76" s="16"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="142"/>
+      <c r="J76" s="144"/>
+      <c r="K76" s="144"/>
       <c r="L76" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" s="128" customFormat="1" spans="1:12">
+    <row r="77" s="130" customFormat="1" spans="1:12">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17" t="s">
@@ -3827,13 +3833,13 @@
         <v>95</v>
       </c>
       <c r="I77" s="16"/>
-      <c r="J77" s="153"/>
-      <c r="K77" s="153"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="155"/>
       <c r="L77" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" s="128" customFormat="1" spans="1:12">
+    <row r="78" s="130" customFormat="1" spans="1:12">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
@@ -3845,11 +3851,11 @@
       <c r="G78" s="82"/>
       <c r="H78" s="83"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="155"/>
-      <c r="K78" s="155"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
       <c r="L78" s="65"/>
     </row>
-    <row r="79" s="128" customFormat="1" spans="1:12">
+    <row r="79" s="130" customFormat="1" spans="1:12">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -3861,11 +3867,11 @@
       <c r="G79" s="82"/>
       <c r="H79" s="83"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="155"/>
-      <c r="K79" s="155"/>
+      <c r="J79" s="157"/>
+      <c r="K79" s="157"/>
       <c r="L79" s="65"/>
     </row>
-    <row r="80" s="128" customFormat="1" spans="1:12">
+    <row r="80" s="130" customFormat="1" spans="1:12">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -3877,11 +3883,11 @@
       <c r="G80" s="80"/>
       <c r="H80" s="81"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="154"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
       <c r="L80" s="68"/>
     </row>
-    <row r="81" s="128" customFormat="1" spans="1:12">
+    <row r="81" s="130" customFormat="1" spans="1:12">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="17" t="s">
@@ -3897,13 +3903,13 @@
         <v>13</v>
       </c>
       <c r="I81" s="16"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="142"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="144"/>
       <c r="L81" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" s="128" customFormat="1" spans="1:12">
+    <row r="82" s="130" customFormat="1" spans="1:12">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17" t="s">
@@ -3919,13 +3925,13 @@
         <v>13</v>
       </c>
       <c r="I82" s="16"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="142"/>
+      <c r="J82" s="144"/>
+      <c r="K82" s="144"/>
       <c r="L82" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" s="128" customFormat="1" spans="1:12">
+    <row r="83" s="130" customFormat="1" spans="1:12">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17" t="s">
@@ -3941,13 +3947,13 @@
         <v>13</v>
       </c>
       <c r="I83" s="16"/>
-      <c r="J83" s="142"/>
-      <c r="K83" s="142"/>
+      <c r="J83" s="144"/>
+      <c r="K83" s="144"/>
       <c r="L83" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" s="128" customFormat="1" spans="1:12">
+    <row r="84" s="130" customFormat="1" spans="1:12">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17" t="s">
@@ -3961,11 +3967,11 @@
         <v>29</v>
       </c>
       <c r="I84" s="16"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="156"/>
+      <c r="J84" s="158"/>
+      <c r="K84" s="158"/>
       <c r="L84" s="56"/>
     </row>
-    <row r="85" s="128" customFormat="1" spans="1:12">
+    <row r="85" s="130" customFormat="1" spans="1:12">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17" t="s">
@@ -3979,17 +3985,17 @@
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="143">
+      <c r="J85" s="145">
         <v>43202</v>
       </c>
-      <c r="K85" s="143">
+      <c r="K85" s="145">
         <v>43202</v>
       </c>
-      <c r="L85" s="97" t="s">
+      <c r="L85" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" s="128" customFormat="1" spans="1:12">
+    <row r="86" s="130" customFormat="1" spans="1:12">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17" t="s">
@@ -4003,17 +4009,17 @@
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="143">
+      <c r="J86" s="145">
         <v>43202</v>
       </c>
-      <c r="K86" s="143">
+      <c r="K86" s="145">
         <v>43202</v>
       </c>
-      <c r="L86" s="97" t="s">
+      <c r="L86" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" s="128" customFormat="1" spans="1:12">
+    <row r="87" s="130" customFormat="1" spans="1:12">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17" t="s">
@@ -4027,8 +4033,8 @@
         <v>29</v>
       </c>
       <c r="I87" s="16"/>
-      <c r="J87" s="156"/>
-      <c r="K87" s="156"/>
+      <c r="J87" s="158"/>
+      <c r="K87" s="158"/>
       <c r="L87" s="56"/>
     </row>
     <row r="88" s="75" customFormat="1" spans="1:12">
@@ -4054,10 +4060,10 @@
         <f>SUM(G88:G90)</f>
         <v>7</v>
       </c>
-      <c r="J88" s="143">
+      <c r="J88" s="145">
         <v>43203</v>
       </c>
-      <c r="K88" s="143">
+      <c r="K88" s="145">
         <v>43203</v>
       </c>
       <c r="L88" s="51" t="s">
@@ -4078,10 +4084,10 @@
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="143">
+      <c r="J89" s="145">
         <v>43203</v>
       </c>
-      <c r="K89" s="143">
+      <c r="K89" s="145">
         <v>43203</v>
       </c>
       <c r="L89" s="53"/>
@@ -4100,11 +4106,11 @@
         <v>29</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="150"/>
-      <c r="K90" s="150"/>
+      <c r="J90" s="152"/>
+      <c r="K90" s="152"/>
       <c r="L90" s="54"/>
     </row>
-    <row r="91" s="129" customFormat="1" spans="1:12">
+    <row r="91" s="131" customFormat="1" spans="1:12">
       <c r="A91" s="16">
         <v>8</v>
       </c>
@@ -4121,15 +4127,15 @@
       <c r="F91" s="17"/>
       <c r="G91" s="21"/>
       <c r="H91" s="87"/>
-      <c r="I91" s="98">
+      <c r="I91" s="99">
         <f>SUM(G91:G139)</f>
         <v>0</v>
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="87"/>
-      <c r="L91" s="157"/>
-    </row>
-    <row r="92" s="130" customFormat="1" spans="1:12">
+      <c r="L91" s="159"/>
+    </row>
+    <row r="92" s="132" customFormat="1" spans="1:12">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -4140,12 +4146,12 @@
       <c r="F92" s="17"/>
       <c r="G92" s="21"/>
       <c r="H92" s="87"/>
-      <c r="I92" s="101"/>
+      <c r="I92" s="102"/>
       <c r="J92" s="87"/>
       <c r="K92" s="87"/>
-      <c r="L92" s="157"/>
-    </row>
-    <row r="93" s="130" customFormat="1" spans="1:12">
+      <c r="L92" s="159"/>
+    </row>
+    <row r="93" s="132" customFormat="1" spans="1:12">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
@@ -4156,12 +4162,12 @@
       <c r="F93" s="17"/>
       <c r="G93" s="21"/>
       <c r="H93" s="87"/>
-      <c r="I93" s="101"/>
+      <c r="I93" s="102"/>
       <c r="J93" s="87"/>
       <c r="K93" s="87"/>
-      <c r="L93" s="157"/>
-    </row>
-    <row r="94" s="130" customFormat="1" spans="1:12">
+      <c r="L93" s="159"/>
+    </row>
+    <row r="94" s="132" customFormat="1" spans="1:12">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -4172,12 +4178,12 @@
       <c r="F94" s="17"/>
       <c r="G94" s="21"/>
       <c r="H94" s="87"/>
-      <c r="I94" s="101"/>
+      <c r="I94" s="102"/>
       <c r="J94" s="87"/>
       <c r="K94" s="87"/>
-      <c r="L94" s="157"/>
-    </row>
-    <row r="95" s="130" customFormat="1" spans="1:12">
+      <c r="L94" s="159"/>
+    </row>
+    <row r="95" s="132" customFormat="1" spans="1:12">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -4188,12 +4194,12 @@
       <c r="F95" s="17"/>
       <c r="G95" s="21"/>
       <c r="H95" s="87"/>
-      <c r="I95" s="101"/>
+      <c r="I95" s="102"/>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
-      <c r="L95" s="157"/>
-    </row>
-    <row r="96" s="130" customFormat="1" spans="1:12">
+      <c r="L95" s="159"/>
+    </row>
+    <row r="96" s="132" customFormat="1" spans="1:12">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17" t="s">
@@ -4204,12 +4210,12 @@
       <c r="F96" s="16"/>
       <c r="G96" s="21"/>
       <c r="H96" s="87"/>
-      <c r="I96" s="101"/>
+      <c r="I96" s="102"/>
       <c r="J96" s="87"/>
       <c r="K96" s="87"/>
-      <c r="L96" s="157"/>
-    </row>
-    <row r="97" s="131" customFormat="1" spans="1:12">
+      <c r="L96" s="159"/>
+    </row>
+    <row r="97" s="133" customFormat="1" spans="1:12">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17" t="s">
@@ -4220,12 +4226,12 @@
       <c r="F97" s="16"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="101"/>
-      <c r="J97" s="158"/>
-      <c r="K97" s="158"/>
-      <c r="L97" s="90"/>
-    </row>
-    <row r="98" s="130" customFormat="1" spans="1:12">
+      <c r="I97" s="102"/>
+      <c r="J97" s="160"/>
+      <c r="K97" s="160"/>
+      <c r="L97" s="91"/>
+    </row>
+    <row r="98" s="132" customFormat="1" spans="1:12">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17" t="s">
@@ -4236,12 +4242,12 @@
       <c r="F98" s="16"/>
       <c r="G98" s="21"/>
       <c r="H98" s="87"/>
-      <c r="I98" s="101"/>
+      <c r="I98" s="102"/>
       <c r="J98" s="87"/>
       <c r="K98" s="87"/>
-      <c r="L98" s="157"/>
-    </row>
-    <row r="99" s="130" customFormat="1" spans="1:12">
+      <c r="L98" s="159"/>
+    </row>
+    <row r="99" s="132" customFormat="1" spans="1:12">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="17" t="s">
@@ -4254,12 +4260,12 @@
       <c r="F99" s="17"/>
       <c r="G99" s="21"/>
       <c r="H99" s="87"/>
-      <c r="I99" s="101"/>
+      <c r="I99" s="102"/>
       <c r="J99" s="87"/>
       <c r="K99" s="87"/>
-      <c r="L99" s="157"/>
-    </row>
-    <row r="100" s="130" customFormat="1" spans="1:12">
+      <c r="L99" s="159"/>
+    </row>
+    <row r="100" s="132" customFormat="1" spans="1:12">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
@@ -4270,12 +4276,12 @@
       <c r="F100" s="17"/>
       <c r="G100" s="21"/>
       <c r="H100" s="87"/>
-      <c r="I100" s="101"/>
+      <c r="I100" s="102"/>
       <c r="J100" s="87"/>
       <c r="K100" s="87"/>
-      <c r="L100" s="157"/>
-    </row>
-    <row r="101" s="130" customFormat="1" spans="1:12">
+      <c r="L100" s="159"/>
+    </row>
+    <row r="101" s="132" customFormat="1" spans="1:12">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -4286,12 +4292,12 @@
       <c r="F101" s="17"/>
       <c r="G101" s="21"/>
       <c r="H101" s="87"/>
-      <c r="I101" s="101"/>
+      <c r="I101" s="102"/>
       <c r="J101" s="87"/>
       <c r="K101" s="87"/>
-      <c r="L101" s="157"/>
-    </row>
-    <row r="102" s="130" customFormat="1" spans="1:12">
+      <c r="L101" s="159"/>
+    </row>
+    <row r="102" s="132" customFormat="1" spans="1:12">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
@@ -4302,12 +4308,12 @@
       <c r="F102" s="17"/>
       <c r="G102" s="21"/>
       <c r="H102" s="87"/>
-      <c r="I102" s="101"/>
+      <c r="I102" s="102"/>
       <c r="J102" s="87"/>
       <c r="K102" s="87"/>
-      <c r="L102" s="157"/>
-    </row>
-    <row r="103" s="130" customFormat="1" spans="1:12">
+      <c r="L102" s="159"/>
+    </row>
+    <row r="103" s="132" customFormat="1" spans="1:12">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -4318,12 +4324,12 @@
       <c r="F103" s="17"/>
       <c r="G103" s="21"/>
       <c r="H103" s="87"/>
-      <c r="I103" s="101"/>
+      <c r="I103" s="102"/>
       <c r="J103" s="87"/>
       <c r="K103" s="87"/>
-      <c r="L103" s="157"/>
-    </row>
-    <row r="104" s="130" customFormat="1" spans="1:12">
+      <c r="L103" s="159"/>
+    </row>
+    <row r="104" s="132" customFormat="1" spans="1:12">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -4334,12 +4340,12 @@
       <c r="F104" s="17"/>
       <c r="G104" s="21"/>
       <c r="H104" s="87"/>
-      <c r="I104" s="101"/>
+      <c r="I104" s="102"/>
       <c r="J104" s="87"/>
       <c r="K104" s="87"/>
-      <c r="L104" s="157"/>
-    </row>
-    <row r="105" s="130" customFormat="1" spans="1:12">
+      <c r="L104" s="159"/>
+    </row>
+    <row r="105" s="132" customFormat="1" spans="1:12">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17" t="s">
@@ -4350,12 +4356,12 @@
       <c r="F105" s="17"/>
       <c r="G105" s="21"/>
       <c r="H105" s="87"/>
-      <c r="I105" s="101"/>
+      <c r="I105" s="102"/>
       <c r="J105" s="87"/>
       <c r="K105" s="87"/>
-      <c r="L105" s="157"/>
-    </row>
-    <row r="106" s="130" customFormat="1" spans="1:12">
+      <c r="L105" s="159"/>
+    </row>
+    <row r="106" s="132" customFormat="1" spans="1:12">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17" t="s">
@@ -4366,12 +4372,12 @@
       <c r="F106" s="17"/>
       <c r="G106" s="21"/>
       <c r="H106" s="87"/>
-      <c r="I106" s="101"/>
+      <c r="I106" s="102"/>
       <c r="J106" s="87"/>
       <c r="K106" s="87"/>
-      <c r="L106" s="157"/>
-    </row>
-    <row r="107" s="130" customFormat="1" spans="1:12">
+      <c r="L106" s="159"/>
+    </row>
+    <row r="107" s="132" customFormat="1" spans="1:12">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17" t="s">
@@ -4384,12 +4390,12 @@
       <c r="F107" s="17"/>
       <c r="G107" s="21"/>
       <c r="H107" s="87"/>
-      <c r="I107" s="101"/>
+      <c r="I107" s="102"/>
       <c r="J107" s="87"/>
       <c r="K107" s="87"/>
-      <c r="L107" s="157"/>
-    </row>
-    <row r="108" s="130" customFormat="1" spans="1:12">
+      <c r="L107" s="159"/>
+    </row>
+    <row r="108" s="132" customFormat="1" spans="1:12">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="17"/>
@@ -4400,158 +4406,158 @@
       <c r="F108" s="17"/>
       <c r="G108" s="21"/>
       <c r="H108" s="87"/>
-      <c r="I108" s="101"/>
+      <c r="I108" s="102"/>
       <c r="J108" s="87"/>
       <c r="K108" s="87"/>
-      <c r="L108" s="157"/>
-    </row>
-    <row r="109" s="130" customFormat="1" spans="1:12">
+      <c r="L108" s="159"/>
+    </row>
+    <row r="109" s="132" customFormat="1" spans="1:12">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="17"/>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F109" s="90"/>
+      <c r="F109" s="91"/>
       <c r="G109" s="21"/>
       <c r="H109" s="87"/>
-      <c r="I109" s="101"/>
+      <c r="I109" s="102"/>
       <c r="J109" s="87"/>
       <c r="K109" s="87"/>
-      <c r="L109" s="157"/>
-    </row>
-    <row r="110" s="130" customFormat="1" spans="1:12">
+      <c r="L109" s="159"/>
+    </row>
+    <row r="110" s="132" customFormat="1" spans="1:12">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="90" t="s">
+      <c r="E110" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="90"/>
+      <c r="F110" s="91"/>
       <c r="G110" s="21"/>
       <c r="H110" s="87"/>
-      <c r="I110" s="101"/>
+      <c r="I110" s="102"/>
       <c r="J110" s="87"/>
       <c r="K110" s="87"/>
-      <c r="L110" s="157"/>
-    </row>
-    <row r="111" s="130" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
+      <c r="L110" s="159"/>
+    </row>
+    <row r="111" s="132" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="F111" s="90"/>
+      <c r="F111" s="91"/>
       <c r="G111" s="21"/>
       <c r="H111" s="87"/>
-      <c r="I111" s="101"/>
+      <c r="I111" s="102"/>
       <c r="J111" s="87"/>
       <c r="K111" s="87"/>
-      <c r="L111" s="157"/>
-    </row>
-    <row r="112" s="130" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
+      <c r="L111" s="159"/>
+    </row>
+    <row r="112" s="132" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="90" t="s">
+      <c r="E112" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="90"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="21"/>
       <c r="H112" s="87"/>
-      <c r="I112" s="101"/>
+      <c r="I112" s="102"/>
       <c r="J112" s="87"/>
       <c r="K112" s="87"/>
-      <c r="L112" s="157"/>
-    </row>
-    <row r="113" s="130" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L112" s="159"/>
+    </row>
+    <row r="113" s="132" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
-      <c r="E113" s="90" t="s">
+      <c r="E113" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="F113" s="90"/>
+      <c r="F113" s="91"/>
       <c r="G113" s="21"/>
       <c r="H113" s="87"/>
-      <c r="I113" s="101"/>
+      <c r="I113" s="102"/>
       <c r="J113" s="87"/>
       <c r="K113" s="87"/>
-      <c r="L113" s="157"/>
-    </row>
-    <row r="114" s="130" customFormat="1" ht="13.95" customHeight="1" spans="1:12">
+      <c r="L113" s="159"/>
+    </row>
+    <row r="114" s="132" customFormat="1" ht="13.95" customHeight="1" spans="1:12">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
-      <c r="E114" s="90" t="s">
+      <c r="E114" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="90"/>
+      <c r="F114" s="91"/>
       <c r="G114" s="21"/>
       <c r="H114" s="87"/>
-      <c r="I114" s="101"/>
+      <c r="I114" s="102"/>
       <c r="J114" s="87"/>
       <c r="K114" s="87"/>
-      <c r="L114" s="157"/>
-    </row>
-    <row r="115" s="130" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L114" s="159"/>
+    </row>
+    <row r="115" s="132" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="F115" s="90"/>
+      <c r="F115" s="91"/>
       <c r="G115" s="21"/>
       <c r="H115" s="87"/>
-      <c r="I115" s="101"/>
+      <c r="I115" s="102"/>
       <c r="J115" s="87"/>
       <c r="K115" s="87"/>
-      <c r="L115" s="157"/>
-    </row>
-    <row r="116" s="130" customFormat="1" ht="31.95" customHeight="1" spans="1:12">
+      <c r="L115" s="159"/>
+    </row>
+    <row r="116" s="132" customFormat="1" ht="31.95" customHeight="1" spans="1:12">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="90" t="s">
+      <c r="E116" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="F116" s="90"/>
+      <c r="F116" s="91"/>
       <c r="G116" s="21"/>
       <c r="H116" s="87"/>
-      <c r="I116" s="101"/>
+      <c r="I116" s="102"/>
       <c r="J116" s="87"/>
       <c r="K116" s="87"/>
-      <c r="L116" s="157"/>
-    </row>
-    <row r="117" s="130" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
+      <c r="L116" s="159"/>
+    </row>
+    <row r="117" s="132" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="90" t="s">
+      <c r="E117" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="F117" s="90"/>
+      <c r="F117" s="91"/>
       <c r="G117" s="21"/>
       <c r="H117" s="87"/>
-      <c r="I117" s="101"/>
+      <c r="I117" s="102"/>
       <c r="J117" s="87"/>
       <c r="K117" s="87"/>
-      <c r="L117" s="157"/>
-    </row>
-    <row r="118" s="130" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
+      <c r="L117" s="159"/>
+    </row>
+    <row r="118" s="132" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
@@ -4562,192 +4568,192 @@
       <c r="F118" s="17"/>
       <c r="G118" s="21"/>
       <c r="H118" s="87"/>
-      <c r="I118" s="101"/>
+      <c r="I118" s="102"/>
       <c r="J118" s="87"/>
       <c r="K118" s="87"/>
-      <c r="L118" s="157"/>
-    </row>
-    <row r="119" s="130" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="L118" s="159"/>
+    </row>
+    <row r="119" s="132" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="F119" s="90"/>
+      <c r="F119" s="91"/>
       <c r="G119" s="21"/>
       <c r="H119" s="87"/>
-      <c r="I119" s="101"/>
+      <c r="I119" s="102"/>
       <c r="J119" s="87"/>
       <c r="K119" s="87"/>
-      <c r="L119" s="157"/>
-    </row>
-    <row r="120" s="130" customFormat="1" ht="27" customHeight="1" spans="1:12">
+      <c r="L119" s="159"/>
+    </row>
+    <row r="120" s="132" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="90" t="s">
+      <c r="E120" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="F120" s="90"/>
+      <c r="F120" s="91"/>
       <c r="G120" s="21"/>
       <c r="H120" s="87"/>
-      <c r="I120" s="101"/>
+      <c r="I120" s="102"/>
       <c r="J120" s="87"/>
       <c r="K120" s="87"/>
-      <c r="L120" s="157"/>
-    </row>
-    <row r="121" s="130" customFormat="1" ht="49.05" customHeight="1" spans="1:12">
+      <c r="L120" s="159"/>
+    </row>
+    <row r="121" s="132" customFormat="1" ht="49.05" customHeight="1" spans="1:12">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="90"/>
+      <c r="F121" s="91"/>
       <c r="G121" s="21"/>
       <c r="H121" s="87"/>
-      <c r="I121" s="101"/>
+      <c r="I121" s="102"/>
       <c r="J121" s="87"/>
       <c r="K121" s="87"/>
-      <c r="L121" s="157"/>
-    </row>
-    <row r="122" s="130" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
+      <c r="L121" s="159"/>
+    </row>
+    <row r="122" s="132" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="90" t="s">
+      <c r="E122" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F122" s="90"/>
+      <c r="F122" s="91"/>
       <c r="G122" s="21"/>
       <c r="H122" s="87"/>
-      <c r="I122" s="101"/>
+      <c r="I122" s="102"/>
       <c r="J122" s="87"/>
       <c r="K122" s="87"/>
-      <c r="L122" s="157"/>
-    </row>
-    <row r="123" s="130" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L122" s="159"/>
+    </row>
+    <row r="123" s="132" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="F123" s="90"/>
+      <c r="F123" s="91"/>
       <c r="G123" s="21"/>
       <c r="H123" s="87"/>
-      <c r="I123" s="101"/>
+      <c r="I123" s="102"/>
       <c r="J123" s="87"/>
       <c r="K123" s="87"/>
-      <c r="L123" s="157"/>
-    </row>
-    <row r="124" s="130" customFormat="1" spans="1:12">
+      <c r="L123" s="159"/>
+    </row>
+    <row r="124" s="132" customFormat="1" spans="1:12">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D124" s="17"/>
-      <c r="E124" s="90" t="s">
+      <c r="E124" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F124" s="90"/>
+      <c r="F124" s="91"/>
       <c r="G124" s="21"/>
       <c r="H124" s="87"/>
-      <c r="I124" s="101"/>
+      <c r="I124" s="102"/>
       <c r="J124" s="87"/>
       <c r="K124" s="87"/>
-      <c r="L124" s="157"/>
-    </row>
-    <row r="125" s="130" customFormat="1" spans="1:12">
+      <c r="L124" s="159"/>
+    </row>
+    <row r="125" s="132" customFormat="1" spans="1:12">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="F125" s="90"/>
+      <c r="F125" s="91"/>
       <c r="G125" s="21"/>
       <c r="H125" s="87"/>
-      <c r="I125" s="101"/>
+      <c r="I125" s="102"/>
       <c r="J125" s="87"/>
       <c r="K125" s="87"/>
-      <c r="L125" s="157"/>
-    </row>
-    <row r="126" s="130" customFormat="1" spans="1:12">
+      <c r="L125" s="159"/>
+    </row>
+    <row r="126" s="132" customFormat="1" spans="1:12">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17" t="s">
         <v>139</v>
       </c>
       <c r="D126" s="17"/>
-      <c r="E126" s="90" t="s">
+      <c r="E126" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F126" s="90"/>
+      <c r="F126" s="91"/>
       <c r="G126" s="21"/>
       <c r="H126" s="87"/>
-      <c r="I126" s="101"/>
+      <c r="I126" s="102"/>
       <c r="J126" s="87"/>
       <c r="K126" s="87"/>
-      <c r="L126" s="157"/>
-    </row>
-    <row r="127" s="130" customFormat="1" spans="1:12">
+      <c r="L126" s="159"/>
+    </row>
+    <row r="127" s="132" customFormat="1" spans="1:12">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="F127" s="90"/>
+      <c r="F127" s="91"/>
       <c r="G127" s="21"/>
       <c r="H127" s="87"/>
-      <c r="I127" s="101"/>
+      <c r="I127" s="102"/>
       <c r="J127" s="87"/>
       <c r="K127" s="87"/>
-      <c r="L127" s="157"/>
-    </row>
-    <row r="128" s="130" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
+      <c r="L127" s="159"/>
+    </row>
+    <row r="128" s="132" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
-      <c r="E128" s="90" t="s">
+      <c r="E128" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="F128" s="90"/>
+      <c r="F128" s="91"/>
       <c r="G128" s="21"/>
       <c r="H128" s="87"/>
-      <c r="I128" s="101"/>
+      <c r="I128" s="102"/>
       <c r="J128" s="87"/>
       <c r="K128" s="87"/>
-      <c r="L128" s="157"/>
-    </row>
-    <row r="129" s="130" customFormat="1" spans="1:12">
+      <c r="L128" s="159"/>
+    </row>
+    <row r="129" s="132" customFormat="1" spans="1:12">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="90"/>
+      <c r="F129" s="91"/>
       <c r="G129" s="21"/>
       <c r="H129" s="87"/>
-      <c r="I129" s="101"/>
+      <c r="I129" s="102"/>
       <c r="J129" s="87"/>
       <c r="K129" s="87"/>
-      <c r="L129" s="157"/>
-    </row>
-    <row r="130" s="130" customFormat="1" spans="1:12">
+      <c r="L129" s="159"/>
+    </row>
+    <row r="130" s="132" customFormat="1" spans="1:12">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="17" t="s">
@@ -4760,12 +4766,12 @@
       <c r="F130" s="17"/>
       <c r="G130" s="21"/>
       <c r="H130" s="87"/>
-      <c r="I130" s="101"/>
+      <c r="I130" s="102"/>
       <c r="J130" s="87"/>
       <c r="K130" s="87"/>
-      <c r="L130" s="157"/>
-    </row>
-    <row r="131" s="130" customFormat="1" spans="1:12">
+      <c r="L130" s="159"/>
+    </row>
+    <row r="131" s="132" customFormat="1" spans="1:12">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="17"/>
@@ -4776,12 +4782,12 @@
       <c r="F131" s="17"/>
       <c r="G131" s="21"/>
       <c r="H131" s="87"/>
-      <c r="I131" s="101"/>
+      <c r="I131" s="102"/>
       <c r="J131" s="87"/>
       <c r="K131" s="87"/>
-      <c r="L131" s="157"/>
-    </row>
-    <row r="132" s="130" customFormat="1" spans="1:12">
+      <c r="L131" s="159"/>
+    </row>
+    <row r="132" s="132" customFormat="1" spans="1:12">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="17"/>
@@ -4792,12 +4798,12 @@
       <c r="F132" s="17"/>
       <c r="G132" s="21"/>
       <c r="H132" s="87"/>
-      <c r="I132" s="101"/>
+      <c r="I132" s="102"/>
       <c r="J132" s="87"/>
       <c r="K132" s="87"/>
-      <c r="L132" s="157"/>
-    </row>
-    <row r="133" s="130" customFormat="1" spans="1:12">
+      <c r="L132" s="159"/>
+    </row>
+    <row r="133" s="132" customFormat="1" spans="1:12">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="17" t="s">
@@ -4810,12 +4816,12 @@
       <c r="F133" s="17"/>
       <c r="G133" s="21"/>
       <c r="H133" s="87"/>
-      <c r="I133" s="101"/>
+      <c r="I133" s="102"/>
       <c r="J133" s="87"/>
       <c r="K133" s="87"/>
-      <c r="L133" s="157"/>
-    </row>
-    <row r="134" s="130" customFormat="1" spans="1:12">
+      <c r="L133" s="159"/>
+    </row>
+    <row r="134" s="132" customFormat="1" spans="1:12">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="17"/>
@@ -4826,28 +4832,28 @@
       <c r="F134" s="17"/>
       <c r="G134" s="21"/>
       <c r="H134" s="87"/>
-      <c r="I134" s="101"/>
+      <c r="I134" s="102"/>
       <c r="J134" s="87"/>
       <c r="K134" s="87"/>
-      <c r="L134" s="157"/>
-    </row>
-    <row r="135" s="130" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
+      <c r="L134" s="159"/>
+    </row>
+    <row r="135" s="132" customFormat="1" ht="28.05" customHeight="1" spans="1:12">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
-      <c r="E135" s="90" t="s">
+      <c r="E135" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="90"/>
+      <c r="F135" s="91"/>
       <c r="G135" s="21"/>
       <c r="H135" s="87"/>
-      <c r="I135" s="101"/>
+      <c r="I135" s="102"/>
       <c r="J135" s="87"/>
       <c r="K135" s="87"/>
-      <c r="L135" s="157"/>
-    </row>
-    <row r="136" s="130" customFormat="1" spans="1:12">
+      <c r="L135" s="159"/>
+    </row>
+    <row r="136" s="132" customFormat="1" spans="1:12">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="17" t="s">
@@ -4860,12 +4866,12 @@
       <c r="F136" s="17"/>
       <c r="G136" s="21"/>
       <c r="H136" s="87"/>
-      <c r="I136" s="101"/>
+      <c r="I136" s="102"/>
       <c r="J136" s="87"/>
       <c r="K136" s="87"/>
-      <c r="L136" s="157"/>
-    </row>
-    <row r="137" s="130" customFormat="1" spans="1:12">
+      <c r="L136" s="159"/>
+    </row>
+    <row r="137" s="132" customFormat="1" spans="1:12">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="17"/>
@@ -4876,12 +4882,12 @@
       <c r="F137" s="17"/>
       <c r="G137" s="21"/>
       <c r="H137" s="87"/>
-      <c r="I137" s="101"/>
+      <c r="I137" s="102"/>
       <c r="J137" s="87"/>
       <c r="K137" s="87"/>
-      <c r="L137" s="157"/>
-    </row>
-    <row r="138" s="130" customFormat="1" spans="1:12">
+      <c r="L137" s="159"/>
+    </row>
+    <row r="138" s="132" customFormat="1" spans="1:12">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="17"/>
@@ -4892,12 +4898,12 @@
       <c r="F138" s="17"/>
       <c r="G138" s="21"/>
       <c r="H138" s="87"/>
-      <c r="I138" s="101"/>
+      <c r="I138" s="102"/>
       <c r="J138" s="87"/>
       <c r="K138" s="87"/>
-      <c r="L138" s="157"/>
-    </row>
-    <row r="139" s="130" customFormat="1" spans="1:12">
+      <c r="L138" s="159"/>
+    </row>
+    <row r="139" s="132" customFormat="1" spans="1:12">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="17"/>
@@ -4908,138 +4914,138 @@
       <c r="F139" s="17"/>
       <c r="G139" s="21"/>
       <c r="H139" s="87"/>
-      <c r="I139" s="111"/>
+      <c r="I139" s="113"/>
       <c r="J139" s="87"/>
       <c r="K139" s="87"/>
-      <c r="L139" s="157"/>
-    </row>
-    <row r="140" s="130" customFormat="1" spans="1:12">
-      <c r="A140" s="159"/>
-      <c r="B140" s="159"/>
-      <c r="C140" s="159"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="160"/>
-      <c r="L140" s="165"/>
-    </row>
-    <row r="141" s="130" customFormat="1" spans="1:12">
-      <c r="A141" s="159"/>
-      <c r="B141" s="159"/>
-      <c r="C141" s="159"/>
-      <c r="D141" s="159"/>
-      <c r="E141" s="159"/>
-      <c r="F141" s="159"/>
-      <c r="G141" s="160"/>
-      <c r="L141" s="165"/>
-    </row>
-    <row r="142" s="130" customFormat="1" spans="1:12">
-      <c r="A142" s="159"/>
-      <c r="B142" s="159"/>
-      <c r="C142" s="159"/>
-      <c r="D142" s="159"/>
-      <c r="E142" s="159"/>
-      <c r="F142" s="159"/>
-      <c r="G142" s="160"/>
-      <c r="L142" s="165"/>
-    </row>
-    <row r="143" s="130" customFormat="1" spans="1:12">
-      <c r="A143" s="159"/>
-      <c r="B143" s="159"/>
-      <c r="C143" s="159"/>
-      <c r="D143" s="159"/>
-      <c r="E143" s="159"/>
-      <c r="F143" s="159"/>
-      <c r="G143" s="160"/>
-      <c r="L143" s="165"/>
-    </row>
-    <row r="144" s="130" customFormat="1" spans="1:12">
-      <c r="A144" s="159"/>
-      <c r="B144" s="159"/>
-      <c r="C144" s="159"/>
-      <c r="D144" s="159"/>
-      <c r="E144" s="159"/>
-      <c r="F144" s="159"/>
-      <c r="G144" s="160"/>
-      <c r="L144" s="165"/>
-    </row>
-    <row r="145" s="130" customFormat="1" spans="1:12">
-      <c r="A145" s="159"/>
-      <c r="B145" s="159"/>
-      <c r="C145" s="159"/>
-      <c r="D145" s="159"/>
-      <c r="E145" s="159"/>
-      <c r="F145" s="159"/>
-      <c r="G145" s="160"/>
-      <c r="L145" s="165"/>
-    </row>
-    <row r="146" s="130" customFormat="1" spans="1:12">
-      <c r="A146" s="159"/>
-      <c r="B146" s="159"/>
-      <c r="C146" s="159"/>
-      <c r="D146" s="159"/>
-      <c r="E146" s="159"/>
-      <c r="F146" s="159"/>
-      <c r="G146" s="160"/>
-      <c r="L146" s="165"/>
-    </row>
-    <row r="147" s="130" customFormat="1" spans="1:12">
-      <c r="A147" s="159"/>
-      <c r="B147" s="159"/>
-      <c r="C147" s="159"/>
-      <c r="D147" s="159"/>
-      <c r="E147" s="159"/>
-      <c r="F147" s="159"/>
-      <c r="G147" s="160"/>
-      <c r="L147" s="165"/>
+      <c r="L139" s="159"/>
+    </row>
+    <row r="140" s="132" customFormat="1" spans="1:12">
+      <c r="A140" s="161"/>
+      <c r="B140" s="161"/>
+      <c r="C140" s="161"/>
+      <c r="D140" s="161"/>
+      <c r="E140" s="161"/>
+      <c r="F140" s="161"/>
+      <c r="G140" s="162"/>
+      <c r="L140" s="167"/>
+    </row>
+    <row r="141" s="132" customFormat="1" spans="1:12">
+      <c r="A141" s="161"/>
+      <c r="B141" s="161"/>
+      <c r="C141" s="161"/>
+      <c r="D141" s="161"/>
+      <c r="E141" s="161"/>
+      <c r="F141" s="161"/>
+      <c r="G141" s="162"/>
+      <c r="L141" s="167"/>
+    </row>
+    <row r="142" s="132" customFormat="1" spans="1:12">
+      <c r="A142" s="161"/>
+      <c r="B142" s="161"/>
+      <c r="C142" s="161"/>
+      <c r="D142" s="161"/>
+      <c r="E142" s="161"/>
+      <c r="F142" s="161"/>
+      <c r="G142" s="162"/>
+      <c r="L142" s="167"/>
+    </row>
+    <row r="143" s="132" customFormat="1" spans="1:12">
+      <c r="A143" s="161"/>
+      <c r="B143" s="161"/>
+      <c r="C143" s="161"/>
+      <c r="D143" s="161"/>
+      <c r="E143" s="161"/>
+      <c r="F143" s="161"/>
+      <c r="G143" s="162"/>
+      <c r="L143" s="167"/>
+    </row>
+    <row r="144" s="132" customFormat="1" spans="1:12">
+      <c r="A144" s="161"/>
+      <c r="B144" s="161"/>
+      <c r="C144" s="161"/>
+      <c r="D144" s="161"/>
+      <c r="E144" s="161"/>
+      <c r="F144" s="161"/>
+      <c r="G144" s="162"/>
+      <c r="L144" s="167"/>
+    </row>
+    <row r="145" s="132" customFormat="1" spans="1:12">
+      <c r="A145" s="161"/>
+      <c r="B145" s="161"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="161"/>
+      <c r="E145" s="161"/>
+      <c r="F145" s="161"/>
+      <c r="G145" s="162"/>
+      <c r="L145" s="167"/>
+    </row>
+    <row r="146" s="132" customFormat="1" spans="1:12">
+      <c r="A146" s="161"/>
+      <c r="B146" s="161"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="161"/>
+      <c r="F146" s="161"/>
+      <c r="G146" s="162"/>
+      <c r="L146" s="167"/>
+    </row>
+    <row r="147" s="132" customFormat="1" spans="1:12">
+      <c r="A147" s="161"/>
+      <c r="B147" s="161"/>
+      <c r="C147" s="161"/>
+      <c r="D147" s="161"/>
+      <c r="E147" s="161"/>
+      <c r="F147" s="161"/>
+      <c r="G147" s="162"/>
+      <c r="L147" s="167"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="132"/>
-      <c r="D148" s="132"/>
+      <c r="C148" s="134"/>
+      <c r="D148" s="134"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="161"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="128"/>
+      <c r="A151" s="163"/>
+      <c r="B151" s="131"/>
+      <c r="C151" s="130"/>
     </row>
     <row r="152" s="37" customFormat="1" spans="1:12">
-      <c r="A152" s="129"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="129"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="129"/>
-      <c r="G152" s="129"/>
-      <c r="H152" s="129"/>
-      <c r="I152" s="129"/>
-      <c r="J152" s="130"/>
-      <c r="K152" s="130"/>
-      <c r="L152" s="165"/>
+      <c r="A152" s="131"/>
+      <c r="B152" s="131"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="131"/>
+      <c r="E152" s="131"/>
+      <c r="F152" s="131"/>
+      <c r="G152" s="131"/>
+      <c r="H152" s="131"/>
+      <c r="I152" s="131"/>
+      <c r="J152" s="132"/>
+      <c r="K152" s="132"/>
+      <c r="L152" s="167"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="129"/>
-      <c r="B153" s="162"/>
-      <c r="C153" s="163"/>
-      <c r="D153" s="162"/>
-      <c r="E153" s="162"/>
-      <c r="F153" s="162"/>
-      <c r="G153" s="162"/>
-      <c r="H153" s="162"/>
-      <c r="I153" s="162"/>
-      <c r="J153" s="166"/>
-      <c r="K153" s="166"/>
+      <c r="A153" s="131"/>
+      <c r="B153" s="164"/>
+      <c r="C153" s="165"/>
+      <c r="D153" s="164"/>
+      <c r="E153" s="164"/>
+      <c r="F153" s="164"/>
+      <c r="G153" s="164"/>
+      <c r="H153" s="164"/>
+      <c r="I153" s="164"/>
+      <c r="J153" s="168"/>
+      <c r="K153" s="168"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="161"/>
-      <c r="B154" s="129"/>
-      <c r="C154" s="129"/>
+      <c r="A154" s="163"/>
+      <c r="B154" s="131"/>
+      <c r="C154" s="131"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="164"/>
-      <c r="B155" s="129"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="133"/>
-      <c r="E155" s="133"/>
+      <c r="A155" s="166"/>
+      <c r="B155" s="131"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="135"/>
+      <c r="E155" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="246">
@@ -5305,9 +5311,9 @@
   <dimension ref="A1:CY144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8239,13 +8245,13 @@
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="92">
+      <c r="J69" s="93">
         <v>43203</v>
       </c>
-      <c r="K69" s="92">
+      <c r="K69" s="93">
         <v>43203</v>
       </c>
-      <c r="L69" s="93" t="s">
+      <c r="L69" s="94" t="s">
         <v>158</v>
       </c>
       <c r="U69" s="37"/>
@@ -8283,7 +8289,7 @@
       <c r="I70" s="12"/>
       <c r="J70" s="66"/>
       <c r="K70" s="66"/>
-      <c r="L70" s="94"/>
+      <c r="L70" s="95"/>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
@@ -8317,9 +8323,9 @@
       <c r="G71" s="33"/>
       <c r="H71" s="14"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="97"/>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
@@ -8742,7 +8748,7 @@
       <c r="K86" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L86" s="97" t="s">
+      <c r="L86" s="98" t="s">
         <v>23</v>
       </c>
       <c r="X86" s="37"/>
@@ -8790,7 +8796,7 @@
       <c r="K87" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L87" s="97" t="s">
+      <c r="L87" s="98" t="s">
         <v>23</v>
       </c>
       <c r="X87" s="37"/>
@@ -9008,17 +9014,17 @@
       <c r="H92" s="78">
         <v>21</v>
       </c>
-      <c r="I92" s="98">
+      <c r="I92" s="99">
         <f>SUM(G92:G141)</f>
         <v>254.5</v>
       </c>
-      <c r="J92" s="99">
+      <c r="J92" s="100">
         <v>43207</v>
       </c>
-      <c r="K92" s="99">
+      <c r="K92" s="100">
         <v>43209</v>
       </c>
-      <c r="L92" s="100" t="s">
+      <c r="L92" s="101" t="s">
         <v>14</v>
       </c>
       <c r="AP92" s="72"/>
@@ -9052,10 +9058,10 @@
       <c r="F93" s="17"/>
       <c r="G93" s="21"/>
       <c r="H93" s="82"/>
-      <c r="I93" s="101"/>
+      <c r="I93" s="102"/>
       <c r="J93" s="82"/>
       <c r="K93" s="82"/>
-      <c r="L93" s="102"/>
+      <c r="L93" s="103"/>
       <c r="AP93" s="72"/>
       <c r="BB93" s="37"/>
       <c r="BC93" s="37"/>
@@ -9087,10 +9093,10 @@
       <c r="F94" s="17"/>
       <c r="G94" s="21"/>
       <c r="H94" s="82"/>
-      <c r="I94" s="101"/>
+      <c r="I94" s="102"/>
       <c r="J94" s="82"/>
       <c r="K94" s="82"/>
-      <c r="L94" s="102"/>
+      <c r="L94" s="103"/>
       <c r="AP94" s="72"/>
       <c r="BB94" s="37"/>
       <c r="BC94" s="37"/>
@@ -9122,10 +9128,10 @@
       <c r="F95" s="17"/>
       <c r="G95" s="21"/>
       <c r="H95" s="82"/>
-      <c r="I95" s="101"/>
+      <c r="I95" s="102"/>
       <c r="J95" s="82"/>
       <c r="K95" s="82"/>
-      <c r="L95" s="102"/>
+      <c r="L95" s="103"/>
       <c r="AP95" s="72"/>
       <c r="BB95" s="37"/>
       <c r="BC95" s="37"/>
@@ -9157,10 +9163,10 @@
       <c r="F96" s="17"/>
       <c r="G96" s="21"/>
       <c r="H96" s="80"/>
-      <c r="I96" s="101"/>
+      <c r="I96" s="102"/>
       <c r="J96" s="80"/>
       <c r="K96" s="80"/>
-      <c r="L96" s="103"/>
+      <c r="L96" s="104"/>
       <c r="AB96" s="37"/>
       <c r="AC96" s="37"/>
       <c r="AD96" s="37"/>
@@ -9207,14 +9213,14 @@
         <v>8</v>
       </c>
       <c r="H97" s="86"/>
-      <c r="I97" s="101"/>
-      <c r="J97" s="104">
+      <c r="I97" s="102"/>
+      <c r="J97" s="105">
         <v>43210</v>
       </c>
-      <c r="K97" s="104">
+      <c r="K97" s="105">
         <v>43210</v>
       </c>
-      <c r="L97" s="105" t="s">
+      <c r="L97" s="106" t="s">
         <v>158</v>
       </c>
       <c r="AB97" s="37"/>
@@ -9263,14 +9269,14 @@
         <v>8</v>
       </c>
       <c r="H98" s="87"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="104">
+      <c r="I98" s="102"/>
+      <c r="J98" s="105">
         <v>43213</v>
       </c>
-      <c r="K98" s="104">
+      <c r="K98" s="105">
         <v>43213</v>
       </c>
-      <c r="L98" s="105" t="s">
+      <c r="L98" s="106" t="s">
         <v>158</v>
       </c>
       <c r="AB98" s="37"/>
@@ -9303,7 +9309,7 @@
         <v>3.5</v>
       </c>
       <c r="H99" s="87"/>
-      <c r="I99" s="101"/>
+      <c r="I99" s="102"/>
       <c r="J99" s="49">
         <v>43206</v>
       </c>
@@ -9344,15 +9350,15 @@
       <c r="G100" s="21">
         <v>7</v>
       </c>
-      <c r="H100" s="87"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="106">
+      <c r="H100" s="88"/>
+      <c r="I100" s="102"/>
+      <c r="J100" s="107">
         <v>43199</v>
       </c>
-      <c r="K100" s="106">
+      <c r="K100" s="107">
         <v>43199</v>
       </c>
-      <c r="L100" s="107" t="s">
+      <c r="L100" s="108" t="s">
         <v>23</v>
       </c>
       <c r="AB100" s="37"/>
@@ -9377,22 +9383,22 @@
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
-      <c r="E101" s="88" t="s">
+      <c r="E101" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="F101" s="89"/>
+      <c r="F101" s="90"/>
       <c r="G101" s="21">
         <v>3.5</v>
       </c>
-      <c r="H101" s="87"/>
-      <c r="I101" s="101"/>
-      <c r="J101" s="106">
+      <c r="H101" s="88"/>
+      <c r="I101" s="102"/>
+      <c r="J101" s="107">
         <v>43200</v>
       </c>
-      <c r="K101" s="106">
+      <c r="K101" s="107">
         <v>43200</v>
       </c>
-      <c r="L101" s="108"/>
+      <c r="L101" s="109"/>
       <c r="AB101" s="37"/>
       <c r="AC101" s="37"/>
       <c r="AD101" s="37"/>
@@ -9422,15 +9428,15 @@
       <c r="G102" s="21">
         <v>18</v>
       </c>
-      <c r="H102" s="87"/>
-      <c r="I102" s="101"/>
-      <c r="J102" s="106">
+      <c r="H102" s="88"/>
+      <c r="I102" s="102"/>
+      <c r="J102" s="107">
         <v>43200</v>
       </c>
-      <c r="K102" s="106">
+      <c r="K102" s="107">
         <v>43202</v>
       </c>
-      <c r="L102" s="108"/>
+      <c r="L102" s="109"/>
       <c r="AB102" s="37"/>
       <c r="AC102" s="37"/>
       <c r="AD102" s="37"/>
@@ -9461,14 +9467,14 @@
         <v>10.5</v>
       </c>
       <c r="H103" s="87"/>
-      <c r="I103" s="101"/>
-      <c r="J103" s="106">
+      <c r="I103" s="102"/>
+      <c r="J103" s="110">
         <v>43203</v>
       </c>
-      <c r="K103" s="106">
+      <c r="K103" s="110">
         <v>43206</v>
       </c>
-      <c r="L103" s="108"/>
+      <c r="L103" s="109"/>
       <c r="AB103" s="37"/>
       <c r="AC103" s="37"/>
       <c r="AD103" s="37"/>
@@ -9499,14 +9505,14 @@
         <v>3.5</v>
       </c>
       <c r="H104" s="87"/>
-      <c r="I104" s="101"/>
-      <c r="J104" s="106">
+      <c r="I104" s="102"/>
+      <c r="J104" s="110">
         <v>43206</v>
       </c>
-      <c r="K104" s="106">
+      <c r="K104" s="110">
         <v>43206</v>
       </c>
-      <c r="L104" s="108"/>
+      <c r="L104" s="109"/>
       <c r="AB104" s="37"/>
       <c r="AC104" s="37"/>
       <c r="AD104" s="37"/>
@@ -9537,14 +9543,14 @@
         <v>3.5</v>
       </c>
       <c r="H105" s="87"/>
-      <c r="I105" s="101"/>
-      <c r="J105" s="106">
+      <c r="I105" s="102"/>
+      <c r="J105" s="110">
         <v>43207</v>
       </c>
-      <c r="K105" s="106">
+      <c r="K105" s="110">
         <v>43207</v>
       </c>
-      <c r="L105" s="108"/>
+      <c r="L105" s="109"/>
       <c r="AB105" s="37"/>
       <c r="AC105" s="37"/>
       <c r="AD105" s="37"/>
@@ -9589,14 +9595,14 @@
         <v>3.5</v>
       </c>
       <c r="H106" s="87"/>
-      <c r="I106" s="101"/>
-      <c r="J106" s="106">
+      <c r="I106" s="102"/>
+      <c r="J106" s="110">
         <v>43207</v>
       </c>
-      <c r="K106" s="106">
+      <c r="K106" s="110">
         <v>43207</v>
       </c>
-      <c r="L106" s="109"/>
+      <c r="L106" s="111"/>
       <c r="AB106" s="37"/>
       <c r="AC106" s="37"/>
       <c r="AD106" s="37"/>
@@ -9641,14 +9647,14 @@
         <v>7</v>
       </c>
       <c r="H107" s="87"/>
-      <c r="I107" s="101"/>
-      <c r="J107" s="106">
+      <c r="I107" s="102"/>
+      <c r="J107" s="110">
         <v>43208</v>
       </c>
-      <c r="K107" s="106">
+      <c r="K107" s="110">
         <v>43208</v>
       </c>
-      <c r="L107" s="107" t="s">
+      <c r="L107" s="108" t="s">
         <v>23</v>
       </c>
       <c r="AB107" s="37"/>
@@ -9697,10 +9703,10 @@
       <c r="H108" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="I108" s="101"/>
+      <c r="I108" s="102"/>
       <c r="J108" s="21"/>
       <c r="K108" s="21"/>
-      <c r="L108" s="108"/>
+      <c r="L108" s="109"/>
       <c r="AB108" s="37"/>
       <c r="AC108" s="37"/>
       <c r="AD108" s="37"/>
@@ -9747,14 +9753,14 @@
         <v>7</v>
       </c>
       <c r="H109" s="87"/>
-      <c r="I109" s="101"/>
-      <c r="J109" s="99">
+      <c r="I109" s="102"/>
+      <c r="J109" s="100">
         <v>43209</v>
       </c>
-      <c r="K109" s="99">
+      <c r="K109" s="100">
         <v>43209</v>
       </c>
-      <c r="L109" s="108"/>
+      <c r="L109" s="109"/>
       <c r="AB109" s="37"/>
       <c r="AC109" s="37"/>
       <c r="AD109" s="37"/>
@@ -9797,10 +9803,10 @@
       <c r="F110" s="17"/>
       <c r="G110" s="80"/>
       <c r="H110" s="87"/>
-      <c r="I110" s="101"/>
+      <c r="I110" s="102"/>
       <c r="J110" s="80"/>
       <c r="K110" s="80"/>
-      <c r="L110" s="109"/>
+      <c r="L110" s="111"/>
       <c r="AB110" s="37"/>
       <c r="AC110" s="37"/>
       <c r="AD110" s="37"/>
@@ -9839,22 +9845,22 @@
         <v>123</v>
       </c>
       <c r="D111" s="17"/>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F111" s="90"/>
+      <c r="F111" s="91"/>
       <c r="G111" s="21">
         <v>3.5</v>
       </c>
       <c r="H111" s="87"/>
-      <c r="I111" s="101"/>
-      <c r="J111" s="106">
+      <c r="I111" s="102"/>
+      <c r="J111" s="110">
         <v>43210</v>
       </c>
-      <c r="K111" s="106">
+      <c r="K111" s="110">
         <v>43210</v>
       </c>
-      <c r="L111" s="100" t="s">
+      <c r="L111" s="101" t="s">
         <v>14</v>
       </c>
       <c r="AB111" s="37"/>
@@ -9904,22 +9910,22 @@
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="90" t="s">
+      <c r="E112" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="90"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="21">
         <v>7</v>
       </c>
       <c r="H112" s="87"/>
-      <c r="I112" s="101"/>
-      <c r="J112" s="106">
+      <c r="I112" s="102"/>
+      <c r="J112" s="110">
         <v>43210</v>
       </c>
-      <c r="K112" s="106">
+      <c r="K112" s="110">
         <v>43211</v>
       </c>
-      <c r="L112" s="102"/>
+      <c r="L112" s="103"/>
       <c r="AB112" s="37"/>
       <c r="AC112" s="37"/>
       <c r="AD112" s="37"/>
@@ -9967,22 +9973,22 @@
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
-      <c r="E113" s="90" t="s">
+      <c r="E113" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="90"/>
+      <c r="F113" s="91"/>
       <c r="G113" s="21">
         <v>3.5</v>
       </c>
       <c r="H113" s="87"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="106">
+      <c r="I113" s="102"/>
+      <c r="J113" s="110">
         <v>43211</v>
       </c>
-      <c r="K113" s="106">
+      <c r="K113" s="110">
         <v>43211</v>
       </c>
-      <c r="L113" s="102"/>
+      <c r="L113" s="103"/>
       <c r="AB113" s="37"/>
       <c r="AC113" s="37"/>
       <c r="AD113" s="37"/>
@@ -10030,22 +10036,22 @@
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
-      <c r="E114" s="90" t="s">
+      <c r="E114" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="F114" s="90"/>
+      <c r="F114" s="91"/>
       <c r="G114" s="21">
         <v>7</v>
       </c>
       <c r="H114" s="87"/>
-      <c r="I114" s="101"/>
-      <c r="J114" s="106">
+      <c r="I114" s="102"/>
+      <c r="J114" s="110">
         <v>43212</v>
       </c>
-      <c r="K114" s="106">
+      <c r="K114" s="110">
         <v>43212</v>
       </c>
-      <c r="L114" s="102"/>
+      <c r="L114" s="103"/>
       <c r="AB114" s="37"/>
       <c r="AC114" s="37"/>
       <c r="AD114" s="37"/>
@@ -10093,18 +10099,18 @@
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="F115" s="90"/>
+      <c r="F115" s="91"/>
       <c r="G115" s="21">
         <v>0</v>
       </c>
       <c r="H115" s="87"/>
-      <c r="I115" s="101"/>
+      <c r="I115" s="102"/>
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
-      <c r="L115" s="102"/>
+      <c r="L115" s="103"/>
       <c r="AP115" s="72"/>
       <c r="AR115" s="37"/>
       <c r="AS115" s="37"/>
@@ -10139,22 +10145,22 @@
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="90" t="s">
+      <c r="E116" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="90"/>
+      <c r="F116" s="91"/>
       <c r="G116" s="21">
         <v>3.5</v>
       </c>
       <c r="H116" s="87"/>
-      <c r="I116" s="101"/>
-      <c r="J116" s="110">
+      <c r="I116" s="102"/>
+      <c r="J116" s="112">
         <v>43213</v>
       </c>
-      <c r="K116" s="110">
+      <c r="K116" s="112">
         <v>43213</v>
       </c>
-      <c r="L116" s="102"/>
+      <c r="L116" s="103"/>
       <c r="AP116" s="72"/>
       <c r="AR116" s="37"/>
       <c r="AS116" s="37"/>
@@ -10189,22 +10195,22 @@
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="90" t="s">
+      <c r="E117" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="90"/>
+      <c r="F117" s="91"/>
       <c r="G117" s="21">
         <v>3.5</v>
       </c>
       <c r="H117" s="87"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="110">
+      <c r="I117" s="102"/>
+      <c r="J117" s="112">
         <v>43213</v>
       </c>
-      <c r="K117" s="110">
+      <c r="K117" s="112">
         <v>43213</v>
       </c>
-      <c r="L117" s="102"/>
+      <c r="L117" s="103"/>
       <c r="AP117" s="72"/>
       <c r="AR117" s="37"/>
       <c r="AS117" s="37"/>
@@ -10239,22 +10245,22 @@
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
-      <c r="E118" s="90" t="s">
+      <c r="E118" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="F118" s="90"/>
+      <c r="F118" s="91"/>
       <c r="G118" s="21">
         <v>7</v>
       </c>
       <c r="H118" s="87"/>
-      <c r="I118" s="101"/>
-      <c r="J118" s="106">
+      <c r="I118" s="102"/>
+      <c r="J118" s="110">
         <v>43214</v>
       </c>
-      <c r="K118" s="106">
+      <c r="K118" s="110">
         <v>43214</v>
       </c>
-      <c r="L118" s="102"/>
+      <c r="L118" s="103"/>
       <c r="AP118" s="72"/>
       <c r="AR118" s="37"/>
       <c r="AS118" s="37"/>
@@ -10289,18 +10295,18 @@
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="90"/>
+      <c r="F119" s="91"/>
       <c r="G119" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H119" s="87"/>
-      <c r="I119" s="101"/>
+      <c r="I119" s="102"/>
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
-      <c r="L119" s="102"/>
+      <c r="L119" s="103"/>
       <c r="AP119" s="72"/>
       <c r="AR119" s="37"/>
       <c r="AS119" s="37"/>
@@ -10343,14 +10349,14 @@
         <v>3.5</v>
       </c>
       <c r="H120" s="87"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="106">
+      <c r="I120" s="102"/>
+      <c r="J120" s="110">
         <v>43215</v>
       </c>
-      <c r="K120" s="106">
+      <c r="K120" s="110">
         <v>43215</v>
       </c>
-      <c r="L120" s="102"/>
+      <c r="L120" s="103"/>
       <c r="AP120" s="72"/>
       <c r="AR120" s="37"/>
       <c r="AS120" s="37"/>
@@ -10385,24 +10391,24 @@
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="F121" s="90"/>
+      <c r="F121" s="91"/>
       <c r="G121" s="78">
         <v>14</v>
       </c>
-      <c r="H121" s="91" t="s">
+      <c r="H121" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="I121" s="101"/>
-      <c r="J121" s="99">
+      <c r="I121" s="102"/>
+      <c r="J121" s="100">
         <v>43215</v>
       </c>
-      <c r="K121" s="99">
+      <c r="K121" s="100">
         <v>43217</v>
       </c>
-      <c r="L121" s="102"/>
+      <c r="L121" s="103"/>
       <c r="AP121" s="72"/>
       <c r="AR121" s="37"/>
       <c r="AS121" s="37"/>
@@ -10440,18 +10446,18 @@
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="90" t="s">
+      <c r="E122" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="F122" s="90"/>
+      <c r="F122" s="91"/>
       <c r="G122" s="80"/>
-      <c r="H122" s="91" t="s">
+      <c r="H122" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="101"/>
+      <c r="I122" s="102"/>
       <c r="J122" s="80"/>
       <c r="K122" s="80"/>
-      <c r="L122" s="102"/>
+      <c r="L122" s="103"/>
       <c r="AP122" s="72"/>
       <c r="AR122" s="37"/>
       <c r="AS122" s="37"/>
@@ -10489,22 +10495,22 @@
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F123" s="90"/>
+      <c r="F123" s="91"/>
       <c r="G123" s="21">
         <v>7</v>
       </c>
       <c r="H123" s="87"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="106">
+      <c r="I123" s="102"/>
+      <c r="J123" s="110">
         <v>43217</v>
       </c>
-      <c r="K123" s="106">
+      <c r="K123" s="110">
         <v>43218</v>
       </c>
-      <c r="L123" s="102"/>
+      <c r="L123" s="103"/>
       <c r="AP123" s="72"/>
       <c r="AR123" s="37"/>
       <c r="AS123" s="37"/>
@@ -10539,20 +10545,20 @@
       <c r="B124" s="16"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="90" t="s">
+      <c r="E124" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F124" s="90"/>
+      <c r="F124" s="91"/>
       <c r="G124" s="21">
         <v>7</v>
       </c>
-      <c r="H124" s="91" t="s">
+      <c r="H124" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="I124" s="101"/>
+      <c r="I124" s="102"/>
       <c r="J124" s="21"/>
       <c r="K124" s="21"/>
-      <c r="L124" s="102"/>
+      <c r="L124" s="103"/>
       <c r="AP124" s="72"/>
       <c r="AR124" s="37"/>
       <c r="AS124" s="37"/>
@@ -10587,22 +10593,22 @@
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="F125" s="90"/>
+      <c r="F125" s="91"/>
       <c r="G125" s="21">
         <v>3.5</v>
       </c>
       <c r="H125" s="87"/>
-      <c r="I125" s="101"/>
-      <c r="J125" s="106">
+      <c r="I125" s="102"/>
+      <c r="J125" s="110">
         <v>43218</v>
       </c>
-      <c r="K125" s="106">
+      <c r="K125" s="110">
         <v>43218</v>
       </c>
-      <c r="L125" s="103"/>
+      <c r="L125" s="104"/>
       <c r="U125" s="37"/>
       <c r="V125" s="37"/>
       <c r="W125" s="37"/>
@@ -10650,22 +10656,22 @@
         <v>138</v>
       </c>
       <c r="D126" s="17"/>
-      <c r="E126" s="90" t="s">
+      <c r="E126" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F126" s="90"/>
+      <c r="F126" s="91"/>
       <c r="G126" s="21">
         <v>7</v>
       </c>
       <c r="H126" s="87"/>
-      <c r="I126" s="101"/>
-      <c r="J126" s="106">
+      <c r="I126" s="102"/>
+      <c r="J126" s="110">
         <v>43210</v>
       </c>
-      <c r="K126" s="106">
+      <c r="K126" s="110">
         <v>43210</v>
       </c>
-      <c r="L126" s="107" t="s">
+      <c r="L126" s="108" t="s">
         <v>23</v>
       </c>
       <c r="U126" s="37"/>
@@ -10689,22 +10695,22 @@
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="F127" s="90"/>
+      <c r="F127" s="91"/>
       <c r="G127" s="21">
         <v>7</v>
       </c>
       <c r="H127" s="87"/>
-      <c r="I127" s="101"/>
-      <c r="J127" s="106">
+      <c r="I127" s="102"/>
+      <c r="J127" s="110">
         <v>43213</v>
       </c>
-      <c r="K127" s="106">
+      <c r="K127" s="110">
         <v>43213</v>
       </c>
-      <c r="L127" s="109"/>
+      <c r="L127" s="111"/>
       <c r="U127" s="37"/>
       <c r="V127" s="37"/>
       <c r="W127" s="37"/>
@@ -10728,22 +10734,22 @@
         <v>139</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="90" t="s">
+      <c r="E128" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F128" s="90"/>
+      <c r="F128" s="91"/>
       <c r="G128" s="21">
         <v>7</v>
       </c>
       <c r="H128" s="87"/>
-      <c r="I128" s="101"/>
-      <c r="J128" s="106">
+      <c r="I128" s="102"/>
+      <c r="J128" s="110">
         <v>43214</v>
       </c>
-      <c r="K128" s="106">
+      <c r="K128" s="110">
         <v>43214</v>
       </c>
-      <c r="L128" s="107" t="s">
+      <c r="L128" s="108" t="s">
         <v>23</v>
       </c>
       <c r="U128" s="37"/>
@@ -10767,22 +10773,22 @@
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="F129" s="90"/>
+      <c r="F129" s="91"/>
       <c r="G129" s="21">
         <v>3.5</v>
       </c>
       <c r="H129" s="87"/>
-      <c r="I129" s="101"/>
-      <c r="J129" s="106">
+      <c r="I129" s="102"/>
+      <c r="J129" s="110">
         <v>43215</v>
       </c>
-      <c r="K129" s="106">
+      <c r="K129" s="110">
         <v>43215</v>
       </c>
-      <c r="L129" s="108"/>
+      <c r="L129" s="109"/>
       <c r="U129" s="37"/>
       <c r="V129" s="37"/>
       <c r="W129" s="37"/>
@@ -10804,22 +10810,22 @@
       <c r="B130" s="16"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="F130" s="90"/>
+      <c r="F130" s="91"/>
       <c r="G130" s="21">
         <v>10.5</v>
       </c>
       <c r="H130" s="87"/>
-      <c r="I130" s="101"/>
-      <c r="J130" s="106">
+      <c r="I130" s="102"/>
+      <c r="J130" s="110">
         <v>43215</v>
       </c>
-      <c r="K130" s="106">
+      <c r="K130" s="110">
         <v>43216</v>
       </c>
-      <c r="L130" s="108"/>
+      <c r="L130" s="109"/>
       <c r="U130" s="37"/>
       <c r="V130" s="37"/>
       <c r="W130" s="37"/>
@@ -10842,22 +10848,22 @@
       <c r="B131" s="16"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
-      <c r="E131" s="90" t="s">
+      <c r="E131" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F131" s="90"/>
+      <c r="F131" s="91"/>
       <c r="G131" s="21">
         <v>3.5</v>
       </c>
       <c r="H131" s="87"/>
-      <c r="I131" s="101"/>
-      <c r="J131" s="106">
+      <c r="I131" s="102"/>
+      <c r="J131" s="110">
         <v>43217</v>
       </c>
-      <c r="K131" s="106">
+      <c r="K131" s="110">
         <v>43217</v>
       </c>
-      <c r="L131" s="109"/>
+      <c r="L131" s="111"/>
       <c r="U131" s="37"/>
       <c r="V131" s="37"/>
       <c r="W131" s="37"/>
@@ -10906,14 +10912,14 @@
         <v>3.5</v>
       </c>
       <c r="H132" s="87"/>
-      <c r="I132" s="101"/>
-      <c r="J132" s="99">
+      <c r="I132" s="102"/>
+      <c r="J132" s="100">
         <v>43211</v>
       </c>
-      <c r="K132" s="99">
+      <c r="K132" s="100">
         <v>43212</v>
       </c>
-      <c r="L132" s="107" t="s">
+      <c r="L132" s="108" t="s">
         <v>23</v>
       </c>
       <c r="U132" s="37"/>
@@ -10962,10 +10968,10 @@
         <v>14</v>
       </c>
       <c r="H133" s="87"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="114"/>
-      <c r="K133" s="114"/>
-      <c r="L133" s="108"/>
+      <c r="I133" s="102"/>
+      <c r="J133" s="116"/>
+      <c r="K133" s="116"/>
+      <c r="L133" s="109"/>
       <c r="U133" s="37"/>
       <c r="V133" s="37"/>
       <c r="W133" s="37"/>
@@ -11012,10 +11018,10 @@
         <v>14</v>
       </c>
       <c r="H134" s="87"/>
-      <c r="I134" s="101"/>
-      <c r="J134" s="115"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="109"/>
+      <c r="I134" s="102"/>
+      <c r="J134" s="117"/>
+      <c r="K134" s="117"/>
+      <c r="L134" s="111"/>
       <c r="AP134" s="72"/>
       <c r="AS134" s="37"/>
       <c r="AT134" s="37"/>
@@ -11049,18 +11055,18 @@
         <v>90</v>
       </c>
       <c r="F135" s="17"/>
-      <c r="G135" s="98">
+      <c r="G135" s="99">
         <v>10.5</v>
       </c>
       <c r="H135" s="87"/>
-      <c r="I135" s="101"/>
-      <c r="J135" s="99">
+      <c r="I135" s="102"/>
+      <c r="J135" s="100">
         <v>43205</v>
       </c>
-      <c r="K135" s="99">
+      <c r="K135" s="100">
         <v>43205</v>
       </c>
-      <c r="L135" s="107" t="s">
+      <c r="L135" s="108" t="s">
         <v>23</v>
       </c>
       <c r="AP135" s="72"/>
@@ -11095,12 +11101,12 @@
         <v>147</v>
       </c>
       <c r="F136" s="17"/>
-      <c r="G136" s="101"/>
+      <c r="G136" s="102"/>
       <c r="H136" s="87"/>
-      <c r="I136" s="101"/>
+      <c r="I136" s="102"/>
       <c r="J136" s="82"/>
       <c r="K136" s="82"/>
-      <c r="L136" s="108"/>
+      <c r="L136" s="109"/>
       <c r="AP136" s="72"/>
       <c r="AS136" s="37"/>
       <c r="AT136" s="37"/>
@@ -11129,16 +11135,16 @@
       <c r="B137" s="16"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
-      <c r="E137" s="90" t="s">
+      <c r="E137" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="F137" s="90"/>
-      <c r="G137" s="111"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="113"/>
       <c r="H137" s="87"/>
-      <c r="I137" s="101"/>
+      <c r="I137" s="102"/>
       <c r="J137" s="80"/>
       <c r="K137" s="80"/>
-      <c r="L137" s="109"/>
+      <c r="L137" s="111"/>
       <c r="AP137" s="72"/>
       <c r="AS137" s="37"/>
       <c r="AT137" s="37"/>
@@ -11173,18 +11179,18 @@
         <v>150</v>
       </c>
       <c r="F138" s="17"/>
-      <c r="G138" s="98">
+      <c r="G138" s="99">
         <v>21</v>
       </c>
       <c r="H138" s="87"/>
-      <c r="I138" s="101"/>
-      <c r="J138" s="99">
+      <c r="I138" s="102"/>
+      <c r="J138" s="100">
         <v>43218</v>
       </c>
-      <c r="K138" s="116">
+      <c r="K138" s="118">
         <v>43220</v>
       </c>
-      <c r="L138" s="117" t="s">
+      <c r="L138" s="119" t="s">
         <v>23</v>
       </c>
       <c r="AP138" s="72"/>
@@ -11223,12 +11229,12 @@
         <v>151</v>
       </c>
       <c r="F139" s="17"/>
-      <c r="G139" s="101"/>
+      <c r="G139" s="102"/>
       <c r="H139" s="87"/>
-      <c r="I139" s="101"/>
+      <c r="I139" s="102"/>
       <c r="J139" s="82"/>
-      <c r="K139" s="118"/>
-      <c r="L139" s="108"/>
+      <c r="K139" s="120"/>
+      <c r="L139" s="109"/>
       <c r="AP139" s="72"/>
       <c r="AS139" s="37"/>
       <c r="AT139" s="37"/>
@@ -11265,12 +11271,12 @@
         <v>152</v>
       </c>
       <c r="F140" s="17"/>
-      <c r="G140" s="101"/>
+      <c r="G140" s="102"/>
       <c r="H140" s="87"/>
-      <c r="I140" s="101"/>
+      <c r="I140" s="102"/>
       <c r="J140" s="82"/>
-      <c r="K140" s="118"/>
-      <c r="L140" s="108"/>
+      <c r="K140" s="120"/>
+      <c r="L140" s="109"/>
       <c r="AP140" s="72"/>
       <c r="AS140" s="37"/>
       <c r="AT140" s="37"/>
@@ -11307,120 +11313,120 @@
         <v>111</v>
       </c>
       <c r="F141" s="17"/>
-      <c r="G141" s="111"/>
+      <c r="G141" s="113"/>
       <c r="H141" s="87"/>
-      <c r="I141" s="111"/>
+      <c r="I141" s="113"/>
       <c r="J141" s="80"/>
-      <c r="K141" s="119"/>
-      <c r="L141" s="109"/>
-      <c r="M141" s="120"/>
-      <c r="N141" s="120"/>
-      <c r="O141" s="120"/>
-      <c r="P141" s="121"/>
-      <c r="Q141" s="121"/>
-      <c r="R141" s="121"/>
-      <c r="S141" s="121"/>
-      <c r="T141" s="121"/>
-      <c r="U141" s="120"/>
-      <c r="V141" s="120"/>
-      <c r="W141" s="120"/>
-      <c r="X141" s="120"/>
-      <c r="Y141" s="120"/>
-      <c r="Z141" s="120"/>
-      <c r="AA141" s="120"/>
-      <c r="AB141" s="120"/>
-      <c r="AC141" s="120"/>
-      <c r="AD141" s="120"/>
-      <c r="AE141" s="120"/>
-      <c r="AF141" s="120"/>
-      <c r="AG141" s="120"/>
-      <c r="AH141" s="120"/>
-      <c r="AI141" s="120"/>
-      <c r="AJ141" s="120"/>
-      <c r="AK141" s="120"/>
-      <c r="AL141" s="120"/>
-      <c r="AM141" s="120"/>
-      <c r="AN141" s="120"/>
-      <c r="AO141" s="121"/>
-      <c r="AP141" s="124"/>
-      <c r="AQ141" s="121"/>
-      <c r="AR141" s="120"/>
-      <c r="AS141" s="125"/>
-      <c r="AT141" s="125"/>
-      <c r="AU141" s="125"/>
-      <c r="AV141" s="125"/>
-      <c r="AW141" s="125"/>
-      <c r="AX141" s="125"/>
-      <c r="AY141" s="125"/>
-      <c r="AZ141" s="125"/>
-      <c r="BA141" s="125"/>
-      <c r="BB141" s="125"/>
-      <c r="BC141" s="125"/>
-      <c r="BD141" s="125"/>
-      <c r="BE141" s="125"/>
-      <c r="BF141" s="125"/>
-      <c r="BG141" s="125"/>
-      <c r="BH141" s="125"/>
-      <c r="BI141" s="125"/>
-      <c r="BJ141" s="125"/>
-      <c r="BK141" s="125"/>
-      <c r="BL141" s="125"/>
-      <c r="BM141" s="125"/>
-      <c r="BN141" s="125"/>
-      <c r="BO141" s="125"/>
-      <c r="BP141" s="120"/>
-      <c r="BQ141" s="120"/>
-      <c r="BR141" s="120"/>
-      <c r="BS141" s="120"/>
-      <c r="BT141" s="120"/>
-      <c r="BU141" s="126"/>
-      <c r="BV141" s="120"/>
-      <c r="BW141" s="120"/>
-      <c r="BX141" s="120"/>
-      <c r="BY141" s="120"/>
-      <c r="BZ141" s="120"/>
-      <c r="CA141" s="120"/>
-      <c r="CB141" s="120"/>
-      <c r="CC141" s="120"/>
-      <c r="CD141" s="120"/>
-      <c r="CE141" s="120"/>
-      <c r="CF141" s="120"/>
-      <c r="CG141" s="120"/>
-      <c r="CH141" s="120"/>
-      <c r="CI141" s="120"/>
-      <c r="CJ141" s="120"/>
-      <c r="CK141" s="120"/>
-      <c r="CL141" s="120"/>
-      <c r="CM141" s="120"/>
-      <c r="CN141" s="120"/>
-      <c r="CO141" s="120"/>
-      <c r="CP141" s="120"/>
-      <c r="CQ141" s="120"/>
-      <c r="CR141" s="120"/>
-      <c r="CS141" s="120"/>
-      <c r="CT141" s="120"/>
-      <c r="CU141" s="120"/>
-      <c r="CV141" s="120"/>
-      <c r="CW141" s="120"/>
-      <c r="CX141" s="120"/>
-      <c r="CY141" s="126"/>
+      <c r="K141" s="121"/>
+      <c r="L141" s="111"/>
+      <c r="M141" s="122"/>
+      <c r="N141" s="122"/>
+      <c r="O141" s="122"/>
+      <c r="P141" s="123"/>
+      <c r="Q141" s="123"/>
+      <c r="R141" s="123"/>
+      <c r="S141" s="123"/>
+      <c r="T141" s="123"/>
+      <c r="U141" s="122"/>
+      <c r="V141" s="122"/>
+      <c r="W141" s="122"/>
+      <c r="X141" s="122"/>
+      <c r="Y141" s="122"/>
+      <c r="Z141" s="122"/>
+      <c r="AA141" s="122"/>
+      <c r="AB141" s="122"/>
+      <c r="AC141" s="122"/>
+      <c r="AD141" s="122"/>
+      <c r="AE141" s="122"/>
+      <c r="AF141" s="122"/>
+      <c r="AG141" s="122"/>
+      <c r="AH141" s="122"/>
+      <c r="AI141" s="122"/>
+      <c r="AJ141" s="122"/>
+      <c r="AK141" s="122"/>
+      <c r="AL141" s="122"/>
+      <c r="AM141" s="122"/>
+      <c r="AN141" s="122"/>
+      <c r="AO141" s="123"/>
+      <c r="AP141" s="126"/>
+      <c r="AQ141" s="123"/>
+      <c r="AR141" s="122"/>
+      <c r="AS141" s="127"/>
+      <c r="AT141" s="127"/>
+      <c r="AU141" s="127"/>
+      <c r="AV141" s="127"/>
+      <c r="AW141" s="127"/>
+      <c r="AX141" s="127"/>
+      <c r="AY141" s="127"/>
+      <c r="AZ141" s="127"/>
+      <c r="BA141" s="127"/>
+      <c r="BB141" s="127"/>
+      <c r="BC141" s="127"/>
+      <c r="BD141" s="127"/>
+      <c r="BE141" s="127"/>
+      <c r="BF141" s="127"/>
+      <c r="BG141" s="127"/>
+      <c r="BH141" s="127"/>
+      <c r="BI141" s="127"/>
+      <c r="BJ141" s="127"/>
+      <c r="BK141" s="127"/>
+      <c r="BL141" s="127"/>
+      <c r="BM141" s="127"/>
+      <c r="BN141" s="127"/>
+      <c r="BO141" s="127"/>
+      <c r="BP141" s="122"/>
+      <c r="BQ141" s="122"/>
+      <c r="BR141" s="122"/>
+      <c r="BS141" s="122"/>
+      <c r="BT141" s="122"/>
+      <c r="BU141" s="128"/>
+      <c r="BV141" s="122"/>
+      <c r="BW141" s="122"/>
+      <c r="BX141" s="122"/>
+      <c r="BY141" s="122"/>
+      <c r="BZ141" s="122"/>
+      <c r="CA141" s="122"/>
+      <c r="CB141" s="122"/>
+      <c r="CC141" s="122"/>
+      <c r="CD141" s="122"/>
+      <c r="CE141" s="122"/>
+      <c r="CF141" s="122"/>
+      <c r="CG141" s="122"/>
+      <c r="CH141" s="122"/>
+      <c r="CI141" s="122"/>
+      <c r="CJ141" s="122"/>
+      <c r="CK141" s="122"/>
+      <c r="CL141" s="122"/>
+      <c r="CM141" s="122"/>
+      <c r="CN141" s="122"/>
+      <c r="CO141" s="122"/>
+      <c r="CP141" s="122"/>
+      <c r="CQ141" s="122"/>
+      <c r="CR141" s="122"/>
+      <c r="CS141" s="122"/>
+      <c r="CT141" s="122"/>
+      <c r="CU141" s="122"/>
+      <c r="CV141" s="122"/>
+      <c r="CW141" s="122"/>
+      <c r="CX141" s="122"/>
+      <c r="CY141" s="128"/>
     </row>
     <row r="144" ht="20.25" spans="1:11">
-      <c r="A144" s="112" t="s">
+      <c r="A144" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="113"/>
-      <c r="C144" s="113"/>
-      <c r="D144" s="113"/>
-      <c r="E144" s="113"/>
-      <c r="F144" s="113"/>
-      <c r="G144" s="113"/>
-      <c r="H144" s="113"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="123">
+      <c r="B144" s="115"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="115"/>
+      <c r="F144" s="115"/>
+      <c r="G144" s="115"/>
+      <c r="H144" s="115"/>
+      <c r="I144" s="124"/>
+      <c r="J144" s="125">
         <v>43199</v>
       </c>
-      <c r="K144" s="123">
+      <c r="K144" s="125">
         <v>43220</v>
       </c>
     </row>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
   <si>
     <t>系统功能模块工时估算</t>
   </si>
@@ -505,6 +505,14 @@
   </si>
   <si>
     <t>看合同模板进度定</t>
+  </si>
+  <si>
+    <t>工单信息导出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单列表打印预览</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,133 +1076,235 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,102 +1325,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,10 +1337,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,17 +1662,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
     </row>
@@ -1672,14 +1683,14 @@
       <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="70" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1765,7 @@
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="114" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1778,7 +1789,7 @@
       <c r="K4" s="75">
         <v>43222</v>
       </c>
-      <c r="L4" s="127"/>
+      <c r="L4" s="114"/>
       <c r="M4" s="61" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1816,7 @@
       <c r="K5" s="75">
         <v>43223</v>
       </c>
-      <c r="L5" s="127"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="107"/>
@@ -1827,7 +1838,7 @@
       <c r="K6" s="75">
         <v>43231</v>
       </c>
-      <c r="L6" s="127"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="107"/>
@@ -1849,7 +1860,7 @@
       <c r="K7" s="75">
         <v>43230</v>
       </c>
-      <c r="L7" s="127"/>
+      <c r="L7" s="114"/>
     </row>
     <row r="8" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="107"/>
@@ -1871,13 +1882,13 @@
       <c r="K8" s="75">
         <v>43224</v>
       </c>
-      <c r="L8" s="127"/>
+      <c r="L8" s="114"/>
     </row>
     <row r="9" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="108">
+      <c r="A9" s="130">
         <v>2</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="130" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="100" t="s">
@@ -1892,7 +1903,7 @@
         <v>3.5</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="108">
+      <c r="I9" s="130">
         <f>SUM(G9:G16)</f>
         <v>14</v>
       </c>
@@ -1902,13 +1913,13 @@
       <c r="K9" s="76">
         <v>43206</v>
       </c>
-      <c r="L9" s="128" t="s">
+      <c r="L9" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="100"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100" t="s">
@@ -1919,14 +1930,14 @@
       <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="108"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
-      <c r="L10" s="129"/>
+      <c r="L10" s="116"/>
     </row>
     <row r="11" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
@@ -1937,18 +1948,18 @@
         <v>7</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="108"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="76">
         <v>43207</v>
       </c>
       <c r="K11" s="76">
         <v>43207</v>
       </c>
-      <c r="L11" s="129"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="100"/>
       <c r="D12" s="100"/>
       <c r="E12" s="100" t="s">
@@ -1959,86 +1970,86 @@
         <v>3.5</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="108"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="76">
         <v>43206</v>
       </c>
       <c r="K12" s="76">
         <v>43206</v>
       </c>
-      <c r="L12" s="129"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="101" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="12"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
-      <c r="L13" s="129"/>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="101" t="s">
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="12"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
-      <c r="L14" s="129"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="101" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
-      <c r="L15" s="129"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="101" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="12"/>
       <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="108"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
-      <c r="L16" s="130"/>
+      <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
@@ -2047,10 +2058,10 @@
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="14"/>
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
@@ -2065,10 +2076,10 @@
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="12"/>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
@@ -2156,12 +2167,12 @@
     <row r="22" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="107"/>
       <c r="B22" s="107"/>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="5">
         <v>0</v>
       </c>
@@ -2178,12 +2189,12 @@
     <row r="23" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="107"/>
       <c r="B23" s="107"/>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="5">
         <v>0</v>
       </c>
@@ -2200,14 +2211,14 @@
     <row r="24" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="107"/>
       <c r="B24" s="107"/>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="105" t="s">
+      <c r="D24" s="102"/>
+      <c r="E24" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="106"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="5">
         <v>4</v>
       </c>
@@ -2215,19 +2226,19 @@
       <c r="I24" s="107"/>
       <c r="J24" s="79"/>
       <c r="K24" s="79"/>
-      <c r="L24" s="128" t="s">
+      <c r="L24" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="107"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="105" t="s">
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="106"/>
+      <c r="F25" s="135"/>
       <c r="G25" s="5">
         <v>0.5</v>
       </c>
@@ -2237,17 +2248,17 @@
       <c r="I25" s="107"/>
       <c r="J25" s="80"/>
       <c r="K25" s="80"/>
-      <c r="L25" s="129"/>
+      <c r="L25" s="116"/>
     </row>
     <row r="26" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="107"/>
       <c r="B26" s="107"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="105" t="s">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="106"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
@@ -2255,17 +2266,17 @@
       <c r="I26" s="107"/>
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
-      <c r="L26" s="129"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="107"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="105" t="s">
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="106"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="5">
         <v>2</v>
       </c>
@@ -2277,7 +2288,7 @@
       <c r="K27" s="81">
         <v>43199</v>
       </c>
-      <c r="L27" s="129"/>
+      <c r="L27" s="116"/>
       <c r="M27" s="61" t="s">
         <v>48</v>
       </c>
@@ -2285,12 +2296,12 @@
     <row r="28" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="107"/>
       <c r="B28" s="107"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="105" t="s">
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="135"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>29</v>
@@ -2298,17 +2309,17 @@
       <c r="I28" s="107"/>
       <c r="J28" s="80"/>
       <c r="K28" s="80"/>
-      <c r="L28" s="129"/>
+      <c r="L28" s="116"/>
     </row>
     <row r="29" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="107"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="105" t="s">
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="106"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
         <v>29</v>
@@ -2316,17 +2327,17 @@
       <c r="I29" s="107"/>
       <c r="J29" s="80"/>
       <c r="K29" s="80"/>
-      <c r="L29" s="129"/>
+      <c r="L29" s="116"/>
     </row>
     <row r="30" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="107"/>
       <c r="B30" s="107"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="105" t="s">
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="5">
         <v>1</v>
       </c>
@@ -2334,19 +2345,19 @@
       <c r="I30" s="107"/>
       <c r="J30" s="80"/>
       <c r="K30" s="80"/>
-      <c r="L30" s="129"/>
+      <c r="L30" s="116"/>
     </row>
     <row r="31" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="107"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="105" t="s">
+      <c r="D31" s="102"/>
+      <c r="E31" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="106"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="5">
         <v>4</v>
       </c>
@@ -2354,19 +2365,19 @@
       <c r="I31" s="107"/>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
-      <c r="L31" s="128" t="s">
+      <c r="L31" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="107"/>
       <c r="B32" s="107"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="105" t="s">
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="5">
         <v>5</v>
       </c>
@@ -2374,17 +2385,17 @@
       <c r="I32" s="107"/>
       <c r="J32" s="80"/>
       <c r="K32" s="80"/>
-      <c r="L32" s="129"/>
+      <c r="L32" s="116"/>
     </row>
     <row r="33" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="107"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="105" t="s">
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="106"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="5">
         <v>14</v>
       </c>
@@ -2392,17 +2403,17 @@
       <c r="I33" s="107"/>
       <c r="J33" s="80"/>
       <c r="K33" s="80"/>
-      <c r="L33" s="129"/>
+      <c r="L33" s="116"/>
     </row>
     <row r="34" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="107"/>
       <c r="B34" s="107"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="105" t="s">
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
         <v>29</v>
@@ -2414,17 +2425,17 @@
       <c r="K34" s="81">
         <v>43192</v>
       </c>
-      <c r="L34" s="129"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="107"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="105" t="s">
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="106"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
         <v>29</v>
@@ -2432,17 +2443,17 @@
       <c r="I35" s="107"/>
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
-      <c r="L35" s="129"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="107"/>
       <c r="B36" s="107"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="105" t="s">
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
         <v>29</v>
@@ -2450,17 +2461,17 @@
       <c r="I36" s="107"/>
       <c r="J36" s="80"/>
       <c r="K36" s="80"/>
-      <c r="L36" s="129"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="107"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="105" t="s">
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="106"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
@@ -2468,17 +2479,17 @@
       <c r="I37" s="107"/>
       <c r="J37" s="80"/>
       <c r="K37" s="80"/>
-      <c r="L37" s="129"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="107"/>
       <c r="B38" s="107"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="105" t="s">
+      <c r="C38" s="103"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="106"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="5">
         <v>1</v>
       </c>
@@ -2486,7 +2497,7 @@
       <c r="I38" s="107"/>
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
-      <c r="L38" s="130"/>
+      <c r="L38" s="117"/>
     </row>
     <row r="39" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="107"/>
@@ -2495,18 +2506,18 @@
         <v>56</v>
       </c>
       <c r="D39" s="99"/>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="112">
+      <c r="F39" s="139"/>
+      <c r="G39" s="121">
         <v>10.5</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="107"/>
       <c r="J39" s="79"/>
       <c r="K39" s="79"/>
-      <c r="L39" s="131" t="s">
+      <c r="L39" s="118" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2515,43 +2526,43 @@
       <c r="B40" s="107"/>
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="113"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="122"/>
       <c r="H40" s="5"/>
       <c r="I40" s="107"/>
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
-      <c r="L40" s="132"/>
+      <c r="L40" s="119"/>
     </row>
     <row r="41" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="107"/>
       <c r="B41" s="107"/>
       <c r="C41" s="99"/>
       <c r="D41" s="99"/>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="113"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="5"/>
       <c r="I41" s="107"/>
       <c r="J41" s="80"/>
       <c r="K41" s="80"/>
-      <c r="L41" s="132"/>
+      <c r="L41" s="119"/>
     </row>
     <row r="42" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="107"/>
       <c r="B42" s="107"/>
       <c r="C42" s="99"/>
       <c r="D42" s="99"/>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="104"/>
-      <c r="G42" s="113"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="5"/>
       <c r="I42" s="107"/>
       <c r="J42" s="81">
@@ -2560,55 +2571,55 @@
       <c r="K42" s="81">
         <v>43193</v>
       </c>
-      <c r="L42" s="132"/>
+      <c r="L42" s="119"/>
     </row>
     <row r="43" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="107"/>
       <c r="B43" s="107"/>
       <c r="C43" s="99"/>
       <c r="D43" s="99"/>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="113"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="5"/>
       <c r="I43" s="107"/>
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
-      <c r="L43" s="132"/>
+      <c r="L43" s="119"/>
     </row>
     <row r="44" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="107"/>
       <c r="B44" s="107"/>
       <c r="C44" s="99"/>
       <c r="D44" s="99"/>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="113"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="5"/>
       <c r="I44" s="107"/>
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
-      <c r="L44" s="132"/>
+      <c r="L44" s="119"/>
     </row>
     <row r="45" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="107"/>
       <c r="B45" s="107"/>
       <c r="C45" s="99"/>
       <c r="D45" s="99"/>
-      <c r="E45" s="104" t="s">
+      <c r="E45" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="114"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="123"/>
       <c r="H45" s="5"/>
       <c r="I45" s="107"/>
       <c r="J45" s="82"/>
       <c r="K45" s="82"/>
-      <c r="L45" s="133"/>
+      <c r="L45" s="120"/>
     </row>
     <row r="46" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="107"/>
@@ -2617,8 +2628,8 @@
         <v>63</v>
       </c>
       <c r="D46" s="99"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
       <c r="G46" s="14">
         <v>3.5</v>
       </c>
@@ -2637,12 +2648,12 @@
     <row r="47" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="107"/>
       <c r="B47" s="107"/>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="5">
         <v>14</v>
       </c>
@@ -2668,8 +2679,8 @@
         <v>65</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="16">
         <v>3.5</v>
       </c>
@@ -2696,14 +2707,14 @@
         <v>67</v>
       </c>
       <c r="F49" s="99"/>
-      <c r="G49" s="112">
+      <c r="G49" s="121">
         <v>21</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="107"/>
       <c r="J49" s="79"/>
       <c r="K49" s="79"/>
-      <c r="L49" s="131" t="s">
+      <c r="L49" s="118" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2716,12 +2727,12 @@
         <v>68</v>
       </c>
       <c r="F50" s="99"/>
-      <c r="G50" s="113"/>
+      <c r="G50" s="122"/>
       <c r="H50" s="5"/>
       <c r="I50" s="107"/>
       <c r="J50" s="80"/>
       <c r="K50" s="80"/>
-      <c r="L50" s="132"/>
+      <c r="L50" s="119"/>
     </row>
     <row r="51" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="107"/>
@@ -2732,12 +2743,12 @@
         <v>69</v>
       </c>
       <c r="F51" s="99"/>
-      <c r="G51" s="113"/>
+      <c r="G51" s="122"/>
       <c r="H51" s="5"/>
       <c r="I51" s="107"/>
       <c r="J51" s="80"/>
       <c r="K51" s="80"/>
-      <c r="L51" s="132"/>
+      <c r="L51" s="119"/>
     </row>
     <row r="52" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="107"/>
@@ -2748,12 +2759,12 @@
         <v>70</v>
       </c>
       <c r="F52" s="99"/>
-      <c r="G52" s="113"/>
+      <c r="G52" s="122"/>
       <c r="H52" s="5"/>
       <c r="I52" s="107"/>
       <c r="J52" s="80"/>
       <c r="K52" s="80"/>
-      <c r="L52" s="132"/>
+      <c r="L52" s="119"/>
     </row>
     <row r="53" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="107"/>
@@ -2764,7 +2775,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="99"/>
-      <c r="G53" s="113"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="5"/>
       <c r="I53" s="107"/>
       <c r="J53" s="75">
@@ -2773,7 +2784,7 @@
       <c r="K53" s="75">
         <v>43203</v>
       </c>
-      <c r="L53" s="132"/>
+      <c r="L53" s="119"/>
     </row>
     <row r="54" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="107"/>
@@ -2784,12 +2795,12 @@
         <v>71</v>
       </c>
       <c r="F54" s="99"/>
-      <c r="G54" s="113"/>
+      <c r="G54" s="122"/>
       <c r="H54" s="5"/>
       <c r="I54" s="107"/>
       <c r="J54" s="80"/>
       <c r="K54" s="80"/>
-      <c r="L54" s="132"/>
+      <c r="L54" s="119"/>
     </row>
     <row r="55" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="107"/>
@@ -2800,12 +2811,12 @@
         <v>72</v>
       </c>
       <c r="F55" s="99"/>
-      <c r="G55" s="113"/>
+      <c r="G55" s="122"/>
       <c r="H55" s="5"/>
       <c r="I55" s="107"/>
       <c r="J55" s="80"/>
       <c r="K55" s="80"/>
-      <c r="L55" s="132"/>
+      <c r="L55" s="119"/>
     </row>
     <row r="56" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="107"/>
@@ -2816,12 +2827,12 @@
         <v>73</v>
       </c>
       <c r="F56" s="99"/>
-      <c r="G56" s="113"/>
+      <c r="G56" s="122"/>
       <c r="H56" s="5"/>
       <c r="I56" s="107"/>
       <c r="J56" s="80"/>
       <c r="K56" s="80"/>
-      <c r="L56" s="132"/>
+      <c r="L56" s="119"/>
     </row>
     <row r="57" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="107"/>
@@ -2832,12 +2843,12 @@
         <v>74</v>
       </c>
       <c r="F57" s="99"/>
-      <c r="G57" s="114"/>
+      <c r="G57" s="123"/>
       <c r="H57" s="5"/>
       <c r="I57" s="107"/>
       <c r="J57" s="82"/>
       <c r="K57" s="82"/>
-      <c r="L57" s="133"/>
+      <c r="L57" s="120"/>
     </row>
     <row r="58" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="107"/>
@@ -2846,8 +2857,8 @@
         <v>75</v>
       </c>
       <c r="D58" s="99"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
       <c r="G58" s="16">
         <v>3.5</v>
       </c>
@@ -2870,8 +2881,8 @@
         <v>76</v>
       </c>
       <c r="D59" s="99"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="5">
         <v>7</v>
       </c>
@@ -2894,8 +2905,8 @@
         <v>77</v>
       </c>
       <c r="D60" s="99"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
       <c r="G60" s="5">
         <v>3.5</v>
       </c>
@@ -2918,8 +2929,8 @@
         <v>34</v>
       </c>
       <c r="D61" s="99"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
       <c r="G61" s="5">
         <v>3.5</v>
       </c>
@@ -2942,8 +2953,8 @@
         <v>78</v>
       </c>
       <c r="D62" s="99"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
       <c r="G62" s="5">
         <v>7</v>
       </c>
@@ -2966,8 +2977,8 @@
         <v>79</v>
       </c>
       <c r="D63" s="99"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
       <c r="G63" s="16">
         <v>3.5</v>
       </c>
@@ -2990,8 +3001,8 @@
         <v>80</v>
       </c>
       <c r="D64" s="99"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="16">
         <v>3.5</v>
       </c>
@@ -3014,8 +3025,8 @@
         <v>81</v>
       </c>
       <c r="D65" s="99"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="5">
         <v>3.5</v>
       </c>
@@ -3038,8 +3049,8 @@
         <v>82</v>
       </c>
       <c r="D66" s="99"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
       <c r="G66" s="5">
         <v>7</v>
       </c>
@@ -3062,8 +3073,8 @@
         <v>83</v>
       </c>
       <c r="D67" s="99"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
       <c r="G67" s="5">
         <v>21</v>
       </c>
@@ -3090,18 +3101,18 @@
         <v>24</v>
       </c>
       <c r="F68" s="99"/>
-      <c r="G68" s="112">
+      <c r="G68" s="121">
         <v>7</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="107"/>
-      <c r="J68" s="124">
+      <c r="J68" s="111">
         <v>43210</v>
       </c>
-      <c r="K68" s="124">
+      <c r="K68" s="111">
         <v>43210</v>
       </c>
-      <c r="L68" s="131" t="s">
+      <c r="L68" s="118" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3114,12 +3125,12 @@
         <v>53</v>
       </c>
       <c r="F69" s="99"/>
-      <c r="G69" s="113"/>
+      <c r="G69" s="122"/>
       <c r="H69" s="5"/>
       <c r="I69" s="107"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="132"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="119"/>
     </row>
     <row r="70" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="107"/>
@@ -3130,33 +3141,33 @@
         <v>85</v>
       </c>
       <c r="F70" s="99"/>
-      <c r="G70" s="114"/>
+      <c r="G70" s="123"/>
       <c r="H70" s="5"/>
       <c r="I70" s="107"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="133"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="120"/>
     </row>
     <row r="71" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="108">
+      <c r="A71" s="130">
         <v>6</v>
       </c>
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="101" t="s">
+      <c r="C71" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="101"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="136"/>
+      <c r="F71" s="136"/>
       <c r="G71" s="9">
         <v>0</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="108">
+      <c r="I71" s="130">
         <f>SUM(G71:G87)</f>
         <v>21</v>
       </c>
@@ -3167,8 +3178,8 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="100" t="s">
         <v>88</v>
       </c>
@@ -3177,51 +3188,51 @@
         <v>89</v>
       </c>
       <c r="F72" s="10"/>
-      <c r="G72" s="115">
+      <c r="G72" s="124">
         <v>0</v>
       </c>
-      <c r="H72" s="118" t="s">
+      <c r="H72" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="108"/>
+      <c r="I72" s="130"/>
       <c r="J72" s="83"/>
       <c r="K72" s="83"/>
-      <c r="L72" s="131" t="s">
+      <c r="L72" s="118" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="100"/>
       <c r="D73" s="100"/>
       <c r="E73" s="100" t="s">
         <v>90</v>
       </c>
       <c r="F73" s="100"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="108"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="130"/>
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
-      <c r="L73" s="133"/>
+      <c r="L73" s="120"/>
     </row>
     <row r="74" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="108"/>
-      <c r="B74" s="108"/>
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="100" t="s">
         <v>91</v>
       </c>
       <c r="D74" s="100"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="136"/>
       <c r="G74" s="9">
         <v>0</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="108"/>
+      <c r="I74" s="130"/>
       <c r="J74" s="74"/>
       <c r="K74" s="74"/>
       <c r="L74" s="23" t="s">
@@ -3229,21 +3240,21 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="108"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="100" t="s">
         <v>92</v>
       </c>
       <c r="D75" s="100"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="108"/>
+      <c r="I75" s="130"/>
       <c r="J75" s="74"/>
       <c r="K75" s="74"/>
       <c r="L75" s="23" t="s">
@@ -3251,21 +3262,21 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="100" t="s">
         <v>93</v>
       </c>
       <c r="D76" s="100"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="136"/>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="108"/>
+      <c r="I76" s="130"/>
       <c r="J76" s="74"/>
       <c r="K76" s="74"/>
       <c r="L76" s="23" t="s">
@@ -3273,8 +3284,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="108"/>
-      <c r="B77" s="108"/>
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="100" t="s">
         <v>94</v>
       </c>
@@ -3283,83 +3294,83 @@
         <v>85</v>
       </c>
       <c r="F77" s="100"/>
-      <c r="G77" s="115">
+      <c r="G77" s="124">
         <v>14</v>
       </c>
-      <c r="H77" s="118" t="s">
+      <c r="H77" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="108"/>
+      <c r="I77" s="130"/>
       <c r="J77" s="83"/>
       <c r="K77" s="83"/>
-      <c r="L77" s="131" t="s">
+      <c r="L77" s="118" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="108"/>
-      <c r="B78" s="108"/>
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
       <c r="C78" s="100"/>
       <c r="D78" s="100"/>
       <c r="E78" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F78" s="8"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="108"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="129"/>
+      <c r="I78" s="130"/>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
-      <c r="L78" s="132"/>
+      <c r="L78" s="119"/>
     </row>
     <row r="79" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="100"/>
       <c r="D79" s="100"/>
       <c r="E79" s="100" t="s">
         <v>97</v>
       </c>
       <c r="F79" s="100"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="108"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="130"/>
       <c r="J79" s="85"/>
       <c r="K79" s="85"/>
-      <c r="L79" s="132"/>
+      <c r="L79" s="119"/>
     </row>
     <row r="80" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="100"/>
       <c r="D80" s="100"/>
       <c r="E80" s="100" t="s">
         <v>98</v>
       </c>
       <c r="F80" s="100"/>
-      <c r="G80" s="116"/>
-      <c r="H80" s="119"/>
-      <c r="I80" s="108"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="130"/>
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
-      <c r="L80" s="133"/>
+      <c r="L80" s="120"/>
     </row>
     <row r="81" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="130"/>
+      <c r="B81" s="130"/>
       <c r="C81" s="100" t="s">
         <v>99</v>
       </c>
       <c r="D81" s="100"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
       <c r="G81" s="9">
         <v>0</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="108"/>
+      <c r="I81" s="130"/>
       <c r="J81" s="74"/>
       <c r="K81" s="74"/>
       <c r="L81" s="23" t="s">
@@ -3367,21 +3378,21 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="100" t="s">
         <v>100</v>
       </c>
       <c r="D82" s="100"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
       <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="108"/>
+      <c r="I82" s="130"/>
       <c r="J82" s="74"/>
       <c r="K82" s="74"/>
       <c r="L82" s="23" t="s">
@@ -3389,21 +3400,21 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
       <c r="C83" s="100" t="s">
         <v>101</v>
       </c>
       <c r="D83" s="100"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
       <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="108"/>
+      <c r="I83" s="130"/>
       <c r="J83" s="74"/>
       <c r="K83" s="74"/>
       <c r="L83" s="23" t="s">
@@ -3411,37 +3422,37 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="108"/>
-      <c r="B84" s="108"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="100" t="s">
         <v>102</v>
       </c>
       <c r="D84" s="100"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="108"/>
+      <c r="I84" s="130"/>
       <c r="J84" s="86"/>
       <c r="K84" s="86"/>
       <c r="L84" s="28"/>
     </row>
     <row r="85" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="108"/>
-      <c r="B85" s="108"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
       <c r="C85" s="100" t="s">
         <v>103</v>
       </c>
       <c r="D85" s="100"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
       <c r="G85" s="9">
         <v>3.5</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="108"/>
+      <c r="I85" s="130"/>
       <c r="J85" s="75">
         <v>43202</v>
       </c>
@@ -3453,19 +3464,19 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="108"/>
-      <c r="B86" s="108"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
       <c r="C86" s="100" t="s">
         <v>104</v>
       </c>
       <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
       <c r="G86" s="9">
         <v>3.5</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="108"/>
+      <c r="I86" s="130"/>
       <c r="J86" s="75">
         <v>43202</v>
       </c>
@@ -3477,19 +3488,19 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="108"/>
-      <c r="B87" s="108"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
       <c r="C87" s="100" t="s">
         <v>105</v>
       </c>
       <c r="D87" s="100"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="108"/>
+      <c r="I87" s="130"/>
       <c r="J87" s="86"/>
       <c r="K87" s="86"/>
       <c r="L87" s="28"/>
@@ -3501,10 +3512,10 @@
       <c r="B88" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="134" t="s">
+      <c r="C88" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="135"/>
+      <c r="D88" s="102"/>
       <c r="E88" s="99" t="s">
         <v>26</v>
       </c>
@@ -3523,19 +3534,19 @@
       <c r="K88" s="75">
         <v>43203</v>
       </c>
-      <c r="L88" s="128" t="s">
+      <c r="L88" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="107"/>
       <c r="B89" s="107"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="139"/>
-      <c r="E89" s="105" t="s">
+      <c r="C89" s="105"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="F89" s="106"/>
+      <c r="F89" s="135"/>
       <c r="G89" s="5">
         <v>3.5</v>
       </c>
@@ -3547,7 +3558,7 @@
       <c r="K89" s="75">
         <v>43203</v>
       </c>
-      <c r="L89" s="129"/>
+      <c r="L89" s="116"/>
     </row>
     <row r="90" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="107"/>
@@ -3565,13 +3576,13 @@
       <c r="I90" s="107"/>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
-      <c r="L90" s="130"/>
+      <c r="L90" s="117"/>
     </row>
     <row r="91" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="108">
+      <c r="A91" s="130">
         <v>8</v>
       </c>
-      <c r="B91" s="108" t="s">
+      <c r="B91" s="130" t="s">
         <v>109</v>
       </c>
       <c r="C91" s="100" t="s">
@@ -3584,7 +3595,7 @@
       <c r="F91" s="100"/>
       <c r="G91" s="12"/>
       <c r="H91" s="44"/>
-      <c r="I91" s="121">
+      <c r="I91" s="108">
         <f>SUM(G91:G139)</f>
         <v>0</v>
       </c>
@@ -3593,8 +3604,8 @@
       <c r="L91" s="87"/>
     </row>
     <row r="92" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="108"/>
-      <c r="B92" s="108"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="130"/>
       <c r="C92" s="100"/>
       <c r="D92" s="100"/>
       <c r="E92" s="100" t="s">
@@ -3603,14 +3614,14 @@
       <c r="F92" s="100"/>
       <c r="G92" s="12"/>
       <c r="H92" s="44"/>
-      <c r="I92" s="122"/>
+      <c r="I92" s="109"/>
       <c r="J92" s="44"/>
       <c r="K92" s="44"/>
       <c r="L92" s="87"/>
     </row>
     <row r="93" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="108"/>
-      <c r="B93" s="108"/>
+      <c r="A93" s="130"/>
+      <c r="B93" s="130"/>
       <c r="C93" s="100"/>
       <c r="D93" s="100"/>
       <c r="E93" s="100" t="s">
@@ -3619,14 +3630,14 @@
       <c r="F93" s="100"/>
       <c r="G93" s="12"/>
       <c r="H93" s="44"/>
-      <c r="I93" s="122"/>
+      <c r="I93" s="109"/>
       <c r="J93" s="44"/>
       <c r="K93" s="44"/>
       <c r="L93" s="87"/>
     </row>
     <row r="94" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="108"/>
-      <c r="B94" s="108"/>
+      <c r="A94" s="130"/>
+      <c r="B94" s="130"/>
       <c r="C94" s="100"/>
       <c r="D94" s="100"/>
       <c r="E94" s="100" t="s">
@@ -3635,14 +3646,14 @@
       <c r="F94" s="100"/>
       <c r="G94" s="12"/>
       <c r="H94" s="44"/>
-      <c r="I94" s="122"/>
+      <c r="I94" s="109"/>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
       <c r="L94" s="87"/>
     </row>
     <row r="95" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="108"/>
-      <c r="B95" s="108"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="100"/>
       <c r="D95" s="100"/>
       <c r="E95" s="100" t="s">
@@ -3651,62 +3662,62 @@
       <c r="F95" s="100"/>
       <c r="G95" s="12"/>
       <c r="H95" s="44"/>
-      <c r="I95" s="122"/>
+      <c r="I95" s="109"/>
       <c r="J95" s="44"/>
       <c r="K95" s="44"/>
       <c r="L95" s="87"/>
     </row>
     <row r="96" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="108"/>
-      <c r="B96" s="108"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="100" t="s">
         <v>112</v>
       </c>
       <c r="D96" s="100"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="108"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
       <c r="G96" s="12"/>
       <c r="H96" s="44"/>
-      <c r="I96" s="122"/>
+      <c r="I96" s="109"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="87"/>
     </row>
     <row r="97" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="108"/>
-      <c r="B97" s="108"/>
+      <c r="A97" s="130"/>
+      <c r="B97" s="130"/>
       <c r="C97" s="100" t="s">
         <v>113</v>
       </c>
       <c r="D97" s="100"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="130"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="122"/>
+      <c r="I97" s="109"/>
       <c r="J97" s="88"/>
       <c r="K97" s="88"/>
       <c r="L97" s="46"/>
     </row>
     <row r="98" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="108"/>
-      <c r="B98" s="108"/>
+      <c r="A98" s="130"/>
+      <c r="B98" s="130"/>
       <c r="C98" s="100" t="s">
         <v>77</v>
       </c>
       <c r="D98" s="100"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="108"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="130"/>
       <c r="G98" s="12"/>
       <c r="H98" s="44"/>
-      <c r="I98" s="122"/>
+      <c r="I98" s="109"/>
       <c r="J98" s="44"/>
       <c r="K98" s="44"/>
       <c r="L98" s="87"/>
     </row>
     <row r="99" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="108"/>
-      <c r="B99" s="108"/>
+      <c r="A99" s="130"/>
+      <c r="B99" s="130"/>
       <c r="C99" s="100" t="s">
         <v>114</v>
       </c>
@@ -3717,14 +3728,14 @@
       <c r="F99" s="100"/>
       <c r="G99" s="12"/>
       <c r="H99" s="44"/>
-      <c r="I99" s="122"/>
+      <c r="I99" s="109"/>
       <c r="J99" s="44"/>
       <c r="K99" s="44"/>
       <c r="L99" s="87"/>
     </row>
     <row r="100" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
       <c r="C100" s="100"/>
       <c r="D100" s="100"/>
       <c r="E100" s="100" t="s">
@@ -3733,14 +3744,14 @@
       <c r="F100" s="100"/>
       <c r="G100" s="12"/>
       <c r="H100" s="44"/>
-      <c r="I100" s="122"/>
+      <c r="I100" s="109"/>
       <c r="J100" s="44"/>
       <c r="K100" s="44"/>
       <c r="L100" s="87"/>
     </row>
     <row r="101" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="108"/>
-      <c r="B101" s="108"/>
+      <c r="A101" s="130"/>
+      <c r="B101" s="130"/>
       <c r="C101" s="100"/>
       <c r="D101" s="100"/>
       <c r="E101" s="100" t="s">
@@ -3749,14 +3760,14 @@
       <c r="F101" s="100"/>
       <c r="G101" s="12"/>
       <c r="H101" s="44"/>
-      <c r="I101" s="122"/>
+      <c r="I101" s="109"/>
       <c r="J101" s="44"/>
       <c r="K101" s="44"/>
       <c r="L101" s="87"/>
     </row>
     <row r="102" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="108"/>
-      <c r="B102" s="108"/>
+      <c r="A102" s="130"/>
+      <c r="B102" s="130"/>
       <c r="C102" s="100"/>
       <c r="D102" s="100"/>
       <c r="E102" s="100" t="s">
@@ -3765,14 +3776,14 @@
       <c r="F102" s="100"/>
       <c r="G102" s="12"/>
       <c r="H102" s="44"/>
-      <c r="I102" s="122"/>
+      <c r="I102" s="109"/>
       <c r="J102" s="44"/>
       <c r="K102" s="44"/>
       <c r="L102" s="87"/>
     </row>
     <row r="103" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="108"/>
-      <c r="B103" s="108"/>
+      <c r="A103" s="130"/>
+      <c r="B103" s="130"/>
       <c r="C103" s="100"/>
       <c r="D103" s="100"/>
       <c r="E103" s="100" t="s">
@@ -3781,14 +3792,14 @@
       <c r="F103" s="100"/>
       <c r="G103" s="12"/>
       <c r="H103" s="44"/>
-      <c r="I103" s="122"/>
+      <c r="I103" s="109"/>
       <c r="J103" s="44"/>
       <c r="K103" s="44"/>
       <c r="L103" s="87"/>
     </row>
     <row r="104" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="108"/>
-      <c r="B104" s="108"/>
+      <c r="A104" s="130"/>
+      <c r="B104" s="130"/>
       <c r="C104" s="100"/>
       <c r="D104" s="100"/>
       <c r="E104" s="100" t="s">
@@ -3797,14 +3808,14 @@
       <c r="F104" s="100"/>
       <c r="G104" s="12"/>
       <c r="H104" s="44"/>
-      <c r="I104" s="122"/>
+      <c r="I104" s="109"/>
       <c r="J104" s="44"/>
       <c r="K104" s="44"/>
       <c r="L104" s="87"/>
     </row>
     <row r="105" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="108"/>
-      <c r="B105" s="108"/>
+      <c r="A105" s="130"/>
+      <c r="B105" s="130"/>
       <c r="C105" s="100" t="s">
         <v>119</v>
       </c>
@@ -3813,14 +3824,14 @@
       <c r="F105" s="100"/>
       <c r="G105" s="12"/>
       <c r="H105" s="44"/>
-      <c r="I105" s="122"/>
+      <c r="I105" s="109"/>
       <c r="J105" s="44"/>
       <c r="K105" s="44"/>
       <c r="L105" s="87"/>
     </row>
     <row r="106" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
+      <c r="A106" s="130"/>
+      <c r="B106" s="130"/>
       <c r="C106" s="100" t="s">
         <v>120</v>
       </c>
@@ -3829,14 +3840,14 @@
       <c r="F106" s="100"/>
       <c r="G106" s="12"/>
       <c r="H106" s="44"/>
-      <c r="I106" s="122"/>
+      <c r="I106" s="109"/>
       <c r="J106" s="44"/>
       <c r="K106" s="44"/>
       <c r="L106" s="87"/>
     </row>
     <row r="107" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="108"/>
-      <c r="B107" s="108"/>
+      <c r="A107" s="130"/>
+      <c r="B107" s="130"/>
       <c r="C107" s="100" t="s">
         <v>121</v>
       </c>
@@ -3847,14 +3858,14 @@
       <c r="F107" s="100"/>
       <c r="G107" s="12"/>
       <c r="H107" s="44"/>
-      <c r="I107" s="122"/>
+      <c r="I107" s="109"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
       <c r="L107" s="87"/>
     </row>
     <row r="108" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="108"/>
-      <c r="B108" s="108"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="130"/>
       <c r="C108" s="100"/>
       <c r="D108" s="100"/>
       <c r="E108" s="100" t="s">
@@ -3863,160 +3874,160 @@
       <c r="F108" s="100"/>
       <c r="G108" s="12"/>
       <c r="H108" s="44"/>
-      <c r="I108" s="122"/>
+      <c r="I108" s="109"/>
       <c r="J108" s="44"/>
       <c r="K108" s="44"/>
       <c r="L108" s="87"/>
     </row>
     <row r="109" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="108"/>
-      <c r="B109" s="108"/>
+      <c r="A109" s="130"/>
+      <c r="B109" s="130"/>
       <c r="C109" s="100" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="100"/>
-      <c r="E109" s="109" t="s">
+      <c r="E109" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="F109" s="109"/>
+      <c r="F109" s="133"/>
       <c r="G109" s="12"/>
       <c r="H109" s="44"/>
-      <c r="I109" s="122"/>
+      <c r="I109" s="109"/>
       <c r="J109" s="44"/>
       <c r="K109" s="44"/>
       <c r="L109" s="87"/>
     </row>
     <row r="110" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
+      <c r="A110" s="130"/>
+      <c r="B110" s="130"/>
       <c r="C110" s="100"/>
       <c r="D110" s="100"/>
-      <c r="E110" s="109" t="s">
+      <c r="E110" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="109"/>
+      <c r="F110" s="133"/>
       <c r="G110" s="12"/>
       <c r="H110" s="44"/>
-      <c r="I110" s="122"/>
+      <c r="I110" s="109"/>
       <c r="J110" s="44"/>
       <c r="K110" s="44"/>
       <c r="L110" s="87"/>
     </row>
     <row r="111" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="108"/>
-      <c r="B111" s="108"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="130"/>
       <c r="C111" s="100"/>
       <c r="D111" s="100"/>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="F111" s="109"/>
+      <c r="F111" s="133"/>
       <c r="G111" s="12"/>
       <c r="H111" s="44"/>
-      <c r="I111" s="122"/>
+      <c r="I111" s="109"/>
       <c r="J111" s="44"/>
       <c r="K111" s="44"/>
       <c r="L111" s="87"/>
     </row>
     <row r="112" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="108"/>
-      <c r="B112" s="108"/>
+      <c r="A112" s="130"/>
+      <c r="B112" s="130"/>
       <c r="C112" s="100"/>
       <c r="D112" s="100"/>
-      <c r="E112" s="109" t="s">
+      <c r="E112" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="109"/>
+      <c r="F112" s="133"/>
       <c r="G112" s="12"/>
       <c r="H112" s="44"/>
-      <c r="I112" s="122"/>
+      <c r="I112" s="109"/>
       <c r="J112" s="44"/>
       <c r="K112" s="44"/>
       <c r="L112" s="87"/>
     </row>
     <row r="113" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="108"/>
-      <c r="B113" s="108"/>
+      <c r="A113" s="130"/>
+      <c r="B113" s="130"/>
       <c r="C113" s="100"/>
       <c r="D113" s="100"/>
-      <c r="E113" s="109" t="s">
+      <c r="E113" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="F113" s="109"/>
+      <c r="F113" s="133"/>
       <c r="G113" s="12"/>
       <c r="H113" s="44"/>
-      <c r="I113" s="122"/>
+      <c r="I113" s="109"/>
       <c r="J113" s="44"/>
       <c r="K113" s="44"/>
       <c r="L113" s="87"/>
     </row>
     <row r="114" spans="1:12" s="63" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="108"/>
-      <c r="B114" s="108"/>
+      <c r="A114" s="130"/>
+      <c r="B114" s="130"/>
       <c r="C114" s="100"/>
       <c r="D114" s="100"/>
-      <c r="E114" s="109" t="s">
+      <c r="E114" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="109"/>
+      <c r="F114" s="133"/>
       <c r="G114" s="12"/>
       <c r="H114" s="44"/>
-      <c r="I114" s="122"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="44"/>
       <c r="K114" s="44"/>
       <c r="L114" s="87"/>
     </row>
     <row r="115" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="108"/>
-      <c r="B115" s="108"/>
+      <c r="A115" s="130"/>
+      <c r="B115" s="130"/>
       <c r="C115" s="100"/>
       <c r="D115" s="100"/>
-      <c r="E115" s="109" t="s">
+      <c r="E115" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="F115" s="109"/>
+      <c r="F115" s="133"/>
       <c r="G115" s="12"/>
       <c r="H115" s="44"/>
-      <c r="I115" s="122"/>
+      <c r="I115" s="109"/>
       <c r="J115" s="44"/>
       <c r="K115" s="44"/>
       <c r="L115" s="87"/>
     </row>
     <row r="116" spans="1:12" s="63" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="108"/>
-      <c r="B116" s="108"/>
+      <c r="A116" s="130"/>
+      <c r="B116" s="130"/>
       <c r="C116" s="100"/>
       <c r="D116" s="100"/>
-      <c r="E116" s="109" t="s">
+      <c r="E116" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="F116" s="109"/>
+      <c r="F116" s="133"/>
       <c r="G116" s="12"/>
       <c r="H116" s="44"/>
-      <c r="I116" s="122"/>
+      <c r="I116" s="109"/>
       <c r="J116" s="44"/>
       <c r="K116" s="44"/>
       <c r="L116" s="87"/>
     </row>
     <row r="117" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="108"/>
-      <c r="B117" s="108"/>
+      <c r="A117" s="130"/>
+      <c r="B117" s="130"/>
       <c r="C117" s="100"/>
       <c r="D117" s="100"/>
-      <c r="E117" s="109" t="s">
+      <c r="E117" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="F117" s="109"/>
+      <c r="F117" s="133"/>
       <c r="G117" s="12"/>
       <c r="H117" s="44"/>
-      <c r="I117" s="122"/>
+      <c r="I117" s="109"/>
       <c r="J117" s="44"/>
       <c r="K117" s="44"/>
       <c r="L117" s="87"/>
     </row>
     <row r="118" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="108"/>
-      <c r="B118" s="108"/>
+      <c r="A118" s="130"/>
+      <c r="B118" s="130"/>
       <c r="C118" s="100"/>
       <c r="D118" s="100"/>
       <c r="E118" s="100" t="s">
@@ -4025,194 +4036,194 @@
       <c r="F118" s="100"/>
       <c r="G118" s="12"/>
       <c r="H118" s="44"/>
-      <c r="I118" s="122"/>
+      <c r="I118" s="109"/>
       <c r="J118" s="44"/>
       <c r="K118" s="44"/>
       <c r="L118" s="87"/>
     </row>
     <row r="119" spans="1:12" s="63" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="108"/>
-      <c r="B119" s="108"/>
+      <c r="A119" s="130"/>
+      <c r="B119" s="130"/>
       <c r="C119" s="100"/>
       <c r="D119" s="100"/>
-      <c r="E119" s="109" t="s">
+      <c r="E119" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="F119" s="109"/>
+      <c r="F119" s="133"/>
       <c r="G119" s="12"/>
       <c r="H119" s="44"/>
-      <c r="I119" s="122"/>
+      <c r="I119" s="109"/>
       <c r="J119" s="44"/>
       <c r="K119" s="44"/>
       <c r="L119" s="87"/>
     </row>
     <row r="120" spans="1:12" s="63" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="108"/>
-      <c r="B120" s="108"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="130"/>
       <c r="C120" s="100"/>
       <c r="D120" s="100"/>
-      <c r="E120" s="109" t="s">
+      <c r="E120" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="F120" s="109"/>
+      <c r="F120" s="133"/>
       <c r="G120" s="12"/>
       <c r="H120" s="44"/>
-      <c r="I120" s="122"/>
+      <c r="I120" s="109"/>
       <c r="J120" s="44"/>
       <c r="K120" s="44"/>
       <c r="L120" s="87"/>
     </row>
     <row r="121" spans="1:12" s="63" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="108"/>
-      <c r="B121" s="108"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="130"/>
       <c r="C121" s="100"/>
       <c r="D121" s="100"/>
-      <c r="E121" s="109" t="s">
+      <c r="E121" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="109"/>
+      <c r="F121" s="133"/>
       <c r="G121" s="12"/>
       <c r="H121" s="44"/>
-      <c r="I121" s="122"/>
+      <c r="I121" s="109"/>
       <c r="J121" s="44"/>
       <c r="K121" s="44"/>
       <c r="L121" s="87"/>
     </row>
     <row r="122" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="108"/>
-      <c r="B122" s="108"/>
+      <c r="A122" s="130"/>
+      <c r="B122" s="130"/>
       <c r="C122" s="100"/>
       <c r="D122" s="100"/>
-      <c r="E122" s="109" t="s">
+      <c r="E122" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="F122" s="109"/>
+      <c r="F122" s="133"/>
       <c r="G122" s="12"/>
       <c r="H122" s="44"/>
-      <c r="I122" s="122"/>
+      <c r="I122" s="109"/>
       <c r="J122" s="44"/>
       <c r="K122" s="44"/>
       <c r="L122" s="87"/>
     </row>
     <row r="123" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="108"/>
-      <c r="B123" s="108"/>
+      <c r="A123" s="130"/>
+      <c r="B123" s="130"/>
       <c r="C123" s="100"/>
       <c r="D123" s="100"/>
-      <c r="E123" s="109" t="s">
+      <c r="E123" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="F123" s="109"/>
+      <c r="F123" s="133"/>
       <c r="G123" s="12"/>
       <c r="H123" s="44"/>
-      <c r="I123" s="122"/>
+      <c r="I123" s="109"/>
       <c r="J123" s="44"/>
       <c r="K123" s="44"/>
       <c r="L123" s="87"/>
     </row>
     <row r="124" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="108"/>
-      <c r="B124" s="108"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="130"/>
       <c r="C124" s="100" t="s">
         <v>138</v>
       </c>
       <c r="D124" s="100"/>
-      <c r="E124" s="109" t="s">
+      <c r="E124" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="F124" s="109"/>
+      <c r="F124" s="133"/>
       <c r="G124" s="12"/>
       <c r="H124" s="44"/>
-      <c r="I124" s="122"/>
+      <c r="I124" s="109"/>
       <c r="J124" s="44"/>
       <c r="K124" s="44"/>
       <c r="L124" s="87"/>
     </row>
     <row r="125" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="108"/>
-      <c r="B125" s="108"/>
+      <c r="A125" s="130"/>
+      <c r="B125" s="130"/>
       <c r="C125" s="100"/>
       <c r="D125" s="100"/>
-      <c r="E125" s="109" t="s">
+      <c r="E125" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="F125" s="109"/>
+      <c r="F125" s="133"/>
       <c r="G125" s="12"/>
       <c r="H125" s="44"/>
-      <c r="I125" s="122"/>
+      <c r="I125" s="109"/>
       <c r="J125" s="44"/>
       <c r="K125" s="44"/>
       <c r="L125" s="87"/>
     </row>
     <row r="126" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="108"/>
-      <c r="B126" s="108"/>
+      <c r="A126" s="130"/>
+      <c r="B126" s="130"/>
       <c r="C126" s="100" t="s">
         <v>139</v>
       </c>
       <c r="D126" s="100"/>
-      <c r="E126" s="109" t="s">
+      <c r="E126" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="F126" s="109"/>
+      <c r="F126" s="133"/>
       <c r="G126" s="12"/>
       <c r="H126" s="44"/>
-      <c r="I126" s="122"/>
+      <c r="I126" s="109"/>
       <c r="J126" s="44"/>
       <c r="K126" s="44"/>
       <c r="L126" s="87"/>
     </row>
     <row r="127" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="108"/>
-      <c r="B127" s="108"/>
+      <c r="A127" s="130"/>
+      <c r="B127" s="130"/>
       <c r="C127" s="100"/>
       <c r="D127" s="100"/>
-      <c r="E127" s="109" t="s">
+      <c r="E127" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="F127" s="109"/>
+      <c r="F127" s="133"/>
       <c r="G127" s="12"/>
       <c r="H127" s="44"/>
-      <c r="I127" s="122"/>
+      <c r="I127" s="109"/>
       <c r="J127" s="44"/>
       <c r="K127" s="44"/>
       <c r="L127" s="87"/>
     </row>
     <row r="128" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="108"/>
-      <c r="B128" s="108"/>
+      <c r="A128" s="130"/>
+      <c r="B128" s="130"/>
       <c r="C128" s="100"/>
       <c r="D128" s="100"/>
-      <c r="E128" s="109" t="s">
+      <c r="E128" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="F128" s="109"/>
+      <c r="F128" s="133"/>
       <c r="G128" s="12"/>
       <c r="H128" s="44"/>
-      <c r="I128" s="122"/>
+      <c r="I128" s="109"/>
       <c r="J128" s="44"/>
       <c r="K128" s="44"/>
       <c r="L128" s="87"/>
     </row>
     <row r="129" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="108"/>
-      <c r="B129" s="108"/>
+      <c r="A129" s="130"/>
+      <c r="B129" s="130"/>
       <c r="C129" s="100"/>
       <c r="D129" s="100"/>
-      <c r="E129" s="109" t="s">
+      <c r="E129" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="109"/>
+      <c r="F129" s="133"/>
       <c r="G129" s="12"/>
       <c r="H129" s="44"/>
-      <c r="I129" s="122"/>
+      <c r="I129" s="109"/>
       <c r="J129" s="44"/>
       <c r="K129" s="44"/>
       <c r="L129" s="87"/>
     </row>
     <row r="130" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="108"/>
-      <c r="B130" s="108"/>
+      <c r="A130" s="130"/>
+      <c r="B130" s="130"/>
       <c r="C130" s="100" t="s">
         <v>143</v>
       </c>
@@ -4223,14 +4234,14 @@
       <c r="F130" s="100"/>
       <c r="G130" s="12"/>
       <c r="H130" s="44"/>
-      <c r="I130" s="122"/>
+      <c r="I130" s="109"/>
       <c r="J130" s="44"/>
       <c r="K130" s="44"/>
       <c r="L130" s="87"/>
     </row>
     <row r="131" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="108"/>
-      <c r="B131" s="108"/>
+      <c r="A131" s="130"/>
+      <c r="B131" s="130"/>
       <c r="C131" s="100"/>
       <c r="D131" s="100"/>
       <c r="E131" s="100" t="s">
@@ -4239,14 +4250,14 @@
       <c r="F131" s="100"/>
       <c r="G131" s="12"/>
       <c r="H131" s="44"/>
-      <c r="I131" s="122"/>
+      <c r="I131" s="109"/>
       <c r="J131" s="44"/>
       <c r="K131" s="44"/>
       <c r="L131" s="87"/>
     </row>
     <row r="132" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="108"/>
-      <c r="B132" s="108"/>
+      <c r="A132" s="130"/>
+      <c r="B132" s="130"/>
       <c r="C132" s="100"/>
       <c r="D132" s="100"/>
       <c r="E132" s="100" t="s">
@@ -4255,14 +4266,14 @@
       <c r="F132" s="100"/>
       <c r="G132" s="12"/>
       <c r="H132" s="44"/>
-      <c r="I132" s="122"/>
+      <c r="I132" s="109"/>
       <c r="J132" s="44"/>
       <c r="K132" s="44"/>
       <c r="L132" s="87"/>
     </row>
     <row r="133" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="108"/>
-      <c r="B133" s="108"/>
+      <c r="A133" s="130"/>
+      <c r="B133" s="130"/>
       <c r="C133" s="100" t="s">
         <v>146</v>
       </c>
@@ -4273,14 +4284,14 @@
       <c r="F133" s="100"/>
       <c r="G133" s="12"/>
       <c r="H133" s="44"/>
-      <c r="I133" s="122"/>
+      <c r="I133" s="109"/>
       <c r="J133" s="44"/>
       <c r="K133" s="44"/>
       <c r="L133" s="87"/>
     </row>
     <row r="134" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="108"/>
-      <c r="B134" s="108"/>
+      <c r="A134" s="130"/>
+      <c r="B134" s="130"/>
       <c r="C134" s="100"/>
       <c r="D134" s="100"/>
       <c r="E134" s="100" t="s">
@@ -4289,30 +4300,30 @@
       <c r="F134" s="100"/>
       <c r="G134" s="12"/>
       <c r="H134" s="44"/>
-      <c r="I134" s="122"/>
+      <c r="I134" s="109"/>
       <c r="J134" s="44"/>
       <c r="K134" s="44"/>
       <c r="L134" s="87"/>
     </row>
     <row r="135" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="108"/>
-      <c r="B135" s="108"/>
+      <c r="A135" s="130"/>
+      <c r="B135" s="130"/>
       <c r="C135" s="100"/>
       <c r="D135" s="100"/>
-      <c r="E135" s="109" t="s">
+      <c r="E135" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="109"/>
+      <c r="F135" s="133"/>
       <c r="G135" s="12"/>
       <c r="H135" s="44"/>
-      <c r="I135" s="122"/>
+      <c r="I135" s="109"/>
       <c r="J135" s="44"/>
       <c r="K135" s="44"/>
       <c r="L135" s="87"/>
     </row>
     <row r="136" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="108"/>
-      <c r="B136" s="108"/>
+      <c r="A136" s="130"/>
+      <c r="B136" s="130"/>
       <c r="C136" s="100" t="s">
         <v>149</v>
       </c>
@@ -4323,14 +4334,14 @@
       <c r="F136" s="100"/>
       <c r="G136" s="12"/>
       <c r="H136" s="44"/>
-      <c r="I136" s="122"/>
+      <c r="I136" s="109"/>
       <c r="J136" s="44"/>
       <c r="K136" s="44"/>
       <c r="L136" s="87"/>
     </row>
     <row r="137" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="108"/>
-      <c r="B137" s="108"/>
+      <c r="A137" s="130"/>
+      <c r="B137" s="130"/>
       <c r="C137" s="100"/>
       <c r="D137" s="100"/>
       <c r="E137" s="100" t="s">
@@ -4339,14 +4350,14 @@
       <c r="F137" s="100"/>
       <c r="G137" s="12"/>
       <c r="H137" s="44"/>
-      <c r="I137" s="122"/>
+      <c r="I137" s="109"/>
       <c r="J137" s="44"/>
       <c r="K137" s="44"/>
       <c r="L137" s="87"/>
     </row>
     <row r="138" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="108"/>
-      <c r="B138" s="108"/>
+      <c r="A138" s="130"/>
+      <c r="B138" s="130"/>
       <c r="C138" s="100"/>
       <c r="D138" s="100"/>
       <c r="E138" s="100" t="s">
@@ -4355,14 +4366,14 @@
       <c r="F138" s="100"/>
       <c r="G138" s="12"/>
       <c r="H138" s="44"/>
-      <c r="I138" s="122"/>
+      <c r="I138" s="109"/>
       <c r="J138" s="44"/>
       <c r="K138" s="44"/>
       <c r="L138" s="87"/>
     </row>
     <row r="139" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="108"/>
-      <c r="B139" s="108"/>
+      <c r="A139" s="130"/>
+      <c r="B139" s="130"/>
       <c r="C139" s="100"/>
       <c r="D139" s="100"/>
       <c r="E139" s="100" t="s">
@@ -4371,7 +4382,7 @@
       <c r="F139" s="100"/>
       <c r="G139" s="12"/>
       <c r="H139" s="44"/>
-      <c r="I139" s="123"/>
+      <c r="I139" s="110"/>
       <c r="J139" s="44"/>
       <c r="K139" s="44"/>
       <c r="L139" s="87"/>
@@ -4379,8 +4390,8 @@
     <row r="140" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="89"/>
       <c r="B140" s="89"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="110"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="131"/>
       <c r="E140" s="89"/>
       <c r="F140" s="89"/>
       <c r="G140" s="90"/>
@@ -4389,8 +4400,8 @@
     <row r="141" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="89"/>
       <c r="B141" s="89"/>
-      <c r="C141" s="110"/>
-      <c r="D141" s="110"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="131"/>
       <c r="E141" s="89"/>
       <c r="F141" s="89"/>
       <c r="G141" s="90"/>
@@ -4399,8 +4410,8 @@
     <row r="142" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="89"/>
       <c r="B142" s="89"/>
-      <c r="C142" s="110"/>
-      <c r="D142" s="110"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="131"/>
       <c r="E142" s="89"/>
       <c r="F142" s="89"/>
       <c r="G142" s="90"/>
@@ -4409,8 +4420,8 @@
     <row r="143" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="89"/>
       <c r="B143" s="89"/>
-      <c r="C143" s="110"/>
-      <c r="D143" s="110"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="131"/>
       <c r="E143" s="89"/>
       <c r="F143" s="89"/>
       <c r="G143" s="90"/>
@@ -4419,8 +4430,8 @@
     <row r="144" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="89"/>
       <c r="B144" s="89"/>
-      <c r="C144" s="110"/>
-      <c r="D144" s="110"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="131"/>
       <c r="E144" s="89"/>
       <c r="F144" s="89"/>
       <c r="G144" s="90"/>
@@ -4429,8 +4440,8 @@
     <row r="145" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="89"/>
       <c r="B145" s="89"/>
-      <c r="C145" s="110"/>
-      <c r="D145" s="110"/>
+      <c r="C145" s="131"/>
+      <c r="D145" s="131"/>
       <c r="E145" s="89"/>
       <c r="F145" s="89"/>
       <c r="G145" s="90"/>
@@ -4439,8 +4450,8 @@
     <row r="146" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="89"/>
       <c r="B146" s="89"/>
-      <c r="C146" s="110"/>
-      <c r="D146" s="110"/>
+      <c r="C146" s="131"/>
+      <c r="D146" s="131"/>
       <c r="E146" s="89"/>
       <c r="F146" s="89"/>
       <c r="G146" s="90"/>
@@ -4449,16 +4460,16 @@
     <row r="147" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="89"/>
       <c r="B147" s="89"/>
-      <c r="C147" s="110"/>
-      <c r="D147" s="110"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="131"/>
       <c r="E147" s="89"/>
       <c r="F147" s="89"/>
       <c r="G147" s="90"/>
       <c r="L147" s="95"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C148" s="111"/>
-      <c r="D148" s="111"/>
+      <c r="C148" s="132"/>
+      <c r="D148" s="132"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="91"/>
@@ -4506,40 +4517,189 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="C49:D57"/>
-    <mergeCell ref="C39:D45"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="C31:D38"/>
-    <mergeCell ref="C99:D104"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="C24:D30"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I91:I139"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="L9:L16"/>
-    <mergeCell ref="L24:L30"/>
-    <mergeCell ref="L31:L38"/>
-    <mergeCell ref="L39:L45"/>
-    <mergeCell ref="L49:L57"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="I19:I70"/>
-    <mergeCell ref="I71:I87"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C68:D70"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
     <mergeCell ref="C145:D145"/>
     <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
@@ -4564,194 +4724,45 @@
     <mergeCell ref="C136:D139"/>
     <mergeCell ref="C5:D8"/>
     <mergeCell ref="C9:D12"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="I19:I70"/>
+    <mergeCell ref="I71:I87"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="I91:I139"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="L9:L16"/>
+    <mergeCell ref="L24:L30"/>
+    <mergeCell ref="L31:L38"/>
+    <mergeCell ref="L39:L45"/>
+    <mergeCell ref="L49:L57"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="C49:D57"/>
+    <mergeCell ref="C39:D45"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="C31:D38"/>
+    <mergeCell ref="C99:D104"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="C91:D95"/>
+    <mergeCell ref="C24:D30"/>
     <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
     <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C68:D70"/>
     <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4767,8 +4778,8 @@
   <dimension ref="A1:CY144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4804,149 +4815,149 @@
       <c r="AQ1" s="18"/>
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="178" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="179"/>
-      <c r="G2" s="153" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="153" t="s">
+      <c r="I2" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="155" t="s">
+      <c r="K2" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="140" t="s">
+      <c r="M2" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="143" t="s">
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="143"/>
-      <c r="BA2" s="143"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="143"/>
-      <c r="BH2" s="143"/>
-      <c r="BI2" s="143"/>
-      <c r="BJ2" s="143"/>
-      <c r="BK2" s="143"/>
-      <c r="BL2" s="143"/>
-      <c r="BM2" s="143"/>
-      <c r="BN2" s="143"/>
-      <c r="BO2" s="143"/>
-      <c r="BP2" s="143"/>
-      <c r="BQ2" s="143"/>
-      <c r="BR2" s="143"/>
-      <c r="BS2" s="143"/>
-      <c r="BT2" s="143"/>
-      <c r="BU2" s="144"/>
-      <c r="BV2" s="140" t="s">
+      <c r="AR2" s="177"/>
+      <c r="AS2" s="177"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="177"/>
+      <c r="AV2" s="177"/>
+      <c r="AW2" s="177"/>
+      <c r="AX2" s="177"/>
+      <c r="AY2" s="177"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="177"/>
+      <c r="BB2" s="177"/>
+      <c r="BC2" s="177"/>
+      <c r="BD2" s="177"/>
+      <c r="BE2" s="177"/>
+      <c r="BF2" s="177"/>
+      <c r="BG2" s="177"/>
+      <c r="BH2" s="177"/>
+      <c r="BI2" s="177"/>
+      <c r="BJ2" s="177"/>
+      <c r="BK2" s="177"/>
+      <c r="BL2" s="177"/>
+      <c r="BM2" s="177"/>
+      <c r="BN2" s="177"/>
+      <c r="BO2" s="177"/>
+      <c r="BP2" s="177"/>
+      <c r="BQ2" s="177"/>
+      <c r="BR2" s="177"/>
+      <c r="BS2" s="177"/>
+      <c r="BT2" s="177"/>
+      <c r="BU2" s="178"/>
+      <c r="BV2" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="BW2" s="140"/>
-      <c r="BX2" s="140"/>
-      <c r="BY2" s="140"/>
-      <c r="BZ2" s="140"/>
-      <c r="CA2" s="140"/>
-      <c r="CB2" s="140"/>
-      <c r="CC2" s="140"/>
-      <c r="CD2" s="140"/>
-      <c r="CE2" s="140"/>
-      <c r="CF2" s="140"/>
-      <c r="CG2" s="140"/>
-      <c r="CH2" s="140"/>
-      <c r="CI2" s="140"/>
-      <c r="CJ2" s="140"/>
-      <c r="CK2" s="140"/>
-      <c r="CL2" s="140"/>
-      <c r="CM2" s="140"/>
-      <c r="CN2" s="140"/>
-      <c r="CO2" s="140"/>
-      <c r="CP2" s="140"/>
-      <c r="CQ2" s="140"/>
-      <c r="CR2" s="140"/>
-      <c r="CS2" s="140"/>
-      <c r="CT2" s="140"/>
-      <c r="CU2" s="140"/>
-      <c r="CV2" s="140"/>
-      <c r="CW2" s="140"/>
-      <c r="CX2" s="140"/>
-      <c r="CY2" s="145"/>
+      <c r="BW2" s="174"/>
+      <c r="BX2" s="174"/>
+      <c r="BY2" s="174"/>
+      <c r="BZ2" s="174"/>
+      <c r="CA2" s="174"/>
+      <c r="CB2" s="174"/>
+      <c r="CC2" s="174"/>
+      <c r="CD2" s="174"/>
+      <c r="CE2" s="174"/>
+      <c r="CF2" s="174"/>
+      <c r="CG2" s="174"/>
+      <c r="CH2" s="174"/>
+      <c r="CI2" s="174"/>
+      <c r="CJ2" s="174"/>
+      <c r="CK2" s="174"/>
+      <c r="CL2" s="174"/>
+      <c r="CM2" s="174"/>
+      <c r="CN2" s="174"/>
+      <c r="CO2" s="174"/>
+      <c r="CP2" s="174"/>
+      <c r="CQ2" s="174"/>
+      <c r="CR2" s="174"/>
+      <c r="CS2" s="174"/>
+      <c r="CT2" s="174"/>
+      <c r="CU2" s="174"/>
+      <c r="CV2" s="174"/>
+      <c r="CW2" s="174"/>
+      <c r="CX2" s="174"/>
+      <c r="CY2" s="179"/>
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="167"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="19">
         <v>1</v>
       </c>
@@ -5246,7 +5257,7 @@
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="127" t="s">
+      <c r="L4" s="114" t="s">
         <v>14</v>
       </c>
       <c r="AP4" s="39"/>
@@ -5300,7 +5311,7 @@
         <v>43222</v>
       </c>
       <c r="K5" s="24"/>
-      <c r="L5" s="127"/>
+      <c r="L5" s="114"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
       <c r="AP5" s="39"/>
@@ -5340,7 +5351,7 @@
       <c r="I6" s="107"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
-      <c r="L6" s="127"/>
+      <c r="L6" s="114"/>
       <c r="AP6" s="39"/>
       <c r="AS6" s="18"/>
       <c r="AT6" s="18"/>
@@ -5377,7 +5388,7 @@
       <c r="I7" s="107"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="127"/>
+      <c r="L7" s="114"/>
       <c r="AP7" s="39"/>
       <c r="BA7" s="18"/>
       <c r="BG7" s="18"/>
@@ -5413,7 +5424,7 @@
       <c r="I8" s="107"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="127"/>
+      <c r="L8" s="114"/>
       <c r="AP8" s="39"/>
       <c r="AW8" s="18"/>
       <c r="AX8" s="18"/>
@@ -5452,7 +5463,7 @@
       <c r="I9" s="107"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="127"/>
+      <c r="L9" s="114"/>
       <c r="AP9" s="39"/>
       <c r="AT9" s="18"/>
       <c r="BG9" s="18"/>
@@ -5473,10 +5484,10 @@
       <c r="CY9" s="40"/>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A10" s="108">
+      <c r="A10" s="130">
         <v>2</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="130" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="100" t="s">
@@ -5491,7 +5502,7 @@
         <v>3.5</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="108">
+      <c r="I10" s="130">
         <f>SUM(G10:G17)</f>
         <v>14</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>43222</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="128" t="s">
+      <c r="L10" s="115" t="s">
         <v>23</v>
       </c>
       <c r="AB10" s="18"/>
@@ -5525,8 +5536,8 @@
       <c r="CY10" s="40"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
       <c r="E11" s="100" t="s">
@@ -5537,10 +5548,10 @@
       <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="108"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="129"/>
+      <c r="L11" s="116"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
       <c r="AP11" s="39"/>
@@ -5564,8 +5575,8 @@
       <c r="CY11" s="40"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="100"/>
       <c r="D12" s="100"/>
       <c r="E12" s="100" t="s">
@@ -5576,10 +5587,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="108"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="129"/>
+      <c r="L12" s="116"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
       <c r="AP12" s="39"/>
@@ -5603,8 +5614,8 @@
       <c r="CY12" s="40"/>
     </row>
     <row r="13" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="100"/>
       <c r="D13" s="100"/>
       <c r="E13" s="100" t="s">
@@ -5615,10 +5626,10 @@
         <v>3.5</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="108"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="129"/>
+      <c r="L13" s="116"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
       <c r="AP13" s="39"/>
@@ -5642,22 +5653,22 @@
       <c r="CY13" s="40"/>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="101" t="s">
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="12"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="129"/>
+      <c r="L14" s="116"/>
       <c r="AP14" s="39"/>
       <c r="BG14" s="18"/>
       <c r="BH14" s="18"/>
@@ -5677,22 +5688,22 @@
       <c r="CY14" s="40"/>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="101" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="129"/>
+      <c r="L15" s="116"/>
       <c r="AP15" s="39"/>
       <c r="BG15" s="18"/>
       <c r="BH15" s="18"/>
@@ -5712,22 +5723,22 @@
       <c r="CY15" s="40"/>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="101" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="12"/>
       <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="108"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="129"/>
+      <c r="L16" s="116"/>
       <c r="AP16" s="39"/>
       <c r="BG16" s="18"/>
       <c r="BH16" s="18"/>
@@ -5747,22 +5758,22 @@
       <c r="CY16" s="40"/>
     </row>
     <row r="17" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="101" t="s">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="12"/>
       <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="108"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="130"/>
+      <c r="L17" s="117"/>
       <c r="AP17" s="39"/>
       <c r="BG17" s="18"/>
       <c r="BH17" s="18"/>
@@ -5788,10 +5799,10 @@
       <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="14"/>
       <c r="H18" s="5"/>
       <c r="I18" s="14"/>
@@ -5823,10 +5834,10 @@
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
       <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
@@ -5982,12 +5993,12 @@
     <row r="23" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A23" s="107"/>
       <c r="B23" s="107"/>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="5">
         <v>0</v>
       </c>
@@ -6021,12 +6032,12 @@
     <row r="24" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A24" s="107"/>
       <c r="B24" s="107"/>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="5">
         <v>0</v>
       </c>
@@ -6060,14 +6071,14 @@
     <row r="25" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A25" s="107"/>
       <c r="B25" s="107"/>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="105" t="s">
+      <c r="D25" s="102"/>
+      <c r="E25" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="106"/>
+      <c r="F25" s="135"/>
       <c r="G25" s="5">
         <v>4</v>
       </c>
@@ -6075,7 +6086,7 @@
       <c r="I25" s="107"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="128" t="s">
+      <c r="L25" s="115" t="s">
         <v>23</v>
       </c>
       <c r="U25" s="18"/>
@@ -6101,12 +6112,12 @@
     <row r="26" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A26" s="107"/>
       <c r="B26" s="107"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="105" t="s">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="106"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="5">
         <v>7</v>
       </c>
@@ -6114,7 +6125,7 @@
       <c r="I26" s="107"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="129"/>
+      <c r="L26" s="116"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="AP26" s="39"/>
@@ -6138,12 +6149,12 @@
     <row r="27" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A27" s="107"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="105" t="s">
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="106"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="5">
         <v>3</v>
       </c>
@@ -6151,7 +6162,7 @@
       <c r="I27" s="107"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="129"/>
+      <c r="L27" s="116"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="AP27" s="39"/>
@@ -6175,12 +6186,12 @@
     <row r="28" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A28" s="107"/>
       <c r="B28" s="107"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="105" t="s">
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="135"/>
       <c r="G28" s="5">
         <v>2</v>
       </c>
@@ -6192,7 +6203,7 @@
       <c r="K28" s="32">
         <v>43198</v>
       </c>
-      <c r="L28" s="129"/>
+      <c r="L28" s="116"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="AP28" s="39"/>
@@ -6216,12 +6227,12 @@
     <row r="29" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A29" s="107"/>
       <c r="B29" s="107"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="105" t="s">
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="106"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6" t="s">
         <v>29</v>
@@ -6229,7 +6240,7 @@
       <c r="I29" s="107"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="129"/>
+      <c r="L29" s="116"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="AP29" s="39"/>
@@ -6253,12 +6264,12 @@
     <row r="30" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A30" s="107"/>
       <c r="B30" s="107"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="105" t="s">
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6" t="s">
         <v>29</v>
@@ -6266,7 +6277,7 @@
       <c r="I30" s="107"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="129"/>
+      <c r="L30" s="116"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="AP30" s="39"/>
@@ -6282,12 +6293,12 @@
     <row r="31" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A31" s="107"/>
       <c r="B31" s="107"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="105" t="s">
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="106"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="5">
         <v>1</v>
       </c>
@@ -6295,7 +6306,7 @@
       <c r="I31" s="107"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="129"/>
+      <c r="L31" s="116"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
@@ -6314,14 +6325,14 @@
     <row r="32" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A32" s="107"/>
       <c r="B32" s="107"/>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="105" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="5">
         <v>4</v>
       </c>
@@ -6329,7 +6340,7 @@
       <c r="I32" s="107"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="128" t="s">
+      <c r="L32" s="115" t="s">
         <v>23</v>
       </c>
       <c r="M32" s="18"/>
@@ -6348,12 +6359,12 @@
     <row r="33" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A33" s="107"/>
       <c r="B33" s="107"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="105" t="s">
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="106"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="5">
         <v>5</v>
       </c>
@@ -6361,7 +6372,7 @@
       <c r="I33" s="107"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="129"/>
+      <c r="L33" s="116"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
@@ -6372,12 +6383,12 @@
     <row r="34" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A34" s="107"/>
       <c r="B34" s="107"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="105" t="s">
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="5">
         <v>14</v>
       </c>
@@ -6385,7 +6396,7 @@
       <c r="I34" s="107"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
-      <c r="L34" s="129"/>
+      <c r="L34" s="116"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -6396,12 +6407,12 @@
     <row r="35" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A35" s="107"/>
       <c r="B35" s="107"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="105" t="s">
+      <c r="C35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="106"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6" t="s">
         <v>29</v>
@@ -6413,7 +6424,7 @@
       <c r="K35" s="32">
         <v>43193</v>
       </c>
-      <c r="L35" s="129"/>
+      <c r="L35" s="116"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
@@ -6424,12 +6435,12 @@
     <row r="36" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A36" s="107"/>
       <c r="B36" s="107"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="105" t="s">
+      <c r="C36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6" t="s">
         <v>29</v>
@@ -6437,7 +6448,7 @@
       <c r="I36" s="107"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="129"/>
+      <c r="L36" s="116"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -6448,12 +6459,12 @@
     <row r="37" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A37" s="107"/>
       <c r="B37" s="107"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="105" t="s">
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="106"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6" t="s">
         <v>29</v>
@@ -6461,7 +6472,7 @@
       <c r="I37" s="107"/>
       <c r="J37" s="31"/>
       <c r="K37" s="31"/>
-      <c r="L37" s="129"/>
+      <c r="L37" s="116"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -6472,12 +6483,12 @@
     <row r="38" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A38" s="107"/>
       <c r="B38" s="107"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="105" t="s">
+      <c r="C38" s="103"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="106"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="5">
         <v>2</v>
       </c>
@@ -6485,7 +6496,7 @@
       <c r="I38" s="107"/>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="129"/>
+      <c r="L38" s="116"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -6496,12 +6507,12 @@
     <row r="39" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A39" s="107"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="105" t="s">
+      <c r="C39" s="103"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="106"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="5">
         <v>1</v>
       </c>
@@ -6509,7 +6520,7 @@
       <c r="I39" s="107"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
-      <c r="L39" s="130"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
@@ -6524,18 +6535,18 @@
         <v>56</v>
       </c>
       <c r="D40" s="99"/>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="112">
+      <c r="F40" s="139"/>
+      <c r="G40" s="121">
         <v>10.5</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="107"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
-      <c r="L40" s="131" t="s">
+      <c r="L40" s="118" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="18"/>
@@ -6550,16 +6561,16 @@
       <c r="B41" s="107"/>
       <c r="C41" s="99"/>
       <c r="D41" s="99"/>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="113"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="5"/>
       <c r="I41" s="107"/>
       <c r="J41" s="35"/>
       <c r="K41" s="35"/>
-      <c r="L41" s="132"/>
+      <c r="L41" s="119"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
@@ -6572,16 +6583,16 @@
       <c r="B42" s="107"/>
       <c r="C42" s="99"/>
       <c r="D42" s="99"/>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="104"/>
-      <c r="G42" s="113"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="5"/>
       <c r="I42" s="107"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35"/>
-      <c r="L42" s="132"/>
+      <c r="L42" s="119"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -6594,11 +6605,11 @@
       <c r="B43" s="107"/>
       <c r="C43" s="99"/>
       <c r="D43" s="99"/>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="113"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="5"/>
       <c r="I43" s="107"/>
       <c r="J43" s="36">
@@ -6607,7 +6618,7 @@
       <c r="K43" s="36">
         <v>43194</v>
       </c>
-      <c r="L43" s="132"/>
+      <c r="L43" s="119"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -6620,16 +6631,16 @@
       <c r="B44" s="107"/>
       <c r="C44" s="99"/>
       <c r="D44" s="99"/>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="113"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="5"/>
       <c r="I44" s="107"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
-      <c r="L44" s="132"/>
+      <c r="L44" s="119"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -6642,16 +6653,16 @@
       <c r="B45" s="107"/>
       <c r="C45" s="99"/>
       <c r="D45" s="99"/>
-      <c r="E45" s="104" t="s">
+      <c r="E45" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="113"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="122"/>
       <c r="H45" s="5"/>
       <c r="I45" s="107"/>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
-      <c r="L45" s="132"/>
+      <c r="L45" s="119"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
@@ -6669,16 +6680,16 @@
       <c r="B46" s="107"/>
       <c r="C46" s="99"/>
       <c r="D46" s="99"/>
-      <c r="E46" s="104" t="s">
+      <c r="E46" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="104"/>
-      <c r="G46" s="114"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="123"/>
       <c r="H46" s="5"/>
       <c r="I46" s="107"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="133"/>
+      <c r="L46" s="120"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -6698,8 +6709,8 @@
         <v>63</v>
       </c>
       <c r="D47" s="99"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="14">
         <v>3.5</v>
       </c>
@@ -6728,12 +6739,12 @@
     <row r="48" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A48" s="107"/>
       <c r="B48" s="107"/>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="5">
         <v>10</v>
       </c>
@@ -6780,8 +6791,8 @@
         <v>65</v>
       </c>
       <c r="D49" s="99"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
       <c r="G49" s="16">
         <v>3.5</v>
       </c>
@@ -6833,14 +6844,14 @@
         <v>67</v>
       </c>
       <c r="F50" s="99"/>
-      <c r="G50" s="112">
+      <c r="G50" s="121">
         <v>21</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="107"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="131" t="s">
+      <c r="L50" s="118" t="s">
         <v>14</v>
       </c>
       <c r="U50" s="18"/>
@@ -6878,12 +6889,12 @@
         <v>68</v>
       </c>
       <c r="F51" s="99"/>
-      <c r="G51" s="113"/>
+      <c r="G51" s="122"/>
       <c r="H51" s="5"/>
       <c r="I51" s="107"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="132"/>
+      <c r="L51" s="119"/>
       <c r="U51" s="18"/>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
@@ -6919,12 +6930,12 @@
         <v>69</v>
       </c>
       <c r="F52" s="99"/>
-      <c r="G52" s="113"/>
+      <c r="G52" s="122"/>
       <c r="H52" s="5"/>
       <c r="I52" s="107"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
-      <c r="L52" s="132"/>
+      <c r="L52" s="119"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
       <c r="W52" s="18"/>
@@ -6960,12 +6971,12 @@
         <v>70</v>
       </c>
       <c r="F53" s="99"/>
-      <c r="G53" s="113"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="5"/>
       <c r="I53" s="107"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
-      <c r="L53" s="132"/>
+      <c r="L53" s="119"/>
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
@@ -7001,7 +7012,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="99"/>
-      <c r="G54" s="113"/>
+      <c r="G54" s="122"/>
       <c r="H54" s="5"/>
       <c r="I54" s="107"/>
       <c r="J54" s="36">
@@ -7010,7 +7021,7 @@
       <c r="K54" s="36">
         <v>43203</v>
       </c>
-      <c r="L54" s="132"/>
+      <c r="L54" s="119"/>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
       <c r="W54" s="18"/>
@@ -7046,12 +7057,12 @@
         <v>71</v>
       </c>
       <c r="F55" s="99"/>
-      <c r="G55" s="113"/>
+      <c r="G55" s="122"/>
       <c r="H55" s="5"/>
       <c r="I55" s="107"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
-      <c r="L55" s="132"/>
+      <c r="L55" s="119"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
@@ -7087,12 +7098,12 @@
         <v>72</v>
       </c>
       <c r="F56" s="99"/>
-      <c r="G56" s="113"/>
+      <c r="G56" s="122"/>
       <c r="H56" s="5"/>
       <c r="I56" s="107"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
-      <c r="L56" s="132"/>
+      <c r="L56" s="119"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
@@ -7128,12 +7139,12 @@
         <v>73</v>
       </c>
       <c r="F57" s="99"/>
-      <c r="G57" s="113"/>
+      <c r="G57" s="122"/>
       <c r="H57" s="5"/>
       <c r="I57" s="107"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
-      <c r="L57" s="132"/>
+      <c r="L57" s="119"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -7169,12 +7180,12 @@
         <v>74</v>
       </c>
       <c r="F58" s="99"/>
-      <c r="G58" s="114"/>
+      <c r="G58" s="123"/>
       <c r="H58" s="5"/>
       <c r="I58" s="107"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
-      <c r="L58" s="133"/>
+      <c r="L58" s="120"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
       <c r="W58" s="18"/>
@@ -7208,8 +7219,8 @@
         <v>75</v>
       </c>
       <c r="D59" s="99"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="16">
         <v>3.5</v>
       </c>
@@ -7255,8 +7266,8 @@
         <v>76</v>
       </c>
       <c r="D60" s="99"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
       <c r="G60" s="5">
         <v>7</v>
       </c>
@@ -7304,8 +7315,8 @@
         <v>77</v>
       </c>
       <c r="D61" s="99"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
       <c r="G61" s="5">
         <v>7</v>
       </c>
@@ -7353,8 +7364,8 @@
         <v>34</v>
       </c>
       <c r="D62" s="99"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
       <c r="G62" s="5">
         <v>8</v>
       </c>
@@ -7402,8 +7413,8 @@
         <v>78</v>
       </c>
       <c r="D63" s="99"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
       <c r="G63" s="5">
         <v>8</v>
       </c>
@@ -7451,8 +7462,8 @@
         <v>79</v>
       </c>
       <c r="D64" s="99"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="5">
         <v>8</v>
       </c>
@@ -7500,8 +7511,8 @@
         <v>80</v>
       </c>
       <c r="D65" s="99"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="5">
         <v>8</v>
       </c>
@@ -7549,8 +7560,8 @@
         <v>81</v>
       </c>
       <c r="D66" s="99"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
       <c r="G66" s="5">
         <v>8</v>
       </c>
@@ -7598,8 +7609,8 @@
         <v>82</v>
       </c>
       <c r="D67" s="99"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
       <c r="G67" s="5">
         <v>8</v>
       </c>
@@ -7647,8 +7658,8 @@
         <v>83</v>
       </c>
       <c r="D68" s="99"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
       <c r="G68" s="5">
         <v>21</v>
       </c>
@@ -7695,18 +7706,18 @@
         <v>24</v>
       </c>
       <c r="F69" s="99"/>
-      <c r="G69" s="112">
+      <c r="G69" s="121">
         <v>7</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="107"/>
-      <c r="J69" s="157">
+      <c r="J69" s="146">
         <v>43203</v>
       </c>
-      <c r="K69" s="157">
+      <c r="K69" s="146">
         <v>43203</v>
       </c>
-      <c r="L69" s="168" t="s">
+      <c r="L69" s="157" t="s">
         <v>158</v>
       </c>
       <c r="U69" s="18"/>
@@ -7739,12 +7750,12 @@
         <v>53</v>
       </c>
       <c r="F70" s="99"/>
-      <c r="G70" s="113"/>
+      <c r="G70" s="122"/>
       <c r="H70" s="5"/>
       <c r="I70" s="107"/>
-      <c r="J70" s="158"/>
-      <c r="K70" s="158"/>
-      <c r="L70" s="169"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="158"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
@@ -7775,12 +7786,12 @@
         <v>85</v>
       </c>
       <c r="F71" s="99"/>
-      <c r="G71" s="114"/>
+      <c r="G71" s="123"/>
       <c r="H71" s="5"/>
       <c r="I71" s="107"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="159"/>
-      <c r="L71" s="170"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="159"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -7803,25 +7814,25 @@
       <c r="CY71" s="40"/>
     </row>
     <row r="72" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A72" s="108">
+      <c r="A72" s="130">
         <v>6</v>
       </c>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="101"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
       <c r="G72" s="9">
         <v>0</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="108">
+      <c r="I72" s="130">
         <f>SUM(G72:G88)</f>
         <v>21</v>
       </c>
@@ -7835,8 +7846,8 @@
       <c r="CY72" s="40"/>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="100" t="s">
         <v>88</v>
       </c>
@@ -7845,16 +7856,16 @@
         <v>89</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="115">
+      <c r="G73" s="124">
         <v>0</v>
       </c>
-      <c r="H73" s="118" t="s">
+      <c r="H73" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="108"/>
+      <c r="I73" s="130"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="131" t="s">
+      <c r="L73" s="118" t="s">
         <v>14</v>
       </c>
       <c r="AP73" s="39"/>
@@ -7862,40 +7873,40 @@
       <c r="CY73" s="40"/>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A74" s="108"/>
-      <c r="B74" s="108"/>
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="100"/>
       <c r="D74" s="100"/>
       <c r="E74" s="100" t="s">
         <v>90</v>
       </c>
       <c r="F74" s="100"/>
-      <c r="G74" s="116"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="108"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="130"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33"/>
-      <c r="L74" s="133"/>
+      <c r="L74" s="120"/>
       <c r="AP74" s="39"/>
       <c r="BU74" s="40"/>
       <c r="CY74" s="40"/>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A75" s="108"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="100" t="s">
         <v>91</v>
       </c>
       <c r="D75" s="100"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="108"/>
+      <c r="I75" s="130"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23" t="s">
@@ -7906,21 +7917,21 @@
       <c r="CY75" s="40"/>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="100" t="s">
         <v>92</v>
       </c>
       <c r="D76" s="100"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="136"/>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="108"/>
+      <c r="I76" s="130"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23" t="s">
@@ -7931,21 +7942,21 @@
       <c r="CY76" s="40"/>
     </row>
     <row r="77" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A77" s="108"/>
-      <c r="B77" s="108"/>
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="100" t="s">
         <v>93</v>
       </c>
       <c r="D77" s="100"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
       <c r="G77" s="9">
         <v>0</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="108"/>
+      <c r="I77" s="130"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23" t="s">
@@ -7956,8 +7967,8 @@
       <c r="CY77" s="40"/>
     </row>
     <row r="78" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A78" s="108"/>
-      <c r="B78" s="108"/>
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
       <c r="C78" s="100" t="s">
         <v>94</v>
       </c>
@@ -7966,16 +7977,16 @@
         <v>85</v>
       </c>
       <c r="F78" s="100"/>
-      <c r="G78" s="115">
+      <c r="G78" s="124">
         <v>14</v>
       </c>
-      <c r="H78" s="118" t="s">
+      <c r="H78" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="108"/>
+      <c r="I78" s="130"/>
       <c r="J78" s="30"/>
       <c r="K78" s="30"/>
-      <c r="L78" s="131" t="s">
+      <c r="L78" s="118" t="s">
         <v>14</v>
       </c>
       <c r="AP78" s="39"/>
@@ -7983,78 +7994,78 @@
       <c r="CY78" s="40"/>
     </row>
     <row r="79" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="100"/>
       <c r="D79" s="100"/>
       <c r="E79" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="108"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="130"/>
       <c r="J79" s="31"/>
       <c r="K79" s="31"/>
-      <c r="L79" s="132"/>
+      <c r="L79" s="119"/>
       <c r="AP79" s="39"/>
       <c r="BU79" s="40"/>
       <c r="CY79" s="40"/>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="100"/>
       <c r="D80" s="100"/>
       <c r="E80" s="100" t="s">
         <v>97</v>
       </c>
       <c r="F80" s="100"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="120"/>
-      <c r="I80" s="108"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="130"/>
       <c r="J80" s="31"/>
       <c r="K80" s="31"/>
-      <c r="L80" s="132"/>
+      <c r="L80" s="119"/>
       <c r="AP80" s="39"/>
       <c r="BU80" s="40"/>
       <c r="CY80" s="40"/>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="130"/>
+      <c r="B81" s="130"/>
       <c r="C81" s="100"/>
       <c r="D81" s="100"/>
       <c r="E81" s="100" t="s">
         <v>98</v>
       </c>
       <c r="F81" s="100"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="119"/>
-      <c r="I81" s="108"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="130"/>
       <c r="J81" s="33"/>
       <c r="K81" s="33"/>
-      <c r="L81" s="133"/>
+      <c r="L81" s="120"/>
       <c r="AP81" s="39"/>
       <c r="BU81" s="40"/>
       <c r="CY81" s="40"/>
     </row>
     <row r="82" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="100" t="s">
         <v>99</v>
       </c>
       <c r="D82" s="100"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
       <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="108"/>
+      <c r="I82" s="130"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23" t="s">
@@ -8065,21 +8076,21 @@
       <c r="CY82" s="40"/>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
       <c r="C83" s="100" t="s">
         <v>100</v>
       </c>
       <c r="D83" s="100"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
       <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="108"/>
+      <c r="I83" s="130"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23" t="s">
@@ -8106,21 +8117,21 @@
       <c r="CY83" s="40"/>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A84" s="108"/>
-      <c r="B84" s="108"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="100" t="s">
         <v>101</v>
       </c>
       <c r="D84" s="100"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
       <c r="G84" s="9">
         <v>0</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="108"/>
+      <c r="I84" s="130"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23" t="s">
@@ -8147,19 +8158,19 @@
       <c r="CY84" s="40"/>
     </row>
     <row r="85" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A85" s="108"/>
-      <c r="B85" s="108"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="130"/>
       <c r="C85" s="100" t="s">
         <v>102</v>
       </c>
       <c r="D85" s="100"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="108"/>
+      <c r="I85" s="130"/>
       <c r="J85" s="26"/>
       <c r="K85" s="26"/>
       <c r="L85" s="28"/>
@@ -8184,19 +8195,19 @@
       <c r="CY85" s="40"/>
     </row>
     <row r="86" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A86" s="108"/>
-      <c r="B86" s="108"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
       <c r="C86" s="100" t="s">
         <v>103</v>
       </c>
       <c r="D86" s="100"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
       <c r="G86" s="9">
         <v>3.5</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="108"/>
+      <c r="I86" s="130"/>
       <c r="J86" s="24" t="s">
         <v>29</v>
       </c>
@@ -8232,19 +8243,19 @@
       <c r="CY86" s="40"/>
     </row>
     <row r="87" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A87" s="108"/>
-      <c r="B87" s="108"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
       <c r="C87" s="100" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="100"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
       <c r="G87" s="9">
         <v>3.5</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="108"/>
+      <c r="I87" s="130"/>
       <c r="J87" s="24" t="s">
         <v>29</v>
       </c>
@@ -8280,19 +8291,19 @@
       <c r="CY87" s="40"/>
     </row>
     <row r="88" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A88" s="108"/>
-      <c r="B88" s="108"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
       <c r="C88" s="100" t="s">
         <v>105</v>
       </c>
       <c r="D88" s="100"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="108"/>
+      <c r="I88" s="130"/>
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
       <c r="L88" s="28"/>
@@ -8327,10 +8338,10 @@
       <c r="B89" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="134" t="s">
+      <c r="C89" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="135"/>
+      <c r="D89" s="102"/>
       <c r="E89" s="99" t="s">
         <v>26</v>
       </c>
@@ -8345,7 +8356,7 @@
       </c>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="128" t="s">
+      <c r="L89" s="115" t="s">
         <v>23</v>
       </c>
       <c r="Y89" s="18"/>
@@ -8375,12 +8386,12 @@
     <row r="90" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A90" s="107"/>
       <c r="B90" s="107"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="105" t="s">
+      <c r="C90" s="105"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="F90" s="106"/>
+      <c r="F90" s="135"/>
       <c r="G90" s="5">
         <v>3.5</v>
       </c>
@@ -8388,7 +8399,7 @@
       <c r="I90" s="107"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="129"/>
+      <c r="L90" s="116"/>
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
       <c r="AA90" s="18"/>
@@ -8429,7 +8440,7 @@
       <c r="I91" s="107"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="130"/>
+      <c r="L91" s="117"/>
       <c r="AP91" s="39"/>
       <c r="BB91" s="18"/>
       <c r="BC91" s="18"/>
@@ -8451,10 +8462,10 @@
       <c r="CY91" s="40"/>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A92" s="108">
+      <c r="A92" s="130">
         <v>8</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="130" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="100" t="s">
@@ -8466,20 +8477,20 @@
       </c>
       <c r="F92" s="100"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="115">
+      <c r="H92" s="124">
         <v>21</v>
       </c>
-      <c r="I92" s="121">
+      <c r="I92" s="108">
         <f>SUM(G92:G141)</f>
         <v>254.5</v>
       </c>
-      <c r="J92" s="160">
+      <c r="J92" s="149">
         <v>43207</v>
       </c>
-      <c r="K92" s="160">
+      <c r="K92" s="149">
         <v>43209</v>
       </c>
-      <c r="L92" s="171" t="s">
+      <c r="L92" s="160" t="s">
         <v>14</v>
       </c>
       <c r="AP92" s="39"/>
@@ -8503,8 +8514,8 @@
       <c r="CY92" s="40"/>
     </row>
     <row r="93" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A93" s="108"/>
-      <c r="B93" s="108"/>
+      <c r="A93" s="130"/>
+      <c r="B93" s="130"/>
       <c r="C93" s="100"/>
       <c r="D93" s="100"/>
       <c r="E93" s="100" t="s">
@@ -8512,11 +8523,11 @@
       </c>
       <c r="F93" s="100"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="172"/>
+      <c r="H93" s="126"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="126"/>
+      <c r="K93" s="126"/>
+      <c r="L93" s="161"/>
       <c r="AP93" s="39"/>
       <c r="BB93" s="18"/>
       <c r="BC93" s="18"/>
@@ -8538,8 +8549,8 @@
       <c r="CY93" s="40"/>
     </row>
     <row r="94" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A94" s="108"/>
-      <c r="B94" s="108"/>
+      <c r="A94" s="130"/>
+      <c r="B94" s="130"/>
       <c r="C94" s="100"/>
       <c r="D94" s="100"/>
       <c r="E94" s="100" t="s">
@@ -8547,11 +8558,11 @@
       </c>
       <c r="F94" s="100"/>
       <c r="G94" s="12"/>
-      <c r="H94" s="117"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="117"/>
-      <c r="K94" s="117"/>
-      <c r="L94" s="172"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="161"/>
       <c r="AP94" s="39"/>
       <c r="BB94" s="18"/>
       <c r="BC94" s="18"/>
@@ -8573,8 +8584,8 @@
       <c r="CY94" s="40"/>
     </row>
     <row r="95" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A95" s="108"/>
-      <c r="B95" s="108"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="100"/>
       <c r="D95" s="100"/>
       <c r="E95" s="100" t="s">
@@ -8582,11 +8593,11 @@
       </c>
       <c r="F95" s="100"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="117"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="117"/>
-      <c r="K95" s="117"/>
-      <c r="L95" s="172"/>
+      <c r="H95" s="126"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="126"/>
+      <c r="K95" s="126"/>
+      <c r="L95" s="161"/>
       <c r="AP95" s="39"/>
       <c r="BB95" s="18"/>
       <c r="BC95" s="18"/>
@@ -8608,8 +8619,8 @@
       <c r="CY95" s="40"/>
     </row>
     <row r="96" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A96" s="108"/>
-      <c r="B96" s="108"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="100"/>
       <c r="D96" s="100"/>
       <c r="E96" s="100" t="s">
@@ -8617,11 +8628,11 @@
       </c>
       <c r="F96" s="100"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="116"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="116"/>
-      <c r="L96" s="173"/>
+      <c r="H96" s="125"/>
+      <c r="I96" s="109"/>
+      <c r="J96" s="125"/>
+      <c r="K96" s="125"/>
+      <c r="L96" s="162"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
       <c r="AD96" s="18"/>
@@ -8656,19 +8667,19 @@
       <c r="CY96" s="40"/>
     </row>
     <row r="97" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A97" s="108"/>
-      <c r="B97" s="108"/>
+      <c r="A97" s="130"/>
+      <c r="B97" s="130"/>
       <c r="C97" s="100" t="s">
         <v>112</v>
       </c>
       <c r="D97" s="100"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="130"/>
       <c r="G97" s="12">
         <v>8</v>
       </c>
       <c r="H97" s="43"/>
-      <c r="I97" s="122"/>
+      <c r="I97" s="109"/>
       <c r="J97" s="49">
         <v>43210</v>
       </c>
@@ -8712,19 +8723,19 @@
       <c r="CY97" s="40"/>
     </row>
     <row r="98" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A98" s="108"/>
-      <c r="B98" s="108"/>
+      <c r="A98" s="130"/>
+      <c r="B98" s="130"/>
       <c r="C98" s="100" t="s">
         <v>113</v>
       </c>
       <c r="D98" s="100"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="108"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="130"/>
       <c r="G98" s="12">
         <v>8</v>
       </c>
       <c r="H98" s="44"/>
-      <c r="I98" s="122"/>
+      <c r="I98" s="109"/>
       <c r="J98" s="49">
         <v>43213</v>
       </c>
@@ -8752,19 +8763,19 @@
       <c r="CY98" s="40"/>
     </row>
     <row r="99" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A99" s="108"/>
-      <c r="B99" s="108"/>
+      <c r="A99" s="130"/>
+      <c r="B99" s="130"/>
       <c r="C99" s="100" t="s">
         <v>77</v>
       </c>
       <c r="D99" s="100"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="130"/>
       <c r="G99" s="12">
         <v>3.5</v>
       </c>
       <c r="H99" s="44"/>
-      <c r="I99" s="122"/>
+      <c r="I99" s="109"/>
       <c r="J99" s="24">
         <v>43206</v>
       </c>
@@ -8792,8 +8803,8 @@
       <c r="CY99" s="40"/>
     </row>
     <row r="100" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
       <c r="C100" s="100" t="s">
         <v>114</v>
       </c>
@@ -8806,14 +8817,14 @@
         <v>7</v>
       </c>
       <c r="H100" s="45"/>
-      <c r="I100" s="122"/>
+      <c r="I100" s="109"/>
       <c r="J100" s="51">
         <v>43199</v>
       </c>
       <c r="K100" s="51">
         <v>43199</v>
       </c>
-      <c r="L100" s="174" t="s">
+      <c r="L100" s="142" t="s">
         <v>23</v>
       </c>
       <c r="AB100" s="18"/>
@@ -8834,26 +8845,26 @@
       <c r="CY100" s="40"/>
     </row>
     <row r="101" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A101" s="108"/>
-      <c r="B101" s="108"/>
+      <c r="A101" s="130"/>
+      <c r="B101" s="130"/>
       <c r="C101" s="100"/>
       <c r="D101" s="100"/>
-      <c r="E101" s="146" t="s">
+      <c r="E101" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="F101" s="147"/>
+      <c r="F101" s="173"/>
       <c r="G101" s="12">
         <v>3.5</v>
       </c>
       <c r="H101" s="45"/>
-      <c r="I101" s="122"/>
+      <c r="I101" s="109"/>
       <c r="J101" s="51">
         <v>43200</v>
       </c>
       <c r="K101" s="51">
         <v>43200</v>
       </c>
-      <c r="L101" s="175"/>
+      <c r="L101" s="143"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
       <c r="AD101" s="18"/>
@@ -8872,8 +8883,8 @@
       <c r="CY101" s="40"/>
     </row>
     <row r="102" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A102" s="108"/>
-      <c r="B102" s="108"/>
+      <c r="A102" s="130"/>
+      <c r="B102" s="130"/>
       <c r="C102" s="100"/>
       <c r="D102" s="100"/>
       <c r="E102" s="100" t="s">
@@ -8884,14 +8895,14 @@
         <v>18</v>
       </c>
       <c r="H102" s="45"/>
-      <c r="I102" s="122"/>
+      <c r="I102" s="109"/>
       <c r="J102" s="51">
         <v>43200</v>
       </c>
       <c r="K102" s="51">
         <v>43202</v>
       </c>
-      <c r="L102" s="175"/>
+      <c r="L102" s="143"/>
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
       <c r="AD102" s="18"/>
@@ -8910,8 +8921,8 @@
       <c r="CY102" s="40"/>
     </row>
     <row r="103" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A103" s="108"/>
-      <c r="B103" s="108"/>
+      <c r="A103" s="130"/>
+      <c r="B103" s="130"/>
       <c r="C103" s="100"/>
       <c r="D103" s="100"/>
       <c r="E103" s="100" t="s">
@@ -8921,15 +8932,15 @@
       <c r="G103" s="12">
         <v>10.5</v>
       </c>
-      <c r="H103" s="182"/>
-      <c r="I103" s="122"/>
-      <c r="J103" s="183">
+      <c r="H103" s="97"/>
+      <c r="I103" s="109"/>
+      <c r="J103" s="98">
         <v>43203</v>
       </c>
-      <c r="K103" s="183">
+      <c r="K103" s="98">
         <v>43206</v>
       </c>
-      <c r="L103" s="175"/>
+      <c r="L103" s="143"/>
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
       <c r="AD103" s="18"/>
@@ -8948,26 +8959,26 @@
       <c r="CY103" s="40"/>
     </row>
     <row r="104" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A104" s="108"/>
-      <c r="B104" s="108"/>
+      <c r="A104" s="130"/>
+      <c r="B104" s="130"/>
       <c r="C104" s="100"/>
       <c r="D104" s="100"/>
       <c r="E104" s="100" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="F104" s="100"/>
       <c r="G104" s="12">
         <v>3.5</v>
       </c>
-      <c r="H104" s="44"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="52">
+      <c r="H104" s="45"/>
+      <c r="I104" s="109"/>
+      <c r="J104" s="51">
         <v>43206</v>
       </c>
-      <c r="K104" s="52">
+      <c r="K104" s="51">
         <v>43206</v>
       </c>
-      <c r="L104" s="175"/>
+      <c r="L104" s="143"/>
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
       <c r="AD104" s="18"/>
@@ -8986,8 +8997,8 @@
       <c r="CY104" s="40"/>
     </row>
     <row r="105" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A105" s="108"/>
-      <c r="B105" s="108"/>
+      <c r="A105" s="130"/>
+      <c r="B105" s="130"/>
       <c r="C105" s="100"/>
       <c r="D105" s="100"/>
       <c r="E105" s="100" t="s">
@@ -8998,14 +9009,14 @@
         <v>3.5</v>
       </c>
       <c r="H105" s="44"/>
-      <c r="I105" s="122"/>
+      <c r="I105" s="109"/>
       <c r="J105" s="52">
         <v>43207</v>
       </c>
       <c r="K105" s="52">
         <v>43207</v>
       </c>
-      <c r="L105" s="175"/>
+      <c r="L105" s="143"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
       <c r="AD105" s="18"/>
@@ -9038,26 +9049,26 @@
       <c r="CY105" s="40"/>
     </row>
     <row r="106" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
+      <c r="A106" s="130"/>
+      <c r="B106" s="130"/>
       <c r="C106" s="100"/>
       <c r="D106" s="100"/>
       <c r="E106" s="100" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="F106" s="100"/>
       <c r="G106" s="12">
         <v>3.5</v>
       </c>
       <c r="H106" s="44"/>
-      <c r="I106" s="122"/>
+      <c r="I106" s="109"/>
       <c r="J106" s="52">
         <v>43207</v>
       </c>
       <c r="K106" s="52">
         <v>43207</v>
       </c>
-      <c r="L106" s="176"/>
+      <c r="L106" s="144"/>
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
       <c r="AD106" s="18"/>
@@ -9090,8 +9101,8 @@
       <c r="CY106" s="40"/>
     </row>
     <row r="107" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A107" s="108"/>
-      <c r="B107" s="108"/>
+      <c r="A107" s="130"/>
+      <c r="B107" s="130"/>
       <c r="C107" s="100" t="s">
         <v>119</v>
       </c>
@@ -9101,15 +9112,15 @@
       <c r="G107" s="12">
         <v>7</v>
       </c>
-      <c r="H107" s="182"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="183">
+      <c r="H107" s="97"/>
+      <c r="I107" s="109"/>
+      <c r="J107" s="98">
         <v>43208</v>
       </c>
-      <c r="K107" s="183">
+      <c r="K107" s="98">
         <v>43208</v>
       </c>
-      <c r="L107" s="174" t="s">
+      <c r="L107" s="142" t="s">
         <v>23</v>
       </c>
       <c r="AB107" s="18"/>
@@ -9144,8 +9155,8 @@
       <c r="CY107" s="40"/>
     </row>
     <row r="108" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A108" s="108"/>
-      <c r="B108" s="108"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="130"/>
       <c r="C108" s="100" t="s">
         <v>120</v>
       </c>
@@ -9155,13 +9166,13 @@
       <c r="G108" s="12">
         <v>0</v>
       </c>
-      <c r="H108" s="44" t="s">
+      <c r="H108" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="I108" s="122"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="175"/>
+      <c r="I108" s="109"/>
+      <c r="J108" s="184"/>
+      <c r="K108" s="184"/>
+      <c r="L108" s="143"/>
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
       <c r="AD108" s="18"/>
@@ -9194,8 +9205,8 @@
       <c r="CY108" s="40"/>
     </row>
     <row r="109" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A109" s="108"/>
-      <c r="B109" s="108"/>
+      <c r="A109" s="130"/>
+      <c r="B109" s="130"/>
       <c r="C109" s="100" t="s">
         <v>121</v>
       </c>
@@ -9204,18 +9215,18 @@
         <v>122</v>
       </c>
       <c r="F109" s="100"/>
-      <c r="G109" s="115">
+      <c r="G109" s="124">
         <v>7</v>
       </c>
       <c r="H109" s="44"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="160">
+      <c r="I109" s="109"/>
+      <c r="J109" s="149">
         <v>43209</v>
       </c>
-      <c r="K109" s="160">
+      <c r="K109" s="149">
         <v>43209</v>
       </c>
-      <c r="L109" s="175"/>
+      <c r="L109" s="143"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
       <c r="AD109" s="18"/>
@@ -9248,20 +9259,20 @@
       <c r="CY109" s="40"/>
     </row>
     <row r="110" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
+      <c r="A110" s="130"/>
+      <c r="B110" s="130"/>
       <c r="C110" s="100"/>
       <c r="D110" s="100"/>
       <c r="E110" s="100" t="s">
         <v>160</v>
       </c>
       <c r="F110" s="100"/>
-      <c r="G110" s="116"/>
+      <c r="G110" s="125"/>
       <c r="H110" s="44"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="116"/>
-      <c r="K110" s="116"/>
-      <c r="L110" s="176"/>
+      <c r="I110" s="109"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="125"/>
+      <c r="L110" s="144"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
       <c r="AD110" s="18"/>
@@ -9294,28 +9305,28 @@
       <c r="CY110" s="40"/>
     </row>
     <row r="111" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A111" s="108"/>
-      <c r="B111" s="108"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="130"/>
       <c r="C111" s="100" t="s">
         <v>123</v>
       </c>
       <c r="D111" s="100"/>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="F111" s="109"/>
+      <c r="F111" s="133"/>
       <c r="G111" s="12">
         <v>3.5</v>
       </c>
       <c r="H111" s="44"/>
-      <c r="I111" s="122"/>
+      <c r="I111" s="109"/>
       <c r="J111" s="52">
         <v>43210</v>
       </c>
       <c r="K111" s="52">
         <v>43210</v>
       </c>
-      <c r="L111" s="171" t="s">
+      <c r="L111" s="160" t="s">
         <v>14</v>
       </c>
       <c r="AB111" s="18"/>
@@ -9361,26 +9372,26 @@
       <c r="CY111" s="40"/>
     </row>
     <row r="112" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A112" s="108"/>
-      <c r="B112" s="108"/>
+      <c r="A112" s="130"/>
+      <c r="B112" s="130"/>
       <c r="C112" s="100"/>
       <c r="D112" s="100"/>
-      <c r="E112" s="109" t="s">
+      <c r="E112" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="109"/>
+      <c r="F112" s="133"/>
       <c r="G112" s="12">
         <v>7</v>
       </c>
       <c r="H112" s="44"/>
-      <c r="I112" s="122"/>
+      <c r="I112" s="109"/>
       <c r="J112" s="52">
         <v>43210</v>
       </c>
       <c r="K112" s="52">
         <v>43211</v>
       </c>
-      <c r="L112" s="172"/>
+      <c r="L112" s="161"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
       <c r="AD112" s="18"/>
@@ -9424,26 +9435,26 @@
       <c r="CY112" s="40"/>
     </row>
     <row r="113" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A113" s="108"/>
-      <c r="B113" s="108"/>
+      <c r="A113" s="130"/>
+      <c r="B113" s="130"/>
       <c r="C113" s="100"/>
       <c r="D113" s="100"/>
-      <c r="E113" s="109" t="s">
+      <c r="E113" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="109"/>
+      <c r="F113" s="133"/>
       <c r="G113" s="12">
         <v>3.5</v>
       </c>
       <c r="H113" s="44"/>
-      <c r="I113" s="122"/>
+      <c r="I113" s="109"/>
       <c r="J113" s="52">
         <v>43211</v>
       </c>
       <c r="K113" s="52">
         <v>43211</v>
       </c>
-      <c r="L113" s="172"/>
+      <c r="L113" s="161"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
       <c r="AD113" s="18"/>
@@ -9487,26 +9498,26 @@
       <c r="CY113" s="40"/>
     </row>
     <row r="114" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A114" s="108"/>
-      <c r="B114" s="108"/>
+      <c r="A114" s="130"/>
+      <c r="B114" s="130"/>
       <c r="C114" s="100"/>
       <c r="D114" s="100"/>
-      <c r="E114" s="109" t="s">
+      <c r="E114" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="F114" s="109"/>
+      <c r="F114" s="133"/>
       <c r="G114" s="12">
         <v>7</v>
       </c>
       <c r="H114" s="44"/>
-      <c r="I114" s="122"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="52">
         <v>43212</v>
       </c>
       <c r="K114" s="52">
         <v>43212</v>
       </c>
-      <c r="L114" s="172"/>
+      <c r="L114" s="161"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
       <c r="AD114" s="18"/>
@@ -9550,22 +9561,22 @@
       <c r="CY114" s="40"/>
     </row>
     <row r="115" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A115" s="108"/>
-      <c r="B115" s="108"/>
+      <c r="A115" s="130"/>
+      <c r="B115" s="130"/>
       <c r="C115" s="100"/>
       <c r="D115" s="100"/>
-      <c r="E115" s="109" t="s">
+      <c r="E115" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="F115" s="109"/>
+      <c r="F115" s="133"/>
       <c r="G115" s="12">
         <v>0</v>
       </c>
       <c r="H115" s="44"/>
-      <c r="I115" s="122"/>
+      <c r="I115" s="109"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
-      <c r="L115" s="172"/>
+      <c r="L115" s="161"/>
       <c r="AP115" s="39"/>
       <c r="AR115" s="18"/>
       <c r="AS115" s="18"/>
@@ -9596,26 +9607,26 @@
       <c r="CY115" s="40"/>
     </row>
     <row r="116" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A116" s="108"/>
-      <c r="B116" s="108"/>
+      <c r="A116" s="130"/>
+      <c r="B116" s="130"/>
       <c r="C116" s="100"/>
       <c r="D116" s="100"/>
-      <c r="E116" s="109" t="s">
+      <c r="E116" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="109"/>
+      <c r="F116" s="133"/>
       <c r="G116" s="12">
         <v>3.5</v>
       </c>
       <c r="H116" s="44"/>
-      <c r="I116" s="122"/>
+      <c r="I116" s="109"/>
       <c r="J116" s="53">
         <v>43213</v>
       </c>
       <c r="K116" s="53">
         <v>43213</v>
       </c>
-      <c r="L116" s="172"/>
+      <c r="L116" s="161"/>
       <c r="AP116" s="39"/>
       <c r="AR116" s="18"/>
       <c r="AS116" s="18"/>
@@ -9646,26 +9657,26 @@
       <c r="CY116" s="40"/>
     </row>
     <row r="117" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A117" s="108"/>
-      <c r="B117" s="108"/>
+      <c r="A117" s="130"/>
+      <c r="B117" s="130"/>
       <c r="C117" s="100"/>
       <c r="D117" s="100"/>
-      <c r="E117" s="109" t="s">
+      <c r="E117" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="109"/>
+      <c r="F117" s="133"/>
       <c r="G117" s="12">
         <v>3.5</v>
       </c>
       <c r="H117" s="44"/>
-      <c r="I117" s="122"/>
+      <c r="I117" s="109"/>
       <c r="J117" s="53">
         <v>43213</v>
       </c>
       <c r="K117" s="53">
         <v>43213</v>
       </c>
-      <c r="L117" s="172"/>
+      <c r="L117" s="161"/>
       <c r="AP117" s="39"/>
       <c r="AR117" s="18"/>
       <c r="AS117" s="18"/>
@@ -9696,26 +9707,26 @@
       <c r="CY117" s="40"/>
     </row>
     <row r="118" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A118" s="108"/>
-      <c r="B118" s="108"/>
+      <c r="A118" s="130"/>
+      <c r="B118" s="130"/>
       <c r="C118" s="100"/>
       <c r="D118" s="100"/>
-      <c r="E118" s="109" t="s">
+      <c r="E118" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="F118" s="109"/>
+      <c r="F118" s="133"/>
       <c r="G118" s="12">
         <v>7</v>
       </c>
       <c r="H118" s="44"/>
-      <c r="I118" s="122"/>
+      <c r="I118" s="109"/>
       <c r="J118" s="52">
         <v>43214</v>
       </c>
       <c r="K118" s="52">
         <v>43214</v>
       </c>
-      <c r="L118" s="172"/>
+      <c r="L118" s="161"/>
       <c r="AP118" s="39"/>
       <c r="AR118" s="18"/>
       <c r="AS118" s="18"/>
@@ -9746,22 +9757,22 @@
       <c r="CY118" s="40"/>
     </row>
     <row r="119" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A119" s="108"/>
-      <c r="B119" s="108"/>
+      <c r="A119" s="130"/>
+      <c r="B119" s="130"/>
       <c r="C119" s="100"/>
       <c r="D119" s="100"/>
-      <c r="E119" s="109" t="s">
+      <c r="E119" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="109"/>
+      <c r="F119" s="133"/>
       <c r="G119" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H119" s="44"/>
-      <c r="I119" s="122"/>
+      <c r="I119" s="109"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
-      <c r="L119" s="172"/>
+      <c r="L119" s="161"/>
       <c r="AP119" s="39"/>
       <c r="AR119" s="18"/>
       <c r="AS119" s="18"/>
@@ -9792,8 +9803,8 @@
       <c r="CY119" s="40"/>
     </row>
     <row r="120" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A120" s="108"/>
-      <c r="B120" s="108"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="130"/>
       <c r="C120" s="100"/>
       <c r="D120" s="100"/>
       <c r="E120" s="100" t="s">
@@ -9804,14 +9815,14 @@
         <v>3.5</v>
       </c>
       <c r="H120" s="44"/>
-      <c r="I120" s="122"/>
+      <c r="I120" s="109"/>
       <c r="J120" s="52">
         <v>43215</v>
       </c>
       <c r="K120" s="52">
         <v>43215</v>
       </c>
-      <c r="L120" s="172"/>
+      <c r="L120" s="161"/>
       <c r="AP120" s="39"/>
       <c r="AR120" s="18"/>
       <c r="AS120" s="18"/>
@@ -9842,28 +9853,28 @@
       <c r="CY120" s="40"/>
     </row>
     <row r="121" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A121" s="108"/>
-      <c r="B121" s="108"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="130"/>
       <c r="C121" s="100"/>
       <c r="D121" s="100"/>
-      <c r="E121" s="109" t="s">
+      <c r="E121" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="F121" s="109"/>
-      <c r="G121" s="115">
+      <c r="F121" s="133"/>
+      <c r="G121" s="124">
         <v>14</v>
       </c>
       <c r="H121" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="I121" s="122"/>
-      <c r="J121" s="160">
+      <c r="I121" s="109"/>
+      <c r="J121" s="149">
         <v>43215</v>
       </c>
-      <c r="K121" s="160">
+      <c r="K121" s="149">
         <v>43217</v>
       </c>
-      <c r="L121" s="172"/>
+      <c r="L121" s="161"/>
       <c r="AP121" s="39"/>
       <c r="AR121" s="18"/>
       <c r="AS121" s="18"/>
@@ -9897,22 +9908,22 @@
       <c r="CY121" s="40"/>
     </row>
     <row r="122" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A122" s="108"/>
-      <c r="B122" s="108"/>
+      <c r="A122" s="130"/>
+      <c r="B122" s="130"/>
       <c r="C122" s="100"/>
       <c r="D122" s="100"/>
-      <c r="E122" s="109" t="s">
+      <c r="E122" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="F122" s="109"/>
-      <c r="G122" s="116"/>
+      <c r="F122" s="133"/>
+      <c r="G122" s="125"/>
       <c r="H122" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="122"/>
-      <c r="J122" s="116"/>
-      <c r="K122" s="116"/>
-      <c r="L122" s="172"/>
+      <c r="I122" s="109"/>
+      <c r="J122" s="125"/>
+      <c r="K122" s="125"/>
+      <c r="L122" s="161"/>
       <c r="AP122" s="39"/>
       <c r="AR122" s="18"/>
       <c r="AS122" s="18"/>
@@ -9946,26 +9957,26 @@
       <c r="CY122" s="40"/>
     </row>
     <row r="123" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A123" s="108"/>
-      <c r="B123" s="108"/>
+      <c r="A123" s="130"/>
+      <c r="B123" s="130"/>
       <c r="C123" s="100"/>
       <c r="D123" s="100"/>
-      <c r="E123" s="109" t="s">
+      <c r="E123" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F123" s="109"/>
+      <c r="F123" s="133"/>
       <c r="G123" s="12">
         <v>7</v>
       </c>
       <c r="H123" s="44"/>
-      <c r="I123" s="122"/>
+      <c r="I123" s="109"/>
       <c r="J123" s="52">
         <v>43217</v>
       </c>
       <c r="K123" s="52">
         <v>43218</v>
       </c>
-      <c r="L123" s="172"/>
+      <c r="L123" s="161"/>
       <c r="AP123" s="39"/>
       <c r="AR123" s="18"/>
       <c r="AS123" s="18"/>
@@ -9996,24 +10007,24 @@
       <c r="CY123" s="40"/>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A124" s="108"/>
-      <c r="B124" s="108"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="130"/>
       <c r="C124" s="100"/>
       <c r="D124" s="100"/>
-      <c r="E124" s="109" t="s">
+      <c r="E124" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="F124" s="109"/>
+      <c r="F124" s="133"/>
       <c r="G124" s="12">
         <v>7</v>
       </c>
       <c r="H124" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I124" s="122"/>
+      <c r="I124" s="109"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="172"/>
+      <c r="L124" s="161"/>
       <c r="AP124" s="39"/>
       <c r="AR124" s="18"/>
       <c r="AS124" s="18"/>
@@ -10044,26 +10055,26 @@
       <c r="CY124" s="40"/>
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A125" s="108"/>
-      <c r="B125" s="108"/>
+      <c r="A125" s="130"/>
+      <c r="B125" s="130"/>
       <c r="C125" s="100"/>
       <c r="D125" s="100"/>
-      <c r="E125" s="109" t="s">
+      <c r="E125" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="F125" s="109"/>
+      <c r="F125" s="133"/>
       <c r="G125" s="12">
         <v>3.5</v>
       </c>
       <c r="H125" s="44"/>
-      <c r="I125" s="122"/>
+      <c r="I125" s="109"/>
       <c r="J125" s="52">
         <v>43218</v>
       </c>
       <c r="K125" s="52">
         <v>43218</v>
       </c>
-      <c r="L125" s="173"/>
+      <c r="L125" s="162"/>
       <c r="U125" s="18"/>
       <c r="V125" s="18"/>
       <c r="W125" s="18"/>
@@ -10105,28 +10116,28 @@
       <c r="CY125" s="40"/>
     </row>
     <row r="126" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A126" s="108"/>
-      <c r="B126" s="108"/>
+      <c r="A126" s="130"/>
+      <c r="B126" s="130"/>
       <c r="C126" s="100" t="s">
         <v>138</v>
       </c>
       <c r="D126" s="100"/>
-      <c r="E126" s="109" t="s">
+      <c r="E126" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="F126" s="109"/>
+      <c r="F126" s="133"/>
       <c r="G126" s="12">
         <v>7</v>
       </c>
       <c r="H126" s="44"/>
-      <c r="I126" s="122"/>
+      <c r="I126" s="109"/>
       <c r="J126" s="52">
         <v>43210</v>
       </c>
       <c r="K126" s="52">
         <v>43210</v>
       </c>
-      <c r="L126" s="174" t="s">
+      <c r="L126" s="142" t="s">
         <v>23</v>
       </c>
       <c r="U126" s="18"/>
@@ -10146,26 +10157,26 @@
       <c r="CY126" s="40"/>
     </row>
     <row r="127" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A127" s="108"/>
-      <c r="B127" s="108"/>
+      <c r="A127" s="130"/>
+      <c r="B127" s="130"/>
       <c r="C127" s="100"/>
       <c r="D127" s="100"/>
-      <c r="E127" s="109" t="s">
+      <c r="E127" s="133" t="s">
         <v>138</v>
       </c>
-      <c r="F127" s="109"/>
+      <c r="F127" s="133"/>
       <c r="G127" s="12">
         <v>7</v>
       </c>
       <c r="H127" s="44"/>
-      <c r="I127" s="122"/>
+      <c r="I127" s="109"/>
       <c r="J127" s="52">
         <v>43213</v>
       </c>
       <c r="K127" s="52">
         <v>43213</v>
       </c>
-      <c r="L127" s="176"/>
+      <c r="L127" s="144"/>
       <c r="U127" s="18"/>
       <c r="V127" s="18"/>
       <c r="W127" s="18"/>
@@ -10183,28 +10194,28 @@
       <c r="CY127" s="40"/>
     </row>
     <row r="128" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A128" s="108"/>
-      <c r="B128" s="108"/>
+      <c r="A128" s="130"/>
+      <c r="B128" s="130"/>
       <c r="C128" s="100" t="s">
         <v>139</v>
       </c>
       <c r="D128" s="100"/>
-      <c r="E128" s="109" t="s">
+      <c r="E128" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="F128" s="109"/>
+      <c r="F128" s="133"/>
       <c r="G128" s="12">
         <v>7</v>
       </c>
       <c r="H128" s="44"/>
-      <c r="I128" s="122"/>
+      <c r="I128" s="109"/>
       <c r="J128" s="52">
         <v>43214</v>
       </c>
       <c r="K128" s="52">
         <v>43214</v>
       </c>
-      <c r="L128" s="174" t="s">
+      <c r="L128" s="142" t="s">
         <v>23</v>
       </c>
       <c r="U128" s="18"/>
@@ -10224,26 +10235,26 @@
       <c r="CY128" s="40"/>
     </row>
     <row r="129" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A129" s="108"/>
-      <c r="B129" s="108"/>
+      <c r="A129" s="130"/>
+      <c r="B129" s="130"/>
       <c r="C129" s="100"/>
       <c r="D129" s="100"/>
-      <c r="E129" s="109" t="s">
+      <c r="E129" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="F129" s="109"/>
+      <c r="F129" s="133"/>
       <c r="G129" s="12">
         <v>3.5</v>
       </c>
       <c r="H129" s="44"/>
-      <c r="I129" s="122"/>
+      <c r="I129" s="109"/>
       <c r="J129" s="52">
         <v>43215</v>
       </c>
       <c r="K129" s="52">
         <v>43215</v>
       </c>
-      <c r="L129" s="175"/>
+      <c r="L129" s="143"/>
       <c r="U129" s="18"/>
       <c r="V129" s="18"/>
       <c r="W129" s="18"/>
@@ -10261,26 +10272,26 @@
       <c r="CY129" s="40"/>
     </row>
     <row r="130" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A130" s="108"/>
-      <c r="B130" s="108"/>
+      <c r="A130" s="130"/>
+      <c r="B130" s="130"/>
       <c r="C130" s="100"/>
       <c r="D130" s="100"/>
-      <c r="E130" s="109" t="s">
+      <c r="E130" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="F130" s="109"/>
+      <c r="F130" s="133"/>
       <c r="G130" s="12">
         <v>10.5</v>
       </c>
       <c r="H130" s="44"/>
-      <c r="I130" s="122"/>
+      <c r="I130" s="109"/>
       <c r="J130" s="52">
         <v>43215</v>
       </c>
       <c r="K130" s="52">
         <v>43216</v>
       </c>
-      <c r="L130" s="175"/>
+      <c r="L130" s="143"/>
       <c r="U130" s="18"/>
       <c r="V130" s="18"/>
       <c r="W130" s="18"/>
@@ -10299,26 +10310,26 @@
       <c r="CY130" s="40"/>
     </row>
     <row r="131" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A131" s="108"/>
-      <c r="B131" s="108"/>
+      <c r="A131" s="130"/>
+      <c r="B131" s="130"/>
       <c r="C131" s="100"/>
       <c r="D131" s="100"/>
-      <c r="E131" s="109" t="s">
+      <c r="E131" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="F131" s="109"/>
+      <c r="F131" s="133"/>
       <c r="G131" s="12">
         <v>3.5</v>
       </c>
       <c r="H131" s="44"/>
-      <c r="I131" s="122"/>
+      <c r="I131" s="109"/>
       <c r="J131" s="52">
         <v>43217</v>
       </c>
       <c r="K131" s="52">
         <v>43217</v>
       </c>
-      <c r="L131" s="176"/>
+      <c r="L131" s="144"/>
       <c r="U131" s="18"/>
       <c r="V131" s="18"/>
       <c r="W131" s="18"/>
@@ -10353,8 +10364,8 @@
       <c r="CY131" s="40"/>
     </row>
     <row r="132" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A132" s="108"/>
-      <c r="B132" s="108"/>
+      <c r="A132" s="130"/>
+      <c r="B132" s="130"/>
       <c r="C132" s="100" t="s">
         <v>143</v>
       </c>
@@ -10367,14 +10378,14 @@
         <v>3.5</v>
       </c>
       <c r="H132" s="44"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="160">
+      <c r="I132" s="109"/>
+      <c r="J132" s="149">
         <v>43211</v>
       </c>
-      <c r="K132" s="160">
+      <c r="K132" s="149">
         <v>43212</v>
       </c>
-      <c r="L132" s="174" t="s">
+      <c r="L132" s="142" t="s">
         <v>23</v>
       </c>
       <c r="U132" s="18"/>
@@ -10411,8 +10422,8 @@
       <c r="CY132" s="40"/>
     </row>
     <row r="133" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A133" s="108"/>
-      <c r="B133" s="108"/>
+      <c r="A133" s="130"/>
+      <c r="B133" s="130"/>
       <c r="C133" s="100"/>
       <c r="D133" s="100"/>
       <c r="E133" s="100" t="s">
@@ -10423,10 +10434,10 @@
         <v>14</v>
       </c>
       <c r="H133" s="44"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="161"/>
-      <c r="K133" s="161"/>
-      <c r="L133" s="175"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="150"/>
+      <c r="K133" s="150"/>
+      <c r="L133" s="143"/>
       <c r="U133" s="18"/>
       <c r="V133" s="18"/>
       <c r="W133" s="18"/>
@@ -10461,8 +10472,8 @@
       <c r="CY133" s="40"/>
     </row>
     <row r="134" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A134" s="108"/>
-      <c r="B134" s="108"/>
+      <c r="A134" s="130"/>
+      <c r="B134" s="130"/>
       <c r="C134" s="100"/>
       <c r="D134" s="100"/>
       <c r="E134" s="100" t="s">
@@ -10473,10 +10484,10 @@
         <v>14</v>
       </c>
       <c r="H134" s="44"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="162"/>
-      <c r="K134" s="162"/>
-      <c r="L134" s="176"/>
+      <c r="I134" s="109"/>
+      <c r="J134" s="151"/>
+      <c r="K134" s="151"/>
+      <c r="L134" s="144"/>
       <c r="AP134" s="39"/>
       <c r="AS134" s="18"/>
       <c r="AT134" s="18"/>
@@ -10500,8 +10511,8 @@
       <c r="CY134" s="40"/>
     </row>
     <row r="135" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A135" s="108"/>
-      <c r="B135" s="108"/>
+      <c r="A135" s="130"/>
+      <c r="B135" s="130"/>
       <c r="C135" s="100" t="s">
         <v>146</v>
       </c>
@@ -10510,18 +10521,18 @@
         <v>90</v>
       </c>
       <c r="F135" s="100"/>
-      <c r="G135" s="121">
+      <c r="G135" s="108">
         <v>10.5</v>
       </c>
       <c r="H135" s="44"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="160">
+      <c r="I135" s="109"/>
+      <c r="J135" s="149">
         <v>43205</v>
       </c>
-      <c r="K135" s="160">
+      <c r="K135" s="149">
         <v>43205</v>
       </c>
-      <c r="L135" s="174" t="s">
+      <c r="L135" s="142" t="s">
         <v>23</v>
       </c>
       <c r="AP135" s="39"/>
@@ -10548,20 +10559,20 @@
       <c r="CY135" s="40"/>
     </row>
     <row r="136" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A136" s="108"/>
-      <c r="B136" s="108"/>
+      <c r="A136" s="130"/>
+      <c r="B136" s="130"/>
       <c r="C136" s="100"/>
       <c r="D136" s="100"/>
       <c r="E136" s="100" t="s">
         <v>147</v>
       </c>
       <c r="F136" s="100"/>
-      <c r="G136" s="122"/>
+      <c r="G136" s="109"/>
       <c r="H136" s="44"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="117"/>
-      <c r="K136" s="117"/>
-      <c r="L136" s="175"/>
+      <c r="I136" s="109"/>
+      <c r="J136" s="126"/>
+      <c r="K136" s="126"/>
+      <c r="L136" s="143"/>
       <c r="AP136" s="39"/>
       <c r="AS136" s="18"/>
       <c r="AT136" s="18"/>
@@ -10586,20 +10597,20 @@
       <c r="CY136" s="40"/>
     </row>
     <row r="137" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A137" s="108"/>
-      <c r="B137" s="108"/>
+      <c r="A137" s="130"/>
+      <c r="B137" s="130"/>
       <c r="C137" s="100"/>
       <c r="D137" s="100"/>
-      <c r="E137" s="109" t="s">
+      <c r="E137" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="F137" s="109"/>
-      <c r="G137" s="123"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="110"/>
       <c r="H137" s="44"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="116"/>
-      <c r="K137" s="116"/>
-      <c r="L137" s="176"/>
+      <c r="I137" s="109"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="125"/>
+      <c r="L137" s="144"/>
       <c r="AP137" s="39"/>
       <c r="AS137" s="18"/>
       <c r="AT137" s="18"/>
@@ -10624,8 +10635,8 @@
       <c r="CY137" s="40"/>
     </row>
     <row r="138" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A138" s="108"/>
-      <c r="B138" s="108"/>
+      <c r="A138" s="130"/>
+      <c r="B138" s="130"/>
       <c r="C138" s="100" t="s">
         <v>149</v>
       </c>
@@ -10634,18 +10645,18 @@
         <v>150</v>
       </c>
       <c r="F138" s="100"/>
-      <c r="G138" s="121">
+      <c r="G138" s="108">
         <v>21</v>
       </c>
       <c r="H138" s="44"/>
-      <c r="I138" s="122"/>
-      <c r="J138" s="160">
+      <c r="I138" s="109"/>
+      <c r="J138" s="149">
         <v>43218</v>
       </c>
-      <c r="K138" s="163">
+      <c r="K138" s="152">
         <v>43220</v>
       </c>
-      <c r="L138" s="177" t="s">
+      <c r="L138" s="145" t="s">
         <v>23</v>
       </c>
       <c r="AP138" s="39"/>
@@ -10676,20 +10687,20 @@
       <c r="CY138" s="40"/>
     </row>
     <row r="139" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A139" s="108"/>
-      <c r="B139" s="108"/>
+      <c r="A139" s="130"/>
+      <c r="B139" s="130"/>
       <c r="C139" s="100"/>
       <c r="D139" s="100"/>
       <c r="E139" s="100" t="s">
         <v>151</v>
       </c>
       <c r="F139" s="100"/>
-      <c r="G139" s="122"/>
+      <c r="G139" s="109"/>
       <c r="H139" s="44"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="117"/>
-      <c r="K139" s="164"/>
-      <c r="L139" s="175"/>
+      <c r="I139" s="109"/>
+      <c r="J139" s="126"/>
+      <c r="K139" s="153"/>
+      <c r="L139" s="143"/>
       <c r="AP139" s="39"/>
       <c r="AS139" s="18"/>
       <c r="AT139" s="18"/>
@@ -10718,20 +10729,20 @@
       <c r="CY139" s="40"/>
     </row>
     <row r="140" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A140" s="108"/>
-      <c r="B140" s="108"/>
+      <c r="A140" s="130"/>
+      <c r="B140" s="130"/>
       <c r="C140" s="100"/>
       <c r="D140" s="100"/>
       <c r="E140" s="100" t="s">
         <v>152</v>
       </c>
       <c r="F140" s="100"/>
-      <c r="G140" s="122"/>
+      <c r="G140" s="109"/>
       <c r="H140" s="44"/>
-      <c r="I140" s="122"/>
-      <c r="J140" s="117"/>
-      <c r="K140" s="164"/>
-      <c r="L140" s="175"/>
+      <c r="I140" s="109"/>
+      <c r="J140" s="126"/>
+      <c r="K140" s="153"/>
+      <c r="L140" s="143"/>
       <c r="AP140" s="39"/>
       <c r="AS140" s="18"/>
       <c r="AT140" s="18"/>
@@ -10760,20 +10771,20 @@
       <c r="CY140" s="40"/>
     </row>
     <row r="141" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A141" s="108"/>
-      <c r="B141" s="108"/>
+      <c r="A141" s="130"/>
+      <c r="B141" s="130"/>
       <c r="C141" s="100"/>
       <c r="D141" s="100"/>
       <c r="E141" s="100" t="s">
         <v>111</v>
       </c>
       <c r="F141" s="100"/>
-      <c r="G141" s="123"/>
+      <c r="G141" s="110"/>
       <c r="H141" s="44"/>
-      <c r="I141" s="123"/>
-      <c r="J141" s="116"/>
-      <c r="K141" s="165"/>
-      <c r="L141" s="176"/>
+      <c r="I141" s="110"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="154"/>
+      <c r="L141" s="144"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
       <c r="O141" s="54"/>
@@ -10867,17 +10878,17 @@
       <c r="CY141" s="59"/>
     </row>
     <row r="144" spans="1:103" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="148" t="s">
+      <c r="A144" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="149"/>
-      <c r="C144" s="149"/>
-      <c r="D144" s="149"/>
-      <c r="E144" s="149"/>
-      <c r="F144" s="149"/>
-      <c r="G144" s="149"/>
-      <c r="H144" s="149"/>
-      <c r="I144" s="150"/>
+      <c r="B144" s="168"/>
+      <c r="C144" s="168"/>
+      <c r="D144" s="168"/>
+      <c r="E144" s="168"/>
+      <c r="F144" s="168"/>
+      <c r="G144" s="168"/>
+      <c r="H144" s="168"/>
+      <c r="I144" s="169"/>
       <c r="J144" s="56">
         <v>43199</v>
       </c>
@@ -10887,6 +10898,257 @@
     </row>
   </sheetData>
   <mergeCells count="275">
+    <mergeCell ref="M2:AP2"/>
+    <mergeCell ref="AQ2:BU2"/>
+    <mergeCell ref="BV2:CY2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A20:A71"/>
+    <mergeCell ref="A72:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A141"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B20:B71"/>
+    <mergeCell ref="B72:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B141"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G135:G137"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H92:H96"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="I20:I71"/>
+    <mergeCell ref="I72:I88"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="I92:I141"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K132:K134"/>
+    <mergeCell ref="K135:K137"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="L10:L17"/>
+    <mergeCell ref="L25:L31"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="L40:L46"/>
+    <mergeCell ref="L50:L58"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="L100:L106"/>
+    <mergeCell ref="L107:L110"/>
+    <mergeCell ref="L111:L125"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="L128:L131"/>
     <mergeCell ref="L132:L134"/>
     <mergeCell ref="L135:L137"/>
     <mergeCell ref="L138:L141"/>
@@ -10911,257 +11173,6 @@
     <mergeCell ref="C138:D141"/>
     <mergeCell ref="K69:K71"/>
     <mergeCell ref="K92:K96"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K132:K134"/>
-    <mergeCell ref="K135:K137"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L9"/>
-    <mergeCell ref="L10:L17"/>
-    <mergeCell ref="L25:L31"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="L40:L46"/>
-    <mergeCell ref="L50:L58"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="L100:L106"/>
-    <mergeCell ref="L107:L110"/>
-    <mergeCell ref="L111:L125"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="L128:L131"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="I20:I71"/>
-    <mergeCell ref="I72:I88"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="I92:I141"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="A144:I144"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A20:A71"/>
-    <mergeCell ref="A72:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A141"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B20:B71"/>
-    <mergeCell ref="B72:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B141"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="M2:AP2"/>
-    <mergeCell ref="AQ2:BU2"/>
-    <mergeCell ref="BV2:CY2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -1082,12 +1082,120 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1106,109 +1214,118 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,123 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,17 +1662,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
     </row>
@@ -1683,14 +1683,14 @@
       <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="70" t="s">
         <v>5</v>
       </c>
@@ -1741,169 +1741,169 @@
       <c r="AQ2" s="66"/>
     </row>
     <row r="3" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107">
+      <c r="A3" s="111">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="111">
         <f>SUM(G3:G8)</f>
         <v>66.5</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="130" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="99" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="5">
         <v>21</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="107"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="75">
         <v>43217</v>
       </c>
       <c r="K4" s="75">
         <v>43222</v>
       </c>
-      <c r="L4" s="114"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="61" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="99" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99" t="s">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="5">
         <v>7</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="107"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="75">
         <v>43223</v>
       </c>
       <c r="K5" s="75">
         <v>43223</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="5">
         <v>3.5</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="107"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="75">
         <v>43231</v>
       </c>
       <c r="K6" s="75">
         <v>43231</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="99"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="5">
         <v>28</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="107"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="75">
         <v>43227</v>
       </c>
       <c r="K7" s="75">
         <v>43230</v>
       </c>
-      <c r="L7" s="114"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="5">
         <v>7</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="107"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="75">
         <v>43224</v>
       </c>
       <c r="K8" s="75">
         <v>43224</v>
       </c>
-      <c r="L8" s="114"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="130">
+      <c r="A9" s="110">
         <v>2</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="9">
         <v>3.5</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="130">
+      <c r="I9" s="110">
         <f>SUM(G9:G16)</f>
         <v>14</v>
       </c>
@@ -1913,143 +1913,143 @@
       <c r="K9" s="76">
         <v>43206</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="131" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="130"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
-      <c r="L10" s="116"/>
+      <c r="L10" s="132"/>
     </row>
     <row r="11" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="9">
         <v>7</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="130"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="76">
         <v>43207</v>
       </c>
       <c r="K11" s="76">
         <v>43207</v>
       </c>
-      <c r="L11" s="116"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="9">
         <v>3.5</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="130"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="76">
         <v>43206</v>
       </c>
       <c r="K12" s="76">
         <v>43206</v>
       </c>
-      <c r="L12" s="116"/>
+      <c r="L12" s="132"/>
     </row>
     <row r="13" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="137" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="12"/>
       <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
-      <c r="L13" s="116"/>
+      <c r="L13" s="132"/>
     </row>
     <row r="14" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="137" t="s">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="12"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
-      <c r="L14" s="116"/>
+      <c r="L14" s="132"/>
     </row>
     <row r="15" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="130"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
-      <c r="L15" s="116"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:43" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="137" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="12"/>
       <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="130"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
-      <c r="L16" s="117"/>
+      <c r="L16" s="133"/>
     </row>
     <row r="17" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
@@ -2058,10 +2058,10 @@
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="14"/>
       <c r="H17" s="5"/>
       <c r="I17" s="14"/>
@@ -2076,10 +2076,10 @@
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="12"/>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
@@ -2088,25 +2088,25 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="107">
+      <c r="A19" s="111">
         <v>5</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="5">
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="107">
+      <c r="I19" s="111">
         <f>SUM(G19:G70)</f>
         <v>166</v>
       </c>
@@ -2121,21 +2121,21 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="99" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="107"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="23" t="s">
@@ -2143,21 +2143,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="99" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="107"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="23" t="s">
@@ -2165,21 +2165,21 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="139" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="107"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="74"/>
       <c r="K22" s="74"/>
       <c r="L22" s="23" t="s">
@@ -2187,21 +2187,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="139" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="107"/>
+      <c r="I23" s="111"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
       <c r="L23" s="23" t="s">
@@ -2209,432 +2209,432 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="101" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="138"/>
+      <c r="E24" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="135"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="107"/>
+      <c r="I24" s="111"/>
       <c r="J24" s="79"/>
       <c r="K24" s="79"/>
-      <c r="L24" s="115" t="s">
+      <c r="L24" s="131" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="134" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="135"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="5">
         <v>0.5</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="107"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="80"/>
       <c r="K25" s="80"/>
-      <c r="L25" s="116"/>
+      <c r="L25" s="132"/>
     </row>
     <row r="26" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="134" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="135"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="107"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
-      <c r="L26" s="116"/>
+      <c r="L26" s="132"/>
     </row>
     <row r="27" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="134" t="s">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="135"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="5">
         <v>2</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="107"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="81">
         <v>43193</v>
       </c>
       <c r="K27" s="81">
         <v>43199</v>
       </c>
-      <c r="L27" s="116"/>
+      <c r="L27" s="132"/>
       <c r="M27" s="61" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="134" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="135"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="107"/>
+      <c r="I28" s="111"/>
       <c r="J28" s="80"/>
       <c r="K28" s="80"/>
-      <c r="L28" s="116"/>
+      <c r="L28" s="132"/>
     </row>
     <row r="29" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="134" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="135"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="107"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="80"/>
       <c r="K29" s="80"/>
-      <c r="L29" s="116"/>
+      <c r="L29" s="132"/>
     </row>
     <row r="30" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="134" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="5">
         <v>1</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="107"/>
+      <c r="I30" s="111"/>
       <c r="J30" s="80"/>
       <c r="K30" s="80"/>
-      <c r="L30" s="116"/>
+      <c r="L30" s="132"/>
     </row>
     <row r="31" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="101" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="134" t="s">
+      <c r="D31" s="138"/>
+      <c r="E31" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="135"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="5">
         <v>4</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="107"/>
+      <c r="I31" s="111"/>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
-      <c r="L31" s="115" t="s">
+      <c r="L31" s="131" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="134" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="135"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="5">
         <v>5</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="107"/>
+      <c r="I32" s="111"/>
       <c r="J32" s="80"/>
       <c r="K32" s="80"/>
-      <c r="L32" s="116"/>
+      <c r="L32" s="132"/>
     </row>
     <row r="33" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="134" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="135"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="5">
         <v>14</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="107"/>
+      <c r="I33" s="111"/>
       <c r="J33" s="80"/>
       <c r="K33" s="80"/>
-      <c r="L33" s="116"/>
+      <c r="L33" s="132"/>
     </row>
     <row r="34" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="134" t="s">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="107"/>
+      <c r="I34" s="111"/>
       <c r="J34" s="81">
         <v>43187</v>
       </c>
       <c r="K34" s="81">
         <v>43192</v>
       </c>
-      <c r="L34" s="116"/>
+      <c r="L34" s="132"/>
     </row>
     <row r="35" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="134" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="135"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="107"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
-      <c r="L35" s="116"/>
+      <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="134" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="135"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="107"/>
+      <c r="I36" s="111"/>
       <c r="J36" s="80"/>
       <c r="K36" s="80"/>
-      <c r="L36" s="116"/>
+      <c r="L36" s="132"/>
     </row>
     <row r="37" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="134" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="135"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="107"/>
+      <c r="I37" s="111"/>
       <c r="J37" s="80"/>
       <c r="K37" s="80"/>
-      <c r="L37" s="116"/>
+      <c r="L37" s="132"/>
     </row>
     <row r="38" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="134" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="5">
         <v>1</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="107"/>
+      <c r="I38" s="111"/>
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
-      <c r="L38" s="117"/>
+      <c r="L38" s="133"/>
     </row>
     <row r="39" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="99" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="139" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="139"/>
-      <c r="G39" s="121">
+      <c r="F39" s="107"/>
+      <c r="G39" s="115">
         <v>10.5</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="107"/>
+      <c r="I39" s="111"/>
       <c r="J39" s="79"/>
       <c r="K39" s="79"/>
-      <c r="L39" s="118" t="s">
+      <c r="L39" s="134" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="139" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="139"/>
-      <c r="G40" s="122"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="107"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
-      <c r="L40" s="119"/>
+      <c r="L40" s="135"/>
     </row>
     <row r="41" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="139" t="s">
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="139"/>
-      <c r="G41" s="122"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="107"/>
+      <c r="I41" s="111"/>
       <c r="J41" s="80"/>
       <c r="K41" s="80"/>
-      <c r="L41" s="119"/>
+      <c r="L41" s="135"/>
     </row>
     <row r="42" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="139" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="139"/>
-      <c r="G42" s="122"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="107"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="81">
         <v>43192</v>
       </c>
       <c r="K42" s="81">
         <v>43193</v>
       </c>
-      <c r="L42" s="119"/>
+      <c r="L42" s="135"/>
     </row>
     <row r="43" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="139" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="122"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="107"/>
+      <c r="I43" s="111"/>
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
-      <c r="L43" s="119"/>
+      <c r="L43" s="135"/>
     </row>
     <row r="44" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="139" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="122"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="107"/>
+      <c r="I44" s="111"/>
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
-      <c r="L44" s="119"/>
+      <c r="L44" s="135"/>
     </row>
     <row r="45" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="139" t="s">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="123"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="117"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="107"/>
+      <c r="I45" s="111"/>
       <c r="J45" s="82"/>
       <c r="K45" s="82"/>
-      <c r="L45" s="120"/>
+      <c r="L45" s="136"/>
     </row>
     <row r="46" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="99" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="14">
         <v>3.5</v>
       </c>
       <c r="H46" s="17"/>
-      <c r="I46" s="107"/>
+      <c r="I46" s="111"/>
       <c r="J46" s="81">
         <v>43199</v>
       </c>
@@ -2646,19 +2646,19 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="139" t="s">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="139"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="5">
         <v>14</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="107"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="75">
         <v>43193</v>
       </c>
@@ -2673,19 +2673,19 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="99" t="s">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="16">
         <v>3.5</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="107"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="81">
         <v>43200</v>
       </c>
@@ -2697,173 +2697,173 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="99" t="s">
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="99"/>
-      <c r="G49" s="121">
+      <c r="F49" s="102"/>
+      <c r="G49" s="115">
         <v>21</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="107"/>
+      <c r="I49" s="111"/>
       <c r="J49" s="79"/>
       <c r="K49" s="79"/>
-      <c r="L49" s="118" t="s">
+      <c r="L49" s="134" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99" t="s">
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="99"/>
-      <c r="G50" s="122"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="116"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="107"/>
+      <c r="I50" s="111"/>
       <c r="J50" s="80"/>
       <c r="K50" s="80"/>
-      <c r="L50" s="119"/>
+      <c r="L50" s="135"/>
     </row>
     <row r="51" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99" t="s">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="122"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="116"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="107"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="80"/>
       <c r="K51" s="80"/>
-      <c r="L51" s="119"/>
+      <c r="L51" s="135"/>
     </row>
     <row r="52" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="122"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="116"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="107"/>
+      <c r="I52" s="111"/>
       <c r="J52" s="80"/>
       <c r="K52" s="80"/>
-      <c r="L52" s="119"/>
+      <c r="L52" s="135"/>
     </row>
     <row r="53" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="99"/>
-      <c r="G53" s="122"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="116"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="107"/>
+      <c r="I53" s="111"/>
       <c r="J53" s="75">
         <v>43200</v>
       </c>
       <c r="K53" s="75">
         <v>43203</v>
       </c>
-      <c r="L53" s="119"/>
+      <c r="L53" s="135"/>
     </row>
     <row r="54" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="99"/>
-      <c r="G54" s="122"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="116"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="107"/>
+      <c r="I54" s="111"/>
       <c r="J54" s="80"/>
       <c r="K54" s="80"/>
-      <c r="L54" s="119"/>
+      <c r="L54" s="135"/>
     </row>
     <row r="55" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99" t="s">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="99"/>
-      <c r="G55" s="122"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="116"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="107"/>
+      <c r="I55" s="111"/>
       <c r="J55" s="80"/>
       <c r="K55" s="80"/>
-      <c r="L55" s="119"/>
+      <c r="L55" s="135"/>
     </row>
     <row r="56" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99" t="s">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="99"/>
-      <c r="G56" s="122"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="116"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="107"/>
+      <c r="I56" s="111"/>
       <c r="J56" s="80"/>
       <c r="K56" s="80"/>
-      <c r="L56" s="119"/>
+      <c r="L56" s="135"/>
     </row>
     <row r="57" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="99"/>
-      <c r="G57" s="123"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="117"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="107"/>
+      <c r="I57" s="111"/>
       <c r="J57" s="82"/>
       <c r="K57" s="82"/>
-      <c r="L57" s="120"/>
+      <c r="L57" s="136"/>
     </row>
     <row r="58" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="99" t="s">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="99"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="16">
         <v>3.5</v>
       </c>
       <c r="H58" s="17"/>
-      <c r="I58" s="107"/>
+      <c r="I58" s="111"/>
       <c r="J58" s="75">
         <v>43200</v>
       </c>
@@ -2875,19 +2875,19 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="99" t="s">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="5">
         <v>7</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="107"/>
+      <c r="I59" s="111"/>
       <c r="J59" s="75">
         <v>43206</v>
       </c>
@@ -2899,19 +2899,19 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="99" t="s">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="5">
         <v>3.5</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="107"/>
+      <c r="I60" s="111"/>
       <c r="J60" s="75">
         <v>43203</v>
       </c>
@@ -2923,19 +2923,19 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="99" t="s">
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="5">
         <v>3.5</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="107"/>
+      <c r="I61" s="111"/>
       <c r="J61" s="75">
         <v>43208</v>
       </c>
@@ -2947,19 +2947,19 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="99" t="s">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="5">
         <v>7</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="107"/>
+      <c r="I62" s="111"/>
       <c r="J62" s="75">
         <v>43207</v>
       </c>
@@ -2971,19 +2971,19 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="99" t="s">
+      <c r="A63" s="111"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="99"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="16">
         <v>3.5</v>
       </c>
       <c r="H63" s="17"/>
-      <c r="I63" s="107"/>
+      <c r="I63" s="111"/>
       <c r="J63" s="75">
         <v>43201</v>
       </c>
@@ -2995,19 +2995,19 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="99" t="s">
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="138"/>
-      <c r="F64" s="138"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="16">
         <v>3.5</v>
       </c>
       <c r="H64" s="17"/>
-      <c r="I64" s="107"/>
+      <c r="I64" s="111"/>
       <c r="J64" s="75">
         <v>43201</v>
       </c>
@@ -3019,19 +3019,19 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="99" t="s">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="5">
         <v>3.5</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="107"/>
+      <c r="I65" s="111"/>
       <c r="J65" s="75">
         <v>43208</v>
       </c>
@@ -3043,19 +3043,19 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="99" t="s">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="5">
         <v>7</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="107"/>
+      <c r="I66" s="111"/>
       <c r="J66" s="75">
         <v>43209</v>
       </c>
@@ -3067,19 +3067,19 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="99" t="s">
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="5">
         <v>21</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="107"/>
+      <c r="I67" s="111"/>
       <c r="J67" s="75">
         <v>43213</v>
       </c>
@@ -3091,83 +3091,83 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="99" t="s">
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99" t="s">
+      <c r="D68" s="102"/>
+      <c r="E68" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="99"/>
-      <c r="G68" s="121">
+      <c r="F68" s="102"/>
+      <c r="G68" s="115">
         <v>7</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="111">
+      <c r="I68" s="111"/>
+      <c r="J68" s="127">
         <v>43210</v>
       </c>
-      <c r="K68" s="111">
+      <c r="K68" s="127">
         <v>43210</v>
       </c>
-      <c r="L68" s="118" t="s">
+      <c r="L68" s="134" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="107"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99" t="s">
+      <c r="A69" s="111"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="99"/>
-      <c r="G69" s="122"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="116"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="119"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="135"/>
     </row>
     <row r="70" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="107"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99" t="s">
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="99"/>
-      <c r="G70" s="123"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="117"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="120"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="129"/>
+      <c r="L70" s="136"/>
     </row>
     <row r="71" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="130">
+      <c r="A71" s="110">
         <v>6</v>
       </c>
-      <c r="B71" s="130" t="s">
+      <c r="B71" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="137"/>
-      <c r="E71" s="136"/>
-      <c r="F71" s="136"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="9">
         <v>0</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="130">
+      <c r="I71" s="110">
         <f>SUM(G71:G87)</f>
         <v>21</v>
       </c>
@@ -3178,61 +3178,61 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="130"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="100" t="s">
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="100"/>
+      <c r="D72" s="103"/>
       <c r="E72" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F72" s="10"/>
-      <c r="G72" s="124">
+      <c r="G72" s="118">
         <v>0</v>
       </c>
-      <c r="H72" s="127" t="s">
+      <c r="H72" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="130"/>
+      <c r="I72" s="110"/>
       <c r="J72" s="83"/>
       <c r="K72" s="83"/>
-      <c r="L72" s="118" t="s">
+      <c r="L72" s="134" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="130"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100" t="s">
+      <c r="A73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="100"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="130"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="110"/>
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
-      <c r="L73" s="120"/>
+      <c r="L73" s="136"/>
     </row>
     <row r="74" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="130"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="100" t="s">
+      <c r="A74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="100"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="136"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
       <c r="G74" s="9">
         <v>0</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="130"/>
+      <c r="I74" s="110"/>
       <c r="J74" s="74"/>
       <c r="K74" s="74"/>
       <c r="L74" s="23" t="s">
@@ -3240,21 +3240,21 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="130"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="100" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="100"/>
-      <c r="E75" s="136"/>
-      <c r="F75" s="136"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="130"/>
+      <c r="I75" s="110"/>
       <c r="J75" s="74"/>
       <c r="K75" s="74"/>
       <c r="L75" s="23" t="s">
@@ -3262,21 +3262,21 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="130"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="100" t="s">
+      <c r="A76" s="110"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="100"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="136"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="130"/>
+      <c r="I76" s="110"/>
       <c r="J76" s="74"/>
       <c r="K76" s="74"/>
       <c r="L76" s="23" t="s">
@@ -3284,93 +3284,93 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="130"/>
-      <c r="B77" s="130"/>
-      <c r="C77" s="100" t="s">
+      <c r="A77" s="110"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100" t="s">
+      <c r="D77" s="103"/>
+      <c r="E77" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F77" s="100"/>
-      <c r="G77" s="124">
+      <c r="F77" s="103"/>
+      <c r="G77" s="118">
         <v>14</v>
       </c>
-      <c r="H77" s="127" t="s">
+      <c r="H77" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="130"/>
+      <c r="I77" s="110"/>
       <c r="J77" s="83"/>
       <c r="K77" s="83"/>
-      <c r="L77" s="118" t="s">
+      <c r="L77" s="134" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="130"/>
-      <c r="B78" s="130"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
       <c r="E78" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F78" s="8"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="129"/>
-      <c r="I78" s="130"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="110"/>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
-      <c r="L78" s="119"/>
+      <c r="L78" s="135"/>
     </row>
     <row r="79" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="130"/>
-      <c r="B79" s="130"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100" t="s">
+      <c r="A79" s="110"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="100"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="130"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="110"/>
       <c r="J79" s="85"/>
       <c r="K79" s="85"/>
-      <c r="L79" s="119"/>
+      <c r="L79" s="135"/>
     </row>
     <row r="80" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="130"/>
-      <c r="B80" s="130"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100" t="s">
+      <c r="A80" s="110"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="100"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="128"/>
-      <c r="I80" s="130"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="119"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="110"/>
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
-      <c r="L80" s="120"/>
+      <c r="L80" s="136"/>
     </row>
     <row r="81" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="130"/>
-      <c r="B81" s="130"/>
-      <c r="C81" s="100" t="s">
+      <c r="A81" s="110"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="100"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
       <c r="G81" s="9">
         <v>0</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="130"/>
+      <c r="I81" s="110"/>
       <c r="J81" s="74"/>
       <c r="K81" s="74"/>
       <c r="L81" s="23" t="s">
@@ -3378,21 +3378,21 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="130"/>
-      <c r="B82" s="130"/>
-      <c r="C82" s="100" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="100"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
       <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="130"/>
+      <c r="I82" s="110"/>
       <c r="J82" s="74"/>
       <c r="K82" s="74"/>
       <c r="L82" s="23" t="s">
@@ -3400,21 +3400,21 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="130"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="100" t="s">
+      <c r="A83" s="110"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="130"/>
+      <c r="I83" s="110"/>
       <c r="J83" s="74"/>
       <c r="K83" s="74"/>
       <c r="L83" s="23" t="s">
@@ -3422,37 +3422,37 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="130"/>
-      <c r="B84" s="130"/>
-      <c r="C84" s="100" t="s">
+      <c r="A84" s="110"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="100"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="130"/>
+      <c r="I84" s="110"/>
       <c r="J84" s="86"/>
       <c r="K84" s="86"/>
       <c r="L84" s="28"/>
     </row>
     <row r="85" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="130"/>
-      <c r="B85" s="130"/>
-      <c r="C85" s="100" t="s">
+      <c r="A85" s="110"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="100"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
       <c r="G85" s="9">
         <v>3.5</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="130"/>
+      <c r="I85" s="110"/>
       <c r="J85" s="75">
         <v>43202</v>
       </c>
@@ -3464,19 +3464,19 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="130"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="100" t="s">
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="D86" s="100"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="9">
         <v>3.5</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="130"/>
+      <c r="I86" s="110"/>
       <c r="J86" s="75">
         <v>43202</v>
       </c>
@@ -3488,43 +3488,43 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="130"/>
-      <c r="B87" s="130"/>
-      <c r="C87" s="100" t="s">
+      <c r="A87" s="110"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="100"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="130"/>
+      <c r="I87" s="110"/>
       <c r="J87" s="86"/>
       <c r="K87" s="86"/>
       <c r="L87" s="28"/>
     </row>
     <row r="88" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="107">
+      <c r="A88" s="111">
         <v>7</v>
       </c>
-      <c r="B88" s="107" t="s">
+      <c r="B88" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="101" t="s">
+      <c r="C88" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="102"/>
-      <c r="E88" s="99" t="s">
+      <c r="D88" s="138"/>
+      <c r="E88" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="99"/>
+      <c r="F88" s="102"/>
       <c r="G88" s="5">
         <v>3.5</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="107">
+      <c r="I88" s="111">
         <f>SUM(G88:G90)</f>
         <v>7</v>
       </c>
@@ -3534,68 +3534,68 @@
       <c r="K88" s="75">
         <v>43203</v>
       </c>
-      <c r="L88" s="115" t="s">
+      <c r="L88" s="131" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
-      <c r="B89" s="107"/>
-      <c r="C89" s="105"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="134" t="s">
+      <c r="A89" s="111"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="F89" s="135"/>
+      <c r="F89" s="109"/>
       <c r="G89" s="5">
         <v>3.5</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="107"/>
+      <c r="I89" s="111"/>
       <c r="J89" s="75">
         <v>43203</v>
       </c>
       <c r="K89" s="75">
         <v>43203</v>
       </c>
-      <c r="L89" s="116"/>
+      <c r="L89" s="132"/>
     </row>
     <row r="90" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="99" t="s">
+      <c r="A90" s="111"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="99"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="14"/>
       <c r="H90" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="107"/>
+      <c r="I90" s="111"/>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
-      <c r="L90" s="117"/>
+      <c r="L90" s="133"/>
     </row>
     <row r="91" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="130">
+      <c r="A91" s="110">
         <v>8</v>
       </c>
-      <c r="B91" s="130" t="s">
+      <c r="B91" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="100" t="s">
+      <c r="C91" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100" t="s">
+      <c r="D91" s="103"/>
+      <c r="E91" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="100"/>
+      <c r="F91" s="103"/>
       <c r="G91" s="12"/>
       <c r="H91" s="44"/>
-      <c r="I91" s="108">
+      <c r="I91" s="124">
         <f>SUM(G91:G139)</f>
         <v>0</v>
       </c>
@@ -3604,785 +3604,785 @@
       <c r="L91" s="87"/>
     </row>
     <row r="92" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="130"/>
-      <c r="B92" s="130"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100" t="s">
+      <c r="A92" s="110"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="100"/>
+      <c r="F92" s="103"/>
       <c r="G92" s="12"/>
       <c r="H92" s="44"/>
-      <c r="I92" s="109"/>
+      <c r="I92" s="125"/>
       <c r="J92" s="44"/>
       <c r="K92" s="44"/>
       <c r="L92" s="87"/>
     </row>
     <row r="93" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="130"/>
-      <c r="B93" s="130"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100" t="s">
+      <c r="A93" s="110"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="F93" s="100"/>
+      <c r="F93" s="103"/>
       <c r="G93" s="12"/>
       <c r="H93" s="44"/>
-      <c r="I93" s="109"/>
+      <c r="I93" s="125"/>
       <c r="J93" s="44"/>
       <c r="K93" s="44"/>
       <c r="L93" s="87"/>
     </row>
     <row r="94" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="130"/>
-      <c r="B94" s="130"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100" t="s">
+      <c r="A94" s="110"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="F94" s="100"/>
+      <c r="F94" s="103"/>
       <c r="G94" s="12"/>
       <c r="H94" s="44"/>
-      <c r="I94" s="109"/>
+      <c r="I94" s="125"/>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
       <c r="L94" s="87"/>
     </row>
     <row r="95" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="130"/>
-      <c r="B95" s="130"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="100" t="s">
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F95" s="100"/>
+      <c r="F95" s="103"/>
       <c r="G95" s="12"/>
       <c r="H95" s="44"/>
-      <c r="I95" s="109"/>
+      <c r="I95" s="125"/>
       <c r="J95" s="44"/>
       <c r="K95" s="44"/>
       <c r="L95" s="87"/>
     </row>
     <row r="96" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="130"/>
-      <c r="B96" s="130"/>
-      <c r="C96" s="100" t="s">
+      <c r="A96" s="110"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="100"/>
-      <c r="E96" s="130"/>
-      <c r="F96" s="130"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="110"/>
       <c r="G96" s="12"/>
       <c r="H96" s="44"/>
-      <c r="I96" s="109"/>
+      <c r="I96" s="125"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="87"/>
     </row>
     <row r="97" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="130"/>
-      <c r="B97" s="130"/>
-      <c r="C97" s="100" t="s">
+      <c r="A97" s="110"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="100"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="130"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="109"/>
+      <c r="I97" s="125"/>
       <c r="J97" s="88"/>
       <c r="K97" s="88"/>
       <c r="L97" s="46"/>
     </row>
     <row r="98" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="130"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="100" t="s">
+      <c r="A98" s="110"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="100"/>
-      <c r="E98" s="130"/>
-      <c r="F98" s="130"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
       <c r="G98" s="12"/>
       <c r="H98" s="44"/>
-      <c r="I98" s="109"/>
+      <c r="I98" s="125"/>
       <c r="J98" s="44"/>
       <c r="K98" s="44"/>
       <c r="L98" s="87"/>
     </row>
     <row r="99" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="130"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="100" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100" t="s">
+      <c r="D99" s="103"/>
+      <c r="E99" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="100"/>
+      <c r="F99" s="103"/>
       <c r="G99" s="12"/>
       <c r="H99" s="44"/>
-      <c r="I99" s="109"/>
+      <c r="I99" s="125"/>
       <c r="J99" s="44"/>
       <c r="K99" s="44"/>
       <c r="L99" s="87"/>
     </row>
     <row r="100" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100" t="s">
+      <c r="A100" s="110"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="100"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="12"/>
       <c r="H100" s="44"/>
-      <c r="I100" s="109"/>
+      <c r="I100" s="125"/>
       <c r="J100" s="44"/>
       <c r="K100" s="44"/>
       <c r="L100" s="87"/>
     </row>
     <row r="101" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="130"/>
-      <c r="B101" s="130"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100" t="s">
+      <c r="A101" s="110"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="100"/>
+      <c r="F101" s="103"/>
       <c r="G101" s="12"/>
       <c r="H101" s="44"/>
-      <c r="I101" s="109"/>
+      <c r="I101" s="125"/>
       <c r="J101" s="44"/>
       <c r="K101" s="44"/>
       <c r="L101" s="87"/>
     </row>
     <row r="102" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="130"/>
-      <c r="B102" s="130"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100" t="s">
+      <c r="A102" s="110"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="F102" s="100"/>
+      <c r="F102" s="103"/>
       <c r="G102" s="12"/>
       <c r="H102" s="44"/>
-      <c r="I102" s="109"/>
+      <c r="I102" s="125"/>
       <c r="J102" s="44"/>
       <c r="K102" s="44"/>
       <c r="L102" s="87"/>
     </row>
     <row r="103" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="130"/>
-      <c r="B103" s="130"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100" t="s">
+      <c r="A103" s="110"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="F103" s="100"/>
+      <c r="F103" s="103"/>
       <c r="G103" s="12"/>
       <c r="H103" s="44"/>
-      <c r="I103" s="109"/>
+      <c r="I103" s="125"/>
       <c r="J103" s="44"/>
       <c r="K103" s="44"/>
       <c r="L103" s="87"/>
     </row>
     <row r="104" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="130"/>
-      <c r="B104" s="130"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100" t="s">
+      <c r="A104" s="110"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="F104" s="100"/>
+      <c r="F104" s="103"/>
       <c r="G104" s="12"/>
       <c r="H104" s="44"/>
-      <c r="I104" s="109"/>
+      <c r="I104" s="125"/>
       <c r="J104" s="44"/>
       <c r="K104" s="44"/>
       <c r="L104" s="87"/>
     </row>
     <row r="105" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="130"/>
-      <c r="B105" s="130"/>
-      <c r="C105" s="100" t="s">
+      <c r="A105" s="110"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
       <c r="G105" s="12"/>
       <c r="H105" s="44"/>
-      <c r="I105" s="109"/>
+      <c r="I105" s="125"/>
       <c r="J105" s="44"/>
       <c r="K105" s="44"/>
       <c r="L105" s="87"/>
     </row>
     <row r="106" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="130"/>
-      <c r="B106" s="130"/>
-      <c r="C106" s="100" t="s">
+      <c r="A106" s="110"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
       <c r="G106" s="12"/>
       <c r="H106" s="44"/>
-      <c r="I106" s="109"/>
+      <c r="I106" s="125"/>
       <c r="J106" s="44"/>
       <c r="K106" s="44"/>
       <c r="L106" s="87"/>
     </row>
     <row r="107" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="130"/>
-      <c r="B107" s="130"/>
-      <c r="C107" s="100" t="s">
+      <c r="A107" s="110"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100" t="s">
+      <c r="D107" s="103"/>
+      <c r="E107" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="F107" s="100"/>
+      <c r="F107" s="103"/>
       <c r="G107" s="12"/>
       <c r="H107" s="44"/>
-      <c r="I107" s="109"/>
+      <c r="I107" s="125"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
       <c r="L107" s="87"/>
     </row>
     <row r="108" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="130"/>
-      <c r="B108" s="130"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100" t="s">
+      <c r="A108" s="110"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="F108" s="100"/>
+      <c r="F108" s="103"/>
       <c r="G108" s="12"/>
       <c r="H108" s="44"/>
-      <c r="I108" s="109"/>
+      <c r="I108" s="125"/>
       <c r="J108" s="44"/>
       <c r="K108" s="44"/>
       <c r="L108" s="87"/>
     </row>
     <row r="109" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="130"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="100" t="s">
+      <c r="A109" s="110"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="100"/>
-      <c r="E109" s="133" t="s">
+      <c r="D109" s="103"/>
+      <c r="E109" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="F109" s="133"/>
+      <c r="F109" s="112"/>
       <c r="G109" s="12"/>
       <c r="H109" s="44"/>
-      <c r="I109" s="109"/>
+      <c r="I109" s="125"/>
       <c r="J109" s="44"/>
       <c r="K109" s="44"/>
       <c r="L109" s="87"/>
     </row>
     <row r="110" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="130"/>
-      <c r="B110" s="130"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="133" t="s">
+      <c r="A110" s="110"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="133"/>
+      <c r="F110" s="112"/>
       <c r="G110" s="12"/>
       <c r="H110" s="44"/>
-      <c r="I110" s="109"/>
+      <c r="I110" s="125"/>
       <c r="J110" s="44"/>
       <c r="K110" s="44"/>
       <c r="L110" s="87"/>
     </row>
     <row r="111" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="130"/>
-      <c r="B111" s="130"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="133" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="F111" s="133"/>
+      <c r="F111" s="112"/>
       <c r="G111" s="12"/>
       <c r="H111" s="44"/>
-      <c r="I111" s="109"/>
+      <c r="I111" s="125"/>
       <c r="J111" s="44"/>
       <c r="K111" s="44"/>
       <c r="L111" s="87"/>
     </row>
     <row r="112" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="130"/>
-      <c r="B112" s="130"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="133" t="s">
+      <c r="A112" s="110"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="133"/>
+      <c r="F112" s="112"/>
       <c r="G112" s="12"/>
       <c r="H112" s="44"/>
-      <c r="I112" s="109"/>
+      <c r="I112" s="125"/>
       <c r="J112" s="44"/>
       <c r="K112" s="44"/>
       <c r="L112" s="87"/>
     </row>
     <row r="113" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="130"/>
-      <c r="B113" s="130"/>
-      <c r="C113" s="100"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="133" t="s">
+      <c r="A113" s="110"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="F113" s="133"/>
+      <c r="F113" s="112"/>
       <c r="G113" s="12"/>
       <c r="H113" s="44"/>
-      <c r="I113" s="109"/>
+      <c r="I113" s="125"/>
       <c r="J113" s="44"/>
       <c r="K113" s="44"/>
       <c r="L113" s="87"/>
     </row>
     <row r="114" spans="1:12" s="63" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="130"/>
-      <c r="B114" s="130"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="133" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="103"/>
+      <c r="E114" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="133"/>
+      <c r="F114" s="112"/>
       <c r="G114" s="12"/>
       <c r="H114" s="44"/>
-      <c r="I114" s="109"/>
+      <c r="I114" s="125"/>
       <c r="J114" s="44"/>
       <c r="K114" s="44"/>
       <c r="L114" s="87"/>
     </row>
     <row r="115" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="130"/>
-      <c r="B115" s="130"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="133" t="s">
+      <c r="A115" s="110"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="F115" s="133"/>
+      <c r="F115" s="112"/>
       <c r="G115" s="12"/>
       <c r="H115" s="44"/>
-      <c r="I115" s="109"/>
+      <c r="I115" s="125"/>
       <c r="J115" s="44"/>
       <c r="K115" s="44"/>
       <c r="L115" s="87"/>
     </row>
     <row r="116" spans="1:12" s="63" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="130"/>
-      <c r="B116" s="130"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="133" t="s">
+      <c r="A116" s="110"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="103"/>
+      <c r="E116" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="F116" s="133"/>
+      <c r="F116" s="112"/>
       <c r="G116" s="12"/>
       <c r="H116" s="44"/>
-      <c r="I116" s="109"/>
+      <c r="I116" s="125"/>
       <c r="J116" s="44"/>
       <c r="K116" s="44"/>
       <c r="L116" s="87"/>
     </row>
     <row r="117" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="130"/>
-      <c r="B117" s="130"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="133" t="s">
+      <c r="A117" s="110"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="103"/>
+      <c r="E117" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="F117" s="133"/>
+      <c r="F117" s="112"/>
       <c r="G117" s="12"/>
       <c r="H117" s="44"/>
-      <c r="I117" s="109"/>
+      <c r="I117" s="125"/>
       <c r="J117" s="44"/>
       <c r="K117" s="44"/>
       <c r="L117" s="87"/>
     </row>
     <row r="118" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="130"/>
-      <c r="B118" s="130"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="100"/>
-      <c r="E118" s="100" t="s">
+      <c r="A118" s="110"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="F118" s="100"/>
+      <c r="F118" s="103"/>
       <c r="G118" s="12"/>
       <c r="H118" s="44"/>
-      <c r="I118" s="109"/>
+      <c r="I118" s="125"/>
       <c r="J118" s="44"/>
       <c r="K118" s="44"/>
       <c r="L118" s="87"/>
     </row>
     <row r="119" spans="1:12" s="63" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="130"/>
-      <c r="B119" s="130"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="100"/>
-      <c r="E119" s="133" t="s">
+      <c r="A119" s="110"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="F119" s="133"/>
+      <c r="F119" s="112"/>
       <c r="G119" s="12"/>
       <c r="H119" s="44"/>
-      <c r="I119" s="109"/>
+      <c r="I119" s="125"/>
       <c r="J119" s="44"/>
       <c r="K119" s="44"/>
       <c r="L119" s="87"/>
     </row>
     <row r="120" spans="1:12" s="63" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="130"/>
-      <c r="B120" s="130"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="133" t="s">
+      <c r="A120" s="110"/>
+      <c r="B120" s="110"/>
+      <c r="C120" s="103"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F120" s="133"/>
+      <c r="F120" s="112"/>
       <c r="G120" s="12"/>
       <c r="H120" s="44"/>
-      <c r="I120" s="109"/>
+      <c r="I120" s="125"/>
       <c r="J120" s="44"/>
       <c r="K120" s="44"/>
       <c r="L120" s="87"/>
     </row>
     <row r="121" spans="1:12" s="63" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="130"/>
-      <c r="B121" s="130"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="133" t="s">
+      <c r="A121" s="110"/>
+      <c r="B121" s="110"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="133"/>
+      <c r="F121" s="112"/>
       <c r="G121" s="12"/>
       <c r="H121" s="44"/>
-      <c r="I121" s="109"/>
+      <c r="I121" s="125"/>
       <c r="J121" s="44"/>
       <c r="K121" s="44"/>
       <c r="L121" s="87"/>
     </row>
     <row r="122" spans="1:12" s="63" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="130"/>
-      <c r="B122" s="130"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="133" t="s">
+      <c r="A122" s="110"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="F122" s="133"/>
+      <c r="F122" s="112"/>
       <c r="G122" s="12"/>
       <c r="H122" s="44"/>
-      <c r="I122" s="109"/>
+      <c r="I122" s="125"/>
       <c r="J122" s="44"/>
       <c r="K122" s="44"/>
       <c r="L122" s="87"/>
     </row>
     <row r="123" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="130"/>
-      <c r="B123" s="130"/>
-      <c r="C123" s="100"/>
-      <c r="D123" s="100"/>
-      <c r="E123" s="133" t="s">
+      <c r="A123" s="110"/>
+      <c r="B123" s="110"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="F123" s="133"/>
+      <c r="F123" s="112"/>
       <c r="G123" s="12"/>
       <c r="H123" s="44"/>
-      <c r="I123" s="109"/>
+      <c r="I123" s="125"/>
       <c r="J123" s="44"/>
       <c r="K123" s="44"/>
       <c r="L123" s="87"/>
     </row>
     <row r="124" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="130"/>
-      <c r="B124" s="130"/>
-      <c r="C124" s="100" t="s">
+      <c r="A124" s="110"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="100"/>
-      <c r="E124" s="133" t="s">
+      <c r="D124" s="103"/>
+      <c r="E124" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="F124" s="133"/>
+      <c r="F124" s="112"/>
       <c r="G124" s="12"/>
       <c r="H124" s="44"/>
-      <c r="I124" s="109"/>
+      <c r="I124" s="125"/>
       <c r="J124" s="44"/>
       <c r="K124" s="44"/>
       <c r="L124" s="87"/>
     </row>
     <row r="125" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="130"/>
-      <c r="B125" s="130"/>
-      <c r="C125" s="100"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="133" t="s">
+      <c r="A125" s="110"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="F125" s="133"/>
+      <c r="F125" s="112"/>
       <c r="G125" s="12"/>
       <c r="H125" s="44"/>
-      <c r="I125" s="109"/>
+      <c r="I125" s="125"/>
       <c r="J125" s="44"/>
       <c r="K125" s="44"/>
       <c r="L125" s="87"/>
     </row>
     <row r="126" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="130"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="100" t="s">
+      <c r="A126" s="110"/>
+      <c r="B126" s="110"/>
+      <c r="C126" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="D126" s="100"/>
-      <c r="E126" s="133" t="s">
+      <c r="D126" s="103"/>
+      <c r="E126" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="F126" s="133"/>
+      <c r="F126" s="112"/>
       <c r="G126" s="12"/>
       <c r="H126" s="44"/>
-      <c r="I126" s="109"/>
+      <c r="I126" s="125"/>
       <c r="J126" s="44"/>
       <c r="K126" s="44"/>
       <c r="L126" s="87"/>
     </row>
     <row r="127" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="130"/>
-      <c r="B127" s="130"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="133" t="s">
+      <c r="A127" s="110"/>
+      <c r="B127" s="110"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103"/>
+      <c r="E127" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F127" s="133"/>
+      <c r="F127" s="112"/>
       <c r="G127" s="12"/>
       <c r="H127" s="44"/>
-      <c r="I127" s="109"/>
+      <c r="I127" s="125"/>
       <c r="J127" s="44"/>
       <c r="K127" s="44"/>
       <c r="L127" s="87"/>
     </row>
     <row r="128" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="130"/>
-      <c r="B128" s="130"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="100"/>
-      <c r="E128" s="133" t="s">
+      <c r="A128" s="110"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="103"/>
+      <c r="E128" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="F128" s="133"/>
+      <c r="F128" s="112"/>
       <c r="G128" s="12"/>
       <c r="H128" s="44"/>
-      <c r="I128" s="109"/>
+      <c r="I128" s="125"/>
       <c r="J128" s="44"/>
       <c r="K128" s="44"/>
       <c r="L128" s="87"/>
     </row>
     <row r="129" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="130"/>
-      <c r="B129" s="130"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="133" t="s">
+      <c r="A129" s="110"/>
+      <c r="B129" s="110"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="103"/>
+      <c r="E129" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="133"/>
+      <c r="F129" s="112"/>
       <c r="G129" s="12"/>
       <c r="H129" s="44"/>
-      <c r="I129" s="109"/>
+      <c r="I129" s="125"/>
       <c r="J129" s="44"/>
       <c r="K129" s="44"/>
       <c r="L129" s="87"/>
     </row>
     <row r="130" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="130"/>
-      <c r="B130" s="130"/>
-      <c r="C130" s="100" t="s">
+      <c r="A130" s="110"/>
+      <c r="B130" s="110"/>
+      <c r="C130" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100" t="s">
+      <c r="D130" s="103"/>
+      <c r="E130" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F130" s="100"/>
+      <c r="F130" s="103"/>
       <c r="G130" s="12"/>
       <c r="H130" s="44"/>
-      <c r="I130" s="109"/>
+      <c r="I130" s="125"/>
       <c r="J130" s="44"/>
       <c r="K130" s="44"/>
       <c r="L130" s="87"/>
     </row>
     <row r="131" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="130"/>
-      <c r="B131" s="130"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="100" t="s">
+      <c r="A131" s="110"/>
+      <c r="B131" s="110"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="103"/>
+      <c r="E131" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="F131" s="100"/>
+      <c r="F131" s="103"/>
       <c r="G131" s="12"/>
       <c r="H131" s="44"/>
-      <c r="I131" s="109"/>
+      <c r="I131" s="125"/>
       <c r="J131" s="44"/>
       <c r="K131" s="44"/>
       <c r="L131" s="87"/>
     </row>
     <row r="132" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="130"/>
-      <c r="B132" s="130"/>
-      <c r="C132" s="100"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="100" t="s">
+      <c r="A132" s="110"/>
+      <c r="B132" s="110"/>
+      <c r="C132" s="103"/>
+      <c r="D132" s="103"/>
+      <c r="E132" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="F132" s="100"/>
+      <c r="F132" s="103"/>
       <c r="G132" s="12"/>
       <c r="H132" s="44"/>
-      <c r="I132" s="109"/>
+      <c r="I132" s="125"/>
       <c r="J132" s="44"/>
       <c r="K132" s="44"/>
       <c r="L132" s="87"/>
     </row>
     <row r="133" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="130"/>
-      <c r="B133" s="130"/>
-      <c r="C133" s="100" t="s">
+      <c r="A133" s="110"/>
+      <c r="B133" s="110"/>
+      <c r="C133" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="D133" s="100"/>
-      <c r="E133" s="100" t="s">
+      <c r="D133" s="103"/>
+      <c r="E133" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="100"/>
+      <c r="F133" s="103"/>
       <c r="G133" s="12"/>
       <c r="H133" s="44"/>
-      <c r="I133" s="109"/>
+      <c r="I133" s="125"/>
       <c r="J133" s="44"/>
       <c r="K133" s="44"/>
       <c r="L133" s="87"/>
     </row>
     <row r="134" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="130"/>
-      <c r="B134" s="130"/>
-      <c r="C134" s="100"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100" t="s">
+      <c r="A134" s="110"/>
+      <c r="B134" s="110"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="F134" s="100"/>
+      <c r="F134" s="103"/>
       <c r="G134" s="12"/>
       <c r="H134" s="44"/>
-      <c r="I134" s="109"/>
+      <c r="I134" s="125"/>
       <c r="J134" s="44"/>
       <c r="K134" s="44"/>
       <c r="L134" s="87"/>
     </row>
     <row r="135" spans="1:12" s="63" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="130"/>
-      <c r="B135" s="130"/>
-      <c r="C135" s="100"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="133" t="s">
+      <c r="A135" s="110"/>
+      <c r="B135" s="110"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="103"/>
+      <c r="E135" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="133"/>
+      <c r="F135" s="112"/>
       <c r="G135" s="12"/>
       <c r="H135" s="44"/>
-      <c r="I135" s="109"/>
+      <c r="I135" s="125"/>
       <c r="J135" s="44"/>
       <c r="K135" s="44"/>
       <c r="L135" s="87"/>
     </row>
     <row r="136" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="130"/>
-      <c r="B136" s="130"/>
-      <c r="C136" s="100" t="s">
+      <c r="A136" s="110"/>
+      <c r="B136" s="110"/>
+      <c r="C136" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="D136" s="100"/>
-      <c r="E136" s="100" t="s">
+      <c r="D136" s="103"/>
+      <c r="E136" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="F136" s="100"/>
+      <c r="F136" s="103"/>
       <c r="G136" s="12"/>
       <c r="H136" s="44"/>
-      <c r="I136" s="109"/>
+      <c r="I136" s="125"/>
       <c r="J136" s="44"/>
       <c r="K136" s="44"/>
       <c r="L136" s="87"/>
     </row>
     <row r="137" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="130"/>
-      <c r="B137" s="130"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="100" t="s">
+      <c r="A137" s="110"/>
+      <c r="B137" s="110"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="103"/>
+      <c r="E137" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="F137" s="100"/>
+      <c r="F137" s="103"/>
       <c r="G137" s="12"/>
       <c r="H137" s="44"/>
-      <c r="I137" s="109"/>
+      <c r="I137" s="125"/>
       <c r="J137" s="44"/>
       <c r="K137" s="44"/>
       <c r="L137" s="87"/>
     </row>
     <row r="138" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="130"/>
-      <c r="B138" s="130"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100" t="s">
+      <c r="A138" s="110"/>
+      <c r="B138" s="110"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="F138" s="100"/>
+      <c r="F138" s="103"/>
       <c r="G138" s="12"/>
       <c r="H138" s="44"/>
-      <c r="I138" s="109"/>
+      <c r="I138" s="125"/>
       <c r="J138" s="44"/>
       <c r="K138" s="44"/>
       <c r="L138" s="87"/>
     </row>
     <row r="139" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="130"/>
-      <c r="B139" s="130"/>
-      <c r="C139" s="100"/>
-      <c r="D139" s="100"/>
-      <c r="E139" s="100" t="s">
+      <c r="A139" s="110"/>
+      <c r="B139" s="110"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="103"/>
+      <c r="E139" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F139" s="100"/>
+      <c r="F139" s="103"/>
       <c r="G139" s="12"/>
       <c r="H139" s="44"/>
-      <c r="I139" s="110"/>
+      <c r="I139" s="126"/>
       <c r="J139" s="44"/>
       <c r="K139" s="44"/>
       <c r="L139" s="87"/>
@@ -4390,8 +4390,8 @@
     <row r="140" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="89"/>
       <c r="B140" s="89"/>
-      <c r="C140" s="131"/>
-      <c r="D140" s="131"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="113"/>
       <c r="E140" s="89"/>
       <c r="F140" s="89"/>
       <c r="G140" s="90"/>
@@ -4400,8 +4400,8 @@
     <row r="141" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="89"/>
       <c r="B141" s="89"/>
-      <c r="C141" s="131"/>
-      <c r="D141" s="131"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="113"/>
       <c r="E141" s="89"/>
       <c r="F141" s="89"/>
       <c r="G141" s="90"/>
@@ -4410,8 +4410,8 @@
     <row r="142" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="89"/>
       <c r="B142" s="89"/>
-      <c r="C142" s="131"/>
-      <c r="D142" s="131"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
       <c r="E142" s="89"/>
       <c r="F142" s="89"/>
       <c r="G142" s="90"/>
@@ -4420,8 +4420,8 @@
     <row r="143" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="89"/>
       <c r="B143" s="89"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="131"/>
+      <c r="C143" s="113"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="89"/>
       <c r="F143" s="89"/>
       <c r="G143" s="90"/>
@@ -4430,8 +4430,8 @@
     <row r="144" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="89"/>
       <c r="B144" s="89"/>
-      <c r="C144" s="131"/>
-      <c r="D144" s="131"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="113"/>
       <c r="E144" s="89"/>
       <c r="F144" s="89"/>
       <c r="G144" s="90"/>
@@ -4440,8 +4440,8 @@
     <row r="145" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="89"/>
       <c r="B145" s="89"/>
-      <c r="C145" s="131"/>
-      <c r="D145" s="131"/>
+      <c r="C145" s="113"/>
+      <c r="D145" s="113"/>
       <c r="E145" s="89"/>
       <c r="F145" s="89"/>
       <c r="G145" s="90"/>
@@ -4450,8 +4450,8 @@
     <row r="146" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="89"/>
       <c r="B146" s="89"/>
-      <c r="C146" s="131"/>
-      <c r="D146" s="131"/>
+      <c r="C146" s="113"/>
+      <c r="D146" s="113"/>
       <c r="E146" s="89"/>
       <c r="F146" s="89"/>
       <c r="G146" s="90"/>
@@ -4460,16 +4460,16 @@
     <row r="147" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="89"/>
       <c r="B147" s="89"/>
-      <c r="C147" s="131"/>
-      <c r="D147" s="131"/>
+      <c r="C147" s="113"/>
+      <c r="D147" s="113"/>
       <c r="E147" s="89"/>
       <c r="F147" s="89"/>
       <c r="G147" s="90"/>
       <c r="L147" s="95"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C148" s="132"/>
-      <c r="D148" s="132"/>
+      <c r="C148" s="114"/>
+      <c r="D148" s="114"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="91"/>
@@ -4517,189 +4517,45 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C68:D70"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C49:D57"/>
+    <mergeCell ref="C39:D45"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="C31:D38"/>
+    <mergeCell ref="C99:D104"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="C91:D95"/>
+    <mergeCell ref="C24:D30"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="I91:I139"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="L9:L16"/>
+    <mergeCell ref="L24:L30"/>
+    <mergeCell ref="L31:L38"/>
+    <mergeCell ref="L39:L45"/>
+    <mergeCell ref="L49:L57"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="L88:L90"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="I19:I70"/>
+    <mergeCell ref="I71:I87"/>
     <mergeCell ref="C145:D145"/>
     <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
@@ -4724,45 +4580,189 @@
     <mergeCell ref="C136:D139"/>
     <mergeCell ref="C5:D8"/>
     <mergeCell ref="C9:D12"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="I19:I70"/>
-    <mergeCell ref="I71:I87"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="I91:I139"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="L9:L16"/>
-    <mergeCell ref="L24:L30"/>
-    <mergeCell ref="L31:L38"/>
-    <mergeCell ref="L39:L45"/>
-    <mergeCell ref="L49:L57"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="C49:D57"/>
-    <mergeCell ref="C39:D45"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="C31:D38"/>
-    <mergeCell ref="C99:D104"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="C24:D30"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C68:D70"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4779,7 +4779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92:I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4815,149 +4815,149 @@
       <c r="AQ1" s="18"/>
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="170" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="174" t="s">
+      <c r="M2" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="177" t="s">
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="AR2" s="177"/>
-      <c r="AS2" s="177"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="177"/>
-      <c r="AY2" s="177"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="177"/>
-      <c r="BB2" s="177"/>
-      <c r="BC2" s="177"/>
-      <c r="BD2" s="177"/>
-      <c r="BE2" s="177"/>
-      <c r="BF2" s="177"/>
-      <c r="BG2" s="177"/>
-      <c r="BH2" s="177"/>
-      <c r="BI2" s="177"/>
-      <c r="BJ2" s="177"/>
-      <c r="BK2" s="177"/>
-      <c r="BL2" s="177"/>
-      <c r="BM2" s="177"/>
-      <c r="BN2" s="177"/>
-      <c r="BO2" s="177"/>
-      <c r="BP2" s="177"/>
-      <c r="BQ2" s="177"/>
-      <c r="BR2" s="177"/>
-      <c r="BS2" s="177"/>
-      <c r="BT2" s="177"/>
-      <c r="BU2" s="178"/>
-      <c r="BV2" s="174" t="s">
+      <c r="AR2" s="146"/>
+      <c r="AS2" s="146"/>
+      <c r="AT2" s="146"/>
+      <c r="AU2" s="146"/>
+      <c r="AV2" s="146"/>
+      <c r="AW2" s="146"/>
+      <c r="AX2" s="146"/>
+      <c r="AY2" s="146"/>
+      <c r="AZ2" s="146"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="146"/>
+      <c r="BD2" s="146"/>
+      <c r="BE2" s="146"/>
+      <c r="BF2" s="146"/>
+      <c r="BG2" s="146"/>
+      <c r="BH2" s="146"/>
+      <c r="BI2" s="146"/>
+      <c r="BJ2" s="146"/>
+      <c r="BK2" s="146"/>
+      <c r="BL2" s="146"/>
+      <c r="BM2" s="146"/>
+      <c r="BN2" s="146"/>
+      <c r="BO2" s="146"/>
+      <c r="BP2" s="146"/>
+      <c r="BQ2" s="146"/>
+      <c r="BR2" s="146"/>
+      <c r="BS2" s="146"/>
+      <c r="BT2" s="146"/>
+      <c r="BU2" s="147"/>
+      <c r="BV2" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="BW2" s="174"/>
-      <c r="BX2" s="174"/>
-      <c r="BY2" s="174"/>
-      <c r="BZ2" s="174"/>
-      <c r="CA2" s="174"/>
-      <c r="CB2" s="174"/>
-      <c r="CC2" s="174"/>
-      <c r="CD2" s="174"/>
-      <c r="CE2" s="174"/>
-      <c r="CF2" s="174"/>
-      <c r="CG2" s="174"/>
-      <c r="CH2" s="174"/>
-      <c r="CI2" s="174"/>
-      <c r="CJ2" s="174"/>
-      <c r="CK2" s="174"/>
-      <c r="CL2" s="174"/>
-      <c r="CM2" s="174"/>
-      <c r="CN2" s="174"/>
-      <c r="CO2" s="174"/>
-      <c r="CP2" s="174"/>
-      <c r="CQ2" s="174"/>
-      <c r="CR2" s="174"/>
-      <c r="CS2" s="174"/>
-      <c r="CT2" s="174"/>
-      <c r="CU2" s="174"/>
-      <c r="CV2" s="174"/>
-      <c r="CW2" s="174"/>
-      <c r="CX2" s="174"/>
-      <c r="CY2" s="179"/>
+      <c r="BW2" s="143"/>
+      <c r="BX2" s="143"/>
+      <c r="BY2" s="143"/>
+      <c r="BZ2" s="143"/>
+      <c r="CA2" s="143"/>
+      <c r="CB2" s="143"/>
+      <c r="CC2" s="143"/>
+      <c r="CD2" s="143"/>
+      <c r="CE2" s="143"/>
+      <c r="CF2" s="143"/>
+      <c r="CG2" s="143"/>
+      <c r="CH2" s="143"/>
+      <c r="CI2" s="143"/>
+      <c r="CJ2" s="143"/>
+      <c r="CK2" s="143"/>
+      <c r="CL2" s="143"/>
+      <c r="CM2" s="143"/>
+      <c r="CN2" s="143"/>
+      <c r="CO2" s="143"/>
+      <c r="CP2" s="143"/>
+      <c r="CQ2" s="143"/>
+      <c r="CR2" s="143"/>
+      <c r="CS2" s="143"/>
+      <c r="CT2" s="143"/>
+      <c r="CU2" s="143"/>
+      <c r="CV2" s="143"/>
+      <c r="CW2" s="143"/>
+      <c r="CX2" s="143"/>
+      <c r="CY2" s="148"/>
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="156"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="19">
         <v>1</v>
       </c>
@@ -5233,31 +5233,31 @@
       </c>
     </row>
     <row r="4" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A4" s="107">
+      <c r="A4" s="111">
         <v>1</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="107">
+      <c r="I4" s="111">
         <f>SUM(G4:G9)</f>
         <v>66.5</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="130" t="s">
         <v>14</v>
       </c>
       <c r="AP4" s="39"/>
@@ -5294,24 +5294,24 @@
       <c r="CY4" s="40"/>
     </row>
     <row r="5" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="99" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="5">
         <v>21</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="107"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="24">
         <v>43222</v>
       </c>
       <c r="K5" s="24"/>
-      <c r="L5" s="114"/>
+      <c r="L5" s="130"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
       <c r="AP5" s="39"/>
@@ -5334,24 +5334,24 @@
       <c r="CY5" s="40"/>
     </row>
     <row r="6" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="99" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="5">
         <v>7</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="107"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
-      <c r="L6" s="114"/>
+      <c r="L6" s="130"/>
       <c r="AP6" s="39"/>
       <c r="AS6" s="18"/>
       <c r="AT6" s="18"/>
@@ -5373,22 +5373,22 @@
       <c r="CY6" s="40"/>
     </row>
     <row r="7" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="99"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="5">
         <v>3.5</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="107"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="114"/>
+      <c r="L7" s="130"/>
       <c r="AP7" s="39"/>
       <c r="BA7" s="18"/>
       <c r="BG7" s="18"/>
@@ -5409,22 +5409,22 @@
       <c r="CY7" s="40"/>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="5">
         <v>28</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="107"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="114"/>
+      <c r="L8" s="130"/>
       <c r="AP8" s="39"/>
       <c r="AW8" s="18"/>
       <c r="AX8" s="18"/>
@@ -5448,22 +5448,22 @@
       <c r="CY8" s="40"/>
     </row>
     <row r="9" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99" t="s">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="5">
         <v>7</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="107"/>
+      <c r="I9" s="111"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="114"/>
+      <c r="L9" s="130"/>
       <c r="AP9" s="39"/>
       <c r="AT9" s="18"/>
       <c r="BG9" s="18"/>
@@ -5484,25 +5484,25 @@
       <c r="CY9" s="40"/>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A10" s="130">
+      <c r="A10" s="110">
         <v>2</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="9">
         <v>3.5</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="130">
+      <c r="I10" s="110">
         <f>SUM(G10:G17)</f>
         <v>14</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>43222</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="131" t="s">
         <v>23</v>
       </c>
       <c r="AB10" s="18"/>
@@ -5536,22 +5536,22 @@
       <c r="CY10" s="40"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="130"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="116"/>
+      <c r="L11" s="132"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
       <c r="AP11" s="39"/>
@@ -5575,22 +5575,22 @@
       <c r="CY11" s="40"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="9">
         <v>7</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="130"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="116"/>
+      <c r="L12" s="132"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
       <c r="AP12" s="39"/>
@@ -5614,22 +5614,22 @@
       <c r="CY12" s="40"/>
     </row>
     <row r="13" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="9">
         <v>3.5</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="130"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="116"/>
+      <c r="L13" s="132"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
       <c r="AP13" s="39"/>
@@ -5653,22 +5653,22 @@
       <c r="CY13" s="40"/>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="137" t="s">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="12"/>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="116"/>
+      <c r="L14" s="132"/>
       <c r="AP14" s="39"/>
       <c r="BG14" s="18"/>
       <c r="BH14" s="18"/>
@@ -5688,22 +5688,22 @@
       <c r="CY14" s="40"/>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="130"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="116"/>
+      <c r="L15" s="132"/>
       <c r="AP15" s="39"/>
       <c r="BG15" s="18"/>
       <c r="BH15" s="18"/>
@@ -5723,22 +5723,22 @@
       <c r="CY15" s="40"/>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="137" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="12"/>
       <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="130"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="116"/>
+      <c r="L16" s="132"/>
       <c r="AP16" s="39"/>
       <c r="BG16" s="18"/>
       <c r="BH16" s="18"/>
@@ -5758,22 +5758,22 @@
       <c r="CY16" s="40"/>
     </row>
     <row r="17" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="137" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="12"/>
       <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="130"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="117"/>
+      <c r="L17" s="133"/>
       <c r="AP17" s="39"/>
       <c r="BG17" s="18"/>
       <c r="BH17" s="18"/>
@@ -5799,10 +5799,10 @@
       <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="14"/>
       <c r="H18" s="5"/>
       <c r="I18" s="14"/>
@@ -5834,10 +5834,10 @@
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
@@ -5863,25 +5863,25 @@
       <c r="CY19" s="40"/>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A20" s="107">
+      <c r="A20" s="111">
         <v>5</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="5">
         <v>7</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="107">
+      <c r="I20" s="111">
         <f>SUM(G20:G71)</f>
         <v>192</v>
       </c>
@@ -5913,21 +5913,21 @@
       <c r="CY20" s="40"/>
     </row>
     <row r="21" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="99" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="107"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23" t="s">
@@ -5952,21 +5952,21 @@
       <c r="CY21" s="40"/>
     </row>
     <row r="22" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="99" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="107"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23" t="s">
@@ -5991,21 +5991,21 @@
       <c r="CY22" s="40"/>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="139" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="107"/>
+      <c r="I23" s="111"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23" t="s">
@@ -6030,21 +6030,21 @@
       <c r="CY23" s="40"/>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="139" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="107"/>
+      <c r="I24" s="111"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23" t="s">
@@ -6069,24 +6069,24 @@
       <c r="CY24" s="40"/>
     </row>
     <row r="25" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="101" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="134" t="s">
+      <c r="D25" s="138"/>
+      <c r="E25" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="135"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="5">
         <v>4</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="107"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="115" t="s">
+      <c r="L25" s="131" t="s">
         <v>23</v>
       </c>
       <c r="U25" s="18"/>
@@ -6110,22 +6110,22 @@
       <c r="CY25" s="40"/>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="134" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="135"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="5">
         <v>7</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="107"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
-      <c r="L26" s="116"/>
+      <c r="L26" s="132"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="AP26" s="39"/>
@@ -6147,22 +6147,22 @@
       <c r="CY26" s="40"/>
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="134" t="s">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="135"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="5">
         <v>3</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="107"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
-      <c r="L27" s="116"/>
+      <c r="L27" s="132"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="AP27" s="39"/>
@@ -6184,26 +6184,26 @@
       <c r="CY27" s="40"/>
     </row>
     <row r="28" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="134" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="135"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="5">
         <v>2</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="107"/>
+      <c r="I28" s="111"/>
       <c r="J28" s="32">
         <v>43195</v>
       </c>
       <c r="K28" s="32">
         <v>43198</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="132"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="AP28" s="39"/>
@@ -6225,22 +6225,22 @@
       <c r="CY28" s="40"/>
     </row>
     <row r="29" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="134" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="135"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="107"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="116"/>
+      <c r="L29" s="132"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="AP29" s="39"/>
@@ -6262,22 +6262,22 @@
       <c r="CY29" s="40"/>
     </row>
     <row r="30" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="134" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="107"/>
+      <c r="I30" s="111"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="116"/>
+      <c r="L30" s="132"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="AP30" s="39"/>
@@ -6291,22 +6291,22 @@
       <c r="CY30" s="40"/>
     </row>
     <row r="31" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="134" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="135"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="5">
         <v>1</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="107"/>
+      <c r="I31" s="111"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="116"/>
+      <c r="L31" s="132"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
@@ -6323,24 +6323,24 @@
       <c r="CY31" s="40"/>
     </row>
     <row r="32" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="101" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="134" t="s">
+      <c r="D32" s="138"/>
+      <c r="E32" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="135"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="5">
         <v>4</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="107"/>
+      <c r="I32" s="111"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="115" t="s">
+      <c r="L32" s="131" t="s">
         <v>23</v>
       </c>
       <c r="M32" s="18"/>
@@ -6357,22 +6357,22 @@
       <c r="CY32" s="40"/>
     </row>
     <row r="33" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="134" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="135"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="5">
         <v>5</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="107"/>
+      <c r="I33" s="111"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="116"/>
+      <c r="L33" s="132"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
@@ -6381,22 +6381,22 @@
       <c r="CY33" s="40"/>
     </row>
     <row r="34" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="134" t="s">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="5">
         <v>14</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="107"/>
+      <c r="I34" s="111"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
-      <c r="L34" s="116"/>
+      <c r="L34" s="132"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -6405,26 +6405,26 @@
       <c r="CY34" s="40"/>
     </row>
     <row r="35" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="134" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="135"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="107"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="32">
         <v>43187</v>
       </c>
       <c r="K35" s="32">
         <v>43193</v>
       </c>
-      <c r="L35" s="116"/>
+      <c r="L35" s="132"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
@@ -6433,22 +6433,22 @@
       <c r="CY35" s="40"/>
     </row>
     <row r="36" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="134" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="135"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="107"/>
+      <c r="I36" s="111"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="116"/>
+      <c r="L36" s="132"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -6457,22 +6457,22 @@
       <c r="CY36" s="40"/>
     </row>
     <row r="37" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="134" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="135"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="107"/>
+      <c r="I37" s="111"/>
       <c r="J37" s="31"/>
       <c r="K37" s="31"/>
-      <c r="L37" s="116"/>
+      <c r="L37" s="132"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -6481,22 +6481,22 @@
       <c r="CY37" s="40"/>
     </row>
     <row r="38" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="134" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="5">
         <v>2</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="107"/>
+      <c r="I38" s="111"/>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="116"/>
+      <c r="L38" s="132"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -6505,22 +6505,22 @@
       <c r="CY38" s="40"/>
     </row>
     <row r="39" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="134" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="135"/>
+      <c r="F39" s="109"/>
       <c r="G39" s="5">
         <v>1</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="107"/>
+      <c r="I39" s="111"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
-      <c r="L39" s="117"/>
+      <c r="L39" s="133"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
@@ -6529,24 +6529,24 @@
       <c r="CY39" s="40"/>
     </row>
     <row r="40" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="99" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="139" t="s">
+      <c r="D40" s="102"/>
+      <c r="E40" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="139"/>
-      <c r="G40" s="121">
+      <c r="F40" s="107"/>
+      <c r="G40" s="115">
         <v>10.5</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="107"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="134" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="18"/>
@@ -6557,20 +6557,20 @@
       <c r="CY40" s="40"/>
     </row>
     <row r="41" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="139" t="s">
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="139"/>
-      <c r="G41" s="122"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="107"/>
+      <c r="I41" s="111"/>
       <c r="J41" s="35"/>
       <c r="K41" s="35"/>
-      <c r="L41" s="119"/>
+      <c r="L41" s="135"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
@@ -6579,20 +6579,20 @@
       <c r="CY41" s="40"/>
     </row>
     <row r="42" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="139" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="139"/>
-      <c r="G42" s="122"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="107"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35"/>
-      <c r="L42" s="119"/>
+      <c r="L42" s="135"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -6601,24 +6601,24 @@
       <c r="CY42" s="40"/>
     </row>
     <row r="43" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="139" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="122"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="107"/>
+      <c r="I43" s="111"/>
       <c r="J43" s="36">
         <v>43192</v>
       </c>
       <c r="K43" s="36">
         <v>43194</v>
       </c>
-      <c r="L43" s="119"/>
+      <c r="L43" s="135"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -6627,20 +6627,20 @@
       <c r="CY43" s="40"/>
     </row>
     <row r="44" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="139" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="122"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="107"/>
+      <c r="I44" s="111"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
-      <c r="L44" s="119"/>
+      <c r="L44" s="135"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -6649,20 +6649,20 @@
       <c r="CY44" s="40"/>
     </row>
     <row r="45" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="139" t="s">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="122"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="107"/>
+      <c r="I45" s="111"/>
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
-      <c r="L45" s="119"/>
+      <c r="L45" s="135"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
@@ -6676,20 +6676,20 @@
       <c r="CY45" s="40"/>
     </row>
     <row r="46" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="139" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="139"/>
-      <c r="G46" s="123"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="117"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="107"/>
+      <c r="I46" s="111"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="120"/>
+      <c r="L46" s="136"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -6703,21 +6703,21 @@
       <c r="CY46" s="40"/>
     </row>
     <row r="47" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="99" t="s">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="14">
         <v>3.5</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="107"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
       <c r="L47" s="28" t="s">
@@ -6737,19 +6737,19 @@
       <c r="CY47" s="40"/>
     </row>
     <row r="48" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="139" t="s">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="139"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="5">
         <v>10</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="107"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="23" t="s">
@@ -6785,19 +6785,19 @@
       <c r="CY48" s="40"/>
     </row>
     <row r="49" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="99" t="s">
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
       <c r="G49" s="16">
         <v>3.5</v>
       </c>
       <c r="H49" s="17"/>
-      <c r="I49" s="107"/>
+      <c r="I49" s="111"/>
       <c r="J49" s="36">
         <v>43199</v>
       </c>
@@ -6834,24 +6834,24 @@
       <c r="CY49" s="40"/>
     </row>
     <row r="50" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="99" t="s">
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99" t="s">
+      <c r="D50" s="102"/>
+      <c r="E50" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="99"/>
-      <c r="G50" s="121">
+      <c r="F50" s="102"/>
+      <c r="G50" s="115">
         <v>21</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="107"/>
+      <c r="I50" s="111"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="118" t="s">
+      <c r="L50" s="134" t="s">
         <v>14</v>
       </c>
       <c r="U50" s="18"/>
@@ -6881,20 +6881,20 @@
       <c r="CY50" s="40"/>
     </row>
     <row r="51" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99" t="s">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="122"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="116"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="107"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="119"/>
+      <c r="L51" s="135"/>
       <c r="U51" s="18"/>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
@@ -6922,20 +6922,20 @@
       <c r="CY51" s="40"/>
     </row>
     <row r="52" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="122"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="116"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="107"/>
+      <c r="I52" s="111"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
-      <c r="L52" s="119"/>
+      <c r="L52" s="135"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
       <c r="W52" s="18"/>
@@ -6963,20 +6963,20 @@
       <c r="CY52" s="40"/>
     </row>
     <row r="53" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="99"/>
-      <c r="G53" s="122"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="116"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="107"/>
+      <c r="I53" s="111"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
-      <c r="L53" s="119"/>
+      <c r="L53" s="135"/>
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
@@ -7004,24 +7004,24 @@
       <c r="CY53" s="40"/>
     </row>
     <row r="54" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="99"/>
-      <c r="G54" s="122"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="116"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="107"/>
+      <c r="I54" s="111"/>
       <c r="J54" s="36">
         <v>43201</v>
       </c>
       <c r="K54" s="36">
         <v>43203</v>
       </c>
-      <c r="L54" s="119"/>
+      <c r="L54" s="135"/>
       <c r="U54" s="18"/>
       <c r="V54" s="18"/>
       <c r="W54" s="18"/>
@@ -7049,20 +7049,20 @@
       <c r="CY54" s="40"/>
     </row>
     <row r="55" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99" t="s">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="99"/>
-      <c r="G55" s="122"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="116"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="107"/>
+      <c r="I55" s="111"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
-      <c r="L55" s="119"/>
+      <c r="L55" s="135"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
@@ -7090,20 +7090,20 @@
       <c r="CY55" s="40"/>
     </row>
     <row r="56" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99" t="s">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="99"/>
-      <c r="G56" s="122"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="116"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="107"/>
+      <c r="I56" s="111"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
-      <c r="L56" s="119"/>
+      <c r="L56" s="135"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
@@ -7131,20 +7131,20 @@
       <c r="CY56" s="40"/>
     </row>
     <row r="57" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="99"/>
-      <c r="G57" s="122"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="116"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="107"/>
+      <c r="I57" s="111"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
-      <c r="L57" s="119"/>
+      <c r="L57" s="135"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -7172,20 +7172,20 @@
       <c r="CY57" s="40"/>
     </row>
     <row r="58" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99" t="s">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="99"/>
-      <c r="G58" s="123"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="117"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="107"/>
+      <c r="I58" s="111"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
-      <c r="L58" s="120"/>
+      <c r="L58" s="136"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
       <c r="W58" s="18"/>
@@ -7213,21 +7213,21 @@
       <c r="CY58" s="40"/>
     </row>
     <row r="59" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="99" t="s">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="16">
         <v>3.5</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="107"/>
+      <c r="I59" s="111"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
       <c r="L59" s="28" t="s">
@@ -7260,19 +7260,19 @@
       <c r="CY59" s="40"/>
     </row>
     <row r="60" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="99" t="s">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="5">
         <v>7</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="107"/>
+      <c r="I60" s="111"/>
       <c r="J60" s="24">
         <v>43200</v>
       </c>
@@ -7309,19 +7309,19 @@
       <c r="CY60" s="40"/>
     </row>
     <row r="61" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="99" t="s">
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="5">
         <v>7</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="107"/>
+      <c r="I61" s="111"/>
       <c r="J61" s="24">
         <v>43206</v>
       </c>
@@ -7358,19 +7358,19 @@
       <c r="CY61" s="40"/>
     </row>
     <row r="62" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="99" t="s">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="5">
         <v>8</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="107"/>
+      <c r="I62" s="111"/>
       <c r="J62" s="24">
         <v>43199</v>
       </c>
@@ -7407,19 +7407,19 @@
       <c r="CY62" s="40"/>
     </row>
     <row r="63" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="99" t="s">
+      <c r="A63" s="111"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="99"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="5">
         <v>8</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="107"/>
+      <c r="I63" s="111"/>
       <c r="J63" s="24">
         <v>43200</v>
       </c>
@@ -7456,19 +7456,19 @@
       <c r="CY63" s="40"/>
     </row>
     <row r="64" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="99" t="s">
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="138"/>
-      <c r="F64" s="138"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="5">
         <v>8</v>
       </c>
       <c r="H64" s="17"/>
-      <c r="I64" s="107"/>
+      <c r="I64" s="111"/>
       <c r="J64" s="24">
         <v>43201</v>
       </c>
@@ -7505,19 +7505,19 @@
       <c r="CY64" s="40"/>
     </row>
     <row r="65" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="99" t="s">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="5">
         <v>8</v>
       </c>
       <c r="H65" s="17"/>
-      <c r="I65" s="107"/>
+      <c r="I65" s="111"/>
       <c r="J65" s="24">
         <v>43202</v>
       </c>
@@ -7554,19 +7554,19 @@
       <c r="CY65" s="40"/>
     </row>
     <row r="66" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="99" t="s">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="5">
         <v>8</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="107"/>
+      <c r="I66" s="111"/>
       <c r="J66" s="24">
         <v>43203</v>
       </c>
@@ -7603,19 +7603,19 @@
       <c r="CY66" s="40"/>
     </row>
     <row r="67" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="99" t="s">
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="5">
         <v>8</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="107"/>
+      <c r="I67" s="111"/>
       <c r="J67" s="24">
         <v>43206</v>
       </c>
@@ -7652,19 +7652,19 @@
       <c r="CY67" s="40"/>
     </row>
     <row r="68" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="99" t="s">
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="5">
         <v>21</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="107"/>
+      <c r="I68" s="111"/>
       <c r="J68" s="24">
         <v>43207</v>
       </c>
@@ -7696,28 +7696,28 @@
       <c r="CY68" s="40"/>
     </row>
     <row r="69" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A69" s="107"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="99" t="s">
+      <c r="A69" s="111"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99" t="s">
+      <c r="D69" s="102"/>
+      <c r="E69" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="99"/>
-      <c r="G69" s="121">
+      <c r="F69" s="102"/>
+      <c r="G69" s="115">
         <v>7</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="146">
+      <c r="I69" s="111"/>
+      <c r="J69" s="164">
         <v>43203</v>
       </c>
-      <c r="K69" s="146">
+      <c r="K69" s="164">
         <v>43203</v>
       </c>
-      <c r="L69" s="157" t="s">
+      <c r="L69" s="175" t="s">
         <v>158</v>
       </c>
       <c r="U69" s="18"/>
@@ -7742,20 +7742,20 @@
       <c r="CY69" s="40"/>
     </row>
     <row r="70" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A70" s="107"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99" t="s">
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="99"/>
-      <c r="G70" s="122"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="116"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="158"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="176"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
@@ -7778,20 +7778,20 @@
       <c r="CY70" s="40"/>
     </row>
     <row r="71" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A71" s="107"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99" t="s">
+      <c r="A71" s="111"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="99"/>
-      <c r="G71" s="123"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="117"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="159"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="166"/>
+      <c r="K71" s="166"/>
+      <c r="L71" s="177"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -7814,25 +7814,25 @@
       <c r="CY71" s="40"/>
     </row>
     <row r="72" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A72" s="130">
+      <c r="A72" s="110">
         <v>6</v>
       </c>
-      <c r="B72" s="130" t="s">
+      <c r="B72" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="137" t="s">
+      <c r="C72" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="137"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="136"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
       <c r="G72" s="9">
         <v>0</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="130">
+      <c r="I72" s="110">
         <f>SUM(G72:G88)</f>
         <v>21</v>
       </c>
@@ -7846,26 +7846,26 @@
       <c r="CY72" s="40"/>
     </row>
     <row r="73" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A73" s="130"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="100" t="s">
+      <c r="A73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="100"/>
+      <c r="D73" s="103"/>
       <c r="E73" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="124">
+      <c r="G73" s="118">
         <v>0</v>
       </c>
-      <c r="H73" s="127" t="s">
+      <c r="H73" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="130"/>
+      <c r="I73" s="110"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="118" t="s">
+      <c r="L73" s="134" t="s">
         <v>14</v>
       </c>
       <c r="AP73" s="39"/>
@@ -7873,40 +7873,40 @@
       <c r="CY73" s="40"/>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A74" s="130"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100" t="s">
+      <c r="A74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="100"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="130"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="110"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33"/>
-      <c r="L74" s="120"/>
+      <c r="L74" s="136"/>
       <c r="AP74" s="39"/>
       <c r="BU74" s="40"/>
       <c r="CY74" s="40"/>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A75" s="130"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="100" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="100"/>
-      <c r="E75" s="136"/>
-      <c r="F75" s="136"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="130"/>
+      <c r="I75" s="110"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23" t="s">
@@ -7917,21 +7917,21 @@
       <c r="CY75" s="40"/>
     </row>
     <row r="76" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A76" s="130"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="100" t="s">
+      <c r="A76" s="110"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="100"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="136"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="130"/>
+      <c r="I76" s="110"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23" t="s">
@@ -7942,21 +7942,21 @@
       <c r="CY76" s="40"/>
     </row>
     <row r="77" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A77" s="130"/>
-      <c r="B77" s="130"/>
-      <c r="C77" s="100" t="s">
+      <c r="A77" s="110"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
       <c r="G77" s="9">
         <v>0</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="130"/>
+      <c r="I77" s="110"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23" t="s">
@@ -7967,26 +7967,26 @@
       <c r="CY77" s="40"/>
     </row>
     <row r="78" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A78" s="130"/>
-      <c r="B78" s="130"/>
-      <c r="C78" s="100" t="s">
+      <c r="A78" s="110"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100" t="s">
+      <c r="D78" s="103"/>
+      <c r="E78" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F78" s="100"/>
-      <c r="G78" s="124">
+      <c r="F78" s="103"/>
+      <c r="G78" s="118">
         <v>14</v>
       </c>
-      <c r="H78" s="127" t="s">
+      <c r="H78" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="130"/>
+      <c r="I78" s="110"/>
       <c r="J78" s="30"/>
       <c r="K78" s="30"/>
-      <c r="L78" s="118" t="s">
+      <c r="L78" s="134" t="s">
         <v>14</v>
       </c>
       <c r="AP78" s="39"/>
@@ -7994,78 +7994,78 @@
       <c r="CY78" s="40"/>
     </row>
     <row r="79" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A79" s="130"/>
-      <c r="B79" s="130"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="103"/>
       <c r="E79" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="130"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="110"/>
       <c r="J79" s="31"/>
       <c r="K79" s="31"/>
-      <c r="L79" s="119"/>
+      <c r="L79" s="135"/>
       <c r="AP79" s="39"/>
       <c r="BU79" s="40"/>
       <c r="CY79" s="40"/>
     </row>
     <row r="80" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A80" s="130"/>
-      <c r="B80" s="130"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100" t="s">
+      <c r="A80" s="110"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="100"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="129"/>
-      <c r="I80" s="130"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="120"/>
+      <c r="H80" s="123"/>
+      <c r="I80" s="110"/>
       <c r="J80" s="31"/>
       <c r="K80" s="31"/>
-      <c r="L80" s="119"/>
+      <c r="L80" s="135"/>
       <c r="AP80" s="39"/>
       <c r="BU80" s="40"/>
       <c r="CY80" s="40"/>
     </row>
     <row r="81" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A81" s="130"/>
-      <c r="B81" s="130"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="100" t="s">
+      <c r="A81" s="110"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="100"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="128"/>
-      <c r="I81" s="130"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="110"/>
       <c r="J81" s="33"/>
       <c r="K81" s="33"/>
-      <c r="L81" s="120"/>
+      <c r="L81" s="136"/>
       <c r="AP81" s="39"/>
       <c r="BU81" s="40"/>
       <c r="CY81" s="40"/>
     </row>
     <row r="82" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A82" s="130"/>
-      <c r="B82" s="130"/>
-      <c r="C82" s="100" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="100"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
       <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="130"/>
+      <c r="I82" s="110"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23" t="s">
@@ -8076,21 +8076,21 @@
       <c r="CY82" s="40"/>
     </row>
     <row r="83" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A83" s="130"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="100" t="s">
+      <c r="A83" s="110"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="130"/>
+      <c r="I83" s="110"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23" t="s">
@@ -8117,21 +8117,21 @@
       <c r="CY83" s="40"/>
     </row>
     <row r="84" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A84" s="130"/>
-      <c r="B84" s="130"/>
-      <c r="C84" s="100" t="s">
+      <c r="A84" s="110"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="100"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
       <c r="G84" s="9">
         <v>0</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="130"/>
+      <c r="I84" s="110"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23" t="s">
@@ -8158,19 +8158,19 @@
       <c r="CY84" s="40"/>
     </row>
     <row r="85" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A85" s="130"/>
-      <c r="B85" s="130"/>
-      <c r="C85" s="100" t="s">
+      <c r="A85" s="110"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="100"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="130"/>
+      <c r="I85" s="110"/>
       <c r="J85" s="26"/>
       <c r="K85" s="26"/>
       <c r="L85" s="28"/>
@@ -8195,19 +8195,19 @@
       <c r="CY85" s="40"/>
     </row>
     <row r="86" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A86" s="130"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="100" t="s">
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="100"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="9">
         <v>3.5</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="130"/>
+      <c r="I86" s="110"/>
       <c r="J86" s="24" t="s">
         <v>29</v>
       </c>
@@ -8243,19 +8243,19 @@
       <c r="CY86" s="40"/>
     </row>
     <row r="87" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A87" s="130"/>
-      <c r="B87" s="130"/>
-      <c r="C87" s="100" t="s">
+      <c r="A87" s="110"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="100"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
       <c r="G87" s="9">
         <v>3.5</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="130"/>
+      <c r="I87" s="110"/>
       <c r="J87" s="24" t="s">
         <v>29</v>
       </c>
@@ -8291,19 +8291,19 @@
       <c r="CY87" s="40"/>
     </row>
     <row r="88" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A88" s="130"/>
-      <c r="B88" s="130"/>
-      <c r="C88" s="100" t="s">
+      <c r="A88" s="110"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="D88" s="100"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I88" s="130"/>
+      <c r="I88" s="110"/>
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
       <c r="L88" s="28"/>
@@ -8332,31 +8332,31 @@
       <c r="CY88" s="40"/>
     </row>
     <row r="89" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A89" s="107">
+      <c r="A89" s="111">
         <v>7</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="101" t="s">
+      <c r="C89" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="102"/>
-      <c r="E89" s="99" t="s">
+      <c r="D89" s="138"/>
+      <c r="E89" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="99"/>
+      <c r="F89" s="102"/>
       <c r="G89" s="5">
         <v>3.5</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="107">
+      <c r="I89" s="111">
         <f>SUM(G89:G91)</f>
         <v>7</v>
       </c>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="115" t="s">
+      <c r="L89" s="131" t="s">
         <v>23</v>
       </c>
       <c r="Y89" s="18"/>
@@ -8384,22 +8384,22 @@
       <c r="CY89" s="40"/>
     </row>
     <row r="90" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="134" t="s">
+      <c r="A90" s="111"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="F90" s="135"/>
+      <c r="F90" s="109"/>
       <c r="G90" s="5">
         <v>3.5</v>
       </c>
       <c r="H90" s="5"/>
-      <c r="I90" s="107"/>
+      <c r="I90" s="111"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="116"/>
+      <c r="L90" s="132"/>
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
       <c r="AA90" s="18"/>
@@ -8425,22 +8425,22 @@
       <c r="CY90" s="40"/>
     </row>
     <row r="91" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A91" s="107"/>
-      <c r="B91" s="107"/>
-      <c r="C91" s="99" t="s">
+      <c r="A91" s="111"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="99"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="14"/>
       <c r="H91" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I91" s="107"/>
+      <c r="I91" s="111"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="117"/>
+      <c r="L91" s="133"/>
       <c r="AP91" s="39"/>
       <c r="BB91" s="18"/>
       <c r="BC91" s="18"/>
@@ -8462,35 +8462,35 @@
       <c r="CY91" s="40"/>
     </row>
     <row r="92" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A92" s="130">
+      <c r="A92" s="110">
         <v>8</v>
       </c>
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C92" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100" t="s">
+      <c r="D92" s="103"/>
+      <c r="E92" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F92" s="100"/>
+      <c r="F92" s="103"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="124">
+      <c r="H92" s="118">
         <v>21</v>
       </c>
-      <c r="I92" s="108">
+      <c r="I92" s="124">
         <f>SUM(G92:G141)</f>
         <v>254.5</v>
       </c>
-      <c r="J92" s="149">
+      <c r="J92" s="167">
         <v>43207</v>
       </c>
-      <c r="K92" s="149">
+      <c r="K92" s="167">
         <v>43209</v>
       </c>
-      <c r="L92" s="160" t="s">
+      <c r="L92" s="178" t="s">
         <v>14</v>
       </c>
       <c r="AP92" s="39"/>
@@ -8514,20 +8514,20 @@
       <c r="CY92" s="40"/>
     </row>
     <row r="93" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A93" s="130"/>
-      <c r="B93" s="130"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100" t="s">
+      <c r="A93" s="110"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="100"/>
+      <c r="F93" s="103"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="126"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="126"/>
-      <c r="K93" s="126"/>
-      <c r="L93" s="161"/>
+      <c r="H93" s="120"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="120"/>
+      <c r="K93" s="120"/>
+      <c r="L93" s="179"/>
       <c r="AP93" s="39"/>
       <c r="BB93" s="18"/>
       <c r="BC93" s="18"/>
@@ -8549,20 +8549,20 @@
       <c r="CY93" s="40"/>
     </row>
     <row r="94" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A94" s="130"/>
-      <c r="B94" s="130"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100" t="s">
+      <c r="A94" s="110"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="F94" s="100"/>
+      <c r="F94" s="103"/>
       <c r="G94" s="12"/>
-      <c r="H94" s="126"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="126"/>
-      <c r="K94" s="126"/>
-      <c r="L94" s="161"/>
+      <c r="H94" s="120"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="120"/>
+      <c r="K94" s="120"/>
+      <c r="L94" s="179"/>
       <c r="AP94" s="39"/>
       <c r="BB94" s="18"/>
       <c r="BC94" s="18"/>
@@ -8584,20 +8584,20 @@
       <c r="CY94" s="40"/>
     </row>
     <row r="95" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A95" s="130"/>
-      <c r="B95" s="130"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="100" t="s">
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="F95" s="100"/>
+      <c r="F95" s="103"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="126"/>
-      <c r="I95" s="109"/>
-      <c r="J95" s="126"/>
-      <c r="K95" s="126"/>
-      <c r="L95" s="161"/>
+      <c r="H95" s="120"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="120"/>
+      <c r="K95" s="120"/>
+      <c r="L95" s="179"/>
       <c r="AP95" s="39"/>
       <c r="BB95" s="18"/>
       <c r="BC95" s="18"/>
@@ -8619,20 +8619,20 @@
       <c r="CY95" s="40"/>
     </row>
     <row r="96" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A96" s="130"/>
-      <c r="B96" s="130"/>
-      <c r="C96" s="100"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100" t="s">
+      <c r="A96" s="110"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="100"/>
+      <c r="F96" s="103"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="109"/>
-      <c r="J96" s="125"/>
-      <c r="K96" s="125"/>
-      <c r="L96" s="162"/>
+      <c r="H96" s="119"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="119"/>
+      <c r="K96" s="119"/>
+      <c r="L96" s="180"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
       <c r="AD96" s="18"/>
@@ -8667,19 +8667,19 @@
       <c r="CY96" s="40"/>
     </row>
     <row r="97" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A97" s="130"/>
-      <c r="B97" s="130"/>
-      <c r="C97" s="100" t="s">
+      <c r="A97" s="110"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="100"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="130"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
       <c r="G97" s="12">
         <v>8</v>
       </c>
       <c r="H97" s="43"/>
-      <c r="I97" s="109"/>
+      <c r="I97" s="125"/>
       <c r="J97" s="49">
         <v>43210</v>
       </c>
@@ -8723,19 +8723,19 @@
       <c r="CY97" s="40"/>
     </row>
     <row r="98" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A98" s="130"/>
-      <c r="B98" s="130"/>
-      <c r="C98" s="100" t="s">
+      <c r="A98" s="110"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="100"/>
-      <c r="E98" s="130"/>
-      <c r="F98" s="130"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="110"/>
       <c r="G98" s="12">
         <v>8</v>
       </c>
       <c r="H98" s="44"/>
-      <c r="I98" s="109"/>
+      <c r="I98" s="125"/>
       <c r="J98" s="49">
         <v>43213</v>
       </c>
@@ -8763,19 +8763,19 @@
       <c r="CY98" s="40"/>
     </row>
     <row r="99" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A99" s="130"/>
-      <c r="B99" s="130"/>
-      <c r="C99" s="100" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="100"/>
-      <c r="E99" s="130"/>
-      <c r="F99" s="130"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
       <c r="G99" s="12">
         <v>3.5</v>
       </c>
       <c r="H99" s="44"/>
-      <c r="I99" s="109"/>
+      <c r="I99" s="125"/>
       <c r="J99" s="24">
         <v>43206</v>
       </c>
@@ -8803,28 +8803,28 @@
       <c r="CY99" s="40"/>
     </row>
     <row r="100" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="100" t="s">
+      <c r="A100" s="110"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100" t="s">
+      <c r="D100" s="103"/>
+      <c r="E100" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F100" s="100"/>
+      <c r="F100" s="103"/>
       <c r="G100" s="12">
         <v>7</v>
       </c>
       <c r="H100" s="45"/>
-      <c r="I100" s="109"/>
+      <c r="I100" s="125"/>
       <c r="J100" s="51">
         <v>43199</v>
       </c>
       <c r="K100" s="51">
         <v>43199</v>
       </c>
-      <c r="L100" s="142" t="s">
+      <c r="L100" s="181" t="s">
         <v>23</v>
       </c>
       <c r="AB100" s="18"/>
@@ -8845,26 +8845,26 @@
       <c r="CY100" s="40"/>
     </row>
     <row r="101" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A101" s="130"/>
-      <c r="B101" s="130"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="172" t="s">
+      <c r="A101" s="110"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="F101" s="173"/>
+      <c r="F101" s="158"/>
       <c r="G101" s="12">
         <v>3.5</v>
       </c>
       <c r="H101" s="45"/>
-      <c r="I101" s="109"/>
+      <c r="I101" s="125"/>
       <c r="J101" s="51">
         <v>43200</v>
       </c>
       <c r="K101" s="51">
         <v>43200</v>
       </c>
-      <c r="L101" s="143"/>
+      <c r="L101" s="182"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
       <c r="AD101" s="18"/>
@@ -8883,26 +8883,26 @@
       <c r="CY101" s="40"/>
     </row>
     <row r="102" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A102" s="130"/>
-      <c r="B102" s="130"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100" t="s">
+      <c r="A102" s="110"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="F102" s="100"/>
+      <c r="F102" s="103"/>
       <c r="G102" s="12">
         <v>18</v>
       </c>
       <c r="H102" s="45"/>
-      <c r="I102" s="109"/>
+      <c r="I102" s="125"/>
       <c r="J102" s="51">
         <v>43200</v>
       </c>
       <c r="K102" s="51">
         <v>43202</v>
       </c>
-      <c r="L102" s="143"/>
+      <c r="L102" s="182"/>
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
       <c r="AD102" s="18"/>
@@ -8921,26 +8921,26 @@
       <c r="CY102" s="40"/>
     </row>
     <row r="103" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A103" s="130"/>
-      <c r="B103" s="130"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100" t="s">
+      <c r="A103" s="110"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="100"/>
+      <c r="F103" s="103"/>
       <c r="G103" s="12">
         <v>10.5</v>
       </c>
       <c r="H103" s="97"/>
-      <c r="I103" s="109"/>
+      <c r="I103" s="125"/>
       <c r="J103" s="98">
         <v>43203</v>
       </c>
       <c r="K103" s="98">
         <v>43206</v>
       </c>
-      <c r="L103" s="143"/>
+      <c r="L103" s="182"/>
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
       <c r="AD103" s="18"/>
@@ -8959,26 +8959,26 @@
       <c r="CY103" s="40"/>
     </row>
     <row r="104" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A104" s="130"/>
-      <c r="B104" s="130"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100" t="s">
+      <c r="A104" s="110"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="100"/>
+      <c r="F104" s="103"/>
       <c r="G104" s="12">
         <v>3.5</v>
       </c>
       <c r="H104" s="45"/>
-      <c r="I104" s="109"/>
+      <c r="I104" s="125"/>
       <c r="J104" s="51">
         <v>43206</v>
       </c>
       <c r="K104" s="51">
         <v>43206</v>
       </c>
-      <c r="L104" s="143"/>
+      <c r="L104" s="182"/>
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
       <c r="AD104" s="18"/>
@@ -8997,26 +8997,26 @@
       <c r="CY104" s="40"/>
     </row>
     <row r="105" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A105" s="130"/>
-      <c r="B105" s="130"/>
-      <c r="C105" s="100"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100" t="s">
+      <c r="A105" s="110"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="F105" s="100"/>
+      <c r="F105" s="103"/>
       <c r="G105" s="12">
         <v>3.5</v>
       </c>
-      <c r="H105" s="44"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="52">
+      <c r="H105" s="45"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="51">
         <v>43207</v>
       </c>
-      <c r="K105" s="52">
+      <c r="K105" s="51">
         <v>43207</v>
       </c>
-      <c r="L105" s="143"/>
+      <c r="L105" s="182"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
       <c r="AD105" s="18"/>
@@ -9049,26 +9049,26 @@
       <c r="CY105" s="40"/>
     </row>
     <row r="106" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A106" s="130"/>
-      <c r="B106" s="130"/>
-      <c r="C106" s="100"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100" t="s">
+      <c r="A106" s="110"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="F106" s="100"/>
+      <c r="F106" s="103"/>
       <c r="G106" s="12">
         <v>3.5</v>
       </c>
       <c r="H106" s="44"/>
-      <c r="I106" s="109"/>
+      <c r="I106" s="125"/>
       <c r="J106" s="52">
         <v>43207</v>
       </c>
       <c r="K106" s="52">
         <v>43207</v>
       </c>
-      <c r="L106" s="144"/>
+      <c r="L106" s="183"/>
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
       <c r="AD106" s="18"/>
@@ -9101,26 +9101,26 @@
       <c r="CY106" s="40"/>
     </row>
     <row r="107" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A107" s="130"/>
-      <c r="B107" s="130"/>
-      <c r="C107" s="100" t="s">
+      <c r="A107" s="110"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
       <c r="G107" s="12">
         <v>7</v>
       </c>
       <c r="H107" s="97"/>
-      <c r="I107" s="109"/>
+      <c r="I107" s="125"/>
       <c r="J107" s="98">
         <v>43208</v>
       </c>
       <c r="K107" s="98">
         <v>43208</v>
       </c>
-      <c r="L107" s="142" t="s">
+      <c r="L107" s="181" t="s">
         <v>23</v>
       </c>
       <c r="AB107" s="18"/>
@@ -9155,24 +9155,24 @@
       <c r="CY107" s="40"/>
     </row>
     <row r="108" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A108" s="130"/>
-      <c r="B108" s="130"/>
-      <c r="C108" s="100" t="s">
+      <c r="A108" s="110"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="100"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
       <c r="G108" s="12">
         <v>0</v>
       </c>
       <c r="H108" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="I108" s="109"/>
-      <c r="J108" s="184"/>
-      <c r="K108" s="184"/>
-      <c r="L108" s="143"/>
+      <c r="I108" s="125"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="182"/>
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
       <c r="AD108" s="18"/>
@@ -9205,28 +9205,28 @@
       <c r="CY108" s="40"/>
     </row>
     <row r="109" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A109" s="130"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="100" t="s">
+      <c r="A109" s="110"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100" t="s">
+      <c r="D109" s="103"/>
+      <c r="E109" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="F109" s="100"/>
-      <c r="G109" s="124">
+      <c r="F109" s="103"/>
+      <c r="G109" s="118">
         <v>7</v>
       </c>
       <c r="H109" s="44"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="149">
+      <c r="I109" s="125"/>
+      <c r="J109" s="167">
         <v>43209</v>
       </c>
-      <c r="K109" s="149">
+      <c r="K109" s="167">
         <v>43209</v>
       </c>
-      <c r="L109" s="143"/>
+      <c r="L109" s="182"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
       <c r="AD109" s="18"/>
@@ -9259,20 +9259,20 @@
       <c r="CY109" s="40"/>
     </row>
     <row r="110" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A110" s="130"/>
-      <c r="B110" s="130"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100" t="s">
+      <c r="A110" s="110"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F110" s="100"/>
-      <c r="G110" s="125"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="119"/>
       <c r="H110" s="44"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="125"/>
-      <c r="K110" s="125"/>
-      <c r="L110" s="144"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="119"/>
+      <c r="K110" s="119"/>
+      <c r="L110" s="183"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
       <c r="AD110" s="18"/>
@@ -9305,28 +9305,28 @@
       <c r="CY110" s="40"/>
     </row>
     <row r="111" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A111" s="130"/>
-      <c r="B111" s="130"/>
-      <c r="C111" s="100" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D111" s="100"/>
-      <c r="E111" s="133" t="s">
+      <c r="D111" s="103"/>
+      <c r="E111" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="F111" s="133"/>
+      <c r="F111" s="112"/>
       <c r="G111" s="12">
         <v>3.5</v>
       </c>
       <c r="H111" s="44"/>
-      <c r="I111" s="109"/>
+      <c r="I111" s="125"/>
       <c r="J111" s="52">
         <v>43210</v>
       </c>
       <c r="K111" s="52">
         <v>43210</v>
       </c>
-      <c r="L111" s="160" t="s">
+      <c r="L111" s="178" t="s">
         <v>14</v>
       </c>
       <c r="AB111" s="18"/>
@@ -9372,26 +9372,26 @@
       <c r="CY111" s="40"/>
     </row>
     <row r="112" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A112" s="130"/>
-      <c r="B112" s="130"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="133" t="s">
+      <c r="A112" s="110"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="133"/>
+      <c r="F112" s="112"/>
       <c r="G112" s="12">
         <v>7</v>
       </c>
       <c r="H112" s="44"/>
-      <c r="I112" s="109"/>
+      <c r="I112" s="125"/>
       <c r="J112" s="52">
         <v>43210</v>
       </c>
       <c r="K112" s="52">
         <v>43211</v>
       </c>
-      <c r="L112" s="161"/>
+      <c r="L112" s="179"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
       <c r="AD112" s="18"/>
@@ -9435,26 +9435,26 @@
       <c r="CY112" s="40"/>
     </row>
     <row r="113" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A113" s="130"/>
-      <c r="B113" s="130"/>
-      <c r="C113" s="100"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="133" t="s">
+      <c r="A113" s="110"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="133"/>
+      <c r="F113" s="112"/>
       <c r="G113" s="12">
         <v>3.5</v>
       </c>
       <c r="H113" s="44"/>
-      <c r="I113" s="109"/>
+      <c r="I113" s="125"/>
       <c r="J113" s="52">
         <v>43211</v>
       </c>
       <c r="K113" s="52">
         <v>43211</v>
       </c>
-      <c r="L113" s="161"/>
+      <c r="L113" s="179"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
       <c r="AD113" s="18"/>
@@ -9498,26 +9498,26 @@
       <c r="CY113" s="40"/>
     </row>
     <row r="114" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A114" s="130"/>
-      <c r="B114" s="130"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="133" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="103"/>
+      <c r="E114" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="F114" s="133"/>
+      <c r="F114" s="112"/>
       <c r="G114" s="12">
         <v>7</v>
       </c>
       <c r="H114" s="44"/>
-      <c r="I114" s="109"/>
+      <c r="I114" s="125"/>
       <c r="J114" s="52">
         <v>43212</v>
       </c>
       <c r="K114" s="52">
         <v>43212</v>
       </c>
-      <c r="L114" s="161"/>
+      <c r="L114" s="179"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
       <c r="AD114" s="18"/>
@@ -9561,22 +9561,22 @@
       <c r="CY114" s="40"/>
     </row>
     <row r="115" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A115" s="130"/>
-      <c r="B115" s="130"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="133" t="s">
+      <c r="A115" s="110"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="F115" s="133"/>
+      <c r="F115" s="112"/>
       <c r="G115" s="12">
         <v>0</v>
       </c>
       <c r="H115" s="44"/>
-      <c r="I115" s="109"/>
+      <c r="I115" s="125"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
-      <c r="L115" s="161"/>
+      <c r="L115" s="179"/>
       <c r="AP115" s="39"/>
       <c r="AR115" s="18"/>
       <c r="AS115" s="18"/>
@@ -9607,26 +9607,26 @@
       <c r="CY115" s="40"/>
     </row>
     <row r="116" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A116" s="130"/>
-      <c r="B116" s="130"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="133" t="s">
+      <c r="A116" s="110"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="103"/>
+      <c r="E116" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="133"/>
+      <c r="F116" s="112"/>
       <c r="G116" s="12">
         <v>3.5</v>
       </c>
       <c r="H116" s="44"/>
-      <c r="I116" s="109"/>
+      <c r="I116" s="125"/>
       <c r="J116" s="53">
         <v>43213</v>
       </c>
       <c r="K116" s="53">
         <v>43213</v>
       </c>
-      <c r="L116" s="161"/>
+      <c r="L116" s="179"/>
       <c r="AP116" s="39"/>
       <c r="AR116" s="18"/>
       <c r="AS116" s="18"/>
@@ -9657,26 +9657,26 @@
       <c r="CY116" s="40"/>
     </row>
     <row r="117" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A117" s="130"/>
-      <c r="B117" s="130"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="133" t="s">
+      <c r="A117" s="110"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="103"/>
+      <c r="E117" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="133"/>
+      <c r="F117" s="112"/>
       <c r="G117" s="12">
         <v>3.5</v>
       </c>
       <c r="H117" s="44"/>
-      <c r="I117" s="109"/>
+      <c r="I117" s="125"/>
       <c r="J117" s="53">
         <v>43213</v>
       </c>
       <c r="K117" s="53">
         <v>43213</v>
       </c>
-      <c r="L117" s="161"/>
+      <c r="L117" s="179"/>
       <c r="AP117" s="39"/>
       <c r="AR117" s="18"/>
       <c r="AS117" s="18"/>
@@ -9707,26 +9707,26 @@
       <c r="CY117" s="40"/>
     </row>
     <row r="118" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A118" s="130"/>
-      <c r="B118" s="130"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="100"/>
-      <c r="E118" s="133" t="s">
+      <c r="A118" s="110"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="F118" s="133"/>
+      <c r="F118" s="112"/>
       <c r="G118" s="12">
         <v>7</v>
       </c>
       <c r="H118" s="44"/>
-      <c r="I118" s="109"/>
+      <c r="I118" s="125"/>
       <c r="J118" s="52">
         <v>43214</v>
       </c>
       <c r="K118" s="52">
         <v>43214</v>
       </c>
-      <c r="L118" s="161"/>
+      <c r="L118" s="179"/>
       <c r="AP118" s="39"/>
       <c r="AR118" s="18"/>
       <c r="AS118" s="18"/>
@@ -9757,22 +9757,22 @@
       <c r="CY118" s="40"/>
     </row>
     <row r="119" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A119" s="130"/>
-      <c r="B119" s="130"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="100"/>
-      <c r="E119" s="133" t="s">
+      <c r="A119" s="110"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="133"/>
+      <c r="F119" s="112"/>
       <c r="G119" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H119" s="44"/>
-      <c r="I119" s="109"/>
+      <c r="I119" s="125"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
-      <c r="L119" s="161"/>
+      <c r="L119" s="179"/>
       <c r="AP119" s="39"/>
       <c r="AR119" s="18"/>
       <c r="AS119" s="18"/>
@@ -9803,26 +9803,26 @@
       <c r="CY119" s="40"/>
     </row>
     <row r="120" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A120" s="130"/>
-      <c r="B120" s="130"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100" t="s">
+      <c r="A120" s="110"/>
+      <c r="B120" s="110"/>
+      <c r="C120" s="103"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="F120" s="100"/>
+      <c r="F120" s="103"/>
       <c r="G120" s="12">
         <v>3.5</v>
       </c>
       <c r="H120" s="44"/>
-      <c r="I120" s="109"/>
+      <c r="I120" s="125"/>
       <c r="J120" s="52">
         <v>43215</v>
       </c>
       <c r="K120" s="52">
         <v>43215</v>
       </c>
-      <c r="L120" s="161"/>
+      <c r="L120" s="179"/>
       <c r="AP120" s="39"/>
       <c r="AR120" s="18"/>
       <c r="AS120" s="18"/>
@@ -9853,28 +9853,28 @@
       <c r="CY120" s="40"/>
     </row>
     <row r="121" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A121" s="130"/>
-      <c r="B121" s="130"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="133" t="s">
+      <c r="A121" s="110"/>
+      <c r="B121" s="110"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="F121" s="133"/>
-      <c r="G121" s="124">
+      <c r="F121" s="112"/>
+      <c r="G121" s="118">
         <v>14</v>
       </c>
       <c r="H121" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="I121" s="109"/>
-      <c r="J121" s="149">
+      <c r="I121" s="125"/>
+      <c r="J121" s="167">
         <v>43215</v>
       </c>
-      <c r="K121" s="149">
+      <c r="K121" s="167">
         <v>43217</v>
       </c>
-      <c r="L121" s="161"/>
+      <c r="L121" s="179"/>
       <c r="AP121" s="39"/>
       <c r="AR121" s="18"/>
       <c r="AS121" s="18"/>
@@ -9908,22 +9908,22 @@
       <c r="CY121" s="40"/>
     </row>
     <row r="122" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A122" s="130"/>
-      <c r="B122" s="130"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="133" t="s">
+      <c r="A122" s="110"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F122" s="133"/>
-      <c r="G122" s="125"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="119"/>
       <c r="H122" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="109"/>
-      <c r="J122" s="125"/>
-      <c r="K122" s="125"/>
-      <c r="L122" s="161"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="119"/>
+      <c r="K122" s="119"/>
+      <c r="L122" s="179"/>
       <c r="AP122" s="39"/>
       <c r="AR122" s="18"/>
       <c r="AS122" s="18"/>
@@ -9957,26 +9957,26 @@
       <c r="CY122" s="40"/>
     </row>
     <row r="123" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A123" s="130"/>
-      <c r="B123" s="130"/>
-      <c r="C123" s="100"/>
-      <c r="D123" s="100"/>
-      <c r="E123" s="133" t="s">
+      <c r="A123" s="110"/>
+      <c r="B123" s="110"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F123" s="133"/>
+      <c r="F123" s="112"/>
       <c r="G123" s="12">
         <v>7</v>
       </c>
       <c r="H123" s="44"/>
-      <c r="I123" s="109"/>
+      <c r="I123" s="125"/>
       <c r="J123" s="52">
         <v>43217</v>
       </c>
       <c r="K123" s="52">
         <v>43218</v>
       </c>
-      <c r="L123" s="161"/>
+      <c r="L123" s="179"/>
       <c r="AP123" s="39"/>
       <c r="AR123" s="18"/>
       <c r="AS123" s="18"/>
@@ -10007,24 +10007,24 @@
       <c r="CY123" s="40"/>
     </row>
     <row r="124" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A124" s="130"/>
-      <c r="B124" s="130"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="133" t="s">
+      <c r="A124" s="110"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="103"/>
+      <c r="E124" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="F124" s="133"/>
+      <c r="F124" s="112"/>
       <c r="G124" s="12">
         <v>7</v>
       </c>
       <c r="H124" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I124" s="109"/>
+      <c r="I124" s="125"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="161"/>
+      <c r="L124" s="179"/>
       <c r="AP124" s="39"/>
       <c r="AR124" s="18"/>
       <c r="AS124" s="18"/>
@@ -10055,26 +10055,26 @@
       <c r="CY124" s="40"/>
     </row>
     <row r="125" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A125" s="130"/>
-      <c r="B125" s="130"/>
-      <c r="C125" s="100"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="133" t="s">
+      <c r="A125" s="110"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="F125" s="133"/>
+      <c r="F125" s="112"/>
       <c r="G125" s="12">
         <v>3.5</v>
       </c>
       <c r="H125" s="44"/>
-      <c r="I125" s="109"/>
+      <c r="I125" s="125"/>
       <c r="J125" s="52">
         <v>43218</v>
       </c>
       <c r="K125" s="52">
         <v>43218</v>
       </c>
-      <c r="L125" s="162"/>
+      <c r="L125" s="180"/>
       <c r="U125" s="18"/>
       <c r="V125" s="18"/>
       <c r="W125" s="18"/>
@@ -10116,28 +10116,28 @@
       <c r="CY125" s="40"/>
     </row>
     <row r="126" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A126" s="130"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="100" t="s">
+      <c r="A126" s="110"/>
+      <c r="B126" s="110"/>
+      <c r="C126" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="100"/>
-      <c r="E126" s="133" t="s">
+      <c r="D126" s="103"/>
+      <c r="E126" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="F126" s="133"/>
+      <c r="F126" s="112"/>
       <c r="G126" s="12">
         <v>7</v>
       </c>
       <c r="H126" s="44"/>
-      <c r="I126" s="109"/>
+      <c r="I126" s="125"/>
       <c r="J126" s="52">
         <v>43210</v>
       </c>
       <c r="K126" s="52">
         <v>43210</v>
       </c>
-      <c r="L126" s="142" t="s">
+      <c r="L126" s="181" t="s">
         <v>23</v>
       </c>
       <c r="U126" s="18"/>
@@ -10157,26 +10157,26 @@
       <c r="CY126" s="40"/>
     </row>
     <row r="127" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A127" s="130"/>
-      <c r="B127" s="130"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="133" t="s">
+      <c r="A127" s="110"/>
+      <c r="B127" s="110"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103"/>
+      <c r="E127" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="F127" s="133"/>
+      <c r="F127" s="112"/>
       <c r="G127" s="12">
         <v>7</v>
       </c>
       <c r="H127" s="44"/>
-      <c r="I127" s="109"/>
+      <c r="I127" s="125"/>
       <c r="J127" s="52">
         <v>43213</v>
       </c>
       <c r="K127" s="52">
         <v>43213</v>
       </c>
-      <c r="L127" s="144"/>
+      <c r="L127" s="183"/>
       <c r="U127" s="18"/>
       <c r="V127" s="18"/>
       <c r="W127" s="18"/>
@@ -10194,28 +10194,28 @@
       <c r="CY127" s="40"/>
     </row>
     <row r="128" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A128" s="130"/>
-      <c r="B128" s="130"/>
-      <c r="C128" s="100" t="s">
+      <c r="A128" s="110"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="100"/>
-      <c r="E128" s="133" t="s">
+      <c r="D128" s="103"/>
+      <c r="E128" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="F128" s="133"/>
+      <c r="F128" s="112"/>
       <c r="G128" s="12">
         <v>7</v>
       </c>
       <c r="H128" s="44"/>
-      <c r="I128" s="109"/>
+      <c r="I128" s="125"/>
       <c r="J128" s="52">
         <v>43214</v>
       </c>
       <c r="K128" s="52">
         <v>43214</v>
       </c>
-      <c r="L128" s="142" t="s">
+      <c r="L128" s="181" t="s">
         <v>23</v>
       </c>
       <c r="U128" s="18"/>
@@ -10235,26 +10235,26 @@
       <c r="CY128" s="40"/>
     </row>
     <row r="129" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A129" s="130"/>
-      <c r="B129" s="130"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="133" t="s">
+      <c r="A129" s="110"/>
+      <c r="B129" s="110"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="103"/>
+      <c r="E129" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F129" s="133"/>
+      <c r="F129" s="112"/>
       <c r="G129" s="12">
         <v>3.5</v>
       </c>
       <c r="H129" s="44"/>
-      <c r="I129" s="109"/>
+      <c r="I129" s="125"/>
       <c r="J129" s="52">
         <v>43215</v>
       </c>
       <c r="K129" s="52">
         <v>43215</v>
       </c>
-      <c r="L129" s="143"/>
+      <c r="L129" s="182"/>
       <c r="U129" s="18"/>
       <c r="V129" s="18"/>
       <c r="W129" s="18"/>
@@ -10272,26 +10272,26 @@
       <c r="CY129" s="40"/>
     </row>
     <row r="130" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A130" s="130"/>
-      <c r="B130" s="130"/>
-      <c r="C130" s="100"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="133" t="s">
+      <c r="A130" s="110"/>
+      <c r="B130" s="110"/>
+      <c r="C130" s="103"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="F130" s="133"/>
+      <c r="F130" s="112"/>
       <c r="G130" s="12">
         <v>10.5</v>
       </c>
       <c r="H130" s="44"/>
-      <c r="I130" s="109"/>
+      <c r="I130" s="125"/>
       <c r="J130" s="52">
         <v>43215</v>
       </c>
       <c r="K130" s="52">
         <v>43216</v>
       </c>
-      <c r="L130" s="143"/>
+      <c r="L130" s="182"/>
       <c r="U130" s="18"/>
       <c r="V130" s="18"/>
       <c r="W130" s="18"/>
@@ -10310,26 +10310,26 @@
       <c r="CY130" s="40"/>
     </row>
     <row r="131" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A131" s="130"/>
-      <c r="B131" s="130"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="133" t="s">
+      <c r="A131" s="110"/>
+      <c r="B131" s="110"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="103"/>
+      <c r="E131" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="F131" s="133"/>
+      <c r="F131" s="112"/>
       <c r="G131" s="12">
         <v>3.5</v>
       </c>
       <c r="H131" s="44"/>
-      <c r="I131" s="109"/>
+      <c r="I131" s="125"/>
       <c r="J131" s="52">
         <v>43217</v>
       </c>
       <c r="K131" s="52">
         <v>43217</v>
       </c>
-      <c r="L131" s="144"/>
+      <c r="L131" s="183"/>
       <c r="U131" s="18"/>
       <c r="V131" s="18"/>
       <c r="W131" s="18"/>
@@ -10364,28 +10364,28 @@
       <c r="CY131" s="40"/>
     </row>
     <row r="132" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A132" s="130"/>
-      <c r="B132" s="130"/>
-      <c r="C132" s="100" t="s">
+      <c r="A132" s="110"/>
+      <c r="B132" s="110"/>
+      <c r="C132" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="D132" s="100"/>
-      <c r="E132" s="100" t="s">
+      <c r="D132" s="103"/>
+      <c r="E132" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F132" s="100"/>
+      <c r="F132" s="103"/>
       <c r="G132" s="12">
         <v>3.5</v>
       </c>
       <c r="H132" s="44"/>
-      <c r="I132" s="109"/>
-      <c r="J132" s="149">
+      <c r="I132" s="125"/>
+      <c r="J132" s="167">
         <v>43211</v>
       </c>
-      <c r="K132" s="149">
+      <c r="K132" s="167">
         <v>43212</v>
       </c>
-      <c r="L132" s="142" t="s">
+      <c r="L132" s="181" t="s">
         <v>23</v>
       </c>
       <c r="U132" s="18"/>
@@ -10422,22 +10422,22 @@
       <c r="CY132" s="40"/>
     </row>
     <row r="133" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A133" s="130"/>
-      <c r="B133" s="130"/>
-      <c r="C133" s="100"/>
-      <c r="D133" s="100"/>
-      <c r="E133" s="100" t="s">
+      <c r="A133" s="110"/>
+      <c r="B133" s="110"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="103"/>
+      <c r="E133" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="F133" s="100"/>
+      <c r="F133" s="103"/>
       <c r="G133" s="12">
         <v>14</v>
       </c>
       <c r="H133" s="44"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="150"/>
-      <c r="K133" s="150"/>
-      <c r="L133" s="143"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="168"/>
+      <c r="K133" s="168"/>
+      <c r="L133" s="182"/>
       <c r="U133" s="18"/>
       <c r="V133" s="18"/>
       <c r="W133" s="18"/>
@@ -10472,22 +10472,22 @@
       <c r="CY133" s="40"/>
     </row>
     <row r="134" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A134" s="130"/>
-      <c r="B134" s="130"/>
-      <c r="C134" s="100"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100" t="s">
+      <c r="A134" s="110"/>
+      <c r="B134" s="110"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="F134" s="100"/>
+      <c r="F134" s="103"/>
       <c r="G134" s="12">
         <v>14</v>
       </c>
       <c r="H134" s="44"/>
-      <c r="I134" s="109"/>
-      <c r="J134" s="151"/>
-      <c r="K134" s="151"/>
-      <c r="L134" s="144"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="169"/>
+      <c r="K134" s="169"/>
+      <c r="L134" s="183"/>
       <c r="AP134" s="39"/>
       <c r="AS134" s="18"/>
       <c r="AT134" s="18"/>
@@ -10511,28 +10511,28 @@
       <c r="CY134" s="40"/>
     </row>
     <row r="135" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A135" s="130"/>
-      <c r="B135" s="130"/>
-      <c r="C135" s="100" t="s">
+      <c r="A135" s="110"/>
+      <c r="B135" s="110"/>
+      <c r="C135" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="D135" s="100"/>
-      <c r="E135" s="100" t="s">
+      <c r="D135" s="103"/>
+      <c r="E135" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="F135" s="100"/>
-      <c r="G135" s="108">
+      <c r="F135" s="103"/>
+      <c r="G135" s="124">
         <v>10.5</v>
       </c>
       <c r="H135" s="44"/>
-      <c r="I135" s="109"/>
-      <c r="J135" s="149">
+      <c r="I135" s="125"/>
+      <c r="J135" s="167">
         <v>43205</v>
       </c>
-      <c r="K135" s="149">
+      <c r="K135" s="167">
         <v>43205</v>
       </c>
-      <c r="L135" s="142" t="s">
+      <c r="L135" s="181" t="s">
         <v>23</v>
       </c>
       <c r="AP135" s="39"/>
@@ -10559,20 +10559,20 @@
       <c r="CY135" s="40"/>
     </row>
     <row r="136" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A136" s="130"/>
-      <c r="B136" s="130"/>
-      <c r="C136" s="100"/>
-      <c r="D136" s="100"/>
-      <c r="E136" s="100" t="s">
+      <c r="A136" s="110"/>
+      <c r="B136" s="110"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="F136" s="100"/>
-      <c r="G136" s="109"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="125"/>
       <c r="H136" s="44"/>
-      <c r="I136" s="109"/>
-      <c r="J136" s="126"/>
-      <c r="K136" s="126"/>
-      <c r="L136" s="143"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="120"/>
+      <c r="K136" s="120"/>
+      <c r="L136" s="182"/>
       <c r="AP136" s="39"/>
       <c r="AS136" s="18"/>
       <c r="AT136" s="18"/>
@@ -10597,20 +10597,20 @@
       <c r="CY136" s="40"/>
     </row>
     <row r="137" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A137" s="130"/>
-      <c r="B137" s="130"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="133" t="s">
+      <c r="A137" s="110"/>
+      <c r="B137" s="110"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="103"/>
+      <c r="E137" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F137" s="133"/>
-      <c r="G137" s="110"/>
+      <c r="F137" s="112"/>
+      <c r="G137" s="126"/>
       <c r="H137" s="44"/>
-      <c r="I137" s="109"/>
-      <c r="J137" s="125"/>
-      <c r="K137" s="125"/>
-      <c r="L137" s="144"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="119"/>
+      <c r="K137" s="119"/>
+      <c r="L137" s="183"/>
       <c r="AP137" s="39"/>
       <c r="AS137" s="18"/>
       <c r="AT137" s="18"/>
@@ -10635,28 +10635,28 @@
       <c r="CY137" s="40"/>
     </row>
     <row r="138" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A138" s="130"/>
-      <c r="B138" s="130"/>
-      <c r="C138" s="100" t="s">
+      <c r="A138" s="110"/>
+      <c r="B138" s="110"/>
+      <c r="C138" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100" t="s">
+      <c r="D138" s="103"/>
+      <c r="E138" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="F138" s="100"/>
-      <c r="G138" s="108">
+      <c r="F138" s="103"/>
+      <c r="G138" s="124">
         <v>21</v>
       </c>
       <c r="H138" s="44"/>
-      <c r="I138" s="109"/>
-      <c r="J138" s="149">
+      <c r="I138" s="125"/>
+      <c r="J138" s="167">
         <v>43218</v>
       </c>
-      <c r="K138" s="152">
+      <c r="K138" s="170">
         <v>43220</v>
       </c>
-      <c r="L138" s="145" t="s">
+      <c r="L138" s="184" t="s">
         <v>23</v>
       </c>
       <c r="AP138" s="39"/>
@@ -10687,20 +10687,20 @@
       <c r="CY138" s="40"/>
     </row>
     <row r="139" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A139" s="130"/>
-      <c r="B139" s="130"/>
-      <c r="C139" s="100"/>
-      <c r="D139" s="100"/>
-      <c r="E139" s="100" t="s">
+      <c r="A139" s="110"/>
+      <c r="B139" s="110"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="103"/>
+      <c r="E139" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="F139" s="100"/>
-      <c r="G139" s="109"/>
+      <c r="F139" s="103"/>
+      <c r="G139" s="125"/>
       <c r="H139" s="44"/>
-      <c r="I139" s="109"/>
-      <c r="J139" s="126"/>
-      <c r="K139" s="153"/>
-      <c r="L139" s="143"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="120"/>
+      <c r="K139" s="171"/>
+      <c r="L139" s="182"/>
       <c r="AP139" s="39"/>
       <c r="AS139" s="18"/>
       <c r="AT139" s="18"/>
@@ -10729,20 +10729,20 @@
       <c r="CY139" s="40"/>
     </row>
     <row r="140" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A140" s="130"/>
-      <c r="B140" s="130"/>
-      <c r="C140" s="100"/>
-      <c r="D140" s="100"/>
-      <c r="E140" s="100" t="s">
+      <c r="A140" s="110"/>
+      <c r="B140" s="110"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="F140" s="100"/>
-      <c r="G140" s="109"/>
+      <c r="F140" s="103"/>
+      <c r="G140" s="125"/>
       <c r="H140" s="44"/>
-      <c r="I140" s="109"/>
-      <c r="J140" s="126"/>
-      <c r="K140" s="153"/>
-      <c r="L140" s="143"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="120"/>
+      <c r="K140" s="171"/>
+      <c r="L140" s="182"/>
       <c r="AP140" s="39"/>
       <c r="AS140" s="18"/>
       <c r="AT140" s="18"/>
@@ -10771,20 +10771,20 @@
       <c r="CY140" s="40"/>
     </row>
     <row r="141" spans="1:103" x14ac:dyDescent="0.15">
-      <c r="A141" s="130"/>
-      <c r="B141" s="130"/>
-      <c r="C141" s="100"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="100" t="s">
+      <c r="A141" s="110"/>
+      <c r="B141" s="110"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="103"/>
+      <c r="E141" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F141" s="100"/>
-      <c r="G141" s="110"/>
+      <c r="F141" s="103"/>
+      <c r="G141" s="126"/>
       <c r="H141" s="44"/>
-      <c r="I141" s="110"/>
-      <c r="J141" s="125"/>
-      <c r="K141" s="154"/>
-      <c r="L141" s="144"/>
+      <c r="I141" s="126"/>
+      <c r="J141" s="119"/>
+      <c r="K141" s="172"/>
+      <c r="L141" s="183"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
       <c r="O141" s="54"/>
@@ -10878,17 +10878,17 @@
       <c r="CY141" s="59"/>
     </row>
     <row r="144" spans="1:103" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="167" t="s">
+      <c r="A144" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="168"/>
-      <c r="C144" s="168"/>
-      <c r="D144" s="168"/>
-      <c r="E144" s="168"/>
-      <c r="F144" s="168"/>
-      <c r="G144" s="168"/>
-      <c r="H144" s="168"/>
-      <c r="I144" s="169"/>
+      <c r="B144" s="160"/>
+      <c r="C144" s="160"/>
+      <c r="D144" s="160"/>
+      <c r="E144" s="160"/>
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="161"/>
       <c r="J144" s="56">
         <v>43199</v>
       </c>
@@ -10898,188 +10898,75 @@
     </row>
   </sheetData>
   <mergeCells count="275">
-    <mergeCell ref="M2:AP2"/>
-    <mergeCell ref="AQ2:BU2"/>
-    <mergeCell ref="BV2:CY2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="C6:D9"/>
+    <mergeCell ref="C10:D13"/>
+    <mergeCell ref="C25:D31"/>
+    <mergeCell ref="C32:D39"/>
+    <mergeCell ref="C40:D46"/>
+    <mergeCell ref="C50:D58"/>
+    <mergeCell ref="C69:D71"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="C78:D81"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="C92:D96"/>
+    <mergeCell ref="C100:D106"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C111:D125"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="C128:D131"/>
+    <mergeCell ref="C132:D134"/>
+    <mergeCell ref="C135:D137"/>
+    <mergeCell ref="C138:D141"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K132:K134"/>
+    <mergeCell ref="K135:K137"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="L10:L17"/>
+    <mergeCell ref="L25:L31"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="L40:L46"/>
+    <mergeCell ref="L50:L58"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="L100:L106"/>
+    <mergeCell ref="L107:L110"/>
+    <mergeCell ref="L111:L125"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="L128:L131"/>
+    <mergeCell ref="L132:L134"/>
+    <mergeCell ref="L135:L137"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="I20:I71"/>
+    <mergeCell ref="I72:I88"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="I92:I141"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G135:G137"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H92:H96"/>
     <mergeCell ref="E137:F137"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="E139:F139"/>
@@ -11104,75 +10991,188 @@
     <mergeCell ref="G40:G46"/>
     <mergeCell ref="G50:G58"/>
     <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="I10:I17"/>
-    <mergeCell ref="I20:I71"/>
-    <mergeCell ref="I72:I88"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="I92:I141"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="J135:J137"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K132:K134"/>
-    <mergeCell ref="K135:K137"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L9"/>
-    <mergeCell ref="L10:L17"/>
-    <mergeCell ref="L25:L31"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="L40:L46"/>
-    <mergeCell ref="L50:L58"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="L100:L106"/>
-    <mergeCell ref="L107:L110"/>
-    <mergeCell ref="L111:L125"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="L128:L131"/>
-    <mergeCell ref="L132:L134"/>
-    <mergeCell ref="L135:L137"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="C6:D9"/>
-    <mergeCell ref="C10:D13"/>
-    <mergeCell ref="C25:D31"/>
-    <mergeCell ref="C32:D39"/>
-    <mergeCell ref="C40:D46"/>
-    <mergeCell ref="C50:D58"/>
-    <mergeCell ref="C69:D71"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="C78:D81"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="C92:D96"/>
-    <mergeCell ref="C100:D106"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="C111:D125"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="C128:D131"/>
-    <mergeCell ref="C132:D134"/>
-    <mergeCell ref="C135:D137"/>
-    <mergeCell ref="C138:D141"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M2:AP2"/>
+    <mergeCell ref="AQ2:BU2"/>
+    <mergeCell ref="BV2:CY2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -512,10 +512,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -582,6 +582,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -589,24 +590,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,14 +613,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +628,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,17 +658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +681,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -705,21 +705,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,13 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +800,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,25 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,31 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,67 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +914,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,6 +1112,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1154,43 +1156,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,23 +1180,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,137 +1227,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,6 +1676,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,98 +2202,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="137" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="138" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="139" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="140" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="5" max="6" width="9" style="139"/>
+    <col min="5" max="6" width="9" style="141"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="11" width="16.25" style="138" customWidth="1"/>
-    <col min="12" max="12" width="9" style="140"/>
+    <col min="9" max="11" width="16.25" style="140" customWidth="1"/>
+    <col min="12" max="12" width="9" style="142"/>
     <col min="13" max="13" width="6.625" customWidth="1"/>
     <col min="14" max="43" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="61.5" customHeight="1" spans="1:11">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-    </row>
-    <row r="2" s="132" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
-      <c r="A2" s="142" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+    </row>
+    <row r="2" s="134" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143" t="s">
+      <c r="F2" s="144"/>
+      <c r="G2" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="145" t="s">
+      <c r="K2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="146" t="s">
+      <c r="L2" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-    </row>
-    <row r="3" s="133" customFormat="1" spans="1:12">
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+    </row>
+    <row r="3" s="135" customFormat="1" spans="1:12">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2334,13 +2316,13 @@
         <f>SUM(G3:G8)</f>
         <v>66.5</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="133" customFormat="1" spans="1:13">
+    <row r="4" s="135" customFormat="1" spans="1:13">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -2354,18 +2336,18 @@
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="148">
+      <c r="J4" s="150">
         <v>43217</v>
       </c>
-      <c r="K4" s="148">
+      <c r="K4" s="150">
         <v>43222</v>
       </c>
       <c r="L4" s="48"/>
-      <c r="M4" s="133" t="s">
+      <c r="M4" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="133" customFormat="1" spans="1:12">
+    <row r="5" s="135" customFormat="1" spans="1:12">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -2381,15 +2363,15 @@
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="148">
+      <c r="J5" s="150">
         <v>43223</v>
       </c>
-      <c r="K5" s="148">
+      <c r="K5" s="150">
         <v>43223</v>
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" s="133" customFormat="1" spans="1:12">
+    <row r="6" s="135" customFormat="1" spans="1:12">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -2403,15 +2385,15 @@
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="148">
+      <c r="J6" s="150">
         <v>43231</v>
       </c>
-      <c r="K6" s="148">
+      <c r="K6" s="150">
         <v>43231</v>
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" s="133" customFormat="1" spans="1:12">
+    <row r="7" s="135" customFormat="1" spans="1:12">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2425,15 +2407,15 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="148">
+      <c r="J7" s="150">
         <v>43227</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="150">
         <v>43230</v>
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" s="133" customFormat="1" spans="1:12">
+    <row r="8" s="135" customFormat="1" spans="1:12">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -2447,15 +2429,15 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="148">
+      <c r="J8" s="150">
         <v>43224</v>
       </c>
-      <c r="K8" s="148">
+      <c r="K8" s="150">
         <v>43224</v>
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" s="133" customFormat="1" spans="1:12">
+    <row r="9" s="135" customFormat="1" spans="1:12">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -2478,17 +2460,17 @@
         <f>SUM(G9:G16)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="149">
+      <c r="J9" s="151">
         <v>43206</v>
       </c>
-      <c r="K9" s="149">
+      <c r="K9" s="151">
         <v>43206</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="133" customFormat="1" spans="1:12">
+    <row r="10" s="135" customFormat="1" spans="1:12">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -2502,11 +2484,11 @@
         <v>25</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
       <c r="L10" s="53"/>
     </row>
-    <row r="11" s="133" customFormat="1" spans="1:12">
+    <row r="11" s="135" customFormat="1" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -2520,15 +2502,15 @@
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="149">
+      <c r="J11" s="151">
         <v>43207</v>
       </c>
-      <c r="K11" s="149">
+      <c r="K11" s="151">
         <v>43207</v>
       </c>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" s="133" customFormat="1" spans="1:12">
+    <row r="12" s="135" customFormat="1" spans="1:12">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -2542,15 +2524,15 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="149">
+      <c r="J12" s="151">
         <v>43206</v>
       </c>
-      <c r="K12" s="149">
+      <c r="K12" s="151">
         <v>43206</v>
       </c>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" s="133" customFormat="1" spans="1:12">
+    <row r="13" s="135" customFormat="1" spans="1:12">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="19" t="s">
@@ -2564,11 +2546,11 @@
         <v>29</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" s="133" customFormat="1" spans="1:12">
+    <row r="14" s="135" customFormat="1" spans="1:12">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
@@ -2582,11 +2564,11 @@
         <v>29</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" s="133" customFormat="1" spans="1:12">
+    <row r="15" s="135" customFormat="1" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="19" t="s">
@@ -2600,11 +2582,11 @@
         <v>29</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
       <c r="L15" s="53"/>
     </row>
-    <row r="16" s="133" customFormat="1" spans="1:12">
+    <row r="16" s="135" customFormat="1" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="19" t="s">
@@ -2618,11 +2600,11 @@
         <v>29</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" s="133" customFormat="1" spans="1:12">
+    <row r="17" s="135" customFormat="1" spans="1:12">
       <c r="A17" s="22">
         <v>3</v>
       </c>
@@ -2640,7 +2622,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" s="133" customFormat="1" spans="1:12">
+    <row r="18" s="135" customFormat="1" spans="1:12">
       <c r="A18" s="20">
         <v>4</v>
       </c>
@@ -2658,7 +2640,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" s="133" customFormat="1" spans="1:12">
+    <row r="19" s="135" customFormat="1" spans="1:12">
       <c r="A19" s="12">
         <v>5</v>
       </c>
@@ -2681,17 +2663,17 @@
         <f>SUM(G19:G70)</f>
         <v>166</v>
       </c>
-      <c r="J19" s="148">
+      <c r="J19" s="150">
         <v>43189</v>
       </c>
-      <c r="K19" s="148">
+      <c r="K19" s="150">
         <v>43189</v>
       </c>
       <c r="L19" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" s="133" customFormat="1" spans="1:12">
+    <row r="20" s="135" customFormat="1" spans="1:12">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
@@ -2707,13 +2689,13 @@
         <v>39</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="133" customFormat="1" spans="1:12">
+    <row r="21" s="135" customFormat="1" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
@@ -2729,13 +2711,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" s="133" customFormat="1" spans="1:12">
+    <row r="22" s="135" customFormat="1" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="24" t="s">
@@ -2751,13 +2733,13 @@
         <v>13</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" s="133" customFormat="1" spans="1:12">
+    <row r="23" s="135" customFormat="1" spans="1:12">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="24" t="s">
@@ -2773,13 +2755,13 @@
         <v>39</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
       <c r="L23" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" s="133" customFormat="1" spans="1:12">
+    <row r="24" s="135" customFormat="1" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="25" t="s">
@@ -2795,13 +2777,13 @@
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="133" customFormat="1" spans="1:12">
+    <row r="25" s="135" customFormat="1" spans="1:12">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="29"/>
@@ -2817,11 +2799,11 @@
         <v>45</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
       <c r="L25" s="53"/>
     </row>
-    <row r="26" s="133" customFormat="1" spans="1:12">
+    <row r="26" s="135" customFormat="1" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="29"/>
@@ -2835,11 +2817,11 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
       <c r="L26" s="53"/>
     </row>
-    <row r="27" s="133" customFormat="1" spans="1:13">
+    <row r="27" s="135" customFormat="1" spans="1:13">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="29"/>
@@ -2853,18 +2835,18 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="154">
+      <c r="J27" s="156">
         <v>43193</v>
       </c>
-      <c r="K27" s="154">
+      <c r="K27" s="156">
         <v>43199</v>
       </c>
       <c r="L27" s="53"/>
-      <c r="M27" s="133" t="s">
+      <c r="M27" s="135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" s="133" customFormat="1" spans="1:12">
+    <row r="28" s="135" customFormat="1" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="29"/>
@@ -2878,11 +2860,11 @@
         <v>29</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
       <c r="L28" s="53"/>
     </row>
-    <row r="29" s="133" customFormat="1" spans="1:12">
+    <row r="29" s="135" customFormat="1" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="29"/>
@@ -2896,11 +2878,11 @@
         <v>29</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
       <c r="L29" s="53"/>
     </row>
-    <row r="30" s="133" customFormat="1" spans="1:12">
+    <row r="30" s="135" customFormat="1" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="29"/>
@@ -2914,11 +2896,11 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
       <c r="L30" s="53"/>
     </row>
-    <row r="31" s="133" customFormat="1" spans="1:12">
+    <row r="31" s="135" customFormat="1" spans="1:12">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="25" t="s">
@@ -2934,13 +2916,13 @@
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
       <c r="L31" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" s="133" customFormat="1" spans="1:12">
+    <row r="32" s="135" customFormat="1" spans="1:12">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="29"/>
@@ -2954,11 +2936,11 @@
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
       <c r="L32" s="53"/>
     </row>
-    <row r="33" s="133" customFormat="1" spans="1:12">
+    <row r="33" s="135" customFormat="1" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="29"/>
@@ -2972,11 +2954,11 @@
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
       <c r="L33" s="53"/>
     </row>
-    <row r="34" s="133" customFormat="1" spans="1:12">
+    <row r="34" s="135" customFormat="1" spans="1:12">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="29"/>
@@ -2990,15 +2972,15 @@
         <v>29</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="154">
+      <c r="J34" s="156">
         <v>43187</v>
       </c>
-      <c r="K34" s="154">
+      <c r="K34" s="156">
         <v>43192</v>
       </c>
       <c r="L34" s="53"/>
     </row>
-    <row r="35" s="133" customFormat="1" spans="1:12">
+    <row r="35" s="135" customFormat="1" spans="1:12">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="29"/>
@@ -3012,11 +2994,11 @@
         <v>29</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
       <c r="L35" s="53"/>
     </row>
-    <row r="36" s="133" customFormat="1" spans="1:12">
+    <row r="36" s="135" customFormat="1" spans="1:12">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="29"/>
@@ -3030,11 +3012,11 @@
         <v>29</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" s="133" customFormat="1" spans="1:12">
+    <row r="37" s="135" customFormat="1" spans="1:12">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="29"/>
@@ -3048,11 +3030,11 @@
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
       <c r="L37" s="53"/>
     </row>
-    <row r="38" s="133" customFormat="1" spans="1:12">
+    <row r="38" s="135" customFormat="1" spans="1:12">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="29"/>
@@ -3066,11 +3048,11 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
       <c r="L38" s="54"/>
     </row>
-    <row r="39" s="133" customFormat="1" spans="1:12">
+    <row r="39" s="135" customFormat="1" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
@@ -3086,13 +3068,13 @@
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
       <c r="L39" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" s="133" customFormat="1" spans="1:12">
+    <row r="40" s="135" customFormat="1" spans="1:12">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -3104,11 +3086,11 @@
       <c r="G40" s="32"/>
       <c r="H40" s="14"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
       <c r="L40" s="65"/>
     </row>
-    <row r="41" s="133" customFormat="1" spans="1:12">
+    <row r="41" s="135" customFormat="1" spans="1:12">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -3120,11 +3102,11 @@
       <c r="G41" s="32"/>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
       <c r="L41" s="65"/>
     </row>
-    <row r="42" s="133" customFormat="1" spans="1:12">
+    <row r="42" s="135" customFormat="1" spans="1:12">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -3136,15 +3118,15 @@
       <c r="G42" s="32"/>
       <c r="H42" s="14"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="154">
+      <c r="J42" s="156">
         <v>43192</v>
       </c>
-      <c r="K42" s="154">
+      <c r="K42" s="156">
         <v>43193</v>
       </c>
       <c r="L42" s="65"/>
     </row>
-    <row r="43" s="133" customFormat="1" spans="1:12">
+    <row r="43" s="135" customFormat="1" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -3156,11 +3138,11 @@
       <c r="G43" s="32"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
       <c r="L43" s="65"/>
     </row>
-    <row r="44" s="133" customFormat="1" spans="1:12">
+    <row r="44" s="135" customFormat="1" spans="1:12">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -3172,11 +3154,11 @@
       <c r="G44" s="32"/>
       <c r="H44" s="14"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
       <c r="L44" s="65"/>
     </row>
-    <row r="45" s="133" customFormat="1" spans="1:12">
+    <row r="45" s="135" customFormat="1" spans="1:12">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -3188,11 +3170,11 @@
       <c r="G45" s="33"/>
       <c r="H45" s="14"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
       <c r="L45" s="68"/>
     </row>
-    <row r="46" s="133" customFormat="1" spans="1:12">
+    <row r="46" s="135" customFormat="1" spans="1:12">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13" t="s">
@@ -3206,17 +3188,17 @@
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="154">
+      <c r="J46" s="156">
         <v>43199</v>
       </c>
-      <c r="K46" s="154">
+      <c r="K46" s="156">
         <v>43199</v>
       </c>
       <c r="L46" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" s="133" customFormat="1" spans="1:13">
+    <row r="47" s="135" customFormat="1" spans="1:13">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="24" t="s">
@@ -3230,20 +3212,20 @@
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="148">
+      <c r="J47" s="150">
         <v>43193</v>
       </c>
-      <c r="K47" s="148">
+      <c r="K47" s="150">
         <v>43200</v>
       </c>
       <c r="L47" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="133" t="s">
+      <c r="M47" s="135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" s="133" customFormat="1" spans="1:12">
+    <row r="48" s="135" customFormat="1" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13" t="s">
@@ -3257,17 +3239,17 @@
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="154">
+      <c r="J48" s="156">
         <v>43200</v>
       </c>
-      <c r="K48" s="154">
+      <c r="K48" s="156">
         <v>43200</v>
       </c>
       <c r="L48" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" s="133" customFormat="1" spans="1:12">
+    <row r="49" s="135" customFormat="1" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
@@ -3283,13 +3265,13 @@
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154"/>
       <c r="L49" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" s="133" customFormat="1" spans="1:12">
+    <row r="50" s="135" customFormat="1" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -3301,11 +3283,11 @@
       <c r="G50" s="32"/>
       <c r="H50" s="14"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
       <c r="L50" s="65"/>
     </row>
-    <row r="51" s="133" customFormat="1" spans="1:12">
+    <row r="51" s="135" customFormat="1" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -3317,11 +3299,11 @@
       <c r="G51" s="32"/>
       <c r="H51" s="14"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
       <c r="L51" s="65"/>
     </row>
-    <row r="52" s="133" customFormat="1" spans="1:12">
+    <row r="52" s="135" customFormat="1" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -3333,11 +3315,11 @@
       <c r="G52" s="32"/>
       <c r="H52" s="14"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
       <c r="L52" s="65"/>
     </row>
-    <row r="53" s="133" customFormat="1" spans="1:12">
+    <row r="53" s="135" customFormat="1" spans="1:12">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -3349,15 +3331,15 @@
       <c r="G53" s="32"/>
       <c r="H53" s="14"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="148">
+      <c r="J53" s="150">
         <v>43200</v>
       </c>
-      <c r="K53" s="148">
+      <c r="K53" s="150">
         <v>43203</v>
       </c>
       <c r="L53" s="65"/>
     </row>
-    <row r="54" s="133" customFormat="1" spans="1:12">
+    <row r="54" s="135" customFormat="1" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -3369,11 +3351,11 @@
       <c r="G54" s="32"/>
       <c r="H54" s="14"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
       <c r="L54" s="65"/>
     </row>
-    <row r="55" s="133" customFormat="1" spans="1:12">
+    <row r="55" s="135" customFormat="1" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -3385,11 +3367,11 @@
       <c r="G55" s="32"/>
       <c r="H55" s="14"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" s="133" customFormat="1" spans="1:12">
+    <row r="56" s="135" customFormat="1" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -3401,11 +3383,11 @@
       <c r="G56" s="32"/>
       <c r="H56" s="14"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" s="133" customFormat="1" spans="1:12">
+    <row r="57" s="135" customFormat="1" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -3417,11 +3399,11 @@
       <c r="G57" s="33"/>
       <c r="H57" s="14"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="155"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
       <c r="L57" s="68"/>
     </row>
-    <row r="58" s="133" customFormat="1" spans="1:12">
+    <row r="58" s="135" customFormat="1" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -3435,17 +3417,17 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="148">
+      <c r="J58" s="150">
         <v>43200</v>
       </c>
-      <c r="K58" s="148">
+      <c r="K58" s="150">
         <v>43200</v>
       </c>
       <c r="L58" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" s="133" customFormat="1" spans="1:12">
+    <row r="59" s="135" customFormat="1" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13" t="s">
@@ -3459,17 +3441,17 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="148">
+      <c r="J59" s="150">
         <v>43206</v>
       </c>
-      <c r="K59" s="148">
+      <c r="K59" s="150">
         <v>43206</v>
       </c>
       <c r="L59" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" s="133" customFormat="1" spans="1:12">
+    <row r="60" s="135" customFormat="1" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
@@ -3483,17 +3465,17 @@
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="148">
+      <c r="J60" s="150">
         <v>43203</v>
       </c>
-      <c r="K60" s="148">
+      <c r="K60" s="150">
         <v>43203</v>
       </c>
       <c r="L60" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" s="133" customFormat="1" spans="1:12">
+    <row r="61" s="135" customFormat="1" spans="1:12">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
@@ -3507,17 +3489,17 @@
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="148">
+      <c r="J61" s="150">
         <v>43208</v>
       </c>
-      <c r="K61" s="148">
+      <c r="K61" s="150">
         <v>43208</v>
       </c>
       <c r="L61" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" s="133" customFormat="1" spans="1:12">
+    <row r="62" s="135" customFormat="1" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13" t="s">
@@ -3531,17 +3513,17 @@
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="148">
+      <c r="J62" s="150">
         <v>43207</v>
       </c>
-      <c r="K62" s="148">
+      <c r="K62" s="150">
         <v>43207</v>
       </c>
       <c r="L62" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" s="133" customFormat="1" spans="1:12">
+    <row r="63" s="135" customFormat="1" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13" t="s">
@@ -3555,17 +3537,17 @@
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="148">
+      <c r="J63" s="150">
         <v>43201</v>
       </c>
-      <c r="K63" s="148">
+      <c r="K63" s="150">
         <v>43201</v>
       </c>
       <c r="L63" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" s="133" customFormat="1" spans="1:12">
+    <row r="64" s="135" customFormat="1" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13" t="s">
@@ -3579,17 +3561,17 @@
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="148">
+      <c r="J64" s="150">
         <v>43201</v>
       </c>
-      <c r="K64" s="148">
+      <c r="K64" s="150">
         <v>43201</v>
       </c>
       <c r="L64" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" s="133" customFormat="1" spans="1:12">
+    <row r="65" s="135" customFormat="1" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13" t="s">
@@ -3603,17 +3585,17 @@
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="148">
+      <c r="J65" s="150">
         <v>43208</v>
       </c>
-      <c r="K65" s="148">
+      <c r="K65" s="150">
         <v>43208</v>
       </c>
       <c r="L65" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" s="133" customFormat="1" spans="1:12">
+    <row r="66" s="135" customFormat="1" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13" t="s">
@@ -3627,17 +3609,17 @@
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="148">
+      <c r="J66" s="150">
         <v>43209</v>
       </c>
-      <c r="K66" s="148">
+      <c r="K66" s="150">
         <v>43209</v>
       </c>
       <c r="L66" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" s="133" customFormat="1" spans="1:12">
+    <row r="67" s="135" customFormat="1" spans="1:12">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
@@ -3651,17 +3633,17 @@
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="148">
+      <c r="J67" s="150">
         <v>43213</v>
       </c>
-      <c r="K67" s="148">
+      <c r="K67" s="150">
         <v>43215</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" s="133" customFormat="1" spans="1:12">
+    <row r="68" s="135" customFormat="1" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="13" t="s">
@@ -3677,17 +3659,17 @@
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="156">
+      <c r="J68" s="158">
         <v>43210</v>
       </c>
-      <c r="K68" s="156">
+      <c r="K68" s="158">
         <v>43210</v>
       </c>
       <c r="L68" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" s="133" customFormat="1" spans="1:12">
+    <row r="69" s="135" customFormat="1" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -3699,11 +3681,11 @@
       <c r="G69" s="32"/>
       <c r="H69" s="14"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="154"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
       <c r="L69" s="65"/>
     </row>
-    <row r="70" s="133" customFormat="1" spans="1:12">
+    <row r="70" s="135" customFormat="1" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -3715,11 +3697,11 @@
       <c r="G70" s="33"/>
       <c r="H70" s="14"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" s="133" customFormat="1" spans="1:12">
+    <row r="71" s="135" customFormat="1" spans="1:12">
       <c r="A71" s="16">
         <v>6</v>
       </c>
@@ -3742,13 +3724,13 @@
         <f>SUM(G71:G87)</f>
         <v>21</v>
       </c>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
       <c r="L71" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" s="133" customFormat="1" spans="1:12">
+    <row r="72" s="135" customFormat="1" spans="1:12">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17" t="s">
@@ -3766,13 +3748,13 @@
         <v>13</v>
       </c>
       <c r="I72" s="16"/>
-      <c r="J72" s="158"/>
-      <c r="K72" s="158"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
       <c r="L72" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" s="133" customFormat="1" spans="1:12">
+    <row r="73" s="135" customFormat="1" spans="1:12">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -3784,11 +3766,11 @@
       <c r="G73" s="80"/>
       <c r="H73" s="81"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="159"/>
-      <c r="K73" s="159"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="161"/>
       <c r="L73" s="68"/>
     </row>
-    <row r="74" s="133" customFormat="1" spans="1:12">
+    <row r="74" s="135" customFormat="1" spans="1:12">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
@@ -3804,13 +3786,13 @@
         <v>13</v>
       </c>
       <c r="I74" s="16"/>
-      <c r="J74" s="147"/>
-      <c r="K74" s="147"/>
+      <c r="J74" s="149"/>
+      <c r="K74" s="149"/>
       <c r="L74" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" s="133" customFormat="1" spans="1:12">
+    <row r="75" s="135" customFormat="1" spans="1:12">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
@@ -3826,13 +3808,13 @@
         <v>13</v>
       </c>
       <c r="I75" s="16"/>
-      <c r="J75" s="147"/>
-      <c r="K75" s="147"/>
+      <c r="J75" s="149"/>
+      <c r="K75" s="149"/>
       <c r="L75" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" s="133" customFormat="1" spans="1:12">
+    <row r="76" s="135" customFormat="1" spans="1:12">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
@@ -3848,13 +3830,13 @@
         <v>13</v>
       </c>
       <c r="I76" s="16"/>
-      <c r="J76" s="147"/>
-      <c r="K76" s="147"/>
+      <c r="J76" s="149"/>
+      <c r="K76" s="149"/>
       <c r="L76" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" s="133" customFormat="1" spans="1:12">
+    <row r="77" s="135" customFormat="1" spans="1:12">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17" t="s">
@@ -3872,13 +3854,13 @@
         <v>95</v>
       </c>
       <c r="I77" s="16"/>
-      <c r="J77" s="158"/>
-      <c r="K77" s="158"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
       <c r="L77" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" s="133" customFormat="1" spans="1:12">
+    <row r="78" s="135" customFormat="1" spans="1:12">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
@@ -3890,11 +3872,11 @@
       <c r="G78" s="82"/>
       <c r="H78" s="83"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
+      <c r="J78" s="162"/>
+      <c r="K78" s="162"/>
       <c r="L78" s="65"/>
     </row>
-    <row r="79" s="133" customFormat="1" spans="1:12">
+    <row r="79" s="135" customFormat="1" spans="1:12">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -3906,11 +3888,11 @@
       <c r="G79" s="82"/>
       <c r="H79" s="83"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="160"/>
-      <c r="K79" s="160"/>
+      <c r="J79" s="162"/>
+      <c r="K79" s="162"/>
       <c r="L79" s="65"/>
     </row>
-    <row r="80" s="133" customFormat="1" spans="1:12">
+    <row r="80" s="135" customFormat="1" spans="1:12">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -3922,11 +3904,11 @@
       <c r="G80" s="80"/>
       <c r="H80" s="81"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="159"/>
-      <c r="K80" s="159"/>
+      <c r="J80" s="161"/>
+      <c r="K80" s="161"/>
       <c r="L80" s="68"/>
     </row>
-    <row r="81" s="133" customFormat="1" spans="1:12">
+    <row r="81" s="135" customFormat="1" spans="1:12">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="17" t="s">
@@ -3942,13 +3924,13 @@
         <v>13</v>
       </c>
       <c r="I81" s="16"/>
-      <c r="J81" s="147"/>
-      <c r="K81" s="147"/>
+      <c r="J81" s="149"/>
+      <c r="K81" s="149"/>
       <c r="L81" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" s="133" customFormat="1" spans="1:12">
+    <row r="82" s="135" customFormat="1" spans="1:12">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17" t="s">
@@ -3964,13 +3946,13 @@
         <v>13</v>
       </c>
       <c r="I82" s="16"/>
-      <c r="J82" s="147"/>
-      <c r="K82" s="147"/>
+      <c r="J82" s="149"/>
+      <c r="K82" s="149"/>
       <c r="L82" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" s="133" customFormat="1" spans="1:12">
+    <row r="83" s="135" customFormat="1" spans="1:12">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17" t="s">
@@ -3986,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="I83" s="16"/>
-      <c r="J83" s="147"/>
-      <c r="K83" s="147"/>
+      <c r="J83" s="149"/>
+      <c r="K83" s="149"/>
       <c r="L83" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" s="133" customFormat="1" spans="1:12">
+    <row r="84" s="135" customFormat="1" spans="1:12">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17" t="s">
@@ -4006,11 +3988,11 @@
         <v>29</v>
       </c>
       <c r="I84" s="16"/>
-      <c r="J84" s="161"/>
-      <c r="K84" s="161"/>
+      <c r="J84" s="163"/>
+      <c r="K84" s="163"/>
       <c r="L84" s="56"/>
     </row>
-    <row r="85" s="133" customFormat="1" spans="1:12">
+    <row r="85" s="135" customFormat="1" spans="1:12">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17" t="s">
@@ -4024,17 +4006,17 @@
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="148">
+      <c r="J85" s="150">
         <v>43202</v>
       </c>
-      <c r="K85" s="148">
+      <c r="K85" s="150">
         <v>43202</v>
       </c>
       <c r="L85" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" s="133" customFormat="1" spans="1:12">
+    <row r="86" s="135" customFormat="1" spans="1:12">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17" t="s">
@@ -4048,17 +4030,17 @@
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="148">
+      <c r="J86" s="150">
         <v>43202</v>
       </c>
-      <c r="K86" s="148">
+      <c r="K86" s="150">
         <v>43202</v>
       </c>
       <c r="L86" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" s="133" customFormat="1" spans="1:12">
+    <row r="87" s="135" customFormat="1" spans="1:12">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17" t="s">
@@ -4072,8 +4054,8 @@
         <v>29</v>
       </c>
       <c r="I87" s="16"/>
-      <c r="J87" s="161"/>
-      <c r="K87" s="161"/>
+      <c r="J87" s="163"/>
+      <c r="K87" s="163"/>
       <c r="L87" s="56"/>
     </row>
     <row r="88" s="75" customFormat="1" spans="1:12">
@@ -4099,10 +4081,10 @@
         <f>SUM(G88:G90)</f>
         <v>7</v>
       </c>
-      <c r="J88" s="148">
+      <c r="J88" s="150">
         <v>43203</v>
       </c>
-      <c r="K88" s="148">
+      <c r="K88" s="150">
         <v>43203</v>
       </c>
       <c r="L88" s="51" t="s">
@@ -4123,10 +4105,10 @@
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="148">
+      <c r="J89" s="150">
         <v>43203</v>
       </c>
-      <c r="K89" s="148">
+      <c r="K89" s="150">
         <v>43203</v>
       </c>
       <c r="L89" s="53"/>
@@ -4145,11 +4127,11 @@
         <v>29</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="155"/>
-      <c r="K90" s="155"/>
+      <c r="J90" s="157"/>
+      <c r="K90" s="157"/>
       <c r="L90" s="54"/>
     </row>
-    <row r="91" s="134" customFormat="1" spans="1:12">
+    <row r="91" s="136" customFormat="1" spans="1:12">
       <c r="A91" s="16">
         <v>8</v>
       </c>
@@ -4172,9 +4154,9 @@
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="87"/>
-      <c r="L91" s="162"/>
-    </row>
-    <row r="92" s="135" customFormat="1" spans="1:12">
+      <c r="L91" s="164"/>
+    </row>
+    <row r="92" s="137" customFormat="1" spans="1:12">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -4188,9 +4170,9 @@
       <c r="I92" s="103"/>
       <c r="J92" s="87"/>
       <c r="K92" s="87"/>
-      <c r="L92" s="162"/>
-    </row>
-    <row r="93" s="135" customFormat="1" spans="1:12">
+      <c r="L92" s="164"/>
+    </row>
+    <row r="93" s="137" customFormat="1" spans="1:12">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
@@ -4204,9 +4186,9 @@
       <c r="I93" s="103"/>
       <c r="J93" s="87"/>
       <c r="K93" s="87"/>
-      <c r="L93" s="162"/>
-    </row>
-    <row r="94" s="135" customFormat="1" spans="1:12">
+      <c r="L93" s="164"/>
+    </row>
+    <row r="94" s="137" customFormat="1" spans="1:12">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -4220,9 +4202,9 @@
       <c r="I94" s="103"/>
       <c r="J94" s="87"/>
       <c r="K94" s="87"/>
-      <c r="L94" s="162"/>
-    </row>
-    <row r="95" s="135" customFormat="1" spans="1:12">
+      <c r="L94" s="164"/>
+    </row>
+    <row r="95" s="137" customFormat="1" spans="1:12">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -4236,9 +4218,9 @@
       <c r="I95" s="103"/>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
-      <c r="L95" s="162"/>
-    </row>
-    <row r="96" s="135" customFormat="1" spans="1:12">
+      <c r="L95" s="164"/>
+    </row>
+    <row r="96" s="137" customFormat="1" spans="1:12">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17" t="s">
@@ -4252,9 +4234,9 @@
       <c r="I96" s="103"/>
       <c r="J96" s="87"/>
       <c r="K96" s="87"/>
-      <c r="L96" s="162"/>
-    </row>
-    <row r="97" s="136" customFormat="1" spans="1:12">
+      <c r="L96" s="164"/>
+    </row>
+    <row r="97" s="138" customFormat="1" spans="1:12">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17" t="s">
@@ -4266,11 +4248,11 @@
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="103"/>
-      <c r="J97" s="163"/>
-      <c r="K97" s="163"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
       <c r="L97" s="92"/>
     </row>
-    <row r="98" s="135" customFormat="1" spans="1:12">
+    <row r="98" s="137" customFormat="1" spans="1:12">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17" t="s">
@@ -4284,9 +4266,9 @@
       <c r="I98" s="103"/>
       <c r="J98" s="87"/>
       <c r="K98" s="87"/>
-      <c r="L98" s="162"/>
-    </row>
-    <row r="99" s="135" customFormat="1" spans="1:12">
+      <c r="L98" s="164"/>
+    </row>
+    <row r="99" s="137" customFormat="1" spans="1:12">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="17" t="s">
@@ -4302,9 +4284,9 @@
       <c r="I99" s="103"/>
       <c r="J99" s="87"/>
       <c r="K99" s="87"/>
-      <c r="L99" s="162"/>
-    </row>
-    <row r="100" s="135" customFormat="1" spans="1:12">
+      <c r="L99" s="164"/>
+    </row>
+    <row r="100" s="137" customFormat="1" spans="1:12">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
@@ -4318,9 +4300,9 @@
       <c r="I100" s="103"/>
       <c r="J100" s="87"/>
       <c r="K100" s="87"/>
-      <c r="L100" s="162"/>
-    </row>
-    <row r="101" s="135" customFormat="1" spans="1:12">
+      <c r="L100" s="164"/>
+    </row>
+    <row r="101" s="137" customFormat="1" spans="1:12">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -4334,9 +4316,9 @@
       <c r="I101" s="103"/>
       <c r="J101" s="87"/>
       <c r="K101" s="87"/>
-      <c r="L101" s="162"/>
-    </row>
-    <row r="102" s="135" customFormat="1" spans="1:12">
+      <c r="L101" s="164"/>
+    </row>
+    <row r="102" s="137" customFormat="1" spans="1:12">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
@@ -4350,9 +4332,9 @@
       <c r="I102" s="103"/>
       <c r="J102" s="87"/>
       <c r="K102" s="87"/>
-      <c r="L102" s="162"/>
-    </row>
-    <row r="103" s="135" customFormat="1" spans="1:12">
+      <c r="L102" s="164"/>
+    </row>
+    <row r="103" s="137" customFormat="1" spans="1:12">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -4366,9 +4348,9 @@
       <c r="I103" s="103"/>
       <c r="J103" s="87"/>
       <c r="K103" s="87"/>
-      <c r="L103" s="162"/>
-    </row>
-    <row r="104" s="135" customFormat="1" spans="1:12">
+      <c r="L103" s="164"/>
+    </row>
+    <row r="104" s="137" customFormat="1" spans="1:12">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -4382,9 +4364,9 @@
       <c r="I104" s="103"/>
       <c r="J104" s="87"/>
       <c r="K104" s="87"/>
-      <c r="L104" s="162"/>
-    </row>
-    <row r="105" s="135" customFormat="1" spans="1:12">
+      <c r="L104" s="164"/>
+    </row>
+    <row r="105" s="137" customFormat="1" spans="1:12">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17" t="s">
@@ -4398,9 +4380,9 @@
       <c r="I105" s="103"/>
       <c r="J105" s="87"/>
       <c r="K105" s="87"/>
-      <c r="L105" s="162"/>
-    </row>
-    <row r="106" s="135" customFormat="1" spans="1:12">
+      <c r="L105" s="164"/>
+    </row>
+    <row r="106" s="137" customFormat="1" spans="1:12">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17" t="s">
@@ -4414,9 +4396,9 @@
       <c r="I106" s="103"/>
       <c r="J106" s="87"/>
       <c r="K106" s="87"/>
-      <c r="L106" s="162"/>
-    </row>
-    <row r="107" s="135" customFormat="1" spans="1:12">
+      <c r="L106" s="164"/>
+    </row>
+    <row r="107" s="137" customFormat="1" spans="1:12">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17" t="s">
@@ -4432,9 +4414,9 @@
       <c r="I107" s="103"/>
       <c r="J107" s="87"/>
       <c r="K107" s="87"/>
-      <c r="L107" s="162"/>
-    </row>
-    <row r="108" s="135" customFormat="1" spans="1:12">
+      <c r="L107" s="164"/>
+    </row>
+    <row r="108" s="137" customFormat="1" spans="1:12">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="17"/>
@@ -4448,9 +4430,9 @@
       <c r="I108" s="103"/>
       <c r="J108" s="87"/>
       <c r="K108" s="87"/>
-      <c r="L108" s="162"/>
-    </row>
-    <row r="109" s="135" customFormat="1" spans="1:12">
+      <c r="L108" s="164"/>
+    </row>
+    <row r="109" s="137" customFormat="1" spans="1:12">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17" t="s">
@@ -4466,9 +4448,9 @@
       <c r="I109" s="103"/>
       <c r="J109" s="87"/>
       <c r="K109" s="87"/>
-      <c r="L109" s="162"/>
-    </row>
-    <row r="110" s="135" customFormat="1" spans="1:12">
+      <c r="L109" s="164"/>
+    </row>
+    <row r="110" s="137" customFormat="1" spans="1:12">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
@@ -4482,9 +4464,9 @@
       <c r="I110" s="103"/>
       <c r="J110" s="87"/>
       <c r="K110" s="87"/>
-      <c r="L110" s="162"/>
-    </row>
-    <row r="111" s="135" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L110" s="164"/>
+    </row>
+    <row r="111" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -4498,9 +4480,9 @@
       <c r="I111" s="103"/>
       <c r="J111" s="87"/>
       <c r="K111" s="87"/>
-      <c r="L111" s="162"/>
-    </row>
-    <row r="112" s="135" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L111" s="164"/>
+    </row>
+    <row r="112" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
@@ -4514,9 +4496,9 @@
       <c r="I112" s="103"/>
       <c r="J112" s="87"/>
       <c r="K112" s="87"/>
-      <c r="L112" s="162"/>
-    </row>
-    <row r="113" s="135" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L112" s="164"/>
+    </row>
+    <row r="113" s="137" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
@@ -4530,9 +4512,9 @@
       <c r="I113" s="103"/>
       <c r="J113" s="87"/>
       <c r="K113" s="87"/>
-      <c r="L113" s="162"/>
-    </row>
-    <row r="114" s="135" customFormat="1" ht="13.9" customHeight="1" spans="1:12">
+      <c r="L113" s="164"/>
+    </row>
+    <row r="114" s="137" customFormat="1" ht="13.9" customHeight="1" spans="1:12">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -4546,9 +4528,9 @@
       <c r="I114" s="103"/>
       <c r="J114" s="87"/>
       <c r="K114" s="87"/>
-      <c r="L114" s="162"/>
-    </row>
-    <row r="115" s="135" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L114" s="164"/>
+    </row>
+    <row r="115" s="137" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
@@ -4562,9 +4544,9 @@
       <c r="I115" s="103"/>
       <c r="J115" s="87"/>
       <c r="K115" s="87"/>
-      <c r="L115" s="162"/>
-    </row>
-    <row r="116" s="135" customFormat="1" ht="31.9" customHeight="1" spans="1:12">
+      <c r="L115" s="164"/>
+    </row>
+    <row r="116" s="137" customFormat="1" ht="31.9" customHeight="1" spans="1:12">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
@@ -4578,9 +4560,9 @@
       <c r="I116" s="103"/>
       <c r="J116" s="87"/>
       <c r="K116" s="87"/>
-      <c r="L116" s="162"/>
-    </row>
-    <row r="117" s="135" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L116" s="164"/>
+    </row>
+    <row r="117" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
@@ -4594,9 +4576,9 @@
       <c r="I117" s="103"/>
       <c r="J117" s="87"/>
       <c r="K117" s="87"/>
-      <c r="L117" s="162"/>
-    </row>
-    <row r="118" s="135" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L117" s="164"/>
+    </row>
+    <row r="118" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
@@ -4610,9 +4592,9 @@
       <c r="I118" s="103"/>
       <c r="J118" s="87"/>
       <c r="K118" s="87"/>
-      <c r="L118" s="162"/>
-    </row>
-    <row r="119" s="135" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="L118" s="164"/>
+    </row>
+    <row r="119" s="137" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
@@ -4626,9 +4608,9 @@
       <c r="I119" s="103"/>
       <c r="J119" s="87"/>
       <c r="K119" s="87"/>
-      <c r="L119" s="162"/>
-    </row>
-    <row r="120" s="135" customFormat="1" ht="27" customHeight="1" spans="1:12">
+      <c r="L119" s="164"/>
+    </row>
+    <row r="120" s="137" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
@@ -4642,9 +4624,9 @@
       <c r="I120" s="103"/>
       <c r="J120" s="87"/>
       <c r="K120" s="87"/>
-      <c r="L120" s="162"/>
-    </row>
-    <row r="121" s="135" customFormat="1" ht="49.15" customHeight="1" spans="1:12">
+      <c r="L120" s="164"/>
+    </row>
+    <row r="121" s="137" customFormat="1" ht="49.15" customHeight="1" spans="1:12">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -4658,9 +4640,9 @@
       <c r="I121" s="103"/>
       <c r="J121" s="87"/>
       <c r="K121" s="87"/>
-      <c r="L121" s="162"/>
-    </row>
-    <row r="122" s="135" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L121" s="164"/>
+    </row>
+    <row r="122" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
@@ -4674,9 +4656,9 @@
       <c r="I122" s="103"/>
       <c r="J122" s="87"/>
       <c r="K122" s="87"/>
-      <c r="L122" s="162"/>
-    </row>
-    <row r="123" s="135" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L122" s="164"/>
+    </row>
+    <row r="123" s="137" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
@@ -4690,9 +4672,9 @@
       <c r="I123" s="103"/>
       <c r="J123" s="87"/>
       <c r="K123" s="87"/>
-      <c r="L123" s="162"/>
-    </row>
-    <row r="124" s="135" customFormat="1" spans="1:12">
+      <c r="L123" s="164"/>
+    </row>
+    <row r="124" s="137" customFormat="1" spans="1:12">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17" t="s">
@@ -4708,9 +4690,9 @@
       <c r="I124" s="103"/>
       <c r="J124" s="87"/>
       <c r="K124" s="87"/>
-      <c r="L124" s="162"/>
-    </row>
-    <row r="125" s="135" customFormat="1" spans="1:12">
+      <c r="L124" s="164"/>
+    </row>
+    <row r="125" s="137" customFormat="1" spans="1:12">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
@@ -4724,9 +4706,9 @@
       <c r="I125" s="103"/>
       <c r="J125" s="87"/>
       <c r="K125" s="87"/>
-      <c r="L125" s="162"/>
-    </row>
-    <row r="126" s="135" customFormat="1" spans="1:12">
+      <c r="L125" s="164"/>
+    </row>
+    <row r="126" s="137" customFormat="1" spans="1:12">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17" t="s">
@@ -4742,9 +4724,9 @@
       <c r="I126" s="103"/>
       <c r="J126" s="87"/>
       <c r="K126" s="87"/>
-      <c r="L126" s="162"/>
-    </row>
-    <row r="127" s="135" customFormat="1" spans="1:12">
+      <c r="L126" s="164"/>
+    </row>
+    <row r="127" s="137" customFormat="1" spans="1:12">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
@@ -4758,9 +4740,9 @@
       <c r="I127" s="103"/>
       <c r="J127" s="87"/>
       <c r="K127" s="87"/>
-      <c r="L127" s="162"/>
-    </row>
-    <row r="128" s="135" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L127" s="164"/>
+    </row>
+    <row r="128" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -4774,9 +4756,9 @@
       <c r="I128" s="103"/>
       <c r="J128" s="87"/>
       <c r="K128" s="87"/>
-      <c r="L128" s="162"/>
-    </row>
-    <row r="129" s="135" customFormat="1" spans="1:12">
+      <c r="L128" s="164"/>
+    </row>
+    <row r="129" s="137" customFormat="1" spans="1:12">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
@@ -4790,9 +4772,9 @@
       <c r="I129" s="103"/>
       <c r="J129" s="87"/>
       <c r="K129" s="87"/>
-      <c r="L129" s="162"/>
-    </row>
-    <row r="130" s="135" customFormat="1" spans="1:12">
+      <c r="L129" s="164"/>
+    </row>
+    <row r="130" s="137" customFormat="1" spans="1:12">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="17" t="s">
@@ -4808,9 +4790,9 @@
       <c r="I130" s="103"/>
       <c r="J130" s="87"/>
       <c r="K130" s="87"/>
-      <c r="L130" s="162"/>
-    </row>
-    <row r="131" s="135" customFormat="1" spans="1:12">
+      <c r="L130" s="164"/>
+    </row>
+    <row r="131" s="137" customFormat="1" spans="1:12">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="17"/>
@@ -4824,9 +4806,9 @@
       <c r="I131" s="103"/>
       <c r="J131" s="87"/>
       <c r="K131" s="87"/>
-      <c r="L131" s="162"/>
-    </row>
-    <row r="132" s="135" customFormat="1" spans="1:12">
+      <c r="L131" s="164"/>
+    </row>
+    <row r="132" s="137" customFormat="1" spans="1:12">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="17"/>
@@ -4840,9 +4822,9 @@
       <c r="I132" s="103"/>
       <c r="J132" s="87"/>
       <c r="K132" s="87"/>
-      <c r="L132" s="162"/>
-    </row>
-    <row r="133" s="135" customFormat="1" spans="1:12">
+      <c r="L132" s="164"/>
+    </row>
+    <row r="133" s="137" customFormat="1" spans="1:12">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="17" t="s">
@@ -4858,9 +4840,9 @@
       <c r="I133" s="103"/>
       <c r="J133" s="87"/>
       <c r="K133" s="87"/>
-      <c r="L133" s="162"/>
-    </row>
-    <row r="134" s="135" customFormat="1" spans="1:12">
+      <c r="L133" s="164"/>
+    </row>
+    <row r="134" s="137" customFormat="1" spans="1:12">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="17"/>
@@ -4874,9 +4856,9 @@
       <c r="I134" s="103"/>
       <c r="J134" s="87"/>
       <c r="K134" s="87"/>
-      <c r="L134" s="162"/>
-    </row>
-    <row r="135" s="135" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L134" s="164"/>
+    </row>
+    <row r="135" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="17"/>
@@ -4890,9 +4872,9 @@
       <c r="I135" s="103"/>
       <c r="J135" s="87"/>
       <c r="K135" s="87"/>
-      <c r="L135" s="162"/>
-    </row>
-    <row r="136" s="135" customFormat="1" spans="1:12">
+      <c r="L135" s="164"/>
+    </row>
+    <row r="136" s="137" customFormat="1" spans="1:12">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="17" t="s">
@@ -4908,9 +4890,9 @@
       <c r="I136" s="103"/>
       <c r="J136" s="87"/>
       <c r="K136" s="87"/>
-      <c r="L136" s="162"/>
-    </row>
-    <row r="137" s="135" customFormat="1" spans="1:12">
+      <c r="L136" s="164"/>
+    </row>
+    <row r="137" s="137" customFormat="1" spans="1:12">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="17"/>
@@ -4924,9 +4906,9 @@
       <c r="I137" s="103"/>
       <c r="J137" s="87"/>
       <c r="K137" s="87"/>
-      <c r="L137" s="162"/>
-    </row>
-    <row r="138" s="135" customFormat="1" spans="1:12">
+      <c r="L137" s="164"/>
+    </row>
+    <row r="138" s="137" customFormat="1" spans="1:12">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="17"/>
@@ -4940,9 +4922,9 @@
       <c r="I138" s="103"/>
       <c r="J138" s="87"/>
       <c r="K138" s="87"/>
-      <c r="L138" s="162"/>
-    </row>
-    <row r="139" s="135" customFormat="1" spans="1:12">
+      <c r="L138" s="164"/>
+    </row>
+    <row r="139" s="137" customFormat="1" spans="1:12">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="17"/>
@@ -4953,138 +4935,138 @@
       <c r="F139" s="17"/>
       <c r="G139" s="21"/>
       <c r="H139" s="87"/>
-      <c r="I139" s="116"/>
+      <c r="I139" s="118"/>
       <c r="J139" s="87"/>
       <c r="K139" s="87"/>
-      <c r="L139" s="162"/>
-    </row>
-    <row r="140" s="135" customFormat="1" spans="1:12">
-      <c r="A140" s="164"/>
-      <c r="B140" s="164"/>
-      <c r="C140" s="164"/>
-      <c r="D140" s="164"/>
-      <c r="E140" s="164"/>
-      <c r="F140" s="164"/>
-      <c r="G140" s="165"/>
-      <c r="L140" s="170"/>
-    </row>
-    <row r="141" s="135" customFormat="1" spans="1:12">
-      <c r="A141" s="164"/>
-      <c r="B141" s="164"/>
-      <c r="C141" s="164"/>
-      <c r="D141" s="164"/>
-      <c r="E141" s="164"/>
-      <c r="F141" s="164"/>
-      <c r="G141" s="165"/>
-      <c r="L141" s="170"/>
-    </row>
-    <row r="142" s="135" customFormat="1" spans="1:12">
-      <c r="A142" s="164"/>
-      <c r="B142" s="164"/>
-      <c r="C142" s="164"/>
-      <c r="D142" s="164"/>
-      <c r="E142" s="164"/>
-      <c r="F142" s="164"/>
-      <c r="G142" s="165"/>
-      <c r="L142" s="170"/>
-    </row>
-    <row r="143" s="135" customFormat="1" spans="1:12">
-      <c r="A143" s="164"/>
-      <c r="B143" s="164"/>
-      <c r="C143" s="164"/>
-      <c r="D143" s="164"/>
-      <c r="E143" s="164"/>
-      <c r="F143" s="164"/>
-      <c r="G143" s="165"/>
-      <c r="L143" s="170"/>
-    </row>
-    <row r="144" s="135" customFormat="1" spans="1:12">
-      <c r="A144" s="164"/>
-      <c r="B144" s="164"/>
-      <c r="C144" s="164"/>
-      <c r="D144" s="164"/>
-      <c r="E144" s="164"/>
-      <c r="F144" s="164"/>
-      <c r="G144" s="165"/>
-      <c r="L144" s="170"/>
-    </row>
-    <row r="145" s="135" customFormat="1" spans="1:12">
-      <c r="A145" s="164"/>
-      <c r="B145" s="164"/>
-      <c r="C145" s="164"/>
-      <c r="D145" s="164"/>
-      <c r="E145" s="164"/>
-      <c r="F145" s="164"/>
-      <c r="G145" s="165"/>
-      <c r="L145" s="170"/>
-    </row>
-    <row r="146" s="135" customFormat="1" spans="1:12">
-      <c r="A146" s="164"/>
-      <c r="B146" s="164"/>
-      <c r="C146" s="164"/>
-      <c r="D146" s="164"/>
-      <c r="E146" s="164"/>
-      <c r="F146" s="164"/>
-      <c r="G146" s="165"/>
-      <c r="L146" s="170"/>
-    </row>
-    <row r="147" s="135" customFormat="1" spans="1:12">
-      <c r="A147" s="164"/>
-      <c r="B147" s="164"/>
-      <c r="C147" s="164"/>
-      <c r="D147" s="164"/>
-      <c r="E147" s="164"/>
-      <c r="F147" s="164"/>
-      <c r="G147" s="165"/>
-      <c r="L147" s="170"/>
+      <c r="L139" s="164"/>
+    </row>
+    <row r="140" s="137" customFormat="1" spans="1:12">
+      <c r="A140" s="166"/>
+      <c r="B140" s="166"/>
+      <c r="C140" s="166"/>
+      <c r="D140" s="166"/>
+      <c r="E140" s="166"/>
+      <c r="F140" s="166"/>
+      <c r="G140" s="167"/>
+      <c r="L140" s="172"/>
+    </row>
+    <row r="141" s="137" customFormat="1" spans="1:12">
+      <c r="A141" s="166"/>
+      <c r="B141" s="166"/>
+      <c r="C141" s="166"/>
+      <c r="D141" s="166"/>
+      <c r="E141" s="166"/>
+      <c r="F141" s="166"/>
+      <c r="G141" s="167"/>
+      <c r="L141" s="172"/>
+    </row>
+    <row r="142" s="137" customFormat="1" spans="1:12">
+      <c r="A142" s="166"/>
+      <c r="B142" s="166"/>
+      <c r="C142" s="166"/>
+      <c r="D142" s="166"/>
+      <c r="E142" s="166"/>
+      <c r="F142" s="166"/>
+      <c r="G142" s="167"/>
+      <c r="L142" s="172"/>
+    </row>
+    <row r="143" s="137" customFormat="1" spans="1:12">
+      <c r="A143" s="166"/>
+      <c r="B143" s="166"/>
+      <c r="C143" s="166"/>
+      <c r="D143" s="166"/>
+      <c r="E143" s="166"/>
+      <c r="F143" s="166"/>
+      <c r="G143" s="167"/>
+      <c r="L143" s="172"/>
+    </row>
+    <row r="144" s="137" customFormat="1" spans="1:12">
+      <c r="A144" s="166"/>
+      <c r="B144" s="166"/>
+      <c r="C144" s="166"/>
+      <c r="D144" s="166"/>
+      <c r="E144" s="166"/>
+      <c r="F144" s="166"/>
+      <c r="G144" s="167"/>
+      <c r="L144" s="172"/>
+    </row>
+    <row r="145" s="137" customFormat="1" spans="1:12">
+      <c r="A145" s="166"/>
+      <c r="B145" s="166"/>
+      <c r="C145" s="166"/>
+      <c r="D145" s="166"/>
+      <c r="E145" s="166"/>
+      <c r="F145" s="166"/>
+      <c r="G145" s="167"/>
+      <c r="L145" s="172"/>
+    </row>
+    <row r="146" s="137" customFormat="1" spans="1:12">
+      <c r="A146" s="166"/>
+      <c r="B146" s="166"/>
+      <c r="C146" s="166"/>
+      <c r="D146" s="166"/>
+      <c r="E146" s="166"/>
+      <c r="F146" s="166"/>
+      <c r="G146" s="167"/>
+      <c r="L146" s="172"/>
+    </row>
+    <row r="147" s="137" customFormat="1" spans="1:12">
+      <c r="A147" s="166"/>
+      <c r="B147" s="166"/>
+      <c r="C147" s="166"/>
+      <c r="D147" s="166"/>
+      <c r="E147" s="166"/>
+      <c r="F147" s="166"/>
+      <c r="G147" s="167"/>
+      <c r="L147" s="172"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="137"/>
-      <c r="D148" s="137"/>
+      <c r="C148" s="139"/>
+      <c r="D148" s="139"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="166"/>
-      <c r="B151" s="134"/>
-      <c r="C151" s="133"/>
+      <c r="A151" s="168"/>
+      <c r="B151" s="136"/>
+      <c r="C151" s="135"/>
     </row>
     <row r="152" s="37" customFormat="1" spans="1:12">
-      <c r="A152" s="134"/>
-      <c r="B152" s="134"/>
-      <c r="C152" s="134"/>
-      <c r="D152" s="134"/>
-      <c r="E152" s="134"/>
-      <c r="F152" s="134"/>
-      <c r="G152" s="134"/>
-      <c r="H152" s="134"/>
-      <c r="I152" s="134"/>
-      <c r="J152" s="135"/>
-      <c r="K152" s="135"/>
-      <c r="L152" s="170"/>
+      <c r="A152" s="136"/>
+      <c r="B152" s="136"/>
+      <c r="C152" s="136"/>
+      <c r="D152" s="136"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+      <c r="G152" s="136"/>
+      <c r="H152" s="136"/>
+      <c r="I152" s="136"/>
+      <c r="J152" s="137"/>
+      <c r="K152" s="137"/>
+      <c r="L152" s="172"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="134"/>
-      <c r="B153" s="167"/>
-      <c r="C153" s="168"/>
-      <c r="D153" s="167"/>
-      <c r="E153" s="167"/>
-      <c r="F153" s="167"/>
-      <c r="G153" s="167"/>
-      <c r="H153" s="167"/>
-      <c r="I153" s="167"/>
-      <c r="J153" s="171"/>
-      <c r="K153" s="171"/>
+      <c r="A153" s="136"/>
+      <c r="B153" s="169"/>
+      <c r="C153" s="170"/>
+      <c r="D153" s="169"/>
+      <c r="E153" s="169"/>
+      <c r="F153" s="169"/>
+      <c r="G153" s="169"/>
+      <c r="H153" s="169"/>
+      <c r="I153" s="169"/>
+      <c r="J153" s="173"/>
+      <c r="K153" s="173"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="166"/>
-      <c r="B154" s="134"/>
-      <c r="C154" s="134"/>
+      <c r="A154" s="168"/>
+      <c r="B154" s="136"/>
+      <c r="C154" s="136"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="169"/>
-      <c r="B155" s="134"/>
-      <c r="C155" s="134"/>
-      <c r="D155" s="138"/>
-      <c r="E155" s="138"/>
+      <c r="A155" s="171"/>
+      <c r="B155" s="136"/>
+      <c r="C155" s="136"/>
+      <c r="D155" s="140"/>
+      <c r="E155" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="246">
@@ -5350,9 +5332,9 @@
   <dimension ref="A1:CY144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z105" sqref="Z105"/>
+      <selection pane="bottomLeft" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9793,10 +9775,10 @@
       </c>
       <c r="H109" s="87"/>
       <c r="I109" s="103"/>
-      <c r="J109" s="101">
+      <c r="J109" s="114">
         <v>43209</v>
       </c>
-      <c r="K109" s="101">
+      <c r="K109" s="114">
         <v>43209</v>
       </c>
       <c r="L109" s="110"/>
@@ -9843,8 +9825,8 @@
       <c r="G110" s="80"/>
       <c r="H110" s="87"/>
       <c r="I110" s="103"/>
-      <c r="J110" s="80"/>
-      <c r="K110" s="80"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
       <c r="L110" s="112"/>
       <c r="AB110" s="37"/>
       <c r="AC110" s="37"/>
@@ -9893,10 +9875,10 @@
       </c>
       <c r="H111" s="87"/>
       <c r="I111" s="103"/>
-      <c r="J111" s="114">
+      <c r="J111" s="116">
         <v>43210</v>
       </c>
-      <c r="K111" s="114">
+      <c r="K111" s="116">
         <v>43210</v>
       </c>
       <c r="L111" s="102" t="s">
@@ -9958,10 +9940,10 @@
       </c>
       <c r="H112" s="87"/>
       <c r="I112" s="103"/>
-      <c r="J112" s="114">
+      <c r="J112" s="116">
         <v>43210</v>
       </c>
-      <c r="K112" s="114">
+      <c r="K112" s="116">
         <v>43211</v>
       </c>
       <c r="L112" s="104"/>
@@ -10021,10 +10003,10 @@
       </c>
       <c r="H113" s="87"/>
       <c r="I113" s="103"/>
-      <c r="J113" s="114">
+      <c r="J113" s="116">
         <v>43211</v>
       </c>
-      <c r="K113" s="114">
+      <c r="K113" s="116">
         <v>43211</v>
       </c>
       <c r="L113" s="104"/>
@@ -10084,10 +10066,10 @@
       </c>
       <c r="H114" s="87"/>
       <c r="I114" s="103"/>
-      <c r="J114" s="114">
+      <c r="J114" s="116">
         <v>43212</v>
       </c>
-      <c r="K114" s="114">
+      <c r="K114" s="116">
         <v>43212</v>
       </c>
       <c r="L114" s="104"/>
@@ -10193,10 +10175,10 @@
       </c>
       <c r="H116" s="87"/>
       <c r="I116" s="103"/>
-      <c r="J116" s="115">
+      <c r="J116" s="117">
         <v>43213</v>
       </c>
-      <c r="K116" s="115">
+      <c r="K116" s="117">
         <v>43213</v>
       </c>
       <c r="L116" s="104"/>
@@ -10243,10 +10225,10 @@
       </c>
       <c r="H117" s="87"/>
       <c r="I117" s="103"/>
-      <c r="J117" s="115">
+      <c r="J117" s="117">
         <v>43213</v>
       </c>
-      <c r="K117" s="115">
+      <c r="K117" s="117">
         <v>43213</v>
       </c>
       <c r="L117" s="104"/>
@@ -10293,10 +10275,10 @@
       </c>
       <c r="H118" s="87"/>
       <c r="I118" s="103"/>
-      <c r="J118" s="114">
+      <c r="J118" s="116">
         <v>43214</v>
       </c>
-      <c r="K118" s="114">
+      <c r="K118" s="116">
         <v>43214</v>
       </c>
       <c r="L118" s="104"/>
@@ -10389,10 +10371,10 @@
       </c>
       <c r="H120" s="87"/>
       <c r="I120" s="103"/>
-      <c r="J120" s="114">
+      <c r="J120" s="116">
         <v>43215</v>
       </c>
-      <c r="K120" s="114">
+      <c r="K120" s="116">
         <v>43215</v>
       </c>
       <c r="L120" s="104"/>
@@ -10543,10 +10525,10 @@
       </c>
       <c r="H123" s="87"/>
       <c r="I123" s="103"/>
-      <c r="J123" s="114">
+      <c r="J123" s="116">
         <v>43217</v>
       </c>
-      <c r="K123" s="114">
+      <c r="K123" s="116">
         <v>43218</v>
       </c>
       <c r="L123" s="104"/>
@@ -10641,10 +10623,10 @@
       </c>
       <c r="H125" s="87"/>
       <c r="I125" s="103"/>
-      <c r="J125" s="114">
+      <c r="J125" s="116">
         <v>43218</v>
       </c>
-      <c r="K125" s="114">
+      <c r="K125" s="116">
         <v>43218</v>
       </c>
       <c r="L125" s="105"/>
@@ -10704,10 +10686,10 @@
       </c>
       <c r="H126" s="87"/>
       <c r="I126" s="103"/>
-      <c r="J126" s="114">
+      <c r="J126" s="116">
         <v>43210</v>
       </c>
-      <c r="K126" s="114">
+      <c r="K126" s="116">
         <v>43210</v>
       </c>
       <c r="L126" s="109" t="s">
@@ -10743,10 +10725,10 @@
       </c>
       <c r="H127" s="87"/>
       <c r="I127" s="103"/>
-      <c r="J127" s="114">
+      <c r="J127" s="116">
         <v>43213</v>
       </c>
-      <c r="K127" s="114">
+      <c r="K127" s="116">
         <v>43213</v>
       </c>
       <c r="L127" s="112"/>
@@ -10782,10 +10764,10 @@
       </c>
       <c r="H128" s="87"/>
       <c r="I128" s="103"/>
-      <c r="J128" s="114">
+      <c r="J128" s="116">
         <v>43214</v>
       </c>
-      <c r="K128" s="114">
+      <c r="K128" s="116">
         <v>43214</v>
       </c>
       <c r="L128" s="109" t="s">
@@ -10821,10 +10803,10 @@
       </c>
       <c r="H129" s="87"/>
       <c r="I129" s="103"/>
-      <c r="J129" s="114">
+      <c r="J129" s="116">
         <v>43215</v>
       </c>
-      <c r="K129" s="114">
+      <c r="K129" s="116">
         <v>43215</v>
       </c>
       <c r="L129" s="110"/>
@@ -10858,10 +10840,10 @@
       </c>
       <c r="H130" s="87"/>
       <c r="I130" s="103"/>
-      <c r="J130" s="114">
+      <c r="J130" s="116">
         <v>43215</v>
       </c>
-      <c r="K130" s="114">
+      <c r="K130" s="116">
         <v>43216</v>
       </c>
       <c r="L130" s="110"/>
@@ -10896,10 +10878,10 @@
       </c>
       <c r="H131" s="87"/>
       <c r="I131" s="103"/>
-      <c r="J131" s="114">
+      <c r="J131" s="116">
         <v>43217</v>
       </c>
-      <c r="K131" s="114">
+      <c r="K131" s="116">
         <v>43217</v>
       </c>
       <c r="L131" s="112"/>
@@ -11008,8 +10990,8 @@
       </c>
       <c r="H133" s="87"/>
       <c r="I133" s="103"/>
-      <c r="J133" s="119"/>
-      <c r="K133" s="119"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="121"/>
       <c r="L133" s="110"/>
       <c r="U133" s="37"/>
       <c r="V133" s="37"/>
@@ -11058,8 +11040,8 @@
       </c>
       <c r="H134" s="87"/>
       <c r="I134" s="103"/>
-      <c r="J134" s="120"/>
-      <c r="K134" s="120"/>
+      <c r="J134" s="122"/>
+      <c r="K134" s="122"/>
       <c r="L134" s="112"/>
       <c r="AP134" s="72"/>
       <c r="AS134" s="37"/>
@@ -11178,7 +11160,7 @@
         <v>148</v>
       </c>
       <c r="F137" s="92"/>
-      <c r="G137" s="116"/>
+      <c r="G137" s="118"/>
       <c r="H137" s="87"/>
       <c r="I137" s="103"/>
       <c r="J137" s="80"/>
@@ -11226,10 +11208,10 @@
       <c r="J138" s="101">
         <v>43218</v>
       </c>
-      <c r="K138" s="121">
+      <c r="K138" s="123">
         <v>43220</v>
       </c>
-      <c r="L138" s="122" t="s">
+      <c r="L138" s="124" t="s">
         <v>23</v>
       </c>
       <c r="AP138" s="72"/>
@@ -11272,7 +11254,7 @@
       <c r="H139" s="87"/>
       <c r="I139" s="103"/>
       <c r="J139" s="82"/>
-      <c r="K139" s="123"/>
+      <c r="K139" s="125"/>
       <c r="L139" s="110"/>
       <c r="AP139" s="72"/>
       <c r="AS139" s="37"/>
@@ -11314,7 +11296,7 @@
       <c r="H140" s="87"/>
       <c r="I140" s="103"/>
       <c r="J140" s="82"/>
-      <c r="K140" s="123"/>
+      <c r="K140" s="125"/>
       <c r="L140" s="110"/>
       <c r="AP140" s="72"/>
       <c r="AS140" s="37"/>
@@ -11352,120 +11334,120 @@
         <v>111</v>
       </c>
       <c r="F141" s="17"/>
-      <c r="G141" s="116"/>
+      <c r="G141" s="118"/>
       <c r="H141" s="87"/>
-      <c r="I141" s="116"/>
+      <c r="I141" s="118"/>
       <c r="J141" s="80"/>
-      <c r="K141" s="124"/>
+      <c r="K141" s="126"/>
       <c r="L141" s="112"/>
-      <c r="M141" s="125"/>
-      <c r="N141" s="125"/>
-      <c r="O141" s="125"/>
-      <c r="P141" s="126"/>
-      <c r="Q141" s="126"/>
-      <c r="R141" s="126"/>
-      <c r="S141" s="126"/>
-      <c r="T141" s="126"/>
-      <c r="U141" s="125"/>
-      <c r="V141" s="125"/>
-      <c r="W141" s="125"/>
-      <c r="X141" s="125"/>
-      <c r="Y141" s="125"/>
-      <c r="Z141" s="125"/>
-      <c r="AA141" s="125"/>
-      <c r="AB141" s="125"/>
-      <c r="AC141" s="125"/>
-      <c r="AD141" s="125"/>
-      <c r="AE141" s="125"/>
-      <c r="AF141" s="125"/>
-      <c r="AG141" s="125"/>
-      <c r="AH141" s="125"/>
-      <c r="AI141" s="125"/>
-      <c r="AJ141" s="125"/>
-      <c r="AK141" s="125"/>
-      <c r="AL141" s="125"/>
-      <c r="AM141" s="125"/>
-      <c r="AN141" s="125"/>
-      <c r="AO141" s="126"/>
-      <c r="AP141" s="129"/>
-      <c r="AQ141" s="126"/>
-      <c r="AR141" s="125"/>
-      <c r="AS141" s="130"/>
-      <c r="AT141" s="130"/>
-      <c r="AU141" s="130"/>
-      <c r="AV141" s="130"/>
-      <c r="AW141" s="130"/>
-      <c r="AX141" s="130"/>
-      <c r="AY141" s="130"/>
-      <c r="AZ141" s="130"/>
-      <c r="BA141" s="130"/>
-      <c r="BB141" s="130"/>
-      <c r="BC141" s="130"/>
-      <c r="BD141" s="130"/>
-      <c r="BE141" s="130"/>
-      <c r="BF141" s="130"/>
-      <c r="BG141" s="130"/>
-      <c r="BH141" s="130"/>
-      <c r="BI141" s="130"/>
-      <c r="BJ141" s="130"/>
-      <c r="BK141" s="130"/>
-      <c r="BL141" s="130"/>
-      <c r="BM141" s="130"/>
-      <c r="BN141" s="130"/>
-      <c r="BO141" s="130"/>
-      <c r="BP141" s="125"/>
-      <c r="BQ141" s="125"/>
-      <c r="BR141" s="125"/>
-      <c r="BS141" s="125"/>
-      <c r="BT141" s="125"/>
-      <c r="BU141" s="131"/>
-      <c r="BV141" s="125"/>
-      <c r="BW141" s="125"/>
-      <c r="BX141" s="125"/>
-      <c r="BY141" s="125"/>
-      <c r="BZ141" s="125"/>
-      <c r="CA141" s="125"/>
-      <c r="CB141" s="125"/>
-      <c r="CC141" s="125"/>
-      <c r="CD141" s="125"/>
-      <c r="CE141" s="125"/>
-      <c r="CF141" s="125"/>
-      <c r="CG141" s="125"/>
-      <c r="CH141" s="125"/>
-      <c r="CI141" s="125"/>
-      <c r="CJ141" s="125"/>
-      <c r="CK141" s="125"/>
-      <c r="CL141" s="125"/>
-      <c r="CM141" s="125"/>
-      <c r="CN141" s="125"/>
-      <c r="CO141" s="125"/>
-      <c r="CP141" s="125"/>
-      <c r="CQ141" s="125"/>
-      <c r="CR141" s="125"/>
-      <c r="CS141" s="125"/>
-      <c r="CT141" s="125"/>
-      <c r="CU141" s="125"/>
-      <c r="CV141" s="125"/>
-      <c r="CW141" s="125"/>
-      <c r="CX141" s="125"/>
-      <c r="CY141" s="131"/>
+      <c r="M141" s="127"/>
+      <c r="N141" s="127"/>
+      <c r="O141" s="127"/>
+      <c r="P141" s="128"/>
+      <c r="Q141" s="128"/>
+      <c r="R141" s="128"/>
+      <c r="S141" s="128"/>
+      <c r="T141" s="128"/>
+      <c r="U141" s="127"/>
+      <c r="V141" s="127"/>
+      <c r="W141" s="127"/>
+      <c r="X141" s="127"/>
+      <c r="Y141" s="127"/>
+      <c r="Z141" s="127"/>
+      <c r="AA141" s="127"/>
+      <c r="AB141" s="127"/>
+      <c r="AC141" s="127"/>
+      <c r="AD141" s="127"/>
+      <c r="AE141" s="127"/>
+      <c r="AF141" s="127"/>
+      <c r="AG141" s="127"/>
+      <c r="AH141" s="127"/>
+      <c r="AI141" s="127"/>
+      <c r="AJ141" s="127"/>
+      <c r="AK141" s="127"/>
+      <c r="AL141" s="127"/>
+      <c r="AM141" s="127"/>
+      <c r="AN141" s="127"/>
+      <c r="AO141" s="128"/>
+      <c r="AP141" s="131"/>
+      <c r="AQ141" s="128"/>
+      <c r="AR141" s="127"/>
+      <c r="AS141" s="132"/>
+      <c r="AT141" s="132"/>
+      <c r="AU141" s="132"/>
+      <c r="AV141" s="132"/>
+      <c r="AW141" s="132"/>
+      <c r="AX141" s="132"/>
+      <c r="AY141" s="132"/>
+      <c r="AZ141" s="132"/>
+      <c r="BA141" s="132"/>
+      <c r="BB141" s="132"/>
+      <c r="BC141" s="132"/>
+      <c r="BD141" s="132"/>
+      <c r="BE141" s="132"/>
+      <c r="BF141" s="132"/>
+      <c r="BG141" s="132"/>
+      <c r="BH141" s="132"/>
+      <c r="BI141" s="132"/>
+      <c r="BJ141" s="132"/>
+      <c r="BK141" s="132"/>
+      <c r="BL141" s="132"/>
+      <c r="BM141" s="132"/>
+      <c r="BN141" s="132"/>
+      <c r="BO141" s="132"/>
+      <c r="BP141" s="127"/>
+      <c r="BQ141" s="127"/>
+      <c r="BR141" s="127"/>
+      <c r="BS141" s="127"/>
+      <c r="BT141" s="127"/>
+      <c r="BU141" s="133"/>
+      <c r="BV141" s="127"/>
+      <c r="BW141" s="127"/>
+      <c r="BX141" s="127"/>
+      <c r="BY141" s="127"/>
+      <c r="BZ141" s="127"/>
+      <c r="CA141" s="127"/>
+      <c r="CB141" s="127"/>
+      <c r="CC141" s="127"/>
+      <c r="CD141" s="127"/>
+      <c r="CE141" s="127"/>
+      <c r="CF141" s="127"/>
+      <c r="CG141" s="127"/>
+      <c r="CH141" s="127"/>
+      <c r="CI141" s="127"/>
+      <c r="CJ141" s="127"/>
+      <c r="CK141" s="127"/>
+      <c r="CL141" s="127"/>
+      <c r="CM141" s="127"/>
+      <c r="CN141" s="127"/>
+      <c r="CO141" s="127"/>
+      <c r="CP141" s="127"/>
+      <c r="CQ141" s="127"/>
+      <c r="CR141" s="127"/>
+      <c r="CS141" s="127"/>
+      <c r="CT141" s="127"/>
+      <c r="CU141" s="127"/>
+      <c r="CV141" s="127"/>
+      <c r="CW141" s="127"/>
+      <c r="CX141" s="127"/>
+      <c r="CY141" s="133"/>
     </row>
     <row r="144" ht="20.25" spans="1:11">
-      <c r="A144" s="117" t="s">
+      <c r="A144" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="118"/>
-      <c r="C144" s="118"/>
-      <c r="D144" s="118"/>
-      <c r="E144" s="118"/>
-      <c r="F144" s="118"/>
-      <c r="G144" s="118"/>
-      <c r="H144" s="118"/>
-      <c r="I144" s="127"/>
-      <c r="J144" s="128">
+      <c r="B144" s="120"/>
+      <c r="C144" s="120"/>
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="120"/>
+      <c r="G144" s="120"/>
+      <c r="H144" s="120"/>
+      <c r="I144" s="129"/>
+      <c r="J144" s="130">
         <v>43199</v>
       </c>
-      <c r="K144" s="128">
+      <c r="K144" s="130">
         <v>43220</v>
       </c>
     </row>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -512,9 +512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -576,21 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,7 +590,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +634,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +688,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -636,46 +697,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,37 +711,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,13 +782,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,67 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,49 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,6 +1112,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1147,6 +1141,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,66 +1205,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,133 +1227,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1723,10 +1699,10 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5358,7 +5334,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J132" sqref="J132:J134"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132:K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10956,12 +10932,12 @@
       <c r="G132" s="21">
         <v>3.5</v>
       </c>
-      <c r="H132" s="87"/>
+      <c r="H132" s="88"/>
       <c r="I132" s="103"/>
-      <c r="J132" s="101">
+      <c r="J132" s="114">
         <v>43211</v>
       </c>
-      <c r="K132" s="101">
+      <c r="K132" s="114">
         <v>43212</v>
       </c>
       <c r="L132" s="109" t="s">
@@ -11012,7 +10988,7 @@
       <c r="G133" s="21">
         <v>14</v>
       </c>
-      <c r="H133" s="87"/>
+      <c r="H133" s="88"/>
       <c r="I133" s="103"/>
       <c r="J133" s="121"/>
       <c r="K133" s="121"/>
@@ -11062,7 +11038,7 @@
       <c r="G134" s="21">
         <v>14</v>
       </c>
-      <c r="H134" s="87"/>
+      <c r="H134" s="88"/>
       <c r="I134" s="103"/>
       <c r="J134" s="122"/>
       <c r="K134" s="122"/>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -512,10 +512,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -575,13 +575,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -596,10 +627,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,14 +639,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,7 +650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,9 +673,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,34 +695,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,18 +712,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -782,13 +782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,73 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +902,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,11 +1112,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,6 +1186,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1159,66 +1209,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,137 +1227,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,6 +1703,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2202,98 +2205,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="139" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="140" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="140" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="141" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="5" max="6" width="9" style="141"/>
+    <col min="5" max="6" width="9" style="142"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="11" width="16.25" style="140" customWidth="1"/>
-    <col min="12" max="12" width="9" style="142"/>
+    <col min="9" max="11" width="16.25" style="141" customWidth="1"/>
+    <col min="12" max="12" width="9" style="143"/>
     <col min="13" max="13" width="6.625" customWidth="1"/>
     <col min="14" max="43" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="61.5" customHeight="1" spans="1:11">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-    </row>
-    <row r="2" s="134" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
-      <c r="A2" s="144" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" s="135" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+      <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="147" t="s">
+      <c r="K2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="148" t="s">
+      <c r="L2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-    </row>
-    <row r="3" s="135" customFormat="1" spans="1:12">
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="141"/>
+      <c r="AQ2" s="141"/>
+    </row>
+    <row r="3" s="136" customFormat="1" spans="1:12">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2316,13 +2319,13 @@
         <f>SUM(G3:G8)</f>
         <v>66.5</v>
       </c>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="135" customFormat="1" spans="1:13">
+    <row r="4" s="136" customFormat="1" spans="1:13">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -2336,18 +2339,18 @@
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="150">
+      <c r="J4" s="151">
         <v>43217</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="151">
         <v>43222</v>
       </c>
       <c r="L4" s="48"/>
-      <c r="M4" s="135" t="s">
+      <c r="M4" s="136" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="135" customFormat="1" spans="1:12">
+    <row r="5" s="136" customFormat="1" spans="1:12">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -2363,15 +2366,15 @@
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="150">
+      <c r="J5" s="151">
         <v>43223</v>
       </c>
-      <c r="K5" s="150">
+      <c r="K5" s="151">
         <v>43223</v>
       </c>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" s="135" customFormat="1" spans="1:12">
+    <row r="6" s="136" customFormat="1" spans="1:12">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -2385,15 +2388,15 @@
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="150">
+      <c r="J6" s="151">
         <v>43231</v>
       </c>
-      <c r="K6" s="150">
+      <c r="K6" s="151">
         <v>43231</v>
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" s="135" customFormat="1" spans="1:12">
+    <row r="7" s="136" customFormat="1" spans="1:12">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2407,15 +2410,15 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="150">
+      <c r="J7" s="151">
         <v>43227</v>
       </c>
-      <c r="K7" s="150">
+      <c r="K7" s="151">
         <v>43230</v>
       </c>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" s="135" customFormat="1" spans="1:12">
+    <row r="8" s="136" customFormat="1" spans="1:12">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -2429,15 +2432,15 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="150">
+      <c r="J8" s="151">
         <v>43224</v>
       </c>
-      <c r="K8" s="150">
+      <c r="K8" s="151">
         <v>43224</v>
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" s="135" customFormat="1" spans="1:12">
+    <row r="9" s="136" customFormat="1" spans="1:12">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -2460,17 +2463,17 @@
         <f>SUM(G9:G16)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="151">
+      <c r="J9" s="152">
         <v>43206</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="152">
         <v>43206</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="135" customFormat="1" spans="1:12">
+    <row r="10" s="136" customFormat="1" spans="1:12">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -2484,11 +2487,11 @@
         <v>25</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
       <c r="L10" s="53"/>
     </row>
-    <row r="11" s="135" customFormat="1" spans="1:12">
+    <row r="11" s="136" customFormat="1" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -2502,15 +2505,15 @@
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="151">
+      <c r="J11" s="152">
         <v>43207</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="152">
         <v>43207</v>
       </c>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" s="135" customFormat="1" spans="1:12">
+    <row r="12" s="136" customFormat="1" spans="1:12">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -2524,15 +2527,15 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="151">
+      <c r="J12" s="152">
         <v>43206</v>
       </c>
-      <c r="K12" s="151">
+      <c r="K12" s="152">
         <v>43206</v>
       </c>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" s="135" customFormat="1" spans="1:12">
+    <row r="13" s="136" customFormat="1" spans="1:12">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="19" t="s">
@@ -2546,11 +2549,11 @@
         <v>29</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" s="135" customFormat="1" spans="1:12">
+    <row r="14" s="136" customFormat="1" spans="1:12">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
@@ -2564,11 +2567,11 @@
         <v>29</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" s="135" customFormat="1" spans="1:12">
+    <row r="15" s="136" customFormat="1" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="19" t="s">
@@ -2582,11 +2585,11 @@
         <v>29</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
       <c r="L15" s="53"/>
     </row>
-    <row r="16" s="135" customFormat="1" spans="1:12">
+    <row r="16" s="136" customFormat="1" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="19" t="s">
@@ -2600,11 +2603,11 @@
         <v>29</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" s="135" customFormat="1" spans="1:12">
+    <row r="17" s="136" customFormat="1" spans="1:12">
       <c r="A17" s="22">
         <v>3</v>
       </c>
@@ -2622,7 +2625,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" s="135" customFormat="1" spans="1:12">
+    <row r="18" s="136" customFormat="1" spans="1:12">
       <c r="A18" s="20">
         <v>4</v>
       </c>
@@ -2640,7 +2643,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" s="135" customFormat="1" spans="1:12">
+    <row r="19" s="136" customFormat="1" spans="1:12">
       <c r="A19" s="12">
         <v>5</v>
       </c>
@@ -2663,17 +2666,17 @@
         <f>SUM(G19:G70)</f>
         <v>166</v>
       </c>
-      <c r="J19" s="150">
+      <c r="J19" s="151">
         <v>43189</v>
       </c>
-      <c r="K19" s="150">
+      <c r="K19" s="151">
         <v>43189</v>
       </c>
       <c r="L19" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" s="135" customFormat="1" spans="1:12">
+    <row r="20" s="136" customFormat="1" spans="1:12">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
@@ -2689,13 +2692,13 @@
         <v>39</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
       <c r="L20" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="135" customFormat="1" spans="1:12">
+    <row r="21" s="136" customFormat="1" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
@@ -2711,13 +2714,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" s="135" customFormat="1" spans="1:12">
+    <row r="22" s="136" customFormat="1" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="24" t="s">
@@ -2733,13 +2736,13 @@
         <v>13</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
       <c r="L22" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" s="135" customFormat="1" spans="1:12">
+    <row r="23" s="136" customFormat="1" spans="1:12">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="24" t="s">
@@ -2755,13 +2758,13 @@
         <v>39</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
       <c r="L23" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" s="135" customFormat="1" spans="1:12">
+    <row r="24" s="136" customFormat="1" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="25" t="s">
@@ -2777,13 +2780,13 @@
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
       <c r="L24" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="135" customFormat="1" spans="1:12">
+    <row r="25" s="136" customFormat="1" spans="1:12">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="29"/>
@@ -2799,11 +2802,11 @@
         <v>45</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
       <c r="L25" s="53"/>
     </row>
-    <row r="26" s="135" customFormat="1" spans="1:12">
+    <row r="26" s="136" customFormat="1" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="29"/>
@@ -2817,11 +2820,11 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
       <c r="L26" s="53"/>
     </row>
-    <row r="27" s="135" customFormat="1" spans="1:13">
+    <row r="27" s="136" customFormat="1" spans="1:13">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="29"/>
@@ -2835,18 +2838,18 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="156">
+      <c r="J27" s="157">
         <v>43193</v>
       </c>
-      <c r="K27" s="156">
+      <c r="K27" s="157">
         <v>43199</v>
       </c>
       <c r="L27" s="53"/>
-      <c r="M27" s="135" t="s">
+      <c r="M27" s="136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" s="135" customFormat="1" spans="1:12">
+    <row r="28" s="136" customFormat="1" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="29"/>
@@ -2860,11 +2863,11 @@
         <v>29</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="53"/>
     </row>
-    <row r="29" s="135" customFormat="1" spans="1:12">
+    <row r="29" s="136" customFormat="1" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="29"/>
@@ -2878,11 +2881,11 @@
         <v>29</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
       <c r="L29" s="53"/>
     </row>
-    <row r="30" s="135" customFormat="1" spans="1:12">
+    <row r="30" s="136" customFormat="1" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="29"/>
@@ -2896,11 +2899,11 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
       <c r="L30" s="53"/>
     </row>
-    <row r="31" s="135" customFormat="1" spans="1:12">
+    <row r="31" s="136" customFormat="1" spans="1:12">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="25" t="s">
@@ -2916,13 +2919,13 @@
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="L31" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" s="135" customFormat="1" spans="1:12">
+    <row r="32" s="136" customFormat="1" spans="1:12">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="29"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
       <c r="L32" s="53"/>
     </row>
-    <row r="33" s="135" customFormat="1" spans="1:12">
+    <row r="33" s="136" customFormat="1" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="29"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
       <c r="L33" s="53"/>
     </row>
-    <row r="34" s="135" customFormat="1" spans="1:12">
+    <row r="34" s="136" customFormat="1" spans="1:12">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="29"/>
@@ -2972,15 +2975,15 @@
         <v>29</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="156">
+      <c r="J34" s="157">
         <v>43187</v>
       </c>
-      <c r="K34" s="156">
+      <c r="K34" s="157">
         <v>43192</v>
       </c>
       <c r="L34" s="53"/>
     </row>
-    <row r="35" s="135" customFormat="1" spans="1:12">
+    <row r="35" s="136" customFormat="1" spans="1:12">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="29"/>
@@ -2994,11 +2997,11 @@
         <v>29</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
       <c r="L35" s="53"/>
     </row>
-    <row r="36" s="135" customFormat="1" spans="1:12">
+    <row r="36" s="136" customFormat="1" spans="1:12">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="29"/>
@@ -3012,11 +3015,11 @@
         <v>29</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" s="135" customFormat="1" spans="1:12">
+    <row r="37" s="136" customFormat="1" spans="1:12">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="29"/>
@@ -3030,11 +3033,11 @@
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
       <c r="L37" s="53"/>
     </row>
-    <row r="38" s="135" customFormat="1" spans="1:12">
+    <row r="38" s="136" customFormat="1" spans="1:12">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="29"/>
@@ -3048,11 +3051,11 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
       <c r="L38" s="54"/>
     </row>
-    <row r="39" s="135" customFormat="1" spans="1:12">
+    <row r="39" s="136" customFormat="1" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
@@ -3068,13 +3071,13 @@
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
       <c r="L39" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" s="135" customFormat="1" spans="1:12">
+    <row r="40" s="136" customFormat="1" spans="1:12">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -3086,11 +3089,11 @@
       <c r="G40" s="32"/>
       <c r="H40" s="14"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
       <c r="L40" s="65"/>
     </row>
-    <row r="41" s="135" customFormat="1" spans="1:12">
+    <row r="41" s="136" customFormat="1" spans="1:12">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -3102,11 +3105,11 @@
       <c r="G41" s="32"/>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
       <c r="L41" s="65"/>
     </row>
-    <row r="42" s="135" customFormat="1" spans="1:12">
+    <row r="42" s="136" customFormat="1" spans="1:12">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -3118,15 +3121,15 @@
       <c r="G42" s="32"/>
       <c r="H42" s="14"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="156">
+      <c r="J42" s="157">
         <v>43192</v>
       </c>
-      <c r="K42" s="156">
+      <c r="K42" s="157">
         <v>43193</v>
       </c>
       <c r="L42" s="65"/>
     </row>
-    <row r="43" s="135" customFormat="1" spans="1:12">
+    <row r="43" s="136" customFormat="1" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -3138,11 +3141,11 @@
       <c r="G43" s="32"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
       <c r="L43" s="65"/>
     </row>
-    <row r="44" s="135" customFormat="1" spans="1:12">
+    <row r="44" s="136" customFormat="1" spans="1:12">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -3154,11 +3157,11 @@
       <c r="G44" s="32"/>
       <c r="H44" s="14"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="155"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
       <c r="L44" s="65"/>
     </row>
-    <row r="45" s="135" customFormat="1" spans="1:12">
+    <row r="45" s="136" customFormat="1" spans="1:12">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -3170,11 +3173,11 @@
       <c r="G45" s="33"/>
       <c r="H45" s="14"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
       <c r="L45" s="68"/>
     </row>
-    <row r="46" s="135" customFormat="1" spans="1:12">
+    <row r="46" s="136" customFormat="1" spans="1:12">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13" t="s">
@@ -3188,17 +3191,17 @@
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="156">
+      <c r="J46" s="157">
         <v>43199</v>
       </c>
-      <c r="K46" s="156">
+      <c r="K46" s="157">
         <v>43199</v>
       </c>
       <c r="L46" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" s="135" customFormat="1" spans="1:13">
+    <row r="47" s="136" customFormat="1" spans="1:13">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="24" t="s">
@@ -3212,20 +3215,20 @@
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="150">
+      <c r="J47" s="151">
         <v>43193</v>
       </c>
-      <c r="K47" s="150">
+      <c r="K47" s="151">
         <v>43200</v>
       </c>
       <c r="L47" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="135" t="s">
+      <c r="M47" s="136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" s="135" customFormat="1" spans="1:12">
+    <row r="48" s="136" customFormat="1" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13" t="s">
@@ -3239,17 +3242,17 @@
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="156">
+      <c r="J48" s="157">
         <v>43200</v>
       </c>
-      <c r="K48" s="156">
+      <c r="K48" s="157">
         <v>43200</v>
       </c>
       <c r="L48" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" s="135" customFormat="1" spans="1:12">
+    <row r="49" s="136" customFormat="1" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
@@ -3265,13 +3268,13 @@
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
       <c r="L49" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" s="135" customFormat="1" spans="1:12">
+    <row r="50" s="136" customFormat="1" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -3283,11 +3286,11 @@
       <c r="G50" s="32"/>
       <c r="H50" s="14"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
       <c r="L50" s="65"/>
     </row>
-    <row r="51" s="135" customFormat="1" spans="1:12">
+    <row r="51" s="136" customFormat="1" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -3299,11 +3302,11 @@
       <c r="G51" s="32"/>
       <c r="H51" s="14"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="155"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
       <c r="L51" s="65"/>
     </row>
-    <row r="52" s="135" customFormat="1" spans="1:12">
+    <row r="52" s="136" customFormat="1" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -3315,11 +3318,11 @@
       <c r="G52" s="32"/>
       <c r="H52" s="14"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
       <c r="L52" s="65"/>
     </row>
-    <row r="53" s="135" customFormat="1" spans="1:12">
+    <row r="53" s="136" customFormat="1" spans="1:12">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -3331,15 +3334,15 @@
       <c r="G53" s="32"/>
       <c r="H53" s="14"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="150">
+      <c r="J53" s="151">
         <v>43200</v>
       </c>
-      <c r="K53" s="150">
+      <c r="K53" s="151">
         <v>43203</v>
       </c>
       <c r="L53" s="65"/>
     </row>
-    <row r="54" s="135" customFormat="1" spans="1:12">
+    <row r="54" s="136" customFormat="1" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -3351,11 +3354,11 @@
       <c r="G54" s="32"/>
       <c r="H54" s="14"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="155"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
       <c r="L54" s="65"/>
     </row>
-    <row r="55" s="135" customFormat="1" spans="1:12">
+    <row r="55" s="136" customFormat="1" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -3367,11 +3370,11 @@
       <c r="G55" s="32"/>
       <c r="H55" s="14"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="155"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" s="135" customFormat="1" spans="1:12">
+    <row r="56" s="136" customFormat="1" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -3383,11 +3386,11 @@
       <c r="G56" s="32"/>
       <c r="H56" s="14"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" s="135" customFormat="1" spans="1:12">
+    <row r="57" s="136" customFormat="1" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -3399,11 +3402,11 @@
       <c r="G57" s="33"/>
       <c r="H57" s="14"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
+      <c r="J57" s="158"/>
+      <c r="K57" s="158"/>
       <c r="L57" s="68"/>
     </row>
-    <row r="58" s="135" customFormat="1" spans="1:12">
+    <row r="58" s="136" customFormat="1" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
@@ -3417,17 +3420,17 @@
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="150">
+      <c r="J58" s="151">
         <v>43200</v>
       </c>
-      <c r="K58" s="150">
+      <c r="K58" s="151">
         <v>43200</v>
       </c>
       <c r="L58" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" s="135" customFormat="1" spans="1:12">
+    <row r="59" s="136" customFormat="1" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13" t="s">
@@ -3441,17 +3444,17 @@
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="150">
+      <c r="J59" s="151">
         <v>43206</v>
       </c>
-      <c r="K59" s="150">
+      <c r="K59" s="151">
         <v>43206</v>
       </c>
       <c r="L59" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" s="135" customFormat="1" spans="1:12">
+    <row r="60" s="136" customFormat="1" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
@@ -3465,17 +3468,17 @@
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="150">
+      <c r="J60" s="151">
         <v>43203</v>
       </c>
-      <c r="K60" s="150">
+      <c r="K60" s="151">
         <v>43203</v>
       </c>
       <c r="L60" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" s="135" customFormat="1" spans="1:12">
+    <row r="61" s="136" customFormat="1" spans="1:12">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
@@ -3489,17 +3492,17 @@
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="150">
+      <c r="J61" s="151">
         <v>43208</v>
       </c>
-      <c r="K61" s="150">
+      <c r="K61" s="151">
         <v>43208</v>
       </c>
       <c r="L61" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" s="135" customFormat="1" spans="1:12">
+    <row r="62" s="136" customFormat="1" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13" t="s">
@@ -3513,17 +3516,17 @@
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="150">
+      <c r="J62" s="151">
         <v>43207</v>
       </c>
-      <c r="K62" s="150">
+      <c r="K62" s="151">
         <v>43207</v>
       </c>
       <c r="L62" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" s="135" customFormat="1" spans="1:12">
+    <row r="63" s="136" customFormat="1" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13" t="s">
@@ -3537,17 +3540,17 @@
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="150">
+      <c r="J63" s="151">
         <v>43201</v>
       </c>
-      <c r="K63" s="150">
+      <c r="K63" s="151">
         <v>43201</v>
       </c>
       <c r="L63" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" s="135" customFormat="1" spans="1:12">
+    <row r="64" s="136" customFormat="1" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13" t="s">
@@ -3561,17 +3564,17 @@
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="150">
+      <c r="J64" s="151">
         <v>43201</v>
       </c>
-      <c r="K64" s="150">
+      <c r="K64" s="151">
         <v>43201</v>
       </c>
       <c r="L64" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" s="135" customFormat="1" spans="1:12">
+    <row r="65" s="136" customFormat="1" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13" t="s">
@@ -3585,17 +3588,17 @@
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="150">
+      <c r="J65" s="151">
         <v>43208</v>
       </c>
-      <c r="K65" s="150">
+      <c r="K65" s="151">
         <v>43208</v>
       </c>
       <c r="L65" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" s="135" customFormat="1" spans="1:12">
+    <row r="66" s="136" customFormat="1" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13" t="s">
@@ -3609,17 +3612,17 @@
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="150">
+      <c r="J66" s="151">
         <v>43209</v>
       </c>
-      <c r="K66" s="150">
+      <c r="K66" s="151">
         <v>43209</v>
       </c>
       <c r="L66" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" s="135" customFormat="1" spans="1:12">
+    <row r="67" s="136" customFormat="1" spans="1:12">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13" t="s">
@@ -3633,17 +3636,17 @@
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="150">
+      <c r="J67" s="151">
         <v>43213</v>
       </c>
-      <c r="K67" s="150">
+      <c r="K67" s="151">
         <v>43215</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" s="135" customFormat="1" spans="1:12">
+    <row r="68" s="136" customFormat="1" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="13" t="s">
@@ -3659,17 +3662,17 @@
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="158">
+      <c r="J68" s="159">
         <v>43210</v>
       </c>
-      <c r="K68" s="158">
+      <c r="K68" s="159">
         <v>43210</v>
       </c>
       <c r="L68" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" s="135" customFormat="1" spans="1:12">
+    <row r="69" s="136" customFormat="1" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -3681,11 +3684,11 @@
       <c r="G69" s="32"/>
       <c r="H69" s="14"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
       <c r="L69" s="65"/>
     </row>
-    <row r="70" s="135" customFormat="1" spans="1:12">
+    <row r="70" s="136" customFormat="1" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -3697,11 +3700,11 @@
       <c r="G70" s="33"/>
       <c r="H70" s="14"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="159"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" s="135" customFormat="1" spans="1:12">
+    <row r="71" s="136" customFormat="1" spans="1:12">
       <c r="A71" s="16">
         <v>6</v>
       </c>
@@ -3724,13 +3727,13 @@
         <f>SUM(G71:G87)</f>
         <v>21</v>
       </c>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
+      <c r="J71" s="150"/>
+      <c r="K71" s="150"/>
       <c r="L71" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" s="135" customFormat="1" spans="1:12">
+    <row r="72" s="136" customFormat="1" spans="1:12">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17" t="s">
@@ -3748,13 +3751,13 @@
         <v>13</v>
       </c>
       <c r="I72" s="16"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
+      <c r="J72" s="161"/>
+      <c r="K72" s="161"/>
       <c r="L72" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" s="135" customFormat="1" spans="1:12">
+    <row r="73" s="136" customFormat="1" spans="1:12">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -3766,11 +3769,11 @@
       <c r="G73" s="80"/>
       <c r="H73" s="81"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="161"/>
-      <c r="K73" s="161"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
       <c r="L73" s="68"/>
     </row>
-    <row r="74" s="135" customFormat="1" spans="1:12">
+    <row r="74" s="136" customFormat="1" spans="1:12">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
@@ -3786,13 +3789,13 @@
         <v>13</v>
       </c>
       <c r="I74" s="16"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="149"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
       <c r="L74" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" s="135" customFormat="1" spans="1:12">
+    <row r="75" s="136" customFormat="1" spans="1:12">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
@@ -3808,13 +3811,13 @@
         <v>13</v>
       </c>
       <c r="I75" s="16"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="149"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="150"/>
       <c r="L75" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" s="135" customFormat="1" spans="1:12">
+    <row r="76" s="136" customFormat="1" spans="1:12">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
@@ -3830,13 +3833,13 @@
         <v>13</v>
       </c>
       <c r="I76" s="16"/>
-      <c r="J76" s="149"/>
-      <c r="K76" s="149"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="150"/>
       <c r="L76" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" s="135" customFormat="1" spans="1:12">
+    <row r="77" s="136" customFormat="1" spans="1:12">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17" t="s">
@@ -3854,13 +3857,13 @@
         <v>95</v>
       </c>
       <c r="I77" s="16"/>
-      <c r="J77" s="160"/>
-      <c r="K77" s="160"/>
+      <c r="J77" s="161"/>
+      <c r="K77" s="161"/>
       <c r="L77" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" s="135" customFormat="1" spans="1:12">
+    <row r="78" s="136" customFormat="1" spans="1:12">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
@@ -3872,11 +3875,11 @@
       <c r="G78" s="82"/>
       <c r="H78" s="83"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="162"/>
-      <c r="K78" s="162"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
       <c r="L78" s="65"/>
     </row>
-    <row r="79" s="135" customFormat="1" spans="1:12">
+    <row r="79" s="136" customFormat="1" spans="1:12">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -3888,11 +3891,11 @@
       <c r="G79" s="82"/>
       <c r="H79" s="83"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="162"/>
-      <c r="K79" s="162"/>
+      <c r="J79" s="163"/>
+      <c r="K79" s="163"/>
       <c r="L79" s="65"/>
     </row>
-    <row r="80" s="135" customFormat="1" spans="1:12">
+    <row r="80" s="136" customFormat="1" spans="1:12">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -3904,11 +3907,11 @@
       <c r="G80" s="80"/>
       <c r="H80" s="81"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="161"/>
-      <c r="K80" s="161"/>
+      <c r="J80" s="162"/>
+      <c r="K80" s="162"/>
       <c r="L80" s="68"/>
     </row>
-    <row r="81" s="135" customFormat="1" spans="1:12">
+    <row r="81" s="136" customFormat="1" spans="1:12">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="17" t="s">
@@ -3924,13 +3927,13 @@
         <v>13</v>
       </c>
       <c r="I81" s="16"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="149"/>
+      <c r="J81" s="150"/>
+      <c r="K81" s="150"/>
       <c r="L81" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" s="135" customFormat="1" spans="1:12">
+    <row r="82" s="136" customFormat="1" spans="1:12">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17" t="s">
@@ -3946,13 +3949,13 @@
         <v>13</v>
       </c>
       <c r="I82" s="16"/>
-      <c r="J82" s="149"/>
-      <c r="K82" s="149"/>
+      <c r="J82" s="150"/>
+      <c r="K82" s="150"/>
       <c r="L82" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" s="135" customFormat="1" spans="1:12">
+    <row r="83" s="136" customFormat="1" spans="1:12">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17" t="s">
@@ -3968,13 +3971,13 @@
         <v>13</v>
       </c>
       <c r="I83" s="16"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="149"/>
+      <c r="J83" s="150"/>
+      <c r="K83" s="150"/>
       <c r="L83" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" s="135" customFormat="1" spans="1:12">
+    <row r="84" s="136" customFormat="1" spans="1:12">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17" t="s">
@@ -3988,11 +3991,11 @@
         <v>29</v>
       </c>
       <c r="I84" s="16"/>
-      <c r="J84" s="163"/>
-      <c r="K84" s="163"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="164"/>
       <c r="L84" s="56"/>
     </row>
-    <row r="85" s="135" customFormat="1" spans="1:12">
+    <row r="85" s="136" customFormat="1" spans="1:12">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17" t="s">
@@ -4006,17 +4009,17 @@
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="150">
+      <c r="J85" s="151">
         <v>43202</v>
       </c>
-      <c r="K85" s="150">
+      <c r="K85" s="151">
         <v>43202</v>
       </c>
       <c r="L85" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" s="135" customFormat="1" spans="1:12">
+    <row r="86" s="136" customFormat="1" spans="1:12">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17" t="s">
@@ -4030,17 +4033,17 @@
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="150">
+      <c r="J86" s="151">
         <v>43202</v>
       </c>
-      <c r="K86" s="150">
+      <c r="K86" s="151">
         <v>43202</v>
       </c>
       <c r="L86" s="99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" s="135" customFormat="1" spans="1:12">
+    <row r="87" s="136" customFormat="1" spans="1:12">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17" t="s">
@@ -4054,8 +4057,8 @@
         <v>29</v>
       </c>
       <c r="I87" s="16"/>
-      <c r="J87" s="163"/>
-      <c r="K87" s="163"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="164"/>
       <c r="L87" s="56"/>
     </row>
     <row r="88" s="75" customFormat="1" spans="1:12">
@@ -4081,10 +4084,10 @@
         <f>SUM(G88:G90)</f>
         <v>7</v>
       </c>
-      <c r="J88" s="150">
+      <c r="J88" s="151">
         <v>43203</v>
       </c>
-      <c r="K88" s="150">
+      <c r="K88" s="151">
         <v>43203</v>
       </c>
       <c r="L88" s="51" t="s">
@@ -4105,10 +4108,10 @@
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="150">
+      <c r="J89" s="151">
         <v>43203</v>
       </c>
-      <c r="K89" s="150">
+      <c r="K89" s="151">
         <v>43203</v>
       </c>
       <c r="L89" s="53"/>
@@ -4127,11 +4130,11 @@
         <v>29</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="157"/>
-      <c r="K90" s="157"/>
+      <c r="J90" s="158"/>
+      <c r="K90" s="158"/>
       <c r="L90" s="54"/>
     </row>
-    <row r="91" s="136" customFormat="1" spans="1:12">
+    <row r="91" s="137" customFormat="1" spans="1:12">
       <c r="A91" s="16">
         <v>8</v>
       </c>
@@ -4154,9 +4157,9 @@
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="87"/>
-      <c r="L91" s="164"/>
-    </row>
-    <row r="92" s="137" customFormat="1" spans="1:12">
+      <c r="L91" s="165"/>
+    </row>
+    <row r="92" s="138" customFormat="1" spans="1:12">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -4170,9 +4173,9 @@
       <c r="I92" s="103"/>
       <c r="J92" s="87"/>
       <c r="K92" s="87"/>
-      <c r="L92" s="164"/>
-    </row>
-    <row r="93" s="137" customFormat="1" spans="1:12">
+      <c r="L92" s="165"/>
+    </row>
+    <row r="93" s="138" customFormat="1" spans="1:12">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
@@ -4186,9 +4189,9 @@
       <c r="I93" s="103"/>
       <c r="J93" s="87"/>
       <c r="K93" s="87"/>
-      <c r="L93" s="164"/>
-    </row>
-    <row r="94" s="137" customFormat="1" spans="1:12">
+      <c r="L93" s="165"/>
+    </row>
+    <row r="94" s="138" customFormat="1" spans="1:12">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -4202,9 +4205,9 @@
       <c r="I94" s="103"/>
       <c r="J94" s="87"/>
       <c r="K94" s="87"/>
-      <c r="L94" s="164"/>
-    </row>
-    <row r="95" s="137" customFormat="1" spans="1:12">
+      <c r="L94" s="165"/>
+    </row>
+    <row r="95" s="138" customFormat="1" spans="1:12">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -4218,9 +4221,9 @@
       <c r="I95" s="103"/>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
-      <c r="L95" s="164"/>
-    </row>
-    <row r="96" s="137" customFormat="1" spans="1:12">
+      <c r="L95" s="165"/>
+    </row>
+    <row r="96" s="138" customFormat="1" spans="1:12">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17" t="s">
@@ -4234,9 +4237,9 @@
       <c r="I96" s="103"/>
       <c r="J96" s="87"/>
       <c r="K96" s="87"/>
-      <c r="L96" s="164"/>
-    </row>
-    <row r="97" s="138" customFormat="1" spans="1:12">
+      <c r="L96" s="165"/>
+    </row>
+    <row r="97" s="139" customFormat="1" spans="1:12">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17" t="s">
@@ -4248,11 +4251,11 @@
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="103"/>
-      <c r="J97" s="165"/>
-      <c r="K97" s="165"/>
+      <c r="J97" s="166"/>
+      <c r="K97" s="166"/>
       <c r="L97" s="92"/>
     </row>
-    <row r="98" s="137" customFormat="1" spans="1:12">
+    <row r="98" s="138" customFormat="1" spans="1:12">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17" t="s">
@@ -4266,9 +4269,9 @@
       <c r="I98" s="103"/>
       <c r="J98" s="87"/>
       <c r="K98" s="87"/>
-      <c r="L98" s="164"/>
-    </row>
-    <row r="99" s="137" customFormat="1" spans="1:12">
+      <c r="L98" s="165"/>
+    </row>
+    <row r="99" s="138" customFormat="1" spans="1:12">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="17" t="s">
@@ -4284,9 +4287,9 @@
       <c r="I99" s="103"/>
       <c r="J99" s="87"/>
       <c r="K99" s="87"/>
-      <c r="L99" s="164"/>
-    </row>
-    <row r="100" s="137" customFormat="1" spans="1:12">
+      <c r="L99" s="165"/>
+    </row>
+    <row r="100" s="138" customFormat="1" spans="1:12">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
@@ -4300,9 +4303,9 @@
       <c r="I100" s="103"/>
       <c r="J100" s="87"/>
       <c r="K100" s="87"/>
-      <c r="L100" s="164"/>
-    </row>
-    <row r="101" s="137" customFormat="1" spans="1:12">
+      <c r="L100" s="165"/>
+    </row>
+    <row r="101" s="138" customFormat="1" spans="1:12">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -4316,9 +4319,9 @@
       <c r="I101" s="103"/>
       <c r="J101" s="87"/>
       <c r="K101" s="87"/>
-      <c r="L101" s="164"/>
-    </row>
-    <row r="102" s="137" customFormat="1" spans="1:12">
+      <c r="L101" s="165"/>
+    </row>
+    <row r="102" s="138" customFormat="1" spans="1:12">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
@@ -4332,9 +4335,9 @@
       <c r="I102" s="103"/>
       <c r="J102" s="87"/>
       <c r="K102" s="87"/>
-      <c r="L102" s="164"/>
-    </row>
-    <row r="103" s="137" customFormat="1" spans="1:12">
+      <c r="L102" s="165"/>
+    </row>
+    <row r="103" s="138" customFormat="1" spans="1:12">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -4348,9 +4351,9 @@
       <c r="I103" s="103"/>
       <c r="J103" s="87"/>
       <c r="K103" s="87"/>
-      <c r="L103" s="164"/>
-    </row>
-    <row r="104" s="137" customFormat="1" spans="1:12">
+      <c r="L103" s="165"/>
+    </row>
+    <row r="104" s="138" customFormat="1" spans="1:12">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -4364,9 +4367,9 @@
       <c r="I104" s="103"/>
       <c r="J104" s="87"/>
       <c r="K104" s="87"/>
-      <c r="L104" s="164"/>
-    </row>
-    <row r="105" s="137" customFormat="1" spans="1:12">
+      <c r="L104" s="165"/>
+    </row>
+    <row r="105" s="138" customFormat="1" spans="1:12">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17" t="s">
@@ -4380,9 +4383,9 @@
       <c r="I105" s="103"/>
       <c r="J105" s="87"/>
       <c r="K105" s="87"/>
-      <c r="L105" s="164"/>
-    </row>
-    <row r="106" s="137" customFormat="1" spans="1:12">
+      <c r="L105" s="165"/>
+    </row>
+    <row r="106" s="138" customFormat="1" spans="1:12">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17" t="s">
@@ -4396,9 +4399,9 @@
       <c r="I106" s="103"/>
       <c r="J106" s="87"/>
       <c r="K106" s="87"/>
-      <c r="L106" s="164"/>
-    </row>
-    <row r="107" s="137" customFormat="1" spans="1:12">
+      <c r="L106" s="165"/>
+    </row>
+    <row r="107" s="138" customFormat="1" spans="1:12">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17" t="s">
@@ -4414,9 +4417,9 @@
       <c r="I107" s="103"/>
       <c r="J107" s="87"/>
       <c r="K107" s="87"/>
-      <c r="L107" s="164"/>
-    </row>
-    <row r="108" s="137" customFormat="1" spans="1:12">
+      <c r="L107" s="165"/>
+    </row>
+    <row r="108" s="138" customFormat="1" spans="1:12">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="17"/>
@@ -4430,9 +4433,9 @@
       <c r="I108" s="103"/>
       <c r="J108" s="87"/>
       <c r="K108" s="87"/>
-      <c r="L108" s="164"/>
-    </row>
-    <row r="109" s="137" customFormat="1" spans="1:12">
+      <c r="L108" s="165"/>
+    </row>
+    <row r="109" s="138" customFormat="1" spans="1:12">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="17" t="s">
@@ -4448,9 +4451,9 @@
       <c r="I109" s="103"/>
       <c r="J109" s="87"/>
       <c r="K109" s="87"/>
-      <c r="L109" s="164"/>
-    </row>
-    <row r="110" s="137" customFormat="1" spans="1:12">
+      <c r="L109" s="165"/>
+    </row>
+    <row r="110" s="138" customFormat="1" spans="1:12">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="17"/>
@@ -4464,9 +4467,9 @@
       <c r="I110" s="103"/>
       <c r="J110" s="87"/>
       <c r="K110" s="87"/>
-      <c r="L110" s="164"/>
-    </row>
-    <row r="111" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L110" s="165"/>
+    </row>
+    <row r="111" s="138" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -4480,9 +4483,9 @@
       <c r="I111" s="103"/>
       <c r="J111" s="87"/>
       <c r="K111" s="87"/>
-      <c r="L111" s="164"/>
-    </row>
-    <row r="112" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L111" s="165"/>
+    </row>
+    <row r="112" s="138" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="17"/>
@@ -4496,9 +4499,9 @@
       <c r="I112" s="103"/>
       <c r="J112" s="87"/>
       <c r="K112" s="87"/>
-      <c r="L112" s="164"/>
-    </row>
-    <row r="113" s="137" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L112" s="165"/>
+    </row>
+    <row r="113" s="138" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="17"/>
@@ -4512,9 +4515,9 @@
       <c r="I113" s="103"/>
       <c r="J113" s="87"/>
       <c r="K113" s="87"/>
-      <c r="L113" s="164"/>
-    </row>
-    <row r="114" s="137" customFormat="1" ht="13.9" customHeight="1" spans="1:12">
+      <c r="L113" s="165"/>
+    </row>
+    <row r="114" s="138" customFormat="1" ht="13.9" customHeight="1" spans="1:12">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
@@ -4528,9 +4531,9 @@
       <c r="I114" s="103"/>
       <c r="J114" s="87"/>
       <c r="K114" s="87"/>
-      <c r="L114" s="164"/>
-    </row>
-    <row r="115" s="137" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="L114" s="165"/>
+    </row>
+    <row r="115" s="138" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="17"/>
@@ -4544,9 +4547,9 @@
       <c r="I115" s="103"/>
       <c r="J115" s="87"/>
       <c r="K115" s="87"/>
-      <c r="L115" s="164"/>
-    </row>
-    <row r="116" s="137" customFormat="1" ht="31.9" customHeight="1" spans="1:12">
+      <c r="L115" s="165"/>
+    </row>
+    <row r="116" s="138" customFormat="1" ht="31.9" customHeight="1" spans="1:12">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="17"/>
@@ -4560,9 +4563,9 @@
       <c r="I116" s="103"/>
       <c r="J116" s="87"/>
       <c r="K116" s="87"/>
-      <c r="L116" s="164"/>
-    </row>
-    <row r="117" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L116" s="165"/>
+    </row>
+    <row r="117" s="138" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="17"/>
@@ -4576,9 +4579,9 @@
       <c r="I117" s="103"/>
       <c r="J117" s="87"/>
       <c r="K117" s="87"/>
-      <c r="L117" s="164"/>
-    </row>
-    <row r="118" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L117" s="165"/>
+    </row>
+    <row r="118" s="138" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="17"/>
@@ -4592,9 +4595,9 @@
       <c r="I118" s="103"/>
       <c r="J118" s="87"/>
       <c r="K118" s="87"/>
-      <c r="L118" s="164"/>
-    </row>
-    <row r="119" s="137" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="L118" s="165"/>
+    </row>
+    <row r="119" s="138" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="17"/>
@@ -4608,9 +4611,9 @@
       <c r="I119" s="103"/>
       <c r="J119" s="87"/>
       <c r="K119" s="87"/>
-      <c r="L119" s="164"/>
-    </row>
-    <row r="120" s="137" customFormat="1" ht="27" customHeight="1" spans="1:12">
+      <c r="L119" s="165"/>
+    </row>
+    <row r="120" s="138" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17"/>
@@ -4624,9 +4627,9 @@
       <c r="I120" s="103"/>
       <c r="J120" s="87"/>
       <c r="K120" s="87"/>
-      <c r="L120" s="164"/>
-    </row>
-    <row r="121" s="137" customFormat="1" ht="49.15" customHeight="1" spans="1:12">
+      <c r="L120" s="165"/>
+    </row>
+    <row r="121" s="138" customFormat="1" ht="49.15" customHeight="1" spans="1:12">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -4640,9 +4643,9 @@
       <c r="I121" s="103"/>
       <c r="J121" s="87"/>
       <c r="K121" s="87"/>
-      <c r="L121" s="164"/>
-    </row>
-    <row r="122" s="137" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
+      <c r="L121" s="165"/>
+    </row>
+    <row r="122" s="138" customFormat="1" ht="16.15" customHeight="1" spans="1:12">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="17"/>
@@ -4656,9 +4659,9 @@
       <c r="I122" s="103"/>
       <c r="J122" s="87"/>
       <c r="K122" s="87"/>
-      <c r="L122" s="164"/>
-    </row>
-    <row r="123" s="137" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="L122" s="165"/>
+    </row>
+    <row r="123" s="138" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="17"/>
@@ -4672,9 +4675,9 @@
       <c r="I123" s="103"/>
       <c r="J123" s="87"/>
       <c r="K123" s="87"/>
-      <c r="L123" s="164"/>
-    </row>
-    <row r="124" s="137" customFormat="1" spans="1:12">
+      <c r="L123" s="165"/>
+    </row>
+    <row r="124" s="138" customFormat="1" spans="1:12">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="17" t="s">
@@ -4690,9 +4693,9 @@
       <c r="I124" s="103"/>
       <c r="J124" s="87"/>
       <c r="K124" s="87"/>
-      <c r="L124" s="164"/>
-    </row>
-    <row r="125" s="137" customFormat="1" spans="1:12">
+      <c r="L124" s="165"/>
+    </row>
+    <row r="125" s="138" customFormat="1" spans="1:12">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="17"/>
@@ -4706,9 +4709,9 @@
       <c r="I125" s="103"/>
       <c r="J125" s="87"/>
       <c r="K125" s="87"/>
-      <c r="L125" s="164"/>
-    </row>
-    <row r="126" s="137" customFormat="1" spans="1:12">
+      <c r="L125" s="165"/>
+    </row>
+    <row r="126" s="138" customFormat="1" spans="1:12">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="17" t="s">
@@ -4724,9 +4727,9 @@
       <c r="I126" s="103"/>
       <c r="J126" s="87"/>
       <c r="K126" s="87"/>
-      <c r="L126" s="164"/>
-    </row>
-    <row r="127" s="137" customFormat="1" spans="1:12">
+      <c r="L126" s="165"/>
+    </row>
+    <row r="127" s="138" customFormat="1" spans="1:12">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="17"/>
@@ -4740,9 +4743,9 @@
       <c r="I127" s="103"/>
       <c r="J127" s="87"/>
       <c r="K127" s="87"/>
-      <c r="L127" s="164"/>
-    </row>
-    <row r="128" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L127" s="165"/>
+    </row>
+    <row r="128" s="138" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="17"/>
@@ -4756,9 +4759,9 @@
       <c r="I128" s="103"/>
       <c r="J128" s="87"/>
       <c r="K128" s="87"/>
-      <c r="L128" s="164"/>
-    </row>
-    <row r="129" s="137" customFormat="1" spans="1:12">
+      <c r="L128" s="165"/>
+    </row>
+    <row r="129" s="138" customFormat="1" spans="1:12">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="17"/>
@@ -4772,9 +4775,9 @@
       <c r="I129" s="103"/>
       <c r="J129" s="87"/>
       <c r="K129" s="87"/>
-      <c r="L129" s="164"/>
-    </row>
-    <row r="130" s="137" customFormat="1" spans="1:12">
+      <c r="L129" s="165"/>
+    </row>
+    <row r="130" s="138" customFormat="1" spans="1:12">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="17" t="s">
@@ -4790,9 +4793,9 @@
       <c r="I130" s="103"/>
       <c r="J130" s="87"/>
       <c r="K130" s="87"/>
-      <c r="L130" s="164"/>
-    </row>
-    <row r="131" s="137" customFormat="1" spans="1:12">
+      <c r="L130" s="165"/>
+    </row>
+    <row r="131" s="138" customFormat="1" spans="1:12">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="17"/>
@@ -4806,9 +4809,9 @@
       <c r="I131" s="103"/>
       <c r="J131" s="87"/>
       <c r="K131" s="87"/>
-      <c r="L131" s="164"/>
-    </row>
-    <row r="132" s="137" customFormat="1" spans="1:12">
+      <c r="L131" s="165"/>
+    </row>
+    <row r="132" s="138" customFormat="1" spans="1:12">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="17"/>
@@ -4822,9 +4825,9 @@
       <c r="I132" s="103"/>
       <c r="J132" s="87"/>
       <c r="K132" s="87"/>
-      <c r="L132" s="164"/>
-    </row>
-    <row r="133" s="137" customFormat="1" spans="1:12">
+      <c r="L132" s="165"/>
+    </row>
+    <row r="133" s="138" customFormat="1" spans="1:12">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="17" t="s">
@@ -4840,9 +4843,9 @@
       <c r="I133" s="103"/>
       <c r="J133" s="87"/>
       <c r="K133" s="87"/>
-      <c r="L133" s="164"/>
-    </row>
-    <row r="134" s="137" customFormat="1" spans="1:12">
+      <c r="L133" s="165"/>
+    </row>
+    <row r="134" s="138" customFormat="1" spans="1:12">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="17"/>
@@ -4856,9 +4859,9 @@
       <c r="I134" s="103"/>
       <c r="J134" s="87"/>
       <c r="K134" s="87"/>
-      <c r="L134" s="164"/>
-    </row>
-    <row r="135" s="137" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
+      <c r="L134" s="165"/>
+    </row>
+    <row r="135" s="138" customFormat="1" ht="28.15" customHeight="1" spans="1:12">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="17"/>
@@ -4872,9 +4875,9 @@
       <c r="I135" s="103"/>
       <c r="J135" s="87"/>
       <c r="K135" s="87"/>
-      <c r="L135" s="164"/>
-    </row>
-    <row r="136" s="137" customFormat="1" spans="1:12">
+      <c r="L135" s="165"/>
+    </row>
+    <row r="136" s="138" customFormat="1" spans="1:12">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="17" t="s">
@@ -4890,9 +4893,9 @@
       <c r="I136" s="103"/>
       <c r="J136" s="87"/>
       <c r="K136" s="87"/>
-      <c r="L136" s="164"/>
-    </row>
-    <row r="137" s="137" customFormat="1" spans="1:12">
+      <c r="L136" s="165"/>
+    </row>
+    <row r="137" s="138" customFormat="1" spans="1:12">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="17"/>
@@ -4906,9 +4909,9 @@
       <c r="I137" s="103"/>
       <c r="J137" s="87"/>
       <c r="K137" s="87"/>
-      <c r="L137" s="164"/>
-    </row>
-    <row r="138" s="137" customFormat="1" spans="1:12">
+      <c r="L137" s="165"/>
+    </row>
+    <row r="138" s="138" customFormat="1" spans="1:12">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="17"/>
@@ -4922,9 +4925,9 @@
       <c r="I138" s="103"/>
       <c r="J138" s="87"/>
       <c r="K138" s="87"/>
-      <c r="L138" s="164"/>
-    </row>
-    <row r="139" s="137" customFormat="1" spans="1:12">
+      <c r="L138" s="165"/>
+    </row>
+    <row r="139" s="138" customFormat="1" spans="1:12">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="17"/>
@@ -4938,135 +4941,135 @@
       <c r="I139" s="118"/>
       <c r="J139" s="87"/>
       <c r="K139" s="87"/>
-      <c r="L139" s="164"/>
-    </row>
-    <row r="140" s="137" customFormat="1" spans="1:12">
-      <c r="A140" s="166"/>
-      <c r="B140" s="166"/>
-      <c r="C140" s="166"/>
-      <c r="D140" s="166"/>
-      <c r="E140" s="166"/>
-      <c r="F140" s="166"/>
-      <c r="G140" s="167"/>
-      <c r="L140" s="172"/>
-    </row>
-    <row r="141" s="137" customFormat="1" spans="1:12">
-      <c r="A141" s="166"/>
-      <c r="B141" s="166"/>
-      <c r="C141" s="166"/>
-      <c r="D141" s="166"/>
-      <c r="E141" s="166"/>
-      <c r="F141" s="166"/>
-      <c r="G141" s="167"/>
-      <c r="L141" s="172"/>
-    </row>
-    <row r="142" s="137" customFormat="1" spans="1:12">
-      <c r="A142" s="166"/>
-      <c r="B142" s="166"/>
-      <c r="C142" s="166"/>
-      <c r="D142" s="166"/>
-      <c r="E142" s="166"/>
-      <c r="F142" s="166"/>
-      <c r="G142" s="167"/>
-      <c r="L142" s="172"/>
-    </row>
-    <row r="143" s="137" customFormat="1" spans="1:12">
-      <c r="A143" s="166"/>
-      <c r="B143" s="166"/>
-      <c r="C143" s="166"/>
-      <c r="D143" s="166"/>
-      <c r="E143" s="166"/>
-      <c r="F143" s="166"/>
-      <c r="G143" s="167"/>
-      <c r="L143" s="172"/>
-    </row>
-    <row r="144" s="137" customFormat="1" spans="1:12">
-      <c r="A144" s="166"/>
-      <c r="B144" s="166"/>
-      <c r="C144" s="166"/>
-      <c r="D144" s="166"/>
-      <c r="E144" s="166"/>
-      <c r="F144" s="166"/>
-      <c r="G144" s="167"/>
-      <c r="L144" s="172"/>
-    </row>
-    <row r="145" s="137" customFormat="1" spans="1:12">
-      <c r="A145" s="166"/>
-      <c r="B145" s="166"/>
-      <c r="C145" s="166"/>
-      <c r="D145" s="166"/>
-      <c r="E145" s="166"/>
-      <c r="F145" s="166"/>
-      <c r="G145" s="167"/>
-      <c r="L145" s="172"/>
-    </row>
-    <row r="146" s="137" customFormat="1" spans="1:12">
-      <c r="A146" s="166"/>
-      <c r="B146" s="166"/>
-      <c r="C146" s="166"/>
-      <c r="D146" s="166"/>
-      <c r="E146" s="166"/>
-      <c r="F146" s="166"/>
-      <c r="G146" s="167"/>
-      <c r="L146" s="172"/>
-    </row>
-    <row r="147" s="137" customFormat="1" spans="1:12">
-      <c r="A147" s="166"/>
-      <c r="B147" s="166"/>
-      <c r="C147" s="166"/>
-      <c r="D147" s="166"/>
-      <c r="E147" s="166"/>
-      <c r="F147" s="166"/>
-      <c r="G147" s="167"/>
-      <c r="L147" s="172"/>
+      <c r="L139" s="165"/>
+    </row>
+    <row r="140" s="138" customFormat="1" spans="1:12">
+      <c r="A140" s="167"/>
+      <c r="B140" s="167"/>
+      <c r="C140" s="167"/>
+      <c r="D140" s="167"/>
+      <c r="E140" s="167"/>
+      <c r="F140" s="167"/>
+      <c r="G140" s="168"/>
+      <c r="L140" s="173"/>
+    </row>
+    <row r="141" s="138" customFormat="1" spans="1:12">
+      <c r="A141" s="167"/>
+      <c r="B141" s="167"/>
+      <c r="C141" s="167"/>
+      <c r="D141" s="167"/>
+      <c r="E141" s="167"/>
+      <c r="F141" s="167"/>
+      <c r="G141" s="168"/>
+      <c r="L141" s="173"/>
+    </row>
+    <row r="142" s="138" customFormat="1" spans="1:12">
+      <c r="A142" s="167"/>
+      <c r="B142" s="167"/>
+      <c r="C142" s="167"/>
+      <c r="D142" s="167"/>
+      <c r="E142" s="167"/>
+      <c r="F142" s="167"/>
+      <c r="G142" s="168"/>
+      <c r="L142" s="173"/>
+    </row>
+    <row r="143" s="138" customFormat="1" spans="1:12">
+      <c r="A143" s="167"/>
+      <c r="B143" s="167"/>
+      <c r="C143" s="167"/>
+      <c r="D143" s="167"/>
+      <c r="E143" s="167"/>
+      <c r="F143" s="167"/>
+      <c r="G143" s="168"/>
+      <c r="L143" s="173"/>
+    </row>
+    <row r="144" s="138" customFormat="1" spans="1:12">
+      <c r="A144" s="167"/>
+      <c r="B144" s="167"/>
+      <c r="C144" s="167"/>
+      <c r="D144" s="167"/>
+      <c r="E144" s="167"/>
+      <c r="F144" s="167"/>
+      <c r="G144" s="168"/>
+      <c r="L144" s="173"/>
+    </row>
+    <row r="145" s="138" customFormat="1" spans="1:12">
+      <c r="A145" s="167"/>
+      <c r="B145" s="167"/>
+      <c r="C145" s="167"/>
+      <c r="D145" s="167"/>
+      <c r="E145" s="167"/>
+      <c r="F145" s="167"/>
+      <c r="G145" s="168"/>
+      <c r="L145" s="173"/>
+    </row>
+    <row r="146" s="138" customFormat="1" spans="1:12">
+      <c r="A146" s="167"/>
+      <c r="B146" s="167"/>
+      <c r="C146" s="167"/>
+      <c r="D146" s="167"/>
+      <c r="E146" s="167"/>
+      <c r="F146" s="167"/>
+      <c r="G146" s="168"/>
+      <c r="L146" s="173"/>
+    </row>
+    <row r="147" s="138" customFormat="1" spans="1:12">
+      <c r="A147" s="167"/>
+      <c r="B147" s="167"/>
+      <c r="C147" s="167"/>
+      <c r="D147" s="167"/>
+      <c r="E147" s="167"/>
+      <c r="F147" s="167"/>
+      <c r="G147" s="168"/>
+      <c r="L147" s="173"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="139"/>
-      <c r="D148" s="139"/>
+      <c r="C148" s="140"/>
+      <c r="D148" s="140"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="168"/>
-      <c r="B151" s="136"/>
-      <c r="C151" s="135"/>
+      <c r="A151" s="169"/>
+      <c r="B151" s="137"/>
+      <c r="C151" s="136"/>
     </row>
     <row r="152" s="37" customFormat="1" spans="1:12">
-      <c r="A152" s="136"/>
-      <c r="B152" s="136"/>
-      <c r="C152" s="136"/>
-      <c r="D152" s="136"/>
-      <c r="E152" s="136"/>
-      <c r="F152" s="136"/>
-      <c r="G152" s="136"/>
-      <c r="H152" s="136"/>
-      <c r="I152" s="136"/>
-      <c r="J152" s="137"/>
-      <c r="K152" s="137"/>
-      <c r="L152" s="172"/>
+      <c r="A152" s="137"/>
+      <c r="B152" s="137"/>
+      <c r="C152" s="137"/>
+      <c r="D152" s="137"/>
+      <c r="E152" s="137"/>
+      <c r="F152" s="137"/>
+      <c r="G152" s="137"/>
+      <c r="H152" s="137"/>
+      <c r="I152" s="137"/>
+      <c r="J152" s="138"/>
+      <c r="K152" s="138"/>
+      <c r="L152" s="173"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="136"/>
-      <c r="B153" s="169"/>
-      <c r="C153" s="170"/>
-      <c r="D153" s="169"/>
-      <c r="E153" s="169"/>
-      <c r="F153" s="169"/>
-      <c r="G153" s="169"/>
-      <c r="H153" s="169"/>
-      <c r="I153" s="169"/>
-      <c r="J153" s="173"/>
-      <c r="K153" s="173"/>
+      <c r="A153" s="137"/>
+      <c r="B153" s="170"/>
+      <c r="C153" s="171"/>
+      <c r="D153" s="170"/>
+      <c r="E153" s="170"/>
+      <c r="F153" s="170"/>
+      <c r="G153" s="170"/>
+      <c r="H153" s="170"/>
+      <c r="I153" s="170"/>
+      <c r="J153" s="174"/>
+      <c r="K153" s="174"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="168"/>
-      <c r="B154" s="136"/>
-      <c r="C154" s="136"/>
+      <c r="A154" s="169"/>
+      <c r="B154" s="137"/>
+      <c r="C154" s="137"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="171"/>
-      <c r="B155" s="136"/>
-      <c r="C155" s="136"/>
-      <c r="D155" s="140"/>
-      <c r="E155" s="140"/>
+      <c r="A155" s="172"/>
+      <c r="B155" s="137"/>
+      <c r="C155" s="137"/>
+      <c r="D155" s="141"/>
+      <c r="E155" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="246">
@@ -5332,9 +5335,9 @@
   <dimension ref="A1:CY144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J132" sqref="J132:K134"/>
+      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11079,12 +11082,12 @@
       <c r="G135" s="100">
         <v>10.5</v>
       </c>
-      <c r="H135" s="87"/>
+      <c r="H135" s="88"/>
       <c r="I135" s="103"/>
-      <c r="J135" s="101">
+      <c r="J135" s="114">
         <v>43205</v>
       </c>
-      <c r="K135" s="101">
+      <c r="K135" s="114">
         <v>43205</v>
       </c>
       <c r="L135" s="109" t="s">
@@ -11123,10 +11126,10 @@
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="103"/>
-      <c r="H136" s="87"/>
+      <c r="H136" s="88"/>
       <c r="I136" s="103"/>
-      <c r="J136" s="82"/>
-      <c r="K136" s="82"/>
+      <c r="J136" s="123"/>
+      <c r="K136" s="123"/>
       <c r="L136" s="110"/>
       <c r="AP136" s="72"/>
       <c r="AS136" s="37"/>
@@ -11161,10 +11164,10 @@
       </c>
       <c r="F137" s="92"/>
       <c r="G137" s="118"/>
-      <c r="H137" s="87"/>
+      <c r="H137" s="88"/>
       <c r="I137" s="103"/>
-      <c r="J137" s="80"/>
-      <c r="K137" s="80"/>
+      <c r="J137" s="115"/>
+      <c r="K137" s="115"/>
       <c r="L137" s="112"/>
       <c r="AP137" s="72"/>
       <c r="AS137" s="37"/>
@@ -11208,10 +11211,10 @@
       <c r="J138" s="101">
         <v>43218</v>
       </c>
-      <c r="K138" s="123">
+      <c r="K138" s="124">
         <v>43220</v>
       </c>
-      <c r="L138" s="124" t="s">
+      <c r="L138" s="125" t="s">
         <v>23</v>
       </c>
       <c r="AP138" s="72"/>
@@ -11254,7 +11257,7 @@
       <c r="H139" s="87"/>
       <c r="I139" s="103"/>
       <c r="J139" s="82"/>
-      <c r="K139" s="125"/>
+      <c r="K139" s="126"/>
       <c r="L139" s="110"/>
       <c r="AP139" s="72"/>
       <c r="AS139" s="37"/>
@@ -11296,7 +11299,7 @@
       <c r="H140" s="87"/>
       <c r="I140" s="103"/>
       <c r="J140" s="82"/>
-      <c r="K140" s="125"/>
+      <c r="K140" s="126"/>
       <c r="L140" s="110"/>
       <c r="AP140" s="72"/>
       <c r="AS140" s="37"/>
@@ -11338,99 +11341,99 @@
       <c r="H141" s="87"/>
       <c r="I141" s="118"/>
       <c r="J141" s="80"/>
-      <c r="K141" s="126"/>
+      <c r="K141" s="127"/>
       <c r="L141" s="112"/>
-      <c r="M141" s="127"/>
-      <c r="N141" s="127"/>
-      <c r="O141" s="127"/>
-      <c r="P141" s="128"/>
-      <c r="Q141" s="128"/>
-      <c r="R141" s="128"/>
-      <c r="S141" s="128"/>
-      <c r="T141" s="128"/>
-      <c r="U141" s="127"/>
-      <c r="V141" s="127"/>
-      <c r="W141" s="127"/>
-      <c r="X141" s="127"/>
-      <c r="Y141" s="127"/>
-      <c r="Z141" s="127"/>
-      <c r="AA141" s="127"/>
-      <c r="AB141" s="127"/>
-      <c r="AC141" s="127"/>
-      <c r="AD141" s="127"/>
-      <c r="AE141" s="127"/>
-      <c r="AF141" s="127"/>
-      <c r="AG141" s="127"/>
-      <c r="AH141" s="127"/>
-      <c r="AI141" s="127"/>
-      <c r="AJ141" s="127"/>
-      <c r="AK141" s="127"/>
-      <c r="AL141" s="127"/>
-      <c r="AM141" s="127"/>
-      <c r="AN141" s="127"/>
-      <c r="AO141" s="128"/>
-      <c r="AP141" s="131"/>
-      <c r="AQ141" s="128"/>
-      <c r="AR141" s="127"/>
-      <c r="AS141" s="132"/>
-      <c r="AT141" s="132"/>
-      <c r="AU141" s="132"/>
-      <c r="AV141" s="132"/>
-      <c r="AW141" s="132"/>
-      <c r="AX141" s="132"/>
-      <c r="AY141" s="132"/>
-      <c r="AZ141" s="132"/>
-      <c r="BA141" s="132"/>
-      <c r="BB141" s="132"/>
-      <c r="BC141" s="132"/>
-      <c r="BD141" s="132"/>
-      <c r="BE141" s="132"/>
-      <c r="BF141" s="132"/>
-      <c r="BG141" s="132"/>
-      <c r="BH141" s="132"/>
-      <c r="BI141" s="132"/>
-      <c r="BJ141" s="132"/>
-      <c r="BK141" s="132"/>
-      <c r="BL141" s="132"/>
-      <c r="BM141" s="132"/>
-      <c r="BN141" s="132"/>
-      <c r="BO141" s="132"/>
-      <c r="BP141" s="127"/>
-      <c r="BQ141" s="127"/>
-      <c r="BR141" s="127"/>
-      <c r="BS141" s="127"/>
-      <c r="BT141" s="127"/>
-      <c r="BU141" s="133"/>
-      <c r="BV141" s="127"/>
-      <c r="BW141" s="127"/>
-      <c r="BX141" s="127"/>
-      <c r="BY141" s="127"/>
-      <c r="BZ141" s="127"/>
-      <c r="CA141" s="127"/>
-      <c r="CB141" s="127"/>
-      <c r="CC141" s="127"/>
-      <c r="CD141" s="127"/>
-      <c r="CE141" s="127"/>
-      <c r="CF141" s="127"/>
-      <c r="CG141" s="127"/>
-      <c r="CH141" s="127"/>
-      <c r="CI141" s="127"/>
-      <c r="CJ141" s="127"/>
-      <c r="CK141" s="127"/>
-      <c r="CL141" s="127"/>
-      <c r="CM141" s="127"/>
-      <c r="CN141" s="127"/>
-      <c r="CO141" s="127"/>
-      <c r="CP141" s="127"/>
-      <c r="CQ141" s="127"/>
-      <c r="CR141" s="127"/>
-      <c r="CS141" s="127"/>
-      <c r="CT141" s="127"/>
-      <c r="CU141" s="127"/>
-      <c r="CV141" s="127"/>
-      <c r="CW141" s="127"/>
-      <c r="CX141" s="127"/>
-      <c r="CY141" s="133"/>
+      <c r="M141" s="128"/>
+      <c r="N141" s="128"/>
+      <c r="O141" s="128"/>
+      <c r="P141" s="129"/>
+      <c r="Q141" s="129"/>
+      <c r="R141" s="129"/>
+      <c r="S141" s="129"/>
+      <c r="T141" s="129"/>
+      <c r="U141" s="128"/>
+      <c r="V141" s="128"/>
+      <c r="W141" s="128"/>
+      <c r="X141" s="128"/>
+      <c r="Y141" s="128"/>
+      <c r="Z141" s="128"/>
+      <c r="AA141" s="128"/>
+      <c r="AB141" s="128"/>
+      <c r="AC141" s="128"/>
+      <c r="AD141" s="128"/>
+      <c r="AE141" s="128"/>
+      <c r="AF141" s="128"/>
+      <c r="AG141" s="128"/>
+      <c r="AH141" s="128"/>
+      <c r="AI141" s="128"/>
+      <c r="AJ141" s="128"/>
+      <c r="AK141" s="128"/>
+      <c r="AL141" s="128"/>
+      <c r="AM141" s="128"/>
+      <c r="AN141" s="128"/>
+      <c r="AO141" s="129"/>
+      <c r="AP141" s="132"/>
+      <c r="AQ141" s="129"/>
+      <c r="AR141" s="128"/>
+      <c r="AS141" s="133"/>
+      <c r="AT141" s="133"/>
+      <c r="AU141" s="133"/>
+      <c r="AV141" s="133"/>
+      <c r="AW141" s="133"/>
+      <c r="AX141" s="133"/>
+      <c r="AY141" s="133"/>
+      <c r="AZ141" s="133"/>
+      <c r="BA141" s="133"/>
+      <c r="BB141" s="133"/>
+      <c r="BC141" s="133"/>
+      <c r="BD141" s="133"/>
+      <c r="BE141" s="133"/>
+      <c r="BF141" s="133"/>
+      <c r="BG141" s="133"/>
+      <c r="BH141" s="133"/>
+      <c r="BI141" s="133"/>
+      <c r="BJ141" s="133"/>
+      <c r="BK141" s="133"/>
+      <c r="BL141" s="133"/>
+      <c r="BM141" s="133"/>
+      <c r="BN141" s="133"/>
+      <c r="BO141" s="133"/>
+      <c r="BP141" s="128"/>
+      <c r="BQ141" s="128"/>
+      <c r="BR141" s="128"/>
+      <c r="BS141" s="128"/>
+      <c r="BT141" s="128"/>
+      <c r="BU141" s="134"/>
+      <c r="BV141" s="128"/>
+      <c r="BW141" s="128"/>
+      <c r="BX141" s="128"/>
+      <c r="BY141" s="128"/>
+      <c r="BZ141" s="128"/>
+      <c r="CA141" s="128"/>
+      <c r="CB141" s="128"/>
+      <c r="CC141" s="128"/>
+      <c r="CD141" s="128"/>
+      <c r="CE141" s="128"/>
+      <c r="CF141" s="128"/>
+      <c r="CG141" s="128"/>
+      <c r="CH141" s="128"/>
+      <c r="CI141" s="128"/>
+      <c r="CJ141" s="128"/>
+      <c r="CK141" s="128"/>
+      <c r="CL141" s="128"/>
+      <c r="CM141" s="128"/>
+      <c r="CN141" s="128"/>
+      <c r="CO141" s="128"/>
+      <c r="CP141" s="128"/>
+      <c r="CQ141" s="128"/>
+      <c r="CR141" s="128"/>
+      <c r="CS141" s="128"/>
+      <c r="CT141" s="128"/>
+      <c r="CU141" s="128"/>
+      <c r="CV141" s="128"/>
+      <c r="CW141" s="128"/>
+      <c r="CX141" s="128"/>
+      <c r="CY141" s="134"/>
     </row>
     <row r="144" ht="20.25" spans="1:11">
       <c r="A144" s="119" t="s">
@@ -11443,11 +11446,11 @@
       <c r="F144" s="120"/>
       <c r="G144" s="120"/>
       <c r="H144" s="120"/>
-      <c r="I144" s="129"/>
-      <c r="J144" s="130">
+      <c r="I144" s="130"/>
+      <c r="J144" s="131">
         <v>43199</v>
       </c>
-      <c r="K144" s="130">
+      <c r="K144" s="131">
         <v>43220</v>
       </c>
     </row>

--- a/进销存系统前端工时预估2018-4-8.xlsx
+++ b/进销存系统前端工时预估2018-4-8.xlsx
@@ -514,8 +514,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -575,75 +575,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,9 +596,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +642,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -712,10 +712,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -782,7 +782,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +824,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,13 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,19 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,67 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,21 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1153,20 +1138,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,7 +1164,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,16 +1183,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,19 +1227,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,112 +1248,112 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,16 +1708,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -5335,9 +5335,9 @@
   <dimension ref="A1:CY144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11206,9 +11206,9 @@
       <c r="G138" s="100">
         <v>21</v>
       </c>
-      <c r="H138" s="87"/>
+      <c r="H138" s="88"/>
       <c r="I138" s="103"/>
-      <c r="J138" s="101">
+      <c r="J138" s="114">
         <v>43218</v>
       </c>
       <c r="K138" s="124">
@@ -11254,9 +11254,9 @@
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="103"/>
-      <c r="H139" s="87"/>
+      <c r="H139" s="88"/>
       <c r="I139" s="103"/>
-      <c r="J139" s="82"/>
+      <c r="J139" s="123"/>
       <c r="K139" s="126"/>
       <c r="L139" s="110"/>
       <c r="AP139" s="72"/>
@@ -11296,9 +11296,9 @@
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="103"/>
-      <c r="H140" s="87"/>
+      <c r="H140" s="88"/>
       <c r="I140" s="103"/>
-      <c r="J140" s="82"/>
+      <c r="J140" s="123"/>
       <c r="K140" s="126"/>
       <c r="L140" s="110"/>
       <c r="AP140" s="72"/>
@@ -11338,9 +11338,9 @@
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="118"/>
-      <c r="H141" s="87"/>
+      <c r="H141" s="88"/>
       <c r="I141" s="118"/>
-      <c r="J141" s="80"/>
+      <c r="J141" s="115"/>
       <c r="K141" s="127"/>
       <c r="L141" s="112"/>
       <c r="M141" s="128"/>
